--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
@@ -464,20 +464,20 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>11508</v>
+        <v>18305</v>
       </c>
       <c r="K2" t="n">
-        <v>19546</v>
+        <v>53618</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0312</v>
+        <v>0.0852</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,16 +487,16 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15:31:12</t>
+          <t>17:18:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>14</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>1577.999992666665</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>57540</v>
+        <v>36610</v>
       </c>
       <c r="K3" t="n">
-        <v>100522</v>
+        <v>110682</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1297</v>
+        <v>1.3782</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,28 +538,28 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>3202</v>
+        <v>1659.5</v>
       </c>
       <c r="J4" t="n">
-        <v>351288</v>
+        <v>73220</v>
       </c>
       <c r="K4" t="n">
-        <v>466643</v>
+        <v>224873</v>
       </c>
       <c r="L4" t="n">
-        <v>1.9582</v>
+        <v>11.8307</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -589,28 +589,28 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -619,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="J5" t="n">
-        <v>29274</v>
+        <v>45696</v>
       </c>
       <c r="K5" t="n">
-        <v>37158</v>
+        <v>109671</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0469</v>
+        <v>0.5595</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
@@ -658,10 +658,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -670,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="J6" t="n">
-        <v>117096</v>
+        <v>22848</v>
       </c>
       <c r="K6" t="n">
-        <v>154821</v>
+        <v>53440</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2622</v>
+        <v>0.0919</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -691,16 +691,16 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>17:02:40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -721,19 +721,19 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="J7" t="n">
-        <v>5754</v>
+        <v>38178</v>
       </c>
       <c r="K7" t="n">
-        <v>9648</v>
+        <v>58116</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0107</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -742,19 +742,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12:29:58</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -772,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>182</v>
+        <v>1578</v>
       </c>
       <c r="J8" t="n">
-        <v>13216</v>
+        <v>52500</v>
       </c>
       <c r="K8" t="n">
-        <v>22836</v>
+        <v>92122</v>
       </c>
       <c r="L8" t="n">
-        <v>0.038</v>
+        <v>6.5428</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -793,16 +793,16 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13:28:19</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>14</v>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>370</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J9" t="n">
-        <v>34524</v>
+        <v>57540</v>
       </c>
       <c r="K9" t="n">
-        <v>60034</v>
+        <v>100522</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1695</v>
+        <v>2.1297</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,28 +844,28 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -874,19 +874,19 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>124</v>
+        <v>3202</v>
       </c>
       <c r="J10" t="n">
-        <v>26432</v>
+        <v>351288</v>
       </c>
       <c r="K10" t="n">
-        <v>46258</v>
+        <v>466643</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1099</v>
+        <v>1.9582</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -895,25 +895,25 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>09:41:48</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -925,47 +925,49 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>22932</v>
+        <v>29274</v>
       </c>
       <c r="K11" t="n">
-        <v>39122</v>
+        <v>37158</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0608</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>15:56:32</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>28</v>
-      </c>
       <c r="D12" t="n">
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -974,38 +976,40 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J12" t="n">
-        <v>52668</v>
+        <v>117096</v>
       </c>
       <c r="K12" t="n">
-        <v>91282</v>
+        <v>154821</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9</v>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>15:56:25</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
@@ -1014,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1023,38 +1027,40 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="J13" t="n">
-        <v>114660</v>
+        <v>34524</v>
       </c>
       <c r="K13" t="n">
-        <v>195602</v>
+        <v>60034</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -1063,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1072,16 +1078,16 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>1566</v>
+        <v>160</v>
       </c>
       <c r="J14" t="n">
-        <v>28665</v>
+        <v>52668</v>
       </c>
       <c r="K14" t="n">
-        <v>47867</v>
+        <v>91282</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0945</v>
+        <v>0.1491</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
@@ -1091,19 +1097,19 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12:20:31</t>
+          <t>15:56:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
@@ -1112,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1121,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="J15" t="n">
-        <v>30429</v>
+        <v>114660</v>
       </c>
       <c r="K15" t="n">
-        <v>28721</v>
+        <v>195602</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1367</v>
+        <v>0.3841</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
@@ -1140,16 +1146,16 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
@@ -1161,25 +1167,25 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J16" t="n">
-        <v>10143</v>
+        <v>30429</v>
       </c>
       <c r="K16" t="n">
-        <v>9575</v>
+        <v>28721</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0359</v>
+        <v>0.1367</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
@@ -1189,19 +1195,19 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1210,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1219,16 +1225,16 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>81144</v>
+        <v>10143</v>
       </c>
       <c r="K17" t="n">
-        <v>77690</v>
+        <v>9575</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3027</v>
+        <v>0.0359</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
@@ -1238,16 +1244,16 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
         <v>14</v>
@@ -1259,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1268,16 +1274,16 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J18" t="n">
-        <v>60858</v>
+        <v>81144</v>
       </c>
       <c r="K18" t="n">
-        <v>58151</v>
+        <v>77690</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2167</v>
+        <v>0.3027</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -1287,16 +1293,16 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>14</v>
@@ -1308,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1317,16 +1323,16 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J19" t="n">
-        <v>46914</v>
+        <v>60858</v>
       </c>
       <c r="K19" t="n">
-        <v>45229</v>
+        <v>58151</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1723</v>
+        <v>0.2167</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
@@ -1336,19 +1342,19 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
         <v>15</v>
@@ -1366,16 +1372,16 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J20" t="n">
-        <v>70371</v>
+        <v>46914</v>
       </c>
       <c r="K20" t="n">
-        <v>68161</v>
+        <v>45229</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2664</v>
+        <v>0.1723</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1385,19 +1391,19 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
@@ -1406,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1415,16 +1421,16 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J21" t="n">
-        <v>20286</v>
+        <v>70371</v>
       </c>
       <c r="K21" t="n">
-        <v>19385</v>
+        <v>68161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0702</v>
+        <v>0.2664</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1434,16 +1440,16 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>14</v>
@@ -1455,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1464,38 +1470,38 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>1194</v>
+        <v>40</v>
       </c>
       <c r="J22" t="n">
-        <v>101430</v>
+        <v>20286</v>
       </c>
       <c r="K22" t="n">
-        <v>97112</v>
+        <v>19385</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5688</v>
+        <v>0.0702</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
         <v>15</v>
@@ -1513,16 +1519,16 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>124</v>
+        <v>1194</v>
       </c>
       <c r="J23" t="n">
-        <v>50715</v>
+        <v>101430</v>
       </c>
       <c r="K23" t="n">
-        <v>47867</v>
+        <v>97112</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2266</v>
+        <v>0.5688</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -1532,19 +1538,19 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -1562,16 +1568,16 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>7950</v>
+        <v>124</v>
       </c>
       <c r="J24" t="n">
-        <v>202860</v>
+        <v>50715</v>
       </c>
       <c r="K24" t="n">
-        <v>195602</v>
+        <v>47867</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3571</v>
+        <v>0.2266</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
@@ -1581,25 +1587,25 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
@@ -1611,16 +1617,16 @@
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>41720</v>
+        <v>7950</v>
       </c>
       <c r="J25" t="n">
-        <v>1173690</v>
+        <v>202860</v>
       </c>
       <c r="K25" t="n">
-        <v>1149317</v>
+        <v>195602</v>
       </c>
       <c r="L25" t="n">
-        <v>19.0623</v>
+        <v>1.3571</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -1630,25 +1636,25 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="n">
         <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
@@ -1660,16 +1666,16 @@
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>124</v>
+        <v>41720</v>
       </c>
       <c r="J26" t="n">
-        <v>23415</v>
+        <v>1173690</v>
       </c>
       <c r="K26" t="n">
-        <v>21917</v>
+        <v>1149317</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0978</v>
+        <v>19.0623</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1679,16 +1685,16 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -1700,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -1709,16 +1715,16 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="J27" t="n">
-        <v>14049</v>
+        <v>23415</v>
       </c>
       <c r="K27" t="n">
-        <v>13151</v>
+        <v>21917</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06</v>
+        <v>0.0978</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1728,16 +1734,16 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
         <v>7</v>
@@ -1749,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1758,16 +1764,16 @@
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J28" t="n">
-        <v>10787</v>
+        <v>14049</v>
       </c>
       <c r="K28" t="n">
-        <v>10229</v>
+        <v>13151</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0394</v>
+        <v>0.06</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
@@ -1777,16 +1783,16 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>7</v>
@@ -1798,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1810,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>4683</v>
+        <v>10787</v>
       </c>
       <c r="K29" t="n">
-        <v>4385</v>
+        <v>10229</v>
       </c>
       <c r="L29" t="n">
-        <v>0.013</v>
+        <v>0.0394</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
@@ -1826,19 +1832,19 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
@@ -1856,16 +1862,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>14049</v>
+        <v>4683</v>
       </c>
       <c r="K30" t="n">
-        <v>13373</v>
+        <v>4385</v>
       </c>
       <c r="L30" t="n">
-        <v>0.058</v>
+        <v>0.013</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -1875,16 +1881,16 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>21</v>
@@ -1896,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -1905,16 +1911,16 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="J31" t="n">
-        <v>42147</v>
+        <v>14049</v>
       </c>
       <c r="K31" t="n">
-        <v>40115</v>
+        <v>13373</v>
       </c>
       <c r="L31" t="n">
-        <v>0.253</v>
+        <v>0.058</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -1924,28 +1930,28 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>6</v>
@@ -1954,38 +1960,38 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>41</v>
+        <v>932</v>
       </c>
       <c r="J32" t="n">
-        <v>988547</v>
+        <v>42147</v>
       </c>
       <c r="K32" t="n">
-        <v>951134</v>
+        <v>40115</v>
       </c>
       <c r="L32" t="n">
-        <v>4.1745</v>
+        <v>0.253</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" t="n">
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>100</v>
@@ -2003,16 +2009,16 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>54920</v>
+        <v>41</v>
       </c>
       <c r="J33" t="n">
-        <v>6919829</v>
+        <v>988547</v>
       </c>
       <c r="K33" t="n">
-        <v>6861710</v>
+        <v>951134</v>
       </c>
       <c r="L33" t="n">
-        <v>183.2784</v>
+        <v>4.1745</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
@@ -2022,19 +2028,19 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D34" t="n">
         <v>100</v>
@@ -2043,7 +2049,7 @@
         <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2052,16 +2058,16 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>1053</v>
+        <v>54920</v>
       </c>
       <c r="J34" t="n">
-        <v>424263</v>
+        <v>6919829</v>
       </c>
       <c r="K34" t="n">
-        <v>407630</v>
+        <v>6861710</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5868</v>
+        <v>183.2784</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2071,19 +2077,19 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>100</v>
@@ -2101,16 +2107,16 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>205171</v>
+        <v>1053</v>
       </c>
       <c r="J35" t="n">
-        <v>2596356</v>
+        <v>424263</v>
       </c>
       <c r="K35" t="n">
-        <v>5051654</v>
+        <v>407630</v>
       </c>
       <c r="L35" t="n">
-        <v>12.0275</v>
+        <v>1.5868</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2120,19 +2126,19 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D36" t="n">
         <v>100</v>
@@ -2150,16 +2156,16 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>12200</v>
+        <v>205171</v>
       </c>
       <c r="J36" t="n">
-        <v>865452</v>
+        <v>2596356</v>
       </c>
       <c r="K36" t="n">
-        <v>1674182</v>
+        <v>5051654</v>
       </c>
       <c r="L36" t="n">
-        <v>2.4971</v>
+        <v>12.0275</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2169,13 +2175,13 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -2184,10 +2190,10 @@
         <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2199,16 +2205,16 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>2519</v>
+        <v>12200</v>
       </c>
       <c r="J37" t="n">
-        <v>11172</v>
+        <v>865452</v>
       </c>
       <c r="K37" t="n">
-        <v>17867</v>
+        <v>1674182</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0343</v>
+        <v>2.4971</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2218,19 +2224,19 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -2248,16 +2254,16 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>2788</v>
+        <v>2519</v>
       </c>
       <c r="J38" t="n">
-        <v>13167</v>
+        <v>11172</v>
       </c>
       <c r="K38" t="n">
-        <v>21077</v>
+        <v>17867</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0473</v>
+        <v>0.0343</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2267,19 +2273,19 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
@@ -2297,16 +2303,16 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>2272</v>
+        <v>2788</v>
       </c>
       <c r="J39" t="n">
-        <v>9177</v>
+        <v>13167</v>
       </c>
       <c r="K39" t="n">
-        <v>14657</v>
+        <v>21077</v>
       </c>
       <c r="L39" t="n">
-        <v>0.027</v>
+        <v>0.0473</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2316,19 +2322,19 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -2346,16 +2352,16 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>2191</v>
+        <v>2272</v>
       </c>
       <c r="J40" t="n">
-        <v>5187</v>
+        <v>9177</v>
       </c>
       <c r="K40" t="n">
-        <v>8237</v>
+        <v>14657</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0143</v>
+        <v>0.027</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2365,19 +2371,19 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2395,16 +2401,16 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>171</v>
+        <v>2191</v>
       </c>
       <c r="J41" t="n">
-        <v>1197</v>
+        <v>5187</v>
       </c>
       <c r="K41" t="n">
-        <v>1817</v>
+        <v>8237</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0024</v>
+        <v>0.0143</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2414,16 +2420,16 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>3</v>
@@ -2444,32 +2450,32 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="J42" t="n">
-        <v>858</v>
+        <v>1197</v>
       </c>
       <c r="K42" t="n">
-        <v>1212</v>
+        <v>1817</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0022</v>
+        <v>0.0024</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
         <v>2</v>
@@ -2478,10 +2484,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2492,15 +2498,17 @@
       <c r="H43" t="n">
         <v>5</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>21</v>
+      </c>
       <c r="J43" t="n">
-        <v>348</v>
+        <v>858</v>
       </c>
       <c r="K43" t="n">
-        <v>282</v>
+        <v>1212</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -2510,25 +2518,25 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2541,35 +2549,35 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>8008</v>
+        <v>348</v>
       </c>
       <c r="K44" t="n">
-        <v>11912</v>
+        <v>282</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0174</v>
+        <v>0.0001</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2588,13 +2596,13 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>572</v>
+        <v>8008</v>
       </c>
       <c r="K45" t="n">
-        <v>784</v>
+        <v>11912</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001</v>
+        <v>0.0174</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2604,19 +2612,19 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2635,13 +2643,13 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="K46" t="n">
-        <v>356</v>
+        <v>784</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2651,19 +2659,19 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2682,13 +2690,13 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>1430</v>
+        <v>286</v>
       </c>
       <c r="K47" t="n">
-        <v>2068</v>
+        <v>356</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0029</v>
+        <v>0.0001</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -2698,19 +2706,19 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -2729,13 +2737,13 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>1144</v>
+        <v>1430</v>
       </c>
       <c r="K48" t="n">
-        <v>1640</v>
+        <v>2068</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -2745,19 +2753,19 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -2766,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2776,13 +2784,13 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>3990</v>
+        <v>1144</v>
       </c>
       <c r="K49" t="n">
-        <v>6200</v>
+        <v>1640</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0072</v>
+        <v>0.0028</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -2792,28 +2800,28 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
         <v>2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2823,13 +2831,13 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>2860</v>
+        <v>3990</v>
       </c>
       <c r="K50" t="n">
-        <v>4120</v>
+        <v>6200</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0119</v>
+        <v>0.0072</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -2839,16 +2847,16 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>10</v>
@@ -2870,13 +2878,13 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>6250</v>
+        <v>2860</v>
       </c>
       <c r="K51" t="n">
-        <v>10697</v>
+        <v>4120</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0162</v>
+        <v>0.0119</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -2886,16 +2894,16 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
         <v>10</v>
@@ -2907,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -2917,13 +2925,13 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>14230</v>
+        <v>6250</v>
       </c>
       <c r="K52" t="n">
-        <v>23531</v>
+        <v>10697</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0366</v>
+        <v>0.0162</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -2933,19 +2941,19 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" t="n">
         <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
@@ -2964,13 +2972,13 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>7115</v>
+        <v>14230</v>
       </c>
       <c r="K53" t="n">
-        <v>11761</v>
+        <v>23531</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0116</v>
+        <v>0.0366</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -2980,16 +2988,16 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
         <v>5</v>
@@ -3001,23 +3009,23 @@
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="K54" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0098</v>
+        <v>0.0116</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3027,108 +3035,112 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3338</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>46032</v>
+        <v>5685</v>
       </c>
       <c r="K55" t="n">
-        <v>80278</v>
+        <v>9623</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2189</v>
+        <v>0.0098</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3338</v>
+      </c>
       <c r="J56" t="n">
-        <v>5685</v>
+        <v>46032</v>
       </c>
       <c r="K56" t="n">
-        <v>9623</v>
+        <v>80278</v>
       </c>
       <c r="L56" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.2189</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>11:34:58</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
         <v>5</v>
@@ -3140,41 +3152,41 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="K57" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0064</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:26:30</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
@@ -3183,46 +3195,50 @@
         <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>11370</v>
+        <v>3125</v>
       </c>
       <c r="K58" t="n">
-        <v>19253</v>
+        <v>5347</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0334</v>
+        <v>0.0064</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
         <v>2</v>
-      </c>
-      <c r="B59" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" t="n">
-        <v>10</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -3232,17 +3248,56 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>3125</v>
+        <v>11370</v>
       </c>
       <c r="K59" t="n">
-        <v>5347</v>
+        <v>19253</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0071</v>
+        <v>0.0334</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,19 +440,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -464,20 +464,20 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="J2" t="n">
-        <v>18305</v>
+        <v>32382</v>
       </c>
       <c r="K2" t="n">
-        <v>53618</v>
+        <v>154355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0852</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,19 +487,19 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>17:18:35</t>
+          <t>17:51:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>190.0000000000001</v>
+        <v>105</v>
       </c>
       <c r="J3" t="n">
-        <v>36610</v>
+        <v>12292</v>
       </c>
       <c r="K3" t="n">
-        <v>110682</v>
+        <v>54500</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3782</v>
+        <v>0.0316</v>
       </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:48:37</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>1659.5</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>73220</v>
+        <v>12292</v>
       </c>
       <c r="K4" t="n">
-        <v>224873</v>
+        <v>54509</v>
       </c>
       <c r="L4" t="n">
-        <v>11.8307</v>
+        <v>0.0383</v>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>15</v>
@@ -619,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>253</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="J5" t="n">
-        <v>45696</v>
+        <v>76048</v>
       </c>
       <c r="K5" t="n">
-        <v>109671</v>
+        <v>229623</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5595</v>
+        <v>44.1138</v>
       </c>
       <c r="M5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
@@ -670,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>22848</v>
+        <v>19012</v>
       </c>
       <c r="K6" t="n">
-        <v>53440</v>
+        <v>55785</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0919</v>
+        <v>0.0372</v>
       </c>
       <c r="M6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>17:02:40</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -721,19 +721,19 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>394</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>38178</v>
+        <v>36610</v>
       </c>
       <c r="K7" t="n">
-        <v>58116</v>
+        <v>110682</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09379999999999999</v>
+        <v>1.3782</v>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -742,19 +742,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
@@ -772,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>1578</v>
+        <v>1659.5</v>
       </c>
       <c r="J8" t="n">
-        <v>52500</v>
+        <v>73220</v>
       </c>
       <c r="K8" t="n">
-        <v>92122</v>
+        <v>224873</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5428</v>
+        <v>11.8307</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -793,16 +793,16 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>14</v>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>1577.999992666665</v>
+        <v>253</v>
       </c>
       <c r="J9" t="n">
-        <v>57540</v>
+        <v>45696</v>
       </c>
       <c r="K9" t="n">
-        <v>100522</v>
+        <v>109671</v>
       </c>
       <c r="L9" t="n">
-        <v>2.1297</v>
+        <v>0.5595</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,28 +844,28 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -874,19 +874,19 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>3202</v>
+        <v>394</v>
       </c>
       <c r="J10" t="n">
-        <v>351288</v>
+        <v>38178</v>
       </c>
       <c r="K10" t="n">
-        <v>466643</v>
+        <v>58116</v>
       </c>
       <c r="L10" t="n">
-        <v>1.9582</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -895,25 +895,25 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -925,16 +925,16 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>51</v>
+        <v>1578</v>
       </c>
       <c r="J11" t="n">
-        <v>29274</v>
+        <v>52500</v>
       </c>
       <c r="K11" t="n">
-        <v>37158</v>
+        <v>92122</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0469</v>
+        <v>6.5428</v>
       </c>
       <c r="M11" t="n">
         <v>9</v>
@@ -946,28 +946,28 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -976,16 +976,16 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>192</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J12" t="n">
-        <v>117096</v>
+        <v>57540</v>
       </c>
       <c r="K12" t="n">
-        <v>154821</v>
+        <v>100522</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2622</v>
+        <v>2.1297</v>
       </c>
       <c r="M12" t="n">
         <v>9</v>
@@ -997,50 +997,50 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3202</v>
+      </c>
+      <c r="J13" t="n">
+        <v>351288</v>
+      </c>
+      <c r="K13" t="n">
+        <v>466643</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.9582</v>
+      </c>
+      <c r="M13" t="n">
         <v>9</v>
       </c>
-      <c r="C13" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" t="n">
-        <v>370</v>
-      </c>
-      <c r="J13" t="n">
-        <v>34524</v>
-      </c>
-      <c r="K13" t="n">
-        <v>60034</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>04</t>
@@ -1048,28 +1048,28 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>28</v>
-      </c>
       <c r="D14" t="n">
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1078,47 +1078,49 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="J14" t="n">
-        <v>52668</v>
+        <v>29274</v>
       </c>
       <c r="K14" t="n">
-        <v>91282</v>
+        <v>37158</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>15:56:25</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1127,38 +1129,40 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="J15" t="n">
-        <v>114660</v>
+        <v>117096</v>
       </c>
       <c r="K15" t="n">
-        <v>195602</v>
+        <v>154821</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9</v>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1176,38 +1180,40 @@
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="J16" t="n">
-        <v>30429</v>
+        <v>34524</v>
       </c>
       <c r="K16" t="n">
-        <v>28721</v>
+        <v>60034</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1216,25 +1222,25 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="J17" t="n">
-        <v>10143</v>
+        <v>114660</v>
       </c>
       <c r="K17" t="n">
-        <v>9575</v>
+        <v>195602</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0359</v>
+        <v>0.3841</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
@@ -1244,19 +1250,19 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
@@ -1265,25 +1271,25 @@
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="J18" t="n">
-        <v>81144</v>
+        <v>30429</v>
       </c>
       <c r="K18" t="n">
-        <v>77690</v>
+        <v>28721</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3027</v>
+        <v>0.1367</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -1293,19 +1299,19 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>15</v>
@@ -1314,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1323,16 +1329,16 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>60858</v>
+        <v>10143</v>
       </c>
       <c r="K19" t="n">
-        <v>58151</v>
+        <v>9575</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2167</v>
+        <v>0.0359</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
@@ -1342,16 +1348,16 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
         <v>14</v>
@@ -1363,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1372,16 +1378,16 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="J20" t="n">
-        <v>46914</v>
+        <v>81144</v>
       </c>
       <c r="K20" t="n">
-        <v>45229</v>
+        <v>77690</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1723</v>
+        <v>0.3027</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1391,19 +1397,19 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
@@ -1412,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1424,13 +1430,13 @@
         <v>120</v>
       </c>
       <c r="J21" t="n">
-        <v>70371</v>
+        <v>60858</v>
       </c>
       <c r="K21" t="n">
-        <v>68161</v>
+        <v>58151</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2664</v>
+        <v>0.2167</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1440,16 +1446,16 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>14</v>
@@ -1461,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1470,16 +1476,16 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J22" t="n">
-        <v>20286</v>
+        <v>46914</v>
       </c>
       <c r="K22" t="n">
-        <v>19385</v>
+        <v>45229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0702</v>
+        <v>0.1723</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
@@ -1489,19 +1495,19 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
         <v>15</v>
@@ -1510,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1519,38 +1525,38 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>1194</v>
+        <v>120</v>
       </c>
       <c r="J23" t="n">
-        <v>101430</v>
+        <v>70371</v>
       </c>
       <c r="K23" t="n">
-        <v>97112</v>
+        <v>68161</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5688</v>
+        <v>0.2664</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
         <v>15</v>
@@ -1559,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -1568,38 +1574,38 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="J24" t="n">
-        <v>50715</v>
+        <v>20286</v>
       </c>
       <c r="K24" t="n">
-        <v>47867</v>
+        <v>19385</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2266</v>
+        <v>0.0702</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>15</v>
@@ -1617,16 +1623,16 @@
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>7950</v>
+        <v>1194</v>
       </c>
       <c r="J25" t="n">
-        <v>202860</v>
+        <v>101430</v>
       </c>
       <c r="K25" t="n">
-        <v>195602</v>
+        <v>97112</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3571</v>
+        <v>0.5688</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -1636,25 +1642,25 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="n">
         <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
@@ -1666,16 +1672,16 @@
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>41720</v>
+        <v>124</v>
       </c>
       <c r="J26" t="n">
-        <v>1173690</v>
+        <v>50715</v>
       </c>
       <c r="K26" t="n">
-        <v>1149317</v>
+        <v>47867</v>
       </c>
       <c r="L26" t="n">
-        <v>19.0623</v>
+        <v>0.2266</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1685,25 +1691,25 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
         <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
@@ -1715,16 +1721,16 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>124</v>
+        <v>7950</v>
       </c>
       <c r="J27" t="n">
-        <v>23415</v>
+        <v>202860</v>
       </c>
       <c r="K27" t="n">
-        <v>21917</v>
+        <v>195602</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0978</v>
+        <v>1.3571</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1734,28 +1740,28 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1764,16 +1770,16 @@
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>60</v>
+        <v>41720</v>
       </c>
       <c r="J28" t="n">
-        <v>14049</v>
+        <v>1173690</v>
       </c>
       <c r="K28" t="n">
-        <v>13151</v>
+        <v>1149317</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06</v>
+        <v>19.0623</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
@@ -1783,16 +1789,16 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
         <v>7</v>
@@ -1804,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1813,16 +1819,16 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="J29" t="n">
-        <v>10787</v>
+        <v>23415</v>
       </c>
       <c r="K29" t="n">
-        <v>10229</v>
+        <v>21917</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0394</v>
+        <v>0.0978</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
@@ -1832,16 +1838,16 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>7</v>
@@ -1853,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -1862,16 +1868,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J30" t="n">
-        <v>4683</v>
+        <v>14049</v>
       </c>
       <c r="K30" t="n">
-        <v>4385</v>
+        <v>13151</v>
       </c>
       <c r="L30" t="n">
-        <v>0.013</v>
+        <v>0.06</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -1881,19 +1887,19 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1902,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -1911,16 +1917,16 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>14049</v>
+        <v>10787</v>
       </c>
       <c r="K31" t="n">
-        <v>13373</v>
+        <v>10229</v>
       </c>
       <c r="L31" t="n">
-        <v>0.058</v>
+        <v>0.0394</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -1930,19 +1936,19 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -1951,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>6</v>
@@ -1960,16 +1966,16 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>42147</v>
+        <v>4683</v>
       </c>
       <c r="K32" t="n">
-        <v>40115</v>
+        <v>4385</v>
       </c>
       <c r="L32" t="n">
-        <v>0.253</v>
+        <v>0.013</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -1979,28 +1985,28 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2009,47 +2015,47 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J33" t="n">
-        <v>988547</v>
+        <v>14049</v>
       </c>
       <c r="K33" t="n">
-        <v>951134</v>
+        <v>13373</v>
       </c>
       <c r="L33" t="n">
-        <v>4.1745</v>
+        <v>0.058</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2058,35 +2064,35 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>54920</v>
+        <v>932</v>
       </c>
       <c r="J34" t="n">
-        <v>6919829</v>
+        <v>42147</v>
       </c>
       <c r="K34" t="n">
-        <v>6861710</v>
+        <v>40115</v>
       </c>
       <c r="L34" t="n">
-        <v>183.2784</v>
+        <v>0.253</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
@@ -2098,7 +2104,7 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -2107,16 +2113,16 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>1053</v>
+        <v>41</v>
       </c>
       <c r="J35" t="n">
-        <v>424263</v>
+        <v>988547</v>
       </c>
       <c r="K35" t="n">
-        <v>407630</v>
+        <v>951134</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5868</v>
+        <v>4.1745</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2126,19 +2132,19 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D36" t="n">
         <v>100</v>
@@ -2147,7 +2153,7 @@
         <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2156,16 +2162,16 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>205171</v>
+        <v>54920</v>
       </c>
       <c r="J36" t="n">
-        <v>2596356</v>
+        <v>6919829</v>
       </c>
       <c r="K36" t="n">
-        <v>5051654</v>
+        <v>6861710</v>
       </c>
       <c r="L36" t="n">
-        <v>12.0275</v>
+        <v>183.2784</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2175,19 +2181,19 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>100</v>
@@ -2205,16 +2211,16 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>12200</v>
+        <v>1053</v>
       </c>
       <c r="J37" t="n">
-        <v>865452</v>
+        <v>424263</v>
       </c>
       <c r="K37" t="n">
-        <v>1674182</v>
+        <v>407630</v>
       </c>
       <c r="L37" t="n">
-        <v>2.4971</v>
+        <v>1.5868</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2224,25 +2230,25 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2254,16 +2260,16 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>2519</v>
+        <v>205171</v>
       </c>
       <c r="J38" t="n">
-        <v>11172</v>
+        <v>2596356</v>
       </c>
       <c r="K38" t="n">
-        <v>17867</v>
+        <v>5051654</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0343</v>
+        <v>12.0275</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2273,25 +2279,25 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2303,16 +2309,16 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>2788</v>
+        <v>12200</v>
       </c>
       <c r="J39" t="n">
-        <v>13167</v>
+        <v>865452</v>
       </c>
       <c r="K39" t="n">
-        <v>21077</v>
+        <v>1674182</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0473</v>
+        <v>2.4971</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2322,19 +2328,19 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -2352,16 +2358,16 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>2272</v>
+        <v>2519</v>
       </c>
       <c r="J40" t="n">
-        <v>9177</v>
+        <v>11172</v>
       </c>
       <c r="K40" t="n">
-        <v>14657</v>
+        <v>17867</v>
       </c>
       <c r="L40" t="n">
-        <v>0.027</v>
+        <v>0.0343</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2371,19 +2377,19 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2401,16 +2407,16 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>2191</v>
+        <v>2788</v>
       </c>
       <c r="J41" t="n">
-        <v>5187</v>
+        <v>13167</v>
       </c>
       <c r="K41" t="n">
-        <v>8237</v>
+        <v>21077</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0143</v>
+        <v>0.0473</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2420,19 +2426,19 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
@@ -2450,16 +2456,16 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>171</v>
+        <v>2272</v>
       </c>
       <c r="J42" t="n">
-        <v>1197</v>
+        <v>9177</v>
       </c>
       <c r="K42" t="n">
-        <v>1817</v>
+        <v>14657</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0024</v>
+        <v>0.027</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2469,19 +2475,19 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2499,44 +2505,44 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>2191</v>
       </c>
       <c r="J43" t="n">
-        <v>858</v>
+        <v>5187</v>
       </c>
       <c r="K43" t="n">
-        <v>1212</v>
+        <v>8237</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0022</v>
+        <v>0.0143</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2547,37 +2553,39 @@
       <c r="H44" t="n">
         <v>5</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>171</v>
+      </c>
       <c r="J44" t="n">
-        <v>348</v>
+        <v>1197</v>
       </c>
       <c r="K44" t="n">
-        <v>282</v>
+        <v>1817</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0001</v>
+        <v>0.0024</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2594,43 +2602,45 @@
       <c r="H45" t="n">
         <v>5</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>21</v>
+      </c>
       <c r="J45" t="n">
-        <v>8008</v>
+        <v>858</v>
       </c>
       <c r="K45" t="n">
-        <v>11912</v>
+        <v>1212</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0174</v>
+        <v>0.0022</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2643,35 +2653,35 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>572</v>
+        <v>348</v>
       </c>
       <c r="K46" t="n">
-        <v>784</v>
+        <v>282</v>
       </c>
       <c r="L46" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2690,13 +2700,13 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>286</v>
+        <v>8008</v>
       </c>
       <c r="K47" t="n">
-        <v>356</v>
+        <v>11912</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0001</v>
+        <v>0.0174</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -2706,19 +2716,19 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -2737,13 +2747,13 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>1430</v>
+        <v>572</v>
       </c>
       <c r="K48" t="n">
-        <v>2068</v>
+        <v>784</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0029</v>
+        <v>0.001</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -2753,19 +2763,19 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -2784,13 +2794,13 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>1144</v>
+        <v>286</v>
       </c>
       <c r="K49" t="n">
-        <v>1640</v>
+        <v>356</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0028</v>
+        <v>0.0001</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -2800,16 +2810,16 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>5</v>
@@ -2821,7 +2831,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2831,13 +2841,13 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>3990</v>
+        <v>1430</v>
       </c>
       <c r="K50" t="n">
-        <v>6200</v>
+        <v>2068</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0072</v>
+        <v>0.0029</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -2847,19 +2857,19 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
@@ -2878,13 +2888,13 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2860</v>
+        <v>1144</v>
       </c>
       <c r="K51" t="n">
-        <v>4120</v>
+        <v>1640</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0119</v>
+        <v>0.0028</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -2894,19 +2904,19 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -2915,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -2925,13 +2935,13 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>6250</v>
+        <v>3990</v>
       </c>
       <c r="K52" t="n">
-        <v>10697</v>
+        <v>6200</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0162</v>
+        <v>0.0072</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -2941,16 +2951,16 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>10</v>
@@ -2962,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
@@ -2972,13 +2982,13 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>14230</v>
+        <v>2860</v>
       </c>
       <c r="K53" t="n">
-        <v>23531</v>
+        <v>4120</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0366</v>
+        <v>0.0119</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -2988,19 +2998,19 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
@@ -3009,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3019,13 +3029,13 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>7115</v>
+        <v>6250</v>
       </c>
       <c r="K54" t="n">
-        <v>11761</v>
+        <v>10697</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0116</v>
+        <v>0.0162</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3035,19 +3045,19 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -3056,23 +3066,23 @@
         <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>5685</v>
+        <v>14230</v>
       </c>
       <c r="K55" t="n">
-        <v>9623</v>
+        <v>23531</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0098</v>
+        <v>0.0366</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3082,62 +3092,60 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3338</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>46032</v>
+        <v>7115</v>
       </c>
       <c r="K56" t="n">
-        <v>80278</v>
+        <v>11761</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2189</v>
+        <v>0.0116</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>9</v>
@@ -3158,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -3168,68 +3176,78 @@
         <v>9623</v>
       </c>
       <c r="L57" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0098</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3338</v>
+      </c>
       <c r="J58" t="n">
-        <v>3125</v>
+        <v>46032</v>
       </c>
       <c r="K58" t="n">
-        <v>5347</v>
+        <v>80278</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0064</v>
+        <v>0.2189</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>11:34:58</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
         <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
@@ -3248,21 +3266,25 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>11370</v>
+        <v>5685</v>
       </c>
       <c r="K59" t="n">
-        <v>19253</v>
+        <v>9623</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0334</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
@@ -3283,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
@@ -3293,11 +3315,93 @@
         <v>5347</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0071</v>
+        <v>0.0064</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K61" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,10 +440,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
@@ -455,7 +455,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
@@ -464,20 +464,20 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>105</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>32382</v>
+        <v>50582</v>
       </c>
       <c r="K2" t="n">
-        <v>154355</v>
+        <v>155475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,13 +487,13 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>17:51:50</t>
+          <t>14:28:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -502,10 +502,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12292</v>
+        <v>32382</v>
       </c>
       <c r="K3" t="n">
-        <v>54500</v>
+        <v>153575</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0316</v>
+        <v>0.1295</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,28 +538,28 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>17:48:37</t>
+          <t>14:10:25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="J4" t="n">
-        <v>12292</v>
+        <v>101164</v>
       </c>
       <c r="K4" t="n">
-        <v>54509</v>
+        <v>317602</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0383</v>
+        <v>0.487</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -589,28 +589,28 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -619,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>1804.999934139618</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>76048</v>
+        <v>64764</v>
       </c>
       <c r="K5" t="n">
-        <v>229623</v>
+        <v>314970</v>
       </c>
       <c r="L5" t="n">
-        <v>44.1138</v>
+        <v>0.2711</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -640,28 +640,28 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -670,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>19012</v>
+        <v>173964</v>
       </c>
       <c r="K6" t="n">
-        <v>55785</v>
+        <v>322866</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0372</v>
+        <v>0.4497</v>
       </c>
       <c r="M6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -691,28 +691,28 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -721,19 +721,19 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>190.0000000000001</v>
+        <v>602</v>
       </c>
       <c r="J7" t="n">
-        <v>36610</v>
+        <v>86982</v>
       </c>
       <c r="K7" t="n">
-        <v>110682</v>
+        <v>171967</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3782</v>
+        <v>0.2673</v>
       </c>
       <c r="M7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -742,28 +742,28 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -772,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>1659.5</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>73220</v>
+        <v>73332</v>
       </c>
       <c r="K8" t="n">
-        <v>224873</v>
+        <v>167389</v>
       </c>
       <c r="L8" t="n">
-        <v>11.8307</v>
+        <v>0.1522</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -793,28 +793,28 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>253</v>
+        <v>13395</v>
       </c>
       <c r="J9" t="n">
-        <v>45696</v>
+        <v>293328</v>
       </c>
       <c r="K9" t="n">
-        <v>109671</v>
+        <v>684598</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5595</v>
+        <v>2.7488</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,28 +844,28 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -874,19 +874,19 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>394</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>38178</v>
+        <v>129528</v>
       </c>
       <c r="K10" t="n">
-        <v>58116</v>
+        <v>640400</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09379999999999999</v>
+        <v>1.3063</v>
       </c>
       <c r="M10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -895,19 +895,19 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -925,19 +925,19 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>1578</v>
+        <v>105</v>
       </c>
       <c r="J11" t="n">
-        <v>52500</v>
+        <v>12292</v>
       </c>
       <c r="K11" t="n">
-        <v>92122</v>
+        <v>54500</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5428</v>
+        <v>0.0316</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -946,19 +946,19 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:48:37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -976,19 +976,19 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>1577.999992666665</v>
+        <v>33</v>
       </c>
       <c r="J12" t="n">
-        <v>57540</v>
+        <v>12292</v>
       </c>
       <c r="K12" t="n">
-        <v>100522</v>
+        <v>54509</v>
       </c>
       <c r="L12" t="n">
-        <v>2.1297</v>
+        <v>0.0383</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -997,28 +997,28 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1027,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>3202</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="J13" t="n">
-        <v>351288</v>
+        <v>76048</v>
       </c>
       <c r="K13" t="n">
-        <v>466643</v>
+        <v>229623</v>
       </c>
       <c r="L13" t="n">
-        <v>1.9582</v>
+        <v>44.1138</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1048,16 +1048,16 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>7</v>
@@ -1066,10 +1066,10 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1078,19 +1078,19 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>29274</v>
+        <v>19012</v>
       </c>
       <c r="K14" t="n">
-        <v>37158</v>
+        <v>55785</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0469</v>
+        <v>0.0372</v>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1099,28 +1099,28 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1129,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>192</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>117096</v>
+        <v>36610</v>
       </c>
       <c r="K15" t="n">
-        <v>154821</v>
+        <v>110682</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2622</v>
+        <v>1.3782</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1150,19 +1150,19 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1180,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>370</v>
+        <v>1659.5</v>
       </c>
       <c r="J16" t="n">
-        <v>34524</v>
+        <v>73220</v>
       </c>
       <c r="K16" t="n">
-        <v>60034</v>
+        <v>224873</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1695</v>
+        <v>11.8307</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1201,19 +1201,19 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1231,35 +1231,37 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="J17" t="n">
-        <v>114660</v>
+        <v>45696</v>
       </c>
       <c r="K17" t="n">
-        <v>195602</v>
+        <v>109671</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0.5595</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13</v>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
@@ -1271,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1280,38 +1282,40 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="J18" t="n">
-        <v>30429</v>
+        <v>38178</v>
       </c>
       <c r="K18" t="n">
-        <v>28721</v>
+        <v>58116</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11</v>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>15</v>
@@ -1326,38 +1330,40 @@
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>1578</v>
       </c>
       <c r="J19" t="n">
-        <v>10143</v>
+        <v>52500</v>
       </c>
       <c r="K19" t="n">
-        <v>9575</v>
+        <v>92122</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>6.5428</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9</v>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
         <v>14</v>
@@ -1369,191 +1375,199 @@
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>160</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J20" t="n">
-        <v>81144</v>
+        <v>57540</v>
       </c>
       <c r="K20" t="n">
-        <v>77690</v>
+        <v>100522</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>2.1297</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9</v>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3202</v>
+      </c>
+      <c r="J21" t="n">
+        <v>351288</v>
+      </c>
+      <c r="K21" t="n">
+        <v>466643</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.9582</v>
+      </c>
+      <c r="M21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="n">
-        <v>14</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>120</v>
-      </c>
-      <c r="J21" t="n">
-        <v>60858</v>
-      </c>
-      <c r="K21" t="n">
-        <v>58151</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>14</v>
-      </c>
       <c r="D22" t="n">
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J22" t="n">
-        <v>46914</v>
+        <v>29274</v>
       </c>
       <c r="K22" t="n">
-        <v>45229</v>
+        <v>37158</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1723</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9</v>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
-        <v>21</v>
-      </c>
       <c r="D23" t="n">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="J23" t="n">
-        <v>70371</v>
+        <v>117096</v>
       </c>
       <c r="K23" t="n">
-        <v>68161</v>
+        <v>154821</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2664</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9</v>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>14</v>
@@ -1565,47 +1579,49 @@
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="J24" t="n">
-        <v>20286</v>
+        <v>34524</v>
       </c>
       <c r="K24" t="n">
-        <v>19385</v>
+        <v>60034</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>15</v>
@@ -1620,38 +1636,38 @@
         <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>1194</v>
+        <v>400</v>
       </c>
       <c r="J25" t="n">
-        <v>101430</v>
+        <v>114660</v>
       </c>
       <c r="K25" t="n">
-        <v>97112</v>
+        <v>195602</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5688</v>
+        <v>0.3841</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
@@ -1663,47 +1679,47 @@
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="J26" t="n">
-        <v>50715</v>
+        <v>30429</v>
       </c>
       <c r="K26" t="n">
-        <v>47867</v>
+        <v>28721</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2266</v>
+        <v>0.1367</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>15</v>
@@ -1712,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -1721,47 +1737,47 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>7950</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>202860</v>
+        <v>10143</v>
       </c>
       <c r="K27" t="n">
-        <v>195602</v>
+        <v>9575</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3571</v>
+        <v>0.0359</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1770,47 +1786,47 @@
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>41720</v>
+        <v>160</v>
       </c>
       <c r="J28" t="n">
-        <v>1173690</v>
+        <v>81144</v>
       </c>
       <c r="K28" t="n">
-        <v>1149317</v>
+        <v>77690</v>
       </c>
       <c r="L28" t="n">
-        <v>19.0623</v>
+        <v>0.3027</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1819,47 +1835,47 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J29" t="n">
-        <v>23415</v>
+        <v>60858</v>
       </c>
       <c r="K29" t="n">
-        <v>21917</v>
+        <v>58151</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0978</v>
+        <v>0.2167</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -1868,44 +1884,44 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J30" t="n">
-        <v>14049</v>
+        <v>46914</v>
       </c>
       <c r="K30" t="n">
-        <v>13151</v>
+        <v>45229</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06</v>
+        <v>0.1723</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B31" t="n">
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1917,44 +1933,44 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="J31" t="n">
-        <v>10787</v>
+        <v>70371</v>
       </c>
       <c r="K31" t="n">
-        <v>10229</v>
+        <v>68161</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0394</v>
+        <v>0.2664</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1966,47 +1982,47 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J32" t="n">
-        <v>4683</v>
+        <v>20286</v>
       </c>
       <c r="K32" t="n">
-        <v>4385</v>
+        <v>19385</v>
       </c>
       <c r="L32" t="n">
-        <v>0.013</v>
+        <v>0.0702</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2015,16 +2031,16 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>60</v>
+        <v>1194</v>
       </c>
       <c r="J33" t="n">
-        <v>14049</v>
+        <v>101430</v>
       </c>
       <c r="K33" t="n">
-        <v>13373</v>
+        <v>97112</v>
       </c>
       <c r="L33" t="n">
-        <v>0.058</v>
+        <v>0.5688</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
@@ -2034,28 +2050,28 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2064,16 +2080,16 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>932</v>
+        <v>124</v>
       </c>
       <c r="J34" t="n">
-        <v>42147</v>
+        <v>50715</v>
       </c>
       <c r="K34" t="n">
-        <v>40115</v>
+        <v>47867</v>
       </c>
       <c r="L34" t="n">
-        <v>0.253</v>
+        <v>0.2266</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2083,28 +2099,28 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -2113,47 +2129,47 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>41</v>
+        <v>7950</v>
       </c>
       <c r="J35" t="n">
-        <v>988547</v>
+        <v>202860</v>
       </c>
       <c r="K35" t="n">
-        <v>951134</v>
+        <v>195602</v>
       </c>
       <c r="L35" t="n">
-        <v>4.1745</v>
+        <v>1.3571</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2162,47 +2178,47 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>54920</v>
+        <v>41720</v>
       </c>
       <c r="J36" t="n">
-        <v>6919829</v>
+        <v>1173690</v>
       </c>
       <c r="K36" t="n">
-        <v>6861710</v>
+        <v>1149317</v>
       </c>
       <c r="L36" t="n">
-        <v>183.2784</v>
+        <v>19.0623</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -2211,48 +2227,48 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1053</v>
+        <v>124</v>
       </c>
       <c r="J37" t="n">
-        <v>424263</v>
+        <v>23415</v>
       </c>
       <c r="K37" t="n">
-        <v>407630</v>
+        <v>21917</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5868</v>
+        <v>0.0978</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" t="n">
-        <v>84</v>
-      </c>
-      <c r="D38" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" t="n">
-        <v>100</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
       <c r="G38" t="n">
         <v>6</v>
       </c>
@@ -2260,47 +2276,47 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>205171</v>
+        <v>60</v>
       </c>
       <c r="J38" t="n">
-        <v>2596356</v>
+        <v>14049</v>
       </c>
       <c r="K38" t="n">
-        <v>5051654</v>
+        <v>13151</v>
       </c>
       <c r="L38" t="n">
-        <v>12.0275</v>
+        <v>0.06</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -2309,38 +2325,38 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>12200</v>
+        <v>20</v>
       </c>
       <c r="J39" t="n">
-        <v>865452</v>
+        <v>10787</v>
       </c>
       <c r="K39" t="n">
-        <v>1674182</v>
+        <v>10229</v>
       </c>
       <c r="L39" t="n">
-        <v>2.4971</v>
+        <v>0.0394</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
@@ -2358,38 +2374,38 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>2519</v>
+        <v>20</v>
       </c>
       <c r="J40" t="n">
-        <v>11172</v>
+        <v>4683</v>
       </c>
       <c r="K40" t="n">
-        <v>17867</v>
+        <v>4385</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0343</v>
+        <v>0.013</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2407,48 +2423,48 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>2788</v>
+        <v>60</v>
       </c>
       <c r="J41" t="n">
-        <v>13167</v>
+        <v>14049</v>
       </c>
       <c r="K41" t="n">
-        <v>21077</v>
+        <v>13373</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0473</v>
+        <v>0.058</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="C42" t="n">
-        <v>23</v>
-      </c>
-      <c r="D42" t="n">
-        <v>10</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
@@ -2456,47 +2472,47 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>2272</v>
+        <v>932</v>
       </c>
       <c r="J42" t="n">
-        <v>9177</v>
+        <v>42147</v>
       </c>
       <c r="K42" t="n">
-        <v>14657</v>
+        <v>40115</v>
       </c>
       <c r="L42" t="n">
-        <v>0.027</v>
+        <v>0.253</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2505,16 +2521,16 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>2191</v>
+        <v>41</v>
       </c>
       <c r="J43" t="n">
-        <v>5187</v>
+        <v>988547</v>
       </c>
       <c r="K43" t="n">
-        <v>8237</v>
+        <v>951134</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0143</v>
+        <v>4.1745</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -2524,28 +2540,28 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2554,16 +2570,16 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>171</v>
+        <v>54920</v>
       </c>
       <c r="J44" t="n">
-        <v>1197</v>
+        <v>6919829</v>
       </c>
       <c r="K44" t="n">
-        <v>1817</v>
+        <v>6861710</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0024</v>
+        <v>183.2784</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -2573,25 +2589,25 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2603,44 +2619,44 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>21</v>
+        <v>1053</v>
       </c>
       <c r="J45" t="n">
-        <v>858</v>
+        <v>424263</v>
       </c>
       <c r="K45" t="n">
-        <v>1212</v>
+        <v>407630</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0022</v>
+        <v>1.5868</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2651,43 +2667,45 @@
       <c r="H46" t="n">
         <v>5</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>205171</v>
+      </c>
       <c r="J46" t="n">
-        <v>348</v>
+        <v>2596356</v>
       </c>
       <c r="K46" t="n">
-        <v>282</v>
+        <v>5051654</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0001</v>
+        <v>12.0275</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2698,37 +2716,39 @@
       <c r="H47" t="n">
         <v>5</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>12200</v>
+      </c>
       <c r="J47" t="n">
-        <v>8008</v>
+        <v>865452</v>
       </c>
       <c r="K47" t="n">
-        <v>11912</v>
+        <v>1674182</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0174</v>
+        <v>2.4971</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -2745,37 +2765,39 @@
       <c r="H48" t="n">
         <v>5</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>2519</v>
+      </c>
       <c r="J48" t="n">
-        <v>572</v>
+        <v>11172</v>
       </c>
       <c r="K48" t="n">
-        <v>784</v>
+        <v>17867</v>
       </c>
       <c r="L48" t="n">
-        <v>0.001</v>
+        <v>0.0343</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -2792,37 +2814,39 @@
       <c r="H49" t="n">
         <v>5</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>2788</v>
+      </c>
       <c r="J49" t="n">
-        <v>286</v>
+        <v>13167</v>
       </c>
       <c r="K49" t="n">
-        <v>356</v>
+        <v>21077</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0001</v>
+        <v>0.0473</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -2839,37 +2863,39 @@
       <c r="H50" t="n">
         <v>5</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>2272</v>
+      </c>
       <c r="J50" t="n">
-        <v>1430</v>
+        <v>9177</v>
       </c>
       <c r="K50" t="n">
-        <v>2068</v>
+        <v>14657</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0029</v>
+        <v>0.027</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
@@ -2886,37 +2912,39 @@
       <c r="H51" t="n">
         <v>5</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>2191</v>
+      </c>
       <c r="J51" t="n">
-        <v>1144</v>
+        <v>5187</v>
       </c>
       <c r="K51" t="n">
-        <v>1640</v>
+        <v>8237</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0028</v>
+        <v>0.0143</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -2925,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -2933,37 +2961,39 @@
       <c r="H52" t="n">
         <v>5</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>171</v>
+      </c>
       <c r="J52" t="n">
-        <v>3990</v>
+        <v>1197</v>
       </c>
       <c r="K52" t="n">
-        <v>6200</v>
+        <v>1817</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0072</v>
+        <v>0.0024</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B53" t="n">
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
@@ -2980,43 +3010,45 @@
       <c r="H53" t="n">
         <v>5</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
       <c r="J53" t="n">
-        <v>2860</v>
+        <v>858</v>
       </c>
       <c r="K53" t="n">
-        <v>4120</v>
+        <v>1212</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0119</v>
+        <v>0.0022</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -3029,35 +3061,35 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>6250</v>
+        <v>348</v>
       </c>
       <c r="K54" t="n">
-        <v>10697</v>
+        <v>282</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0162</v>
+        <v>0.0001</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -3066,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -3076,13 +3108,13 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>14230</v>
+        <v>8008</v>
       </c>
       <c r="K55" t="n">
-        <v>23531</v>
+        <v>11912</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0366</v>
+        <v>0.0174</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3092,19 +3124,19 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -3113,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -3123,13 +3155,13 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>7115</v>
+        <v>572</v>
       </c>
       <c r="K56" t="n">
-        <v>11761</v>
+        <v>784</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0116</v>
+        <v>0.001</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3139,20 +3171,20 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="B57" t="n">
-        <v>9</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5</v>
-      </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
@@ -3160,23 +3192,23 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>5685</v>
+        <v>286</v>
       </c>
       <c r="K57" t="n">
-        <v>9623</v>
+        <v>356</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0098</v>
+        <v>0.0001</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3186,68 +3218,66 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3338</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>46032</v>
+        <v>1430</v>
       </c>
       <c r="K58" t="n">
-        <v>80278</v>
+        <v>2068</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2189</v>
+        <v>0.0029</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
@@ -3256,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -3266,28 +3296,32 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>5685</v>
+        <v>1144</v>
       </c>
       <c r="K59" t="n">
-        <v>9623</v>
+        <v>1640</v>
       </c>
       <c r="L59" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0028</v>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
         <v>5</v>
@@ -3299,38 +3333,42 @@
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>3125</v>
+        <v>3990</v>
       </c>
       <c r="K60" t="n">
-        <v>5347</v>
+        <v>6200</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0064</v>
+        <v>0.0072</v>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
         <v>10</v>
@@ -3342,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3352,27 +3390,35 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>11370</v>
+        <v>2860</v>
       </c>
       <c r="K61" t="n">
-        <v>19253</v>
+        <v>4120</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0334</v>
+        <v>0.0119</v>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>16:16:14</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" t="n">
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
@@ -3391,17 +3437,379 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K62" t="n">
+        <v>10697</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>13:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14230</v>
+      </c>
+      <c r="K63" t="n">
+        <v>23531</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>7115</v>
+      </c>
+      <c r="K64" t="n">
+        <v>11761</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K65" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14</v>
+      </c>
+      <c r="D66" t="n">
+        <v>15</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3338</v>
+      </c>
+      <c r="J66" t="n">
+        <v>46032</v>
+      </c>
+      <c r="K66" t="n">
+        <v>80278</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>3125</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K68" t="n">
         <v>5347</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L68" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K69" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
@@ -464,20 +464,20 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>7.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50582</v>
+        <v>11907</v>
       </c>
       <c r="K2" t="n">
-        <v>155475</v>
+        <v>54327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.153</v>
+        <v>0.0563</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,28 +487,28 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>14:28:07</t>
+          <t>21:11:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>32382</v>
+        <v>18711</v>
       </c>
       <c r="K3" t="n">
-        <v>153575</v>
+        <v>55167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1295</v>
+        <v>0.0654</v>
       </c>
       <c r="M3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>14:10:25</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="n">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>25</v>
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>240.6554934823091</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>101164</v>
+        <v>50281</v>
       </c>
       <c r="K4" t="n">
-        <v>317602</v>
+        <v>155342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.487</v>
+        <v>0.1682</v>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>25</v>
@@ -619,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>64764</v>
+        <v>32382</v>
       </c>
       <c r="K5" t="n">
-        <v>314970</v>
+        <v>153575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2711</v>
+        <v>0.1282</v>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
@@ -661,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -670,16 +670,16 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>2419.333333333333</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="J6" t="n">
-        <v>173964</v>
+        <v>101164</v>
       </c>
       <c r="K6" t="n">
-        <v>322866</v>
+        <v>317602</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4497</v>
+        <v>0.487</v>
       </c>
       <c r="M6" t="n">
         <v>18</v>
@@ -691,19 +691,19 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>25</v>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -721,16 +721,16 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>602</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>86982</v>
+        <v>64764</v>
       </c>
       <c r="K7" t="n">
-        <v>171967</v>
+        <v>314970</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2673</v>
+        <v>0.2711</v>
       </c>
       <c r="M7" t="n">
         <v>18</v>
@@ -742,19 +742,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>25</v>
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -772,16 +772,16 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>73332</v>
+        <v>173964</v>
       </c>
       <c r="K8" t="n">
-        <v>167389</v>
+        <v>322866</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1522</v>
+        <v>0.4497</v>
       </c>
       <c r="M8" t="n">
         <v>18</v>
@@ -793,19 +793,19 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>25</v>
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>13395</v>
+        <v>602</v>
       </c>
       <c r="J9" t="n">
-        <v>293328</v>
+        <v>86982</v>
       </c>
       <c r="K9" t="n">
-        <v>684598</v>
+        <v>171967</v>
       </c>
       <c r="L9" t="n">
-        <v>2.7488</v>
+        <v>0.2673</v>
       </c>
       <c r="M9" t="n">
         <v>18</v>
@@ -844,19 +844,19 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
         <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>25</v>
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -874,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>45.00000000000001</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
-        <v>129528</v>
+        <v>73332</v>
       </c>
       <c r="K10" t="n">
-        <v>640400</v>
+        <v>167389</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3063</v>
+        <v>0.1522</v>
       </c>
       <c r="M10" t="n">
         <v>18</v>
@@ -895,28 +895,28 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -925,19 +925,19 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>105</v>
+        <v>13395</v>
       </c>
       <c r="J11" t="n">
-        <v>12292</v>
+        <v>293328</v>
       </c>
       <c r="K11" t="n">
-        <v>54500</v>
+        <v>684598</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0316</v>
+        <v>2.7488</v>
       </c>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -946,25 +946,25 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>17:48:37</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -976,19 +976,19 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>12292</v>
+        <v>129528</v>
       </c>
       <c r="K12" t="n">
-        <v>54509</v>
+        <v>640400</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0383</v>
+        <v>1.3063</v>
       </c>
       <c r="M12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -997,20 +997,20 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>28</v>
-      </c>
       <c r="D13" t="n">
         <v>15</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1027,16 +1027,16 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>1804.999934139618</v>
+        <v>33</v>
       </c>
       <c r="J13" t="n">
-        <v>76048</v>
+        <v>12292</v>
       </c>
       <c r="K13" t="n">
-        <v>229623</v>
+        <v>54509</v>
       </c>
       <c r="L13" t="n">
-        <v>44.1138</v>
+        <v>0.0383</v>
       </c>
       <c r="M13" t="n">
         <v>17</v>
@@ -1048,19 +1048,19 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -1078,16 +1078,16 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="J14" t="n">
-        <v>19012</v>
+        <v>76048</v>
       </c>
       <c r="K14" t="n">
-        <v>55785</v>
+        <v>229623</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0372</v>
+        <v>44.1138</v>
       </c>
       <c r="M14" t="n">
         <v>17</v>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
@@ -1120,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1129,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>190.0000000000001</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>36610</v>
+        <v>19012</v>
       </c>
       <c r="K15" t="n">
-        <v>110682</v>
+        <v>55785</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3782</v>
+        <v>0.0372</v>
       </c>
       <c r="M15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1150,19 +1150,19 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1180,16 +1180,16 @@
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>1659.5</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>73220</v>
+        <v>36610</v>
       </c>
       <c r="K16" t="n">
-        <v>224873</v>
+        <v>110682</v>
       </c>
       <c r="L16" t="n">
-        <v>11.8307</v>
+        <v>1.3782</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
@@ -1201,19 +1201,19 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1231,19 +1231,19 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>253</v>
+        <v>1659.5</v>
       </c>
       <c r="J17" t="n">
-        <v>45696</v>
+        <v>73220</v>
       </c>
       <c r="K17" t="n">
-        <v>109671</v>
+        <v>224873</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5595</v>
+        <v>11.8307</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1252,19 +1252,19 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
@@ -1273,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1282,19 +1282,19 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="J18" t="n">
-        <v>38178</v>
+        <v>45696</v>
       </c>
       <c r="K18" t="n">
-        <v>58116</v>
+        <v>109671</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.5595</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B19" t="n">
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>15</v>
@@ -1324,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1333,19 +1333,19 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>1578</v>
+        <v>394</v>
       </c>
       <c r="J19" t="n">
-        <v>52500</v>
+        <v>38178</v>
       </c>
       <c r="K19" t="n">
-        <v>92122</v>
+        <v>58116</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5428</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1354,13 +1354,13 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
         <v>15</v>
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1384,16 +1384,16 @@
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>1577.999992666665</v>
+        <v>1578</v>
       </c>
       <c r="J20" t="n">
-        <v>57540</v>
+        <v>52500</v>
       </c>
       <c r="K20" t="n">
-        <v>100522</v>
+        <v>92122</v>
       </c>
       <c r="L20" t="n">
-        <v>2.1297</v>
+        <v>6.5428</v>
       </c>
       <c r="M20" t="n">
         <v>9</v>
@@ -1405,28 +1405,28 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1435,16 +1435,16 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>3202</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J21" t="n">
-        <v>351288</v>
+        <v>57540</v>
       </c>
       <c r="K21" t="n">
-        <v>466643</v>
+        <v>100522</v>
       </c>
       <c r="L21" t="n">
-        <v>1.9582</v>
+        <v>2.1297</v>
       </c>
       <c r="M21" t="n">
         <v>9</v>
@@ -1456,19 +1456,19 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
         <v>15</v>
@@ -1477,7 +1477,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1486,16 +1486,16 @@
         <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>51</v>
+        <v>3202</v>
       </c>
       <c r="J22" t="n">
-        <v>29274</v>
+        <v>351288</v>
       </c>
       <c r="K22" t="n">
-        <v>37158</v>
+        <v>466643</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0469</v>
+        <v>1.9582</v>
       </c>
       <c r="M22" t="n">
         <v>9</v>
@@ -1507,16 +1507,16 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
@@ -1528,7 +1528,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1537,16 +1537,16 @@
         <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="J23" t="n">
-        <v>117096</v>
+        <v>29274</v>
       </c>
       <c r="K23" t="n">
-        <v>154821</v>
+        <v>37158</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2622</v>
+        <v>0.0469</v>
       </c>
       <c r="M23" t="n">
         <v>9</v>
@@ -1558,50 +1558,50 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>192</v>
+      </c>
+      <c r="J24" t="n">
+        <v>117096</v>
+      </c>
+      <c r="K24" t="n">
+        <v>154821</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2622</v>
+      </c>
+      <c r="M24" t="n">
         <v>9</v>
       </c>
-      <c r="C24" t="n">
-        <v>14</v>
-      </c>
-      <c r="D24" t="n">
-        <v>15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>15</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" t="n">
-        <v>370</v>
-      </c>
-      <c r="J24" t="n">
-        <v>34524</v>
-      </c>
-      <c r="K24" t="n">
-        <v>60034</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>04</t>
@@ -1609,19 +1609,19 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>15</v>
@@ -1630,7 +1630,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1639,38 +1639,40 @@
         <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="J25" t="n">
-        <v>114660</v>
+        <v>34524</v>
       </c>
       <c r="K25" t="n">
-        <v>195602</v>
+        <v>60034</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>15</v>
@@ -1679,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1688,16 +1690,16 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="J26" t="n">
-        <v>30429</v>
+        <v>114660</v>
       </c>
       <c r="K26" t="n">
-        <v>28721</v>
+        <v>195602</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1367</v>
+        <v>0.3841</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1707,16 +1709,16 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -1728,25 +1730,25 @@
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J27" t="n">
-        <v>10143</v>
+        <v>30429</v>
       </c>
       <c r="K27" t="n">
-        <v>9575</v>
+        <v>28721</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0359</v>
+        <v>0.1367</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1756,19 +1758,19 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
         <v>15</v>
@@ -1777,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1786,16 +1788,16 @@
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J28" t="n">
-        <v>81144</v>
+        <v>10143</v>
       </c>
       <c r="K28" t="n">
-        <v>77690</v>
+        <v>9575</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3027</v>
+        <v>0.0359</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
@@ -1805,16 +1807,16 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
         <v>14</v>
@@ -1826,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1835,16 +1837,16 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J29" t="n">
-        <v>60858</v>
+        <v>81144</v>
       </c>
       <c r="K29" t="n">
-        <v>58151</v>
+        <v>77690</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2167</v>
+        <v>0.3027</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
@@ -1854,16 +1856,16 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>14</v>
@@ -1875,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
@@ -1884,16 +1886,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J30" t="n">
-        <v>46914</v>
+        <v>60858</v>
       </c>
       <c r="K30" t="n">
-        <v>45229</v>
+        <v>58151</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1723</v>
+        <v>0.2167</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -1903,19 +1905,19 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="n">
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
@@ -1933,16 +1935,16 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J31" t="n">
-        <v>70371</v>
+        <v>46914</v>
       </c>
       <c r="K31" t="n">
-        <v>68161</v>
+        <v>45229</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2664</v>
+        <v>0.1723</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -1952,19 +1954,19 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
@@ -1973,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>6</v>
@@ -1982,16 +1984,16 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J32" t="n">
-        <v>20286</v>
+        <v>70371</v>
       </c>
       <c r="K32" t="n">
-        <v>19385</v>
+        <v>68161</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0702</v>
+        <v>0.2664</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -2001,16 +2003,16 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>14</v>
@@ -2022,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2031,38 +2033,38 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>1194</v>
+        <v>40</v>
       </c>
       <c r="J33" t="n">
-        <v>101430</v>
+        <v>20286</v>
       </c>
       <c r="K33" t="n">
-        <v>97112</v>
+        <v>19385</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5688</v>
+        <v>0.0702</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
         <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
         <v>15</v>
@@ -2080,16 +2082,16 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>124</v>
+        <v>1194</v>
       </c>
       <c r="J34" t="n">
-        <v>50715</v>
+        <v>101430</v>
       </c>
       <c r="K34" t="n">
-        <v>47867</v>
+        <v>97112</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2266</v>
+        <v>0.5688</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2099,19 +2101,19 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
@@ -2129,16 +2131,16 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>7950</v>
+        <v>124</v>
       </c>
       <c r="J35" t="n">
-        <v>202860</v>
+        <v>50715</v>
       </c>
       <c r="K35" t="n">
-        <v>195602</v>
+        <v>47867</v>
       </c>
       <c r="L35" t="n">
-        <v>1.3571</v>
+        <v>0.2266</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2148,25 +2150,25 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F36" t="n">
         <v>5</v>
@@ -2178,16 +2180,16 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>41720</v>
+        <v>7950</v>
       </c>
       <c r="J36" t="n">
-        <v>1173690</v>
+        <v>202860</v>
       </c>
       <c r="K36" t="n">
-        <v>1149317</v>
+        <v>195602</v>
       </c>
       <c r="L36" t="n">
-        <v>19.0623</v>
+        <v>1.3571</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2197,25 +2199,25 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" t="n">
         <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
         <v>5</v>
@@ -2227,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>124</v>
+        <v>41720</v>
       </c>
       <c r="J37" t="n">
-        <v>23415</v>
+        <v>1173690</v>
       </c>
       <c r="K37" t="n">
-        <v>21917</v>
+        <v>1149317</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0978</v>
+        <v>19.0623</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2246,16 +2248,16 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
@@ -2267,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -2276,16 +2278,16 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="J38" t="n">
-        <v>14049</v>
+        <v>23415</v>
       </c>
       <c r="K38" t="n">
-        <v>13151</v>
+        <v>21917</v>
       </c>
       <c r="L38" t="n">
-        <v>0.06</v>
+        <v>0.0978</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2295,16 +2297,16 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
         <v>7</v>
@@ -2316,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -2325,16 +2327,16 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J39" t="n">
-        <v>10787</v>
+        <v>14049</v>
       </c>
       <c r="K39" t="n">
-        <v>10229</v>
+        <v>13151</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0394</v>
+        <v>0.06</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2344,16 +2346,16 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
         <v>7</v>
@@ -2365,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2377,13 +2379,13 @@
         <v>20</v>
       </c>
       <c r="J40" t="n">
-        <v>4683</v>
+        <v>10787</v>
       </c>
       <c r="K40" t="n">
-        <v>4385</v>
+        <v>10229</v>
       </c>
       <c r="L40" t="n">
-        <v>0.013</v>
+        <v>0.0394</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2393,19 +2395,19 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2423,16 +2425,16 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J41" t="n">
-        <v>14049</v>
+        <v>4683</v>
       </c>
       <c r="K41" t="n">
-        <v>13373</v>
+        <v>4385</v>
       </c>
       <c r="L41" t="n">
-        <v>0.058</v>
+        <v>0.013</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2442,16 +2444,16 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>21</v>
@@ -2463,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2472,16 +2474,16 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="J42" t="n">
-        <v>42147</v>
+        <v>14049</v>
       </c>
       <c r="K42" t="n">
-        <v>40115</v>
+        <v>13373</v>
       </c>
       <c r="L42" t="n">
-        <v>0.253</v>
+        <v>0.058</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2491,28 +2493,28 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2521,38 +2523,38 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>41</v>
+        <v>932</v>
       </c>
       <c r="J43" t="n">
-        <v>988547</v>
+        <v>42147</v>
       </c>
       <c r="K43" t="n">
-        <v>951134</v>
+        <v>40115</v>
       </c>
       <c r="L43" t="n">
-        <v>4.1745</v>
+        <v>0.253</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" t="n">
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
         <v>100</v>
@@ -2570,16 +2572,16 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>54920</v>
+        <v>41</v>
       </c>
       <c r="J44" t="n">
-        <v>6919829</v>
+        <v>988547</v>
       </c>
       <c r="K44" t="n">
-        <v>6861710</v>
+        <v>951134</v>
       </c>
       <c r="L44" t="n">
-        <v>183.2784</v>
+        <v>4.1745</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -2589,19 +2591,19 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
         <v>100</v>
@@ -2610,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
@@ -2619,16 +2621,16 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>1053</v>
+        <v>54920</v>
       </c>
       <c r="J45" t="n">
-        <v>424263</v>
+        <v>6919829</v>
       </c>
       <c r="K45" t="n">
-        <v>407630</v>
+        <v>6861710</v>
       </c>
       <c r="L45" t="n">
-        <v>1.5868</v>
+        <v>183.2784</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2638,19 +2640,19 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
         <v>100</v>
@@ -2668,16 +2670,16 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>205171</v>
+        <v>1053</v>
       </c>
       <c r="J46" t="n">
-        <v>2596356</v>
+        <v>424263</v>
       </c>
       <c r="K46" t="n">
-        <v>5051654</v>
+        <v>407630</v>
       </c>
       <c r="L46" t="n">
-        <v>12.0275</v>
+        <v>1.5868</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2687,19 +2689,19 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D47" t="n">
         <v>100</v>
@@ -2717,16 +2719,16 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>12200</v>
+        <v>205171</v>
       </c>
       <c r="J47" t="n">
-        <v>865452</v>
+        <v>2596356</v>
       </c>
       <c r="K47" t="n">
-        <v>1674182</v>
+        <v>5051654</v>
       </c>
       <c r="L47" t="n">
-        <v>2.4971</v>
+        <v>12.0275</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -2736,13 +2738,13 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
@@ -2751,10 +2753,10 @@
         <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2766,16 +2768,16 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>2519</v>
+        <v>12200</v>
       </c>
       <c r="J48" t="n">
-        <v>11172</v>
+        <v>865452</v>
       </c>
       <c r="K48" t="n">
-        <v>17867</v>
+        <v>1674182</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0343</v>
+        <v>2.4971</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -2785,19 +2787,19 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -2815,16 +2817,16 @@
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>2788</v>
+        <v>2519</v>
       </c>
       <c r="J49" t="n">
-        <v>13167</v>
+        <v>11172</v>
       </c>
       <c r="K49" t="n">
-        <v>21077</v>
+        <v>17867</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0473</v>
+        <v>0.0343</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -2834,19 +2836,19 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -2864,16 +2866,16 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>2272</v>
+        <v>2788</v>
       </c>
       <c r="J50" t="n">
-        <v>9177</v>
+        <v>13167</v>
       </c>
       <c r="K50" t="n">
-        <v>14657</v>
+        <v>21077</v>
       </c>
       <c r="L50" t="n">
-        <v>0.027</v>
+        <v>0.0473</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -2883,19 +2885,19 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
@@ -2913,16 +2915,16 @@
         <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>2191</v>
+        <v>2272</v>
       </c>
       <c r="J51" t="n">
-        <v>5187</v>
+        <v>9177</v>
       </c>
       <c r="K51" t="n">
-        <v>8237</v>
+        <v>14657</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0143</v>
+        <v>0.027</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -2932,19 +2934,19 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -2962,16 +2964,16 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>171</v>
+        <v>2191</v>
       </c>
       <c r="J52" t="n">
-        <v>1197</v>
+        <v>5187</v>
       </c>
       <c r="K52" t="n">
-        <v>1817</v>
+        <v>8237</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0024</v>
+        <v>0.0143</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -2981,16 +2983,16 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
@@ -3011,32 +3013,32 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="J53" t="n">
-        <v>858</v>
+        <v>1197</v>
       </c>
       <c r="K53" t="n">
-        <v>1212</v>
+        <v>1817</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0022</v>
+        <v>0.0024</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
         <v>2</v>
@@ -3045,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -3059,15 +3061,17 @@
       <c r="H54" t="n">
         <v>5</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
       <c r="J54" t="n">
-        <v>348</v>
+        <v>858</v>
       </c>
       <c r="K54" t="n">
-        <v>282</v>
+        <v>1212</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3077,25 +3081,25 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -3108,35 +3112,35 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>8008</v>
+        <v>348</v>
       </c>
       <c r="K55" t="n">
-        <v>11912</v>
+        <v>282</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0174</v>
+        <v>0.0001</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -3155,13 +3159,13 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>572</v>
+        <v>8008</v>
       </c>
       <c r="K56" t="n">
-        <v>784</v>
+        <v>11912</v>
       </c>
       <c r="L56" t="n">
-        <v>0.001</v>
+        <v>0.0174</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3171,19 +3175,19 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
@@ -3202,13 +3206,13 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="K57" t="n">
-        <v>356</v>
+        <v>784</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3218,19 +3222,19 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
@@ -3249,13 +3253,13 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>1430</v>
+        <v>286</v>
       </c>
       <c r="K58" t="n">
-        <v>2068</v>
+        <v>356</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0029</v>
+        <v>0.0001</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -3265,19 +3269,19 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
@@ -3296,13 +3300,13 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>1144</v>
+        <v>1430</v>
       </c>
       <c r="K59" t="n">
-        <v>1640</v>
+        <v>2068</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
@@ -3312,19 +3316,19 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
@@ -3333,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3343,13 +3347,13 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>3990</v>
+        <v>1144</v>
       </c>
       <c r="K60" t="n">
-        <v>6200</v>
+        <v>1640</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0072</v>
+        <v>0.0028</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -3359,28 +3363,28 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
         <v>2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>10</v>
-      </c>
-      <c r="D61" t="n">
-        <v>10</v>
-      </c>
-      <c r="E61" t="n">
-        <v>10</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3390,13 +3394,13 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>2860</v>
+        <v>3990</v>
       </c>
       <c r="K61" t="n">
-        <v>4120</v>
+        <v>6200</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0119</v>
+        <v>0.0072</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -3406,16 +3410,16 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
         <v>10</v>
@@ -3437,13 +3441,13 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>6250</v>
+        <v>2860</v>
       </c>
       <c r="K62" t="n">
-        <v>10697</v>
+        <v>4120</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0162</v>
+        <v>0.0119</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -3453,16 +3457,16 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B63" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
         <v>10</v>
@@ -3474,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3484,13 +3488,13 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>14230</v>
+        <v>6250</v>
       </c>
       <c r="K63" t="n">
-        <v>23531</v>
+        <v>10697</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0366</v>
+        <v>0.0162</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
@@ -3500,19 +3504,19 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="n">
         <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
@@ -3531,13 +3535,13 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>7115</v>
+        <v>14230</v>
       </c>
       <c r="K64" t="n">
-        <v>11761</v>
+        <v>23531</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0116</v>
+        <v>0.0366</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
@@ -3547,16 +3551,16 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
         <v>5</v>
@@ -3568,23 +3572,23 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="K65" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0098</v>
+        <v>0.0116</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
@@ -3594,108 +3598,112 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3338</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>46032</v>
+        <v>5685</v>
       </c>
       <c r="K66" t="n">
-        <v>80278</v>
+        <v>9623</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2189</v>
+        <v>0.0098</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3338</v>
+      </c>
       <c r="J67" t="n">
-        <v>5685</v>
+        <v>46032</v>
       </c>
       <c r="K67" t="n">
-        <v>9623</v>
+        <v>80278</v>
       </c>
       <c r="L67" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.2189</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>11:34:58</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
@@ -3707,41 +3715,41 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="K68" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0064</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:26:30</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
@@ -3750,46 +3758,50 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>11370</v>
+        <v>3125</v>
       </c>
       <c r="K69" t="n">
-        <v>19253</v>
+        <v>5347</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0334</v>
+        <v>0.0064</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
         <v>2</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5</v>
-      </c>
-      <c r="C70" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>10</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3799,17 +3811,56 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>3125</v>
+        <v>11370</v>
       </c>
       <c r="K70" t="n">
-        <v>5347</v>
+        <v>19253</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0071</v>
+        <v>0.0334</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -464,20 +464,20 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>11907</v>
       </c>
       <c r="K2" t="n">
-        <v>54327</v>
+        <v>62307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0563</v>
+        <v>0.1353</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21:11:35</t>
+          <t>10:28:55</t>
         </is>
       </c>
     </row>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
@@ -464,20 +464,20 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11907</v>
+        <v>168549</v>
       </c>
       <c r="K2" t="n">
-        <v>62307</v>
+        <v>310007</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1353</v>
+        <v>0.594</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,28 +487,28 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10:28:55</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>7.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18711</v>
+        <v>56031</v>
       </c>
       <c r="K3" t="n">
-        <v>55167</v>
+        <v>101589</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0654</v>
+        <v>0.093</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,28 +538,28 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>32.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50281</v>
+        <v>562362</v>
       </c>
       <c r="K4" t="n">
-        <v>155342</v>
+        <v>1039470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1682</v>
+        <v>2.6686</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -589,28 +589,28 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -619,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>3.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32382</v>
+        <v>112518</v>
       </c>
       <c r="K5" t="n">
-        <v>153575</v>
+        <v>205817</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1282</v>
+        <v>0.2438</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -640,28 +640,28 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -670,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>240.6554934823091</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>101164</v>
+        <v>118440</v>
       </c>
       <c r="K6" t="n">
-        <v>317602</v>
+        <v>216717</v>
       </c>
       <c r="L6" t="n">
-        <v>0.487</v>
+        <v>0.2484</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -691,25 +691,25 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -721,19 +721,19 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="J7" t="n">
-        <v>64764</v>
+        <v>47376</v>
       </c>
       <c r="K7" t="n">
-        <v>314970</v>
+        <v>211077</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2711</v>
+        <v>0.1306</v>
       </c>
       <c r="M7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -742,28 +742,28 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -772,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>2419.333333333333</v>
+        <v>84</v>
       </c>
       <c r="J8" t="n">
-        <v>173964</v>
+        <v>23688</v>
       </c>
       <c r="K8" t="n">
-        <v>322866</v>
+        <v>103067</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4497</v>
+        <v>0.0512</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -793,28 +793,28 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>602</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="J9" t="n">
-        <v>86982</v>
+        <v>20727</v>
       </c>
       <c r="K9" t="n">
-        <v>171967</v>
+        <v>97591</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2673</v>
+        <v>0.0536</v>
       </c>
       <c r="M9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,28 +844,28 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -874,19 +874,19 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>73332</v>
+        <v>32571</v>
       </c>
       <c r="K10" t="n">
-        <v>167389</v>
+        <v>98911</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1522</v>
+        <v>0.1316</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -895,28 +895,28 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -925,19 +925,19 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>13395</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="J11" t="n">
-        <v>293328</v>
+        <v>5537</v>
       </c>
       <c r="K11" t="n">
-        <v>684598</v>
+        <v>23707</v>
       </c>
       <c r="L11" t="n">
-        <v>2.7488</v>
+        <v>0.0179</v>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -946,28 +946,28 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -976,19 +976,19 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>45.00000000000001</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="J12" t="n">
-        <v>129528</v>
+        <v>496356</v>
       </c>
       <c r="K12" t="n">
-        <v>640400</v>
+        <v>937352</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3063</v>
+        <v>1.8175</v>
       </c>
       <c r="M12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -997,28 +997,28 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1027,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12292</v>
+        <v>60116</v>
       </c>
       <c r="K13" t="n">
-        <v>54509</v>
+        <v>102342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0383</v>
+        <v>0.2605</v>
       </c>
       <c r="M13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1048,25 +1048,25 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -1078,19 +1078,19 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>1804.999934139618</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>76048</v>
+        <v>34804</v>
       </c>
       <c r="K14" t="n">
-        <v>229623</v>
+        <v>99742</v>
       </c>
       <c r="L14" t="n">
-        <v>44.1138</v>
+        <v>0.1609</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1099,25 +1099,25 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -1129,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="J15" t="n">
-        <v>19012</v>
+        <v>8701</v>
       </c>
       <c r="K15" t="n">
-        <v>55785</v>
+        <v>24205</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0372</v>
+        <v>0.0183</v>
       </c>
       <c r="M15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1150,19 +1150,19 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -1180,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>190.0000000000001</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="J16" t="n">
-        <v>36610</v>
+        <v>11907</v>
       </c>
       <c r="K16" t="n">
-        <v>110682</v>
+        <v>54384</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3782</v>
+        <v>0.0538</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1201,19 +1201,19 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1231,19 +1231,19 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>1659.5</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>73220</v>
+        <v>18711</v>
       </c>
       <c r="K17" t="n">
-        <v>224873</v>
+        <v>55167</v>
       </c>
       <c r="L17" t="n">
-        <v>11.8307</v>
+        <v>0.0654</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
-        <v>14</v>
-      </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -1282,19 +1282,19 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>253</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>45696</v>
+        <v>50281</v>
       </c>
       <c r="K18" t="n">
-        <v>109671</v>
+        <v>155342</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5595</v>
+        <v>0.1682</v>
       </c>
       <c r="M18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1303,28 +1303,28 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1333,19 +1333,19 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>394</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>38178</v>
+        <v>32382</v>
       </c>
       <c r="K19" t="n">
-        <v>58116</v>
+        <v>153575</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.1282</v>
       </c>
       <c r="M19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1354,28 +1354,28 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
         <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1384,19 +1384,19 @@
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>1578</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="J20" t="n">
-        <v>52500</v>
+        <v>101164</v>
       </c>
       <c r="K20" t="n">
-        <v>92122</v>
+        <v>317602</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5428</v>
+        <v>0.487</v>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1405,28 +1405,28 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1435,19 +1435,19 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>1577.999992666665</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>57540</v>
+        <v>64764</v>
       </c>
       <c r="K21" t="n">
-        <v>100522</v>
+        <v>314970</v>
       </c>
       <c r="L21" t="n">
-        <v>2.1297</v>
+        <v>0.2711</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1456,28 +1456,28 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1486,19 +1486,19 @@
         <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>3202</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="J22" t="n">
-        <v>351288</v>
+        <v>173964</v>
       </c>
       <c r="K22" t="n">
-        <v>466643</v>
+        <v>322866</v>
       </c>
       <c r="L22" t="n">
-        <v>1.9582</v>
+        <v>0.4497</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1507,28 +1507,28 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1537,19 +1537,19 @@
         <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>51</v>
+        <v>602</v>
       </c>
       <c r="J23" t="n">
-        <v>29274</v>
+        <v>86982</v>
       </c>
       <c r="K23" t="n">
-        <v>37158</v>
+        <v>171967</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0469</v>
+        <v>0.2673</v>
       </c>
       <c r="M23" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1558,25 +1558,25 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
@@ -1588,19 +1588,19 @@
         <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J24" t="n">
-        <v>117096</v>
+        <v>73332</v>
       </c>
       <c r="K24" t="n">
-        <v>154821</v>
+        <v>167389</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2622</v>
+        <v>0.1522</v>
       </c>
       <c r="M24" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1609,28 +1609,28 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1639,19 +1639,19 @@
         <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>370</v>
+        <v>13395</v>
       </c>
       <c r="J25" t="n">
-        <v>34524</v>
+        <v>293328</v>
       </c>
       <c r="K25" t="n">
-        <v>60034</v>
+        <v>684598</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1695</v>
+        <v>2.7488</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1660,28 +1660,28 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1690,35 +1690,37 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>400</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>114660</v>
+        <v>129528</v>
       </c>
       <c r="K26" t="n">
-        <v>195602</v>
+        <v>640400</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>1.3063</v>
+      </c>
+      <c r="M26" t="n">
+        <v>18</v>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -1730,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -1739,38 +1741,40 @@
         <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J27" t="n">
-        <v>30429</v>
+        <v>12292</v>
       </c>
       <c r="K27" t="n">
-        <v>28721</v>
+        <v>54509</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0.0383</v>
+      </c>
+      <c r="M27" t="n">
+        <v>17</v>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>15</v>
@@ -1779,47 +1783,49 @@
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="J28" t="n">
-        <v>10143</v>
+        <v>76048</v>
       </c>
       <c r="K28" t="n">
-        <v>9575</v>
+        <v>229623</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>44.1138</v>
+      </c>
+      <c r="M28" t="n">
+        <v>17</v>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>15</v>
@@ -1828,44 +1834,46 @@
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>81144</v>
+        <v>19012</v>
       </c>
       <c r="K29" t="n">
-        <v>77690</v>
+        <v>55785</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0.0372</v>
+      </c>
+      <c r="M29" t="n">
+        <v>17</v>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>14</v>
@@ -1877,47 +1885,49 @@
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>120</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>60858</v>
+        <v>36610</v>
       </c>
       <c r="K30" t="n">
-        <v>58151</v>
+        <v>110682</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>1.3782</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16</v>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
@@ -1926,47 +1936,49 @@
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>80</v>
+        <v>1659.5</v>
       </c>
       <c r="J31" t="n">
-        <v>46914</v>
+        <v>73220</v>
       </c>
       <c r="K31" t="n">
-        <v>45229</v>
+        <v>224873</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1723</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>11.8307</v>
+      </c>
+      <c r="M31" t="n">
+        <v>16</v>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B32" t="n">
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
@@ -1981,41 +1993,43 @@
         <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="J32" t="n">
-        <v>70371</v>
+        <v>45696</v>
       </c>
       <c r="K32" t="n">
-        <v>68161</v>
+        <v>109671</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2664</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0.5595</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13</v>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>15</v>
@@ -2024,41 +2038,43 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="J33" t="n">
-        <v>20286</v>
+        <v>38178</v>
       </c>
       <c r="K33" t="n">
-        <v>19385</v>
+        <v>58116</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11</v>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B34" t="n">
         <v>15</v>
@@ -2073,47 +2089,49 @@
         <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>1194</v>
+        <v>1578</v>
       </c>
       <c r="J34" t="n">
-        <v>101430</v>
+        <v>52500</v>
       </c>
       <c r="K34" t="n">
-        <v>97112</v>
+        <v>92122</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5688</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>6.5428</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9</v>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B35" t="n">
         <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
@@ -2128,194 +2146,202 @@
         <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>124</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J35" t="n">
-        <v>50715</v>
+        <v>57540</v>
       </c>
       <c r="K35" t="n">
-        <v>47867</v>
+        <v>100522</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2266</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>2.1297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9</v>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>7950</v>
+        <v>3202</v>
       </c>
       <c r="J36" t="n">
-        <v>202860</v>
+        <v>351288</v>
       </c>
       <c r="K36" t="n">
-        <v>195602</v>
+        <v>466643</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3571</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.9582</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9</v>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I37" t="n">
-        <v>41720</v>
+        <v>51</v>
       </c>
       <c r="J37" t="n">
-        <v>1173690</v>
+        <v>29274</v>
       </c>
       <c r="K37" t="n">
-        <v>1149317</v>
+        <v>37158</v>
       </c>
       <c r="L37" t="n">
-        <v>19.0623</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9</v>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="J38" t="n">
-        <v>23415</v>
+        <v>117096</v>
       </c>
       <c r="K38" t="n">
-        <v>21917</v>
+        <v>154821</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0978</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9</v>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
@@ -2324,145 +2350,147 @@
         <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="J39" t="n">
-        <v>14049</v>
+        <v>34524</v>
       </c>
       <c r="K39" t="n">
-        <v>13151</v>
+        <v>60034</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="J40" t="n">
-        <v>10787</v>
+        <v>114660</v>
       </c>
       <c r="K40" t="n">
-        <v>10229</v>
+        <v>195602</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0394</v>
+        <v>0.3841</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J41" t="n">
-        <v>4683</v>
+        <v>30429</v>
       </c>
       <c r="K41" t="n">
-        <v>4385</v>
+        <v>28721</v>
       </c>
       <c r="L41" t="n">
-        <v>0.013</v>
+        <v>0.1367</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2474,47 +2502,47 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J42" t="n">
-        <v>14049</v>
+        <v>10143</v>
       </c>
       <c r="K42" t="n">
-        <v>13373</v>
+        <v>9575</v>
       </c>
       <c r="L42" t="n">
-        <v>0.058</v>
+        <v>0.0359</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2523,47 +2551,47 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>932</v>
+        <v>160</v>
       </c>
       <c r="J43" t="n">
-        <v>42147</v>
+        <v>81144</v>
       </c>
       <c r="K43" t="n">
-        <v>40115</v>
+        <v>77690</v>
       </c>
       <c r="L43" t="n">
-        <v>0.253</v>
+        <v>0.3027</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2572,44 +2600,44 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="J44" t="n">
-        <v>988547</v>
+        <v>60858</v>
       </c>
       <c r="K44" t="n">
-        <v>951134</v>
+        <v>58151</v>
       </c>
       <c r="L44" t="n">
-        <v>4.1745</v>
+        <v>0.2167</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B45" t="n">
         <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -2621,47 +2649,47 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>54920</v>
+        <v>80</v>
       </c>
       <c r="J45" t="n">
-        <v>6919829</v>
+        <v>46914</v>
       </c>
       <c r="K45" t="n">
-        <v>6861710</v>
+        <v>45229</v>
       </c>
       <c r="L45" t="n">
-        <v>183.2784</v>
+        <v>0.1723</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -2670,44 +2698,44 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>1053</v>
+        <v>120</v>
       </c>
       <c r="J46" t="n">
-        <v>424263</v>
+        <v>70371</v>
       </c>
       <c r="K46" t="n">
-        <v>407630</v>
+        <v>68161</v>
       </c>
       <c r="L46" t="n">
-        <v>1.5868</v>
+        <v>0.2664</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2719,47 +2747,47 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>205171</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>2596356</v>
+        <v>20286</v>
       </c>
       <c r="K47" t="n">
-        <v>5051654</v>
+        <v>19385</v>
       </c>
       <c r="L47" t="n">
-        <v>12.0275</v>
+        <v>0.0702</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
@@ -2768,47 +2796,47 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>12200</v>
+        <v>1194</v>
       </c>
       <c r="J48" t="n">
-        <v>865452</v>
+        <v>101430</v>
       </c>
       <c r="K48" t="n">
-        <v>1674182</v>
+        <v>97112</v>
       </c>
       <c r="L48" t="n">
-        <v>2.4971</v>
+        <v>0.5688</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2817,47 +2845,47 @@
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>2519</v>
+        <v>124</v>
       </c>
       <c r="J49" t="n">
-        <v>11172</v>
+        <v>50715</v>
       </c>
       <c r="K49" t="n">
-        <v>17867</v>
+        <v>47867</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0343</v>
+        <v>0.2266</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2866,47 +2894,47 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>2788</v>
+        <v>7950</v>
       </c>
       <c r="J50" t="n">
-        <v>13167</v>
+        <v>202860</v>
       </c>
       <c r="K50" t="n">
-        <v>21077</v>
+        <v>195602</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0473</v>
+        <v>1.3571</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -2915,38 +2943,38 @@
         <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>2272</v>
+        <v>41720</v>
       </c>
       <c r="J51" t="n">
-        <v>9177</v>
+        <v>1173690</v>
       </c>
       <c r="K51" t="n">
-        <v>14657</v>
+        <v>1149317</v>
       </c>
       <c r="L51" t="n">
-        <v>0.027</v>
+        <v>19.0623</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -2955,7 +2983,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -2964,48 +2992,48 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>2191</v>
+        <v>124</v>
       </c>
       <c r="J52" t="n">
-        <v>5187</v>
+        <v>23415</v>
       </c>
       <c r="K52" t="n">
-        <v>8237</v>
+        <v>21917</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0143</v>
+        <v>0.0978</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B53" t="n">
+        <v>9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
         <v>3</v>
       </c>
-      <c r="C53" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>10</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
       <c r="G53" t="n">
         <v>6</v>
       </c>
@@ -3013,48 +3041,48 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="J53" t="n">
-        <v>1197</v>
+        <v>14049</v>
       </c>
       <c r="K53" t="n">
-        <v>1817</v>
+        <v>13151</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0024</v>
+        <v>0.06</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
         <v>2</v>
       </c>
-      <c r="C54" t="n">
-        <v>3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>10</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
       <c r="G54" t="n">
         <v>6</v>
       </c>
@@ -3062,44 +3090,44 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" t="n">
-        <v>858</v>
+        <v>10787</v>
       </c>
       <c r="K54" t="n">
-        <v>1212</v>
+        <v>10229</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0022</v>
+        <v>0.0394</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -3110,37 +3138,39 @@
       <c r="H55" t="n">
         <v>5</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>20</v>
+      </c>
       <c r="J55" t="n">
-        <v>348</v>
+        <v>4683</v>
       </c>
       <c r="K55" t="n">
-        <v>282</v>
+        <v>4385</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0001</v>
+        <v>0.013</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -3157,37 +3187,39 @@
       <c r="H56" t="n">
         <v>5</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>60</v>
+      </c>
       <c r="J56" t="n">
-        <v>8008</v>
+        <v>14049</v>
       </c>
       <c r="K56" t="n">
-        <v>11912</v>
+        <v>13373</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0174</v>
+        <v>0.058</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
@@ -3196,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -3204,137 +3236,143 @@
       <c r="H57" t="n">
         <v>5</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>932</v>
+      </c>
       <c r="J57" t="n">
-        <v>572</v>
+        <v>42147</v>
       </c>
       <c r="K57" t="n">
-        <v>784</v>
+        <v>40115</v>
       </c>
       <c r="L57" t="n">
-        <v>0.001</v>
+        <v>0.253</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B58" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>100</v>
+      </c>
+      <c r="E58" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>10</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>5</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>41</v>
+      </c>
       <c r="J58" t="n">
-        <v>286</v>
+        <v>988547</v>
       </c>
       <c r="K58" t="n">
-        <v>356</v>
+        <v>951134</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0001</v>
+        <v>4.1745</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>49</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="n">
         <v>2</v>
       </c>
-      <c r="C59" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" t="n">
-        <v>10</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
       <c r="G59" t="n">
         <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>5</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>54920</v>
+      </c>
       <c r="J59" t="n">
-        <v>1430</v>
+        <v>6919829</v>
       </c>
       <c r="K59" t="n">
-        <v>2068</v>
+        <v>6861710</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0029</v>
+        <v>183.2784</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -3345,46 +3383,48 @@
       <c r="H60" t="n">
         <v>5</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>1053</v>
+      </c>
       <c r="J60" t="n">
-        <v>1144</v>
+        <v>424263</v>
       </c>
       <c r="K60" t="n">
-        <v>1640</v>
+        <v>407630</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0028</v>
+        <v>1.5868</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3392,43 +3432,45 @@
       <c r="H61" t="n">
         <v>5</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>205171</v>
+      </c>
       <c r="J61" t="n">
-        <v>3990</v>
+        <v>2596356</v>
       </c>
       <c r="K61" t="n">
-        <v>6200</v>
+        <v>5051654</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0072</v>
+        <v>12.0275</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -3439,37 +3481,39 @@
       <c r="H62" t="n">
         <v>5</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>12200</v>
+      </c>
       <c r="J62" t="n">
-        <v>2860</v>
+        <v>865452</v>
       </c>
       <c r="K62" t="n">
-        <v>4120</v>
+        <v>1674182</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0119</v>
+        <v>2.4971</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
@@ -3486,37 +3530,39 @@
       <c r="H63" t="n">
         <v>5</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>2519</v>
+      </c>
       <c r="J63" t="n">
-        <v>6250</v>
+        <v>11172</v>
       </c>
       <c r="K63" t="n">
-        <v>10697</v>
+        <v>17867</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0162</v>
+        <v>0.0343</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
@@ -3525,7 +3571,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
@@ -3533,37 +3579,39 @@
       <c r="H64" t="n">
         <v>5</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>2788</v>
+      </c>
       <c r="J64" t="n">
-        <v>14230</v>
+        <v>13167</v>
       </c>
       <c r="K64" t="n">
-        <v>23531</v>
+        <v>21077</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0366</v>
+        <v>0.0473</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
@@ -3572,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -3580,133 +3628,137 @@
       <c r="H65" t="n">
         <v>5</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>2272</v>
+      </c>
       <c r="J65" t="n">
-        <v>7115</v>
+        <v>9177</v>
       </c>
       <c r="K65" t="n">
-        <v>11761</v>
+        <v>14657</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0116</v>
+        <v>0.027</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>13</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
         <v>1</v>
       </c>
-      <c r="B66" t="n">
-        <v>9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>10</v>
-      </c>
-      <c r="E66" t="n">
-        <v>10</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
       <c r="G66" t="n">
         <v>6</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2191</v>
+      </c>
       <c r="J66" t="n">
-        <v>5685</v>
+        <v>5187</v>
       </c>
       <c r="K66" t="n">
-        <v>9623</v>
+        <v>8237</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0098</v>
+        <v>0.0143</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>3338</v>
+        <v>171</v>
       </c>
       <c r="J67" t="n">
-        <v>46032</v>
+        <v>1197</v>
       </c>
       <c r="K67" t="n">
-        <v>80278</v>
+        <v>1817</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2189</v>
+        <v>0.0024</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
@@ -3715,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3723,39 +3775,45 @@
       <c r="H68" t="n">
         <v>5</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
       <c r="J68" t="n">
-        <v>5685</v>
+        <v>858</v>
       </c>
       <c r="K68" t="n">
-        <v>9623</v>
+        <v>1212</v>
       </c>
       <c r="L68" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0022</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>25/03</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3764,35 +3822,39 @@
         <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>3125</v>
+        <v>348</v>
       </c>
       <c r="K69" t="n">
-        <v>5347</v>
+        <v>282</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0064</v>
+        <v>0.0001</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>25/03</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -3801,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3811,27 +3873,35 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>11370</v>
+        <v>8008</v>
       </c>
       <c r="K70" t="n">
-        <v>19253</v>
+        <v>11912</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0334</v>
+        <v>0.0174</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>18:05:32</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B71" t="n">
         <v>2</v>
       </c>
-      <c r="B71" t="n">
-        <v>5</v>
-      </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
@@ -3850,17 +3920,661 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
+        <v>572</v>
+      </c>
+      <c r="K71" t="n">
+        <v>784</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>17:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>286</v>
+      </c>
+      <c r="K72" t="n">
+        <v>356</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>17:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1430</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2068</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>17:33:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1144</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1640</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>17:33:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3990</v>
+      </c>
+      <c r="K75" t="n">
+        <v>6200</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>16:51:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2860</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4120</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>16:16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K77" t="n">
+        <v>10697</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>13:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="n">
+        <v>11</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>14230</v>
+      </c>
+      <c r="K78" t="n">
+        <v>23531</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7115</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11761</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B81" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" t="n">
+        <v>14</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3338</v>
+      </c>
+      <c r="J81" t="n">
+        <v>46032</v>
+      </c>
+      <c r="K81" t="n">
+        <v>80278</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
         <v>3125</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K83" t="n">
         <v>5347</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L83" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K84" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L85" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -455,29 +455,29 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>342.6666652753344</v>
       </c>
       <c r="J2" t="n">
-        <v>168549</v>
+        <v>100674</v>
       </c>
       <c r="K2" t="n">
-        <v>310007</v>
+        <v>197551</v>
       </c>
       <c r="L2" t="n">
-        <v>0.594</v>
+        <v>0.7251</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,19 +487,19 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>10:54:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
@@ -517,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J3" t="n">
-        <v>56031</v>
+        <v>76986</v>
       </c>
       <c r="K3" t="n">
-        <v>101589</v>
+        <v>213912</v>
       </c>
       <c r="L3" t="n">
-        <v>0.093</v>
+        <v>0.2822</v>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>10:10:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2142</v>
       </c>
       <c r="J4" t="n">
-        <v>562362</v>
+        <v>115479</v>
       </c>
       <c r="K4" t="n">
-        <v>1039470</v>
+        <v>317295</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6686</v>
+        <v>67.02849999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>10:00:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -622,16 +622,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>112518</v>
+        <v>62181</v>
       </c>
       <c r="K5" t="n">
-        <v>205817</v>
+        <v>302687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2438</v>
+        <v>0.3342</v>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -640,19 +640,19 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>09:12:06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
         <v>20</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>118440</v>
+        <v>168549</v>
       </c>
       <c r="K6" t="n">
-        <v>216717</v>
+        <v>310007</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2484</v>
+        <v>0.594</v>
       </c>
       <c r="M6" t="n">
         <v>24</v>
@@ -691,19 +691,19 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -712,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
@@ -721,16 +721,16 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>47376</v>
+        <v>56031</v>
       </c>
       <c r="K7" t="n">
-        <v>211077</v>
+        <v>101589</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1306</v>
+        <v>0.093</v>
       </c>
       <c r="M7" t="n">
         <v>24</v>
@@ -742,19 +742,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -772,16 +772,16 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>23688</v>
+        <v>562362</v>
       </c>
       <c r="K8" t="n">
-        <v>103067</v>
+        <v>1039470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0512</v>
+        <v>2.6686</v>
       </c>
       <c r="M8" t="n">
         <v>24</v>
@@ -793,19 +793,19 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -814,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20727</v>
+        <v>112518</v>
       </c>
       <c r="K9" t="n">
-        <v>97591</v>
+        <v>205817</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0536</v>
+        <v>0.2438</v>
       </c>
       <c r="M9" t="n">
         <v>24</v>
@@ -844,19 +844,19 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -874,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32571</v>
+        <v>118440</v>
       </c>
       <c r="K10" t="n">
-        <v>98911</v>
+        <v>216717</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1316</v>
+        <v>0.2484</v>
       </c>
       <c r="M10" t="n">
         <v>24</v>
@@ -895,25 +895,25 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -925,19 +925,19 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>100.0061393594561</v>
+        <v>304</v>
       </c>
       <c r="J11" t="n">
-        <v>5537</v>
+        <v>47376</v>
       </c>
       <c r="K11" t="n">
-        <v>23707</v>
+        <v>211077</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0179</v>
+        <v>0.1306</v>
       </c>
       <c r="M11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -946,28 +946,28 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -976,19 +976,19 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>295101.3333333332</v>
+        <v>84</v>
       </c>
       <c r="J12" t="n">
-        <v>496356</v>
+        <v>23688</v>
       </c>
       <c r="K12" t="n">
-        <v>937352</v>
+        <v>103067</v>
       </c>
       <c r="L12" t="n">
-        <v>1.8175</v>
+        <v>0.0512</v>
       </c>
       <c r="M12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -997,28 +997,28 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1027,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="J13" t="n">
-        <v>60116</v>
+        <v>20727</v>
       </c>
       <c r="K13" t="n">
-        <v>102342</v>
+        <v>97591</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2605</v>
+        <v>0.0536</v>
       </c>
       <c r="M13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1048,25 +1048,25 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B14" t="n">
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -1078,19 +1078,19 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>34804</v>
+        <v>32571</v>
       </c>
       <c r="K14" t="n">
-        <v>99742</v>
+        <v>98911</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1609</v>
+        <v>0.1316</v>
       </c>
       <c r="M14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>7</v>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1129,16 +1129,16 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>178.7777777777777</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="J15" t="n">
-        <v>8701</v>
+        <v>5537</v>
       </c>
       <c r="K15" t="n">
-        <v>24205</v>
+        <v>23707</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0183</v>
+        <v>0.0179</v>
       </c>
       <c r="M15" t="n">
         <v>23</v>
@@ -1150,28 +1150,28 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1180,16 +1180,16 @@
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>177.1111111111111</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="J16" t="n">
-        <v>11907</v>
+        <v>496356</v>
       </c>
       <c r="K16" t="n">
-        <v>54384</v>
+        <v>937352</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0538</v>
+        <v>1.8175</v>
       </c>
       <c r="M16" t="n">
         <v>23</v>
@@ -1201,28 +1201,28 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1231,19 +1231,19 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>7.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18711</v>
+        <v>60116</v>
       </c>
       <c r="K17" t="n">
-        <v>55167</v>
+        <v>102342</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0654</v>
+        <v>0.2605</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B18" t="n">
         <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -1282,19 +1282,19 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>32.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50281</v>
+        <v>34804</v>
       </c>
       <c r="K18" t="n">
-        <v>155342</v>
+        <v>99742</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1682</v>
+        <v>0.1609</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1303,28 +1303,28 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1333,19 +1333,19 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>3.999999999999999</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="J19" t="n">
-        <v>32382</v>
+        <v>8701</v>
       </c>
       <c r="K19" t="n">
-        <v>153575</v>
+        <v>24205</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1282</v>
+        <v>0.0183</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1354,28 +1354,28 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1384,19 +1384,19 @@
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>240.6554934823091</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="J20" t="n">
-        <v>101164</v>
+        <v>11907</v>
       </c>
       <c r="K20" t="n">
-        <v>317602</v>
+        <v>54384</v>
       </c>
       <c r="L20" t="n">
-        <v>0.487</v>
+        <v>0.0538</v>
       </c>
       <c r="M20" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1405,28 +1405,28 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
         <v>7</v>
       </c>
-      <c r="C21" t="n">
-        <v>14</v>
-      </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1435,19 +1435,19 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>64764</v>
+        <v>18711</v>
       </c>
       <c r="K21" t="n">
-        <v>314970</v>
+        <v>55167</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2711</v>
+        <v>0.0654</v>
       </c>
       <c r="M21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1456,19 +1456,19 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>25</v>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1486,19 +1486,19 @@
         <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>2419.333333333333</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>173964</v>
+        <v>50281</v>
       </c>
       <c r="K22" t="n">
-        <v>322866</v>
+        <v>155342</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4497</v>
+        <v>0.1682</v>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
@@ -1528,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1537,19 +1537,19 @@
         <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>602</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>86982</v>
+        <v>32382</v>
       </c>
       <c r="K23" t="n">
-        <v>171967</v>
+        <v>153575</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2673</v>
+        <v>0.1282</v>
       </c>
       <c r="M23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1558,19 +1558,19 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
         <v>25</v>
@@ -1579,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -1588,16 +1588,16 @@
         <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>38</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="J24" t="n">
-        <v>73332</v>
+        <v>101164</v>
       </c>
       <c r="K24" t="n">
-        <v>167389</v>
+        <v>317602</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1522</v>
+        <v>0.487</v>
       </c>
       <c r="M24" t="n">
         <v>18</v>
@@ -1609,19 +1609,19 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>25</v>
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1639,16 +1639,16 @@
         <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>13395</v>
+        <v>16</v>
       </c>
       <c r="J25" t="n">
-        <v>293328</v>
+        <v>64764</v>
       </c>
       <c r="K25" t="n">
-        <v>684598</v>
+        <v>314970</v>
       </c>
       <c r="L25" t="n">
-        <v>2.7488</v>
+        <v>0.2711</v>
       </c>
       <c r="M25" t="n">
         <v>18</v>
@@ -1660,19 +1660,19 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
         <v>25</v>
@@ -1681,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1690,16 +1690,16 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>45.00000000000001</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="J26" t="n">
-        <v>129528</v>
+        <v>173964</v>
       </c>
       <c r="K26" t="n">
-        <v>640400</v>
+        <v>322866</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3063</v>
+        <v>0.4497</v>
       </c>
       <c r="M26" t="n">
         <v>18</v>
@@ -1711,28 +1711,28 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -1741,19 +1741,19 @@
         <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>33</v>
+        <v>602</v>
       </c>
       <c r="J27" t="n">
-        <v>12292</v>
+        <v>86982</v>
       </c>
       <c r="K27" t="n">
-        <v>54509</v>
+        <v>171967</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0383</v>
+        <v>0.2673</v>
       </c>
       <c r="M27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1762,28 +1762,28 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
-        <v>28</v>
-      </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1792,19 +1792,19 @@
         <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>1804.999934139618</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>76048</v>
+        <v>73332</v>
       </c>
       <c r="K28" t="n">
-        <v>229623</v>
+        <v>167389</v>
       </c>
       <c r="L28" t="n">
-        <v>44.1138</v>
+        <v>0.1522</v>
       </c>
       <c r="M28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1813,28 +1813,28 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1843,19 +1843,19 @@
         <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>13395</v>
       </c>
       <c r="J29" t="n">
-        <v>19012</v>
+        <v>293328</v>
       </c>
       <c r="K29" t="n">
-        <v>55785</v>
+        <v>684598</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0372</v>
+        <v>2.7488</v>
       </c>
       <c r="M29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1864,25 +1864,25 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1894,19 +1894,19 @@
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>190.0000000000001</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>36610</v>
+        <v>129528</v>
       </c>
       <c r="K30" t="n">
-        <v>110682</v>
+        <v>640400</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3782</v>
+        <v>1.3063</v>
       </c>
       <c r="M30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1915,19 +1915,19 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
@@ -1945,19 +1945,19 @@
         <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>1659.5</v>
+        <v>33</v>
       </c>
       <c r="J31" t="n">
-        <v>73220</v>
+        <v>12292</v>
       </c>
       <c r="K31" t="n">
-        <v>224873</v>
+        <v>54509</v>
       </c>
       <c r="L31" t="n">
-        <v>11.8307</v>
+        <v>0.0383</v>
       </c>
       <c r="M31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1966,19 +1966,19 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" t="n">
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>15</v>
@@ -1996,19 +1996,19 @@
         <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>253</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="J32" t="n">
-        <v>45696</v>
+        <v>76048</v>
       </c>
       <c r="K32" t="n">
-        <v>109671</v>
+        <v>229623</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5595</v>
+        <v>44.1138</v>
       </c>
       <c r="M32" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>7</v>
@@ -2038,7 +2038,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="J33" t="n">
-        <v>38178</v>
+        <v>19012</v>
       </c>
       <c r="K33" t="n">
-        <v>58116</v>
+        <v>55785</v>
       </c>
       <c r="L33" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.0372</v>
       </c>
       <c r="M33" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
         <v>14</v>
@@ -2098,19 +2098,19 @@
         <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>1578</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>52500</v>
+        <v>36610</v>
       </c>
       <c r="K34" t="n">
-        <v>92122</v>
+        <v>110682</v>
       </c>
       <c r="L34" t="n">
-        <v>6.5428</v>
+        <v>1.3782</v>
       </c>
       <c r="M34" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2119,19 +2119,19 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>15</v>
@@ -2140,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -2149,19 +2149,19 @@
         <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>1577.999992666665</v>
+        <v>1659.5</v>
       </c>
       <c r="J35" t="n">
-        <v>57540</v>
+        <v>73220</v>
       </c>
       <c r="K35" t="n">
-        <v>100522</v>
+        <v>224873</v>
       </c>
       <c r="L35" t="n">
-        <v>2.1297</v>
+        <v>11.8307</v>
       </c>
       <c r="M35" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2170,28 +2170,28 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2200,19 +2200,19 @@
         <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>3202</v>
+        <v>253</v>
       </c>
       <c r="J36" t="n">
-        <v>351288</v>
+        <v>45696</v>
       </c>
       <c r="K36" t="n">
-        <v>466643</v>
+        <v>109671</v>
       </c>
       <c r="L36" t="n">
-        <v>1.9582</v>
+        <v>0.5595</v>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2221,16 +2221,16 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
@@ -2239,10 +2239,10 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -2251,19 +2251,19 @@
         <v>10</v>
       </c>
       <c r="I37" t="n">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="J37" t="n">
-        <v>29274</v>
+        <v>38178</v>
       </c>
       <c r="K37" t="n">
-        <v>37158</v>
+        <v>58116</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0469</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2272,28 +2272,28 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
         <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -2302,16 +2302,16 @@
         <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>192</v>
+        <v>1578</v>
       </c>
       <c r="J38" t="n">
-        <v>117096</v>
+        <v>52500</v>
       </c>
       <c r="K38" t="n">
-        <v>154821</v>
+        <v>92122</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2622</v>
+        <v>6.5428</v>
       </c>
       <c r="M38" t="n">
         <v>9</v>
@@ -2323,16 +2323,16 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
         <v>14</v>
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -2353,19 +2353,19 @@
         <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>370</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J39" t="n">
-        <v>34524</v>
+        <v>57540</v>
       </c>
       <c r="K39" t="n">
-        <v>60034</v>
+        <v>100522</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1695</v>
+        <v>2.1297</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2374,28 +2374,28 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2404,35 +2404,37 @@
         <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>400</v>
+        <v>3202</v>
       </c>
       <c r="J40" t="n">
-        <v>114660</v>
+        <v>351288</v>
       </c>
       <c r="K40" t="n">
-        <v>195602</v>
+        <v>466643</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>1.9582</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9</v>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
@@ -2441,10 +2443,10 @@
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2453,35 +2455,37 @@
         <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J41" t="n">
-        <v>30429</v>
+        <v>29274</v>
       </c>
       <c r="K41" t="n">
-        <v>28721</v>
+        <v>37158</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9</v>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
         <v>7</v>
@@ -2490,47 +2494,49 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="J42" t="n">
-        <v>10143</v>
+        <v>117096</v>
       </c>
       <c r="K42" t="n">
-        <v>9575</v>
+        <v>154821</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M42" t="n">
+        <v>9</v>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
         <v>14</v>
@@ -2542,47 +2548,49 @@
         <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="J43" t="n">
-        <v>81144</v>
+        <v>34524</v>
       </c>
       <c r="K43" t="n">
-        <v>77690</v>
+        <v>60034</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
@@ -2591,25 +2599,25 @@
         <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="J44" t="n">
-        <v>60858</v>
+        <v>114660</v>
       </c>
       <c r="K44" t="n">
-        <v>58151</v>
+        <v>195602</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2167</v>
+        <v>0.3841</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -2619,20 +2627,20 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="n">
         <v>7</v>
       </c>
-      <c r="C45" t="n">
-        <v>14</v>
-      </c>
       <c r="D45" t="n">
         <v>15</v>
       </c>
@@ -2640,25 +2648,25 @@
         <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J45" t="n">
-        <v>46914</v>
+        <v>30429</v>
       </c>
       <c r="K45" t="n">
-        <v>45229</v>
+        <v>28721</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1723</v>
+        <v>0.1367</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2668,20 +2676,20 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
         <v>7</v>
       </c>
-      <c r="C46" t="n">
-        <v>21</v>
-      </c>
       <c r="D46" t="n">
         <v>15</v>
       </c>
@@ -2689,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -2698,16 +2706,16 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
-        <v>70371</v>
+        <v>10143</v>
       </c>
       <c r="K46" t="n">
-        <v>68161</v>
+        <v>9575</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2664</v>
+        <v>0.0359</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2717,16 +2725,16 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>14</v>
@@ -2738,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -2747,16 +2755,16 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="J47" t="n">
-        <v>20286</v>
+        <v>81144</v>
       </c>
       <c r="K47" t="n">
-        <v>19385</v>
+        <v>77690</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0702</v>
+        <v>0.3027</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -2766,16 +2774,16 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
         <v>14</v>
@@ -2787,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
@@ -2796,38 +2804,38 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>1194</v>
+        <v>120</v>
       </c>
       <c r="J48" t="n">
-        <v>101430</v>
+        <v>60858</v>
       </c>
       <c r="K48" t="n">
-        <v>97112</v>
+        <v>58151</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5688</v>
+        <v>0.2167</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
         <v>15</v>
@@ -2836,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2845,38 +2853,38 @@
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="J49" t="n">
-        <v>50715</v>
+        <v>46914</v>
       </c>
       <c r="K49" t="n">
-        <v>47867</v>
+        <v>45229</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2266</v>
+        <v>0.1723</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
         <v>15</v>
@@ -2885,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2894,47 +2902,47 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>7950</v>
+        <v>120</v>
       </c>
       <c r="J50" t="n">
-        <v>202860</v>
+        <v>70371</v>
       </c>
       <c r="K50" t="n">
-        <v>195602</v>
+        <v>68161</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3571</v>
+        <v>0.2664</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -2943,44 +2951,44 @@
         <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>41720</v>
+        <v>40</v>
       </c>
       <c r="J51" t="n">
-        <v>1173690</v>
+        <v>20286</v>
       </c>
       <c r="K51" t="n">
-        <v>1149317</v>
+        <v>19385</v>
       </c>
       <c r="L51" t="n">
-        <v>19.0623</v>
+        <v>0.0702</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B52" t="n">
         <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
         <v>5</v>
@@ -2992,16 +3000,16 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>124</v>
+        <v>1194</v>
       </c>
       <c r="J52" t="n">
-        <v>23415</v>
+        <v>101430</v>
       </c>
       <c r="K52" t="n">
-        <v>21917</v>
+        <v>97112</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0978</v>
+        <v>0.5688</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -3011,28 +3019,28 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
@@ -3041,16 +3049,16 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="J53" t="n">
-        <v>14049</v>
+        <v>50715</v>
       </c>
       <c r="K53" t="n">
-        <v>13151</v>
+        <v>47867</v>
       </c>
       <c r="L53" t="n">
-        <v>0.06</v>
+        <v>0.2266</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3060,28 +3068,28 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3090,16 +3098,16 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>20</v>
+        <v>7950</v>
       </c>
       <c r="J54" t="n">
-        <v>10787</v>
+        <v>202860</v>
       </c>
       <c r="K54" t="n">
-        <v>10229</v>
+        <v>195602</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0394</v>
+        <v>1.3571</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3109,28 +3117,28 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -3139,16 +3147,16 @@
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="J55" t="n">
-        <v>4683</v>
+        <v>1173690</v>
       </c>
       <c r="K55" t="n">
-        <v>4385</v>
+        <v>1149317</v>
       </c>
       <c r="L55" t="n">
-        <v>0.013</v>
+        <v>19.0623</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3158,19 +3166,19 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -3179,7 +3187,7 @@
         <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -3188,16 +3196,16 @@
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="J56" t="n">
-        <v>14049</v>
+        <v>23415</v>
       </c>
       <c r="K56" t="n">
-        <v>13373</v>
+        <v>21917</v>
       </c>
       <c r="L56" t="n">
-        <v>0.058</v>
+        <v>0.0978</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3207,19 +3215,19 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" t="n">
         <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
@@ -3237,16 +3245,16 @@
         <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="J57" t="n">
-        <v>42147</v>
+        <v>14049</v>
       </c>
       <c r="K57" t="n">
-        <v>40115</v>
+        <v>13151</v>
       </c>
       <c r="L57" t="n">
-        <v>0.253</v>
+        <v>0.06</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3256,13 +3264,13 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B58" t="n">
         <v>7</v>
@@ -3271,10 +3279,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
@@ -3286,47 +3294,47 @@
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J58" t="n">
-        <v>988547</v>
+        <v>10787</v>
       </c>
       <c r="K58" t="n">
-        <v>951134</v>
+        <v>10229</v>
       </c>
       <c r="L58" t="n">
-        <v>4.1745</v>
+        <v>0.0394</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
         <v>7</v>
       </c>
-      <c r="C59" t="n">
-        <v>49</v>
-      </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -3335,44 +3343,44 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>54920</v>
+        <v>20</v>
       </c>
       <c r="J59" t="n">
-        <v>6919829</v>
+        <v>4683</v>
       </c>
       <c r="K59" t="n">
-        <v>6861710</v>
+        <v>4385</v>
       </c>
       <c r="L59" t="n">
-        <v>183.2784</v>
+        <v>0.013</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -3384,48 +3392,48 @@
         <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>1053</v>
+        <v>60</v>
       </c>
       <c r="J60" t="n">
-        <v>424263</v>
+        <v>14049</v>
       </c>
       <c r="K60" t="n">
-        <v>407630</v>
+        <v>13373</v>
       </c>
       <c r="L60" t="n">
-        <v>1.5868</v>
+        <v>0.058</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>21</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
         <v>3</v>
       </c>
-      <c r="C61" t="n">
-        <v>84</v>
-      </c>
-      <c r="D61" t="n">
-        <v>100</v>
-      </c>
-      <c r="E61" t="n">
-        <v>100</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
       <c r="G61" t="n">
         <v>6</v>
       </c>
@@ -3433,38 +3441,38 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>205171</v>
+        <v>932</v>
       </c>
       <c r="J61" t="n">
-        <v>2596356</v>
+        <v>42147</v>
       </c>
       <c r="K61" t="n">
-        <v>5051654</v>
+        <v>40115</v>
       </c>
       <c r="L61" t="n">
-        <v>12.0275</v>
+        <v>0.253</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>100</v>
@@ -3473,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -3482,16 +3490,16 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>12200</v>
+        <v>41</v>
       </c>
       <c r="J62" t="n">
-        <v>865452</v>
+        <v>988547</v>
       </c>
       <c r="K62" t="n">
-        <v>1674182</v>
+        <v>951134</v>
       </c>
       <c r="L62" t="n">
-        <v>2.4971</v>
+        <v>4.1745</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -3501,28 +3509,28 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3531,16 +3539,16 @@
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>2519</v>
+        <v>54920</v>
       </c>
       <c r="J63" t="n">
-        <v>11172</v>
+        <v>6919829</v>
       </c>
       <c r="K63" t="n">
-        <v>17867</v>
+        <v>6861710</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0343</v>
+        <v>183.2784</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
@@ -3550,25 +3558,25 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -3580,16 +3588,16 @@
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>2788</v>
+        <v>1053</v>
       </c>
       <c r="J64" t="n">
-        <v>13167</v>
+        <v>424263</v>
       </c>
       <c r="K64" t="n">
-        <v>21077</v>
+        <v>407630</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0473</v>
+        <v>1.5868</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
@@ -3599,25 +3607,25 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3629,16 +3637,16 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>2272</v>
+        <v>205171</v>
       </c>
       <c r="J65" t="n">
-        <v>9177</v>
+        <v>2596356</v>
       </c>
       <c r="K65" t="n">
-        <v>14657</v>
+        <v>5051654</v>
       </c>
       <c r="L65" t="n">
-        <v>0.027</v>
+        <v>12.0275</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
@@ -3648,25 +3656,25 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B66" t="n">
         <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3678,16 +3686,16 @@
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>2191</v>
+        <v>12200</v>
       </c>
       <c r="J66" t="n">
-        <v>5187</v>
+        <v>865452</v>
       </c>
       <c r="K66" t="n">
-        <v>8237</v>
+        <v>1674182</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0143</v>
+        <v>2.4971</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
@@ -3697,19 +3705,19 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B67" t="n">
         <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
@@ -3727,16 +3735,16 @@
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>171</v>
+        <v>2519</v>
       </c>
       <c r="J67" t="n">
-        <v>1197</v>
+        <v>11172</v>
       </c>
       <c r="K67" t="n">
-        <v>1817</v>
+        <v>17867</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0024</v>
+        <v>0.0343</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
@@ -3746,19 +3754,19 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
@@ -3776,44 +3784,44 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>21</v>
+        <v>2788</v>
       </c>
       <c r="J68" t="n">
-        <v>858</v>
+        <v>13167</v>
       </c>
       <c r="K68" t="n">
-        <v>1212</v>
+        <v>21077</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0022</v>
+        <v>0.0473</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3824,37 +3832,39 @@
       <c r="H69" t="n">
         <v>5</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>2272</v>
+      </c>
       <c r="J69" t="n">
-        <v>348</v>
+        <v>9177</v>
       </c>
       <c r="K69" t="n">
-        <v>282</v>
+        <v>14657</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0001</v>
+        <v>0.027</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
@@ -3871,37 +3881,39 @@
       <c r="H70" t="n">
         <v>5</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>2191</v>
+      </c>
       <c r="J70" t="n">
-        <v>8008</v>
+        <v>5187</v>
       </c>
       <c r="K70" t="n">
-        <v>11912</v>
+        <v>8237</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0174</v>
+        <v>0.0143</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
@@ -3918,37 +3930,39 @@
       <c r="H71" t="n">
         <v>5</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>171</v>
+      </c>
       <c r="J71" t="n">
-        <v>572</v>
+        <v>1197</v>
       </c>
       <c r="K71" t="n">
-        <v>784</v>
+        <v>1817</v>
       </c>
       <c r="L71" t="n">
-        <v>0.001</v>
+        <v>0.0024</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>10</v>
@@ -3965,43 +3979,45 @@
       <c r="H72" t="n">
         <v>5</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>21</v>
+      </c>
       <c r="J72" t="n">
-        <v>286</v>
+        <v>858</v>
       </c>
       <c r="K72" t="n">
-        <v>356</v>
+        <v>1212</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B73" t="n">
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -4014,35 +4030,35 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>1430</v>
+        <v>348</v>
       </c>
       <c r="K73" t="n">
-        <v>2068</v>
+        <v>282</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0029</v>
+        <v>0.0001</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B74" t="n">
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
@@ -4061,13 +4077,13 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>1144</v>
+        <v>8008</v>
       </c>
       <c r="K74" t="n">
-        <v>1640</v>
+        <v>11912</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0028</v>
+        <v>0.0174</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
@@ -4077,19 +4093,19 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
@@ -4098,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
@@ -4108,13 +4124,13 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>3990</v>
+        <v>572</v>
       </c>
       <c r="K75" t="n">
-        <v>6200</v>
+        <v>784</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0072</v>
+        <v>0.001</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -4124,19 +4140,19 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
@@ -4155,13 +4171,13 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>2860</v>
+        <v>286</v>
       </c>
       <c r="K76" t="n">
-        <v>4120</v>
+        <v>356</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0119</v>
+        <v>0.0001</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
@@ -4171,19 +4187,19 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
@@ -4202,13 +4218,13 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6250</v>
+        <v>1430</v>
       </c>
       <c r="K77" t="n">
-        <v>10697</v>
+        <v>2068</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0162</v>
+        <v>0.0029</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
@@ -4218,19 +4234,19 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B78" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>10</v>
@@ -4239,7 +4255,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>6</v>
@@ -4249,13 +4265,13 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>14230</v>
+        <v>1144</v>
       </c>
       <c r="K78" t="n">
-        <v>23531</v>
+        <v>1640</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0366</v>
+        <v>0.0028</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
@@ -4265,16 +4281,16 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
         <v>5</v>
@@ -4286,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -4296,13 +4312,13 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>7115</v>
+        <v>3990</v>
       </c>
       <c r="K79" t="n">
-        <v>11761</v>
+        <v>6200</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0116</v>
+        <v>0.0072</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
@@ -4312,44 +4328,44 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
         <v>1</v>
       </c>
-      <c r="B80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C80" t="n">
-        <v>5</v>
-      </c>
-      <c r="D80" t="n">
-        <v>10</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2</v>
-      </c>
       <c r="G80" t="n">
         <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>5685</v>
+        <v>2860</v>
       </c>
       <c r="K80" t="n">
-        <v>9623</v>
+        <v>4120</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0098</v>
+        <v>0.0119</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
@@ -4359,68 +4375,66 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
       </c>
       <c r="H81" t="n">
-        <v>10</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3338</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>46032</v>
+        <v>6250</v>
       </c>
       <c r="K81" t="n">
-        <v>80278</v>
+        <v>10697</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2189</v>
+        <v>0.0162</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -4429,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -4439,28 +4453,32 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5685</v>
+        <v>14230</v>
       </c>
       <c r="K82" t="n">
-        <v>9623</v>
+        <v>23531</v>
       </c>
       <c r="L82" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0366</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
         <v>5</v>
@@ -4472,41 +4490,45 @@
         <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>3125</v>
+        <v>7115</v>
       </c>
       <c r="K83" t="n">
-        <v>5347</v>
+        <v>11761</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0064</v>
+        <v>0.0116</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -4521,60 +4543,242 @@
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>11370</v>
+        <v>5685</v>
       </c>
       <c r="K84" t="n">
-        <v>19253</v>
+        <v>9623</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0334</v>
+        <v>0.0098</v>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B85" t="n">
+        <v>12</v>
+      </c>
+      <c r="C85" t="n">
+        <v>14</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3338</v>
+      </c>
+      <c r="J85" t="n">
+        <v>46032</v>
+      </c>
+      <c r="K85" t="n">
+        <v>80278</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="n">
         <v>2</v>
       </c>
-      <c r="B85" t="n">
-        <v>5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>10</v>
-      </c>
-      <c r="E85" t="n">
-        <v>10</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
         <v>1</v>
       </c>
-      <c r="G85" t="n">
-        <v>6</v>
-      </c>
-      <c r="H85" t="n">
-        <v>5</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
+      <c r="G87" t="n">
+        <v>6</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>3125</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K87" t="n">
         <v>5347</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L87" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K88" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L89" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>7</v>
@@ -464,42 +464,42 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>342.6666652753344</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>100674</v>
+        <v>22148</v>
       </c>
       <c r="K2" t="n">
-        <v>197551</v>
+        <v>46375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7251</v>
+        <v>0.4606</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>01</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10:54:07</t>
+          <t>15:12:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -508,28 +508,28 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>810</v>
+        <v>260.0666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>76986</v>
+        <v>41454</v>
       </c>
       <c r="K3" t="n">
-        <v>213912</v>
+        <v>95584</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2822</v>
+        <v>0.1386</v>
       </c>
       <c r="M3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10:10:02</t>
+          <t>11:48:14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>2142</v>
+        <v>169</v>
       </c>
       <c r="J4" t="n">
-        <v>115479</v>
+        <v>50337</v>
       </c>
       <c r="K4" t="n">
-        <v>317295</v>
+        <v>96574</v>
       </c>
       <c r="L4" t="n">
-        <v>67.02849999999999</v>
+        <v>0.2697</v>
       </c>
       <c r="M4" t="n">
         <v>28</v>
@@ -589,19 +589,19 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10:00:43</t>
+          <t>15:57:04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>20</v>
@@ -610,25 +610,25 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1714.999981406038</v>
       </c>
       <c r="J5" t="n">
-        <v>62181</v>
+        <v>100674</v>
       </c>
       <c r="K5" t="n">
-        <v>302687</v>
+        <v>195295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3342</v>
+        <v>0.5799</v>
       </c>
       <c r="M5" t="n">
         <v>28</v>
@@ -640,49 +640,49 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>09:12:06</t>
+          <t>15:37:04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>379.9999997701302</v>
       </c>
       <c r="J6" t="n">
-        <v>168549</v>
+        <v>26894</v>
       </c>
       <c r="K6" t="n">
-        <v>310007</v>
+        <v>46930</v>
       </c>
       <c r="L6" t="n">
-        <v>0.594</v>
+        <v>0.4965</v>
       </c>
       <c r="M6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>15:36:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -712,28 +712,28 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1071.333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>56031</v>
+        <v>302022</v>
       </c>
       <c r="K7" t="n">
-        <v>101589</v>
+        <v>596943</v>
       </c>
       <c r="L7" t="n">
-        <v>0.093</v>
+        <v>510.9069</v>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -742,19 +742,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>11:54:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -772,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J8" t="n">
-        <v>562362</v>
+        <v>76986</v>
       </c>
       <c r="K8" t="n">
-        <v>1039470</v>
+        <v>213912</v>
       </c>
       <c r="L8" t="n">
-        <v>2.6686</v>
+        <v>0.2822</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -793,19 +793,19 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>10:10:02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -814,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2142</v>
       </c>
       <c r="J9" t="n">
-        <v>112518</v>
+        <v>115479</v>
       </c>
       <c r="K9" t="n">
-        <v>205817</v>
+        <v>317295</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2438</v>
+        <v>67.02849999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -844,19 +844,19 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>10:00:43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -877,16 +877,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>118440</v>
+        <v>62181</v>
       </c>
       <c r="K10" t="n">
-        <v>216717</v>
+        <v>302687</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2484</v>
+        <v>0.3342</v>
       </c>
       <c r="M10" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -895,19 +895,19 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>09:12:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -925,16 +925,16 @@
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>47376</v>
+        <v>168549</v>
       </c>
       <c r="K11" t="n">
-        <v>211077</v>
+        <v>310007</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1306</v>
+        <v>0.594</v>
       </c>
       <c r="M11" t="n">
         <v>24</v>
@@ -946,16 +946,16 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -976,16 +976,16 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23688</v>
+        <v>56031</v>
       </c>
       <c r="K12" t="n">
-        <v>103067</v>
+        <v>101589</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0512</v>
+        <v>0.093</v>
       </c>
       <c r="M12" t="n">
         <v>24</v>
@@ -997,19 +997,19 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D13" t="n">
         <v>20</v>
@@ -1018,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1027,16 +1027,16 @@
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20727</v>
+        <v>562362</v>
       </c>
       <c r="K13" t="n">
-        <v>97591</v>
+        <v>1039470</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0536</v>
+        <v>2.6686</v>
       </c>
       <c r="M13" t="n">
         <v>24</v>
@@ -1048,19 +1048,19 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -1069,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1078,16 +1078,16 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>85.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32571</v>
+        <v>112518</v>
       </c>
       <c r="K14" t="n">
-        <v>98911</v>
+        <v>205817</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1316</v>
+        <v>0.2438</v>
       </c>
       <c r="M14" t="n">
         <v>24</v>
@@ -1099,28 +1099,28 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1129,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0061393594561</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5537</v>
+        <v>118440</v>
       </c>
       <c r="K15" t="n">
-        <v>23707</v>
+        <v>216717</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0179</v>
+        <v>0.2484</v>
       </c>
       <c r="M15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1150,28 +1150,28 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1180,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>295101.3333333332</v>
+        <v>304</v>
       </c>
       <c r="J16" t="n">
-        <v>496356</v>
+        <v>47376</v>
       </c>
       <c r="K16" t="n">
-        <v>937352</v>
+        <v>211077</v>
       </c>
       <c r="L16" t="n">
-        <v>1.8175</v>
+        <v>0.1306</v>
       </c>
       <c r="M16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1201,28 +1201,28 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1231,19 +1231,19 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J17" t="n">
-        <v>60116</v>
+        <v>23688</v>
       </c>
       <c r="K17" t="n">
-        <v>102342</v>
+        <v>103067</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2605</v>
+        <v>0.0512</v>
       </c>
       <c r="M17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1252,28 +1252,28 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1282,19 +1282,19 @@
         <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="J18" t="n">
-        <v>34804</v>
+        <v>20727</v>
       </c>
       <c r="K18" t="n">
-        <v>99742</v>
+        <v>97591</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1609</v>
+        <v>0.0536</v>
       </c>
       <c r="M18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1303,13 +1303,13 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B19" t="n">
         <v>11</v>
@@ -1318,10 +1318,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -1333,19 +1333,19 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>178.7777777777777</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>8701</v>
+        <v>32571</v>
       </c>
       <c r="K19" t="n">
-        <v>24205</v>
+        <v>98911</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0183</v>
+        <v>0.1316</v>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1354,13 +1354,13 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B20" t="n">
         <v>7</v>
@@ -1369,10 +1369,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1384,16 +1384,16 @@
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>177.1111111111111</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="J20" t="n">
-        <v>11907</v>
+        <v>5537</v>
       </c>
       <c r="K20" t="n">
-        <v>54384</v>
+        <v>23707</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0538</v>
+        <v>0.0179</v>
       </c>
       <c r="M20" t="n">
         <v>23</v>
@@ -1405,28 +1405,28 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1435,19 +1435,19 @@
         <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>7.999999999999999</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="J21" t="n">
-        <v>18711</v>
+        <v>496356</v>
       </c>
       <c r="K21" t="n">
-        <v>55167</v>
+        <v>937352</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0654</v>
+        <v>1.8175</v>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1456,28 +1456,28 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1486,19 +1486,19 @@
         <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>32.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>50281</v>
+        <v>60116</v>
       </c>
       <c r="K22" t="n">
-        <v>155342</v>
+        <v>102342</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1682</v>
+        <v>0.2605</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1507,28 +1507,28 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>6</v>
@@ -1537,19 +1537,19 @@
         <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>3.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32382</v>
+        <v>34804</v>
       </c>
       <c r="K23" t="n">
-        <v>153575</v>
+        <v>99742</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1282</v>
+        <v>0.1609</v>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1558,25 +1558,25 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" t="n">
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1588,19 +1588,19 @@
         <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>240.6554934823091</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="J24" t="n">
-        <v>101164</v>
+        <v>8701</v>
       </c>
       <c r="K24" t="n">
-        <v>317602</v>
+        <v>24205</v>
       </c>
       <c r="L24" t="n">
-        <v>0.487</v>
+        <v>0.0183</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1609,25 +1609,25 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n">
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1639,19 +1639,19 @@
         <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>16</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="J25" t="n">
-        <v>64764</v>
+        <v>11907</v>
       </c>
       <c r="K25" t="n">
-        <v>314970</v>
+        <v>54384</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2711</v>
+        <v>0.0538</v>
       </c>
       <c r="M25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1660,28 +1660,28 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1690,19 +1690,19 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>2419.333333333333</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>173964</v>
+        <v>18711</v>
       </c>
       <c r="K26" t="n">
-        <v>322866</v>
+        <v>55167</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4497</v>
+        <v>0.0654</v>
       </c>
       <c r="M26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -1732,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -1741,19 +1741,19 @@
         <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>602</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>86982</v>
+        <v>50281</v>
       </c>
       <c r="K27" t="n">
-        <v>171967</v>
+        <v>155342</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2673</v>
+        <v>0.1682</v>
       </c>
       <c r="M27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1762,16 +1762,16 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
         <v>7</v>
@@ -1783,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1792,19 +1792,19 @@
         <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>73332</v>
+        <v>32382</v>
       </c>
       <c r="K28" t="n">
-        <v>167389</v>
+        <v>153575</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1522</v>
+        <v>0.1282</v>
       </c>
       <c r="M28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1813,19 +1813,19 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>25</v>
@@ -1834,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1843,16 +1843,16 @@
         <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>13395</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="J29" t="n">
-        <v>293328</v>
+        <v>101164</v>
       </c>
       <c r="K29" t="n">
-        <v>684598</v>
+        <v>317602</v>
       </c>
       <c r="L29" t="n">
-        <v>2.7488</v>
+        <v>0.487</v>
       </c>
       <c r="M29" t="n">
         <v>18</v>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" t="n">
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
@@ -1894,16 +1894,16 @@
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>45.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>129528</v>
+        <v>64764</v>
       </c>
       <c r="K30" t="n">
-        <v>640400</v>
+        <v>314970</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3063</v>
+        <v>0.2711</v>
       </c>
       <c r="M30" t="n">
         <v>18</v>
@@ -1915,28 +1915,28 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -1945,19 +1945,19 @@
         <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>33</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="J31" t="n">
-        <v>12292</v>
+        <v>173964</v>
       </c>
       <c r="K31" t="n">
-        <v>54509</v>
+        <v>322866</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0383</v>
+        <v>0.4497</v>
       </c>
       <c r="M31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1966,28 +1966,28 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
         <v>6</v>
@@ -1996,19 +1996,19 @@
         <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>1804.999934139618</v>
+        <v>602</v>
       </c>
       <c r="J32" t="n">
-        <v>76048</v>
+        <v>86982</v>
       </c>
       <c r="K32" t="n">
-        <v>229623</v>
+        <v>171967</v>
       </c>
       <c r="L32" t="n">
-        <v>44.1138</v>
+        <v>0.2673</v>
       </c>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2017,28 +2017,28 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J33" t="n">
-        <v>19012</v>
+        <v>73332</v>
       </c>
       <c r="K33" t="n">
-        <v>55785</v>
+        <v>167389</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0372</v>
+        <v>0.1522</v>
       </c>
       <c r="M33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2068,28 +2068,28 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>6</v>
@@ -2098,19 +2098,19 @@
         <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>190.0000000000001</v>
+        <v>13395</v>
       </c>
       <c r="J34" t="n">
-        <v>36610</v>
+        <v>293328</v>
       </c>
       <c r="K34" t="n">
-        <v>110682</v>
+        <v>684598</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3782</v>
+        <v>2.7488</v>
       </c>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2119,25 +2119,25 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
         <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -2149,19 +2149,19 @@
         <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>1659.5</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>73220</v>
+        <v>129528</v>
       </c>
       <c r="K35" t="n">
-        <v>224873</v>
+        <v>640400</v>
       </c>
       <c r="L35" t="n">
-        <v>11.8307</v>
+        <v>1.3063</v>
       </c>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2170,19 +2170,19 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>15</v>
@@ -2191,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2200,19 +2200,19 @@
         <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="J36" t="n">
-        <v>45696</v>
+        <v>12292</v>
       </c>
       <c r="K36" t="n">
-        <v>109671</v>
+        <v>54509</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5595</v>
+        <v>0.0383</v>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2221,19 +2221,19 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>15</v>
@@ -2242,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -2251,19 +2251,19 @@
         <v>10</v>
       </c>
       <c r="I37" t="n">
-        <v>394</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="J37" t="n">
-        <v>38178</v>
+        <v>76048</v>
       </c>
       <c r="K37" t="n">
-        <v>58116</v>
+        <v>229623</v>
       </c>
       <c r="L37" t="n">
-        <v>0.09379999999999999</v>
+        <v>44.1138</v>
       </c>
       <c r="M37" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2272,19 +2272,19 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>15</v>
@@ -2293,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -2302,19 +2302,19 @@
         <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>1578</v>
+        <v>36</v>
       </c>
       <c r="J38" t="n">
-        <v>52500</v>
+        <v>19012</v>
       </c>
       <c r="K38" t="n">
-        <v>92122</v>
+        <v>55785</v>
       </c>
       <c r="L38" t="n">
-        <v>6.5428</v>
+        <v>0.0372</v>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2323,16 +2323,16 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
         <v>14</v>
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -2353,19 +2353,19 @@
         <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>1577.999992666665</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>57540</v>
+        <v>36610</v>
       </c>
       <c r="K39" t="n">
-        <v>100522</v>
+        <v>110682</v>
       </c>
       <c r="L39" t="n">
-        <v>2.1297</v>
+        <v>1.3782</v>
       </c>
       <c r="M39" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2374,28 +2374,28 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2404,19 +2404,19 @@
         <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>3202</v>
+        <v>1659.5</v>
       </c>
       <c r="J40" t="n">
-        <v>351288</v>
+        <v>73220</v>
       </c>
       <c r="K40" t="n">
-        <v>466643</v>
+        <v>224873</v>
       </c>
       <c r="L40" t="n">
-        <v>1.9582</v>
+        <v>11.8307</v>
       </c>
       <c r="M40" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2425,28 +2425,28 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2455,19 +2455,19 @@
         <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="J41" t="n">
-        <v>29274</v>
+        <v>45696</v>
       </c>
       <c r="K41" t="n">
-        <v>37158</v>
+        <v>109671</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0469</v>
+        <v>0.5595</v>
       </c>
       <c r="M41" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2476,16 +2476,16 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
         <v>7</v>
@@ -2494,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -2506,19 +2506,19 @@
         <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>192</v>
+        <v>394</v>
       </c>
       <c r="J42" t="n">
-        <v>117096</v>
+        <v>38178</v>
       </c>
       <c r="K42" t="n">
-        <v>154821</v>
+        <v>58116</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2622</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
         <v>14</v>
@@ -2548,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2557,19 +2557,19 @@
         <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>370</v>
+        <v>1578</v>
       </c>
       <c r="J43" t="n">
-        <v>34524</v>
+        <v>52500</v>
       </c>
       <c r="K43" t="n">
-        <v>60034</v>
+        <v>92122</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1695</v>
+        <v>6.5428</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2578,19 +2578,19 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
         <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
@@ -2608,81 +2608,85 @@
         <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>400</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J44" t="n">
-        <v>114660</v>
+        <v>57540</v>
       </c>
       <c r="K44" t="n">
-        <v>195602</v>
+        <v>100522</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>2.1297</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9</v>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15</v>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3202</v>
+      </c>
+      <c r="J45" t="n">
+        <v>351288</v>
+      </c>
+      <c r="K45" t="n">
+        <v>466643</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.9582</v>
+      </c>
+      <c r="M45" t="n">
         <v>9</v>
       </c>
-      <c r="C45" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>15</v>
-      </c>
-      <c r="E45" t="n">
-        <v>15</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6</v>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" t="n">
-        <v>60</v>
-      </c>
-      <c r="J45" t="n">
-        <v>30429</v>
-      </c>
-      <c r="K45" t="n">
-        <v>28721</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -2694,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2703,47 +2707,49 @@
         <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J46" t="n">
-        <v>10143</v>
+        <v>29274</v>
       </c>
       <c r="K46" t="n">
-        <v>9575</v>
+        <v>37158</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9</v>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B47" t="n">
         <v>12</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F47" t="n">
         <v>4</v>
@@ -2752,35 +2758,37 @@
         <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J47" t="n">
-        <v>81144</v>
+        <v>117096</v>
       </c>
       <c r="K47" t="n">
-        <v>77690</v>
+        <v>154821</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9</v>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>9</v>
@@ -2801,90 +2809,94 @@
         <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="J48" t="n">
-        <v>60858</v>
+        <v>34524</v>
       </c>
       <c r="K48" t="n">
-        <v>58151</v>
+        <v>60034</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>80</v>
+        <v>260.0666666666666</v>
       </c>
       <c r="J49" t="n">
-        <v>46914</v>
+        <v>11074</v>
       </c>
       <c r="K49" t="n">
-        <v>45229</v>
+        <v>22904</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1723</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0.1305</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>14:45:01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>15</v>
@@ -2893,25 +2905,25 @@
         <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="J50" t="n">
-        <v>70371</v>
+        <v>114660</v>
       </c>
       <c r="K50" t="n">
-        <v>68161</v>
+        <v>195602</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2664</v>
+        <v>0.3841</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -2921,46 +2933,46 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B51" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15</v>
+      </c>
+      <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
-        <v>14</v>
-      </c>
-      <c r="D51" t="n">
-        <v>15</v>
-      </c>
-      <c r="E51" t="n">
-        <v>15</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
       <c r="G51" t="n">
         <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I51" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J51" t="n">
-        <v>20286</v>
+        <v>30429</v>
       </c>
       <c r="K51" t="n">
-        <v>19385</v>
+        <v>28721</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0702</v>
+        <v>0.1367</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -2970,19 +2982,19 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
         <v>15</v>
@@ -2991,7 +3003,7 @@
         <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -3000,38 +3012,38 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>1194</v>
+        <v>20</v>
       </c>
       <c r="J52" t="n">
-        <v>101430</v>
+        <v>10143</v>
       </c>
       <c r="K52" t="n">
-        <v>97112</v>
+        <v>9575</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5688</v>
+        <v>0.0359</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
         <v>15</v>
@@ -3040,7 +3052,7 @@
         <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
@@ -3049,38 +3061,38 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="J53" t="n">
-        <v>50715</v>
+        <v>81144</v>
       </c>
       <c r="K53" t="n">
-        <v>47867</v>
+        <v>77690</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2266</v>
+        <v>0.3027</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
@@ -3089,7 +3101,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3098,47 +3110,47 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>7950</v>
+        <v>120</v>
       </c>
       <c r="J54" t="n">
-        <v>202860</v>
+        <v>60858</v>
       </c>
       <c r="K54" t="n">
-        <v>195602</v>
+        <v>58151</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3571</v>
+        <v>0.2167</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -3147,47 +3159,47 @@
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>41720</v>
+        <v>80</v>
       </c>
       <c r="J55" t="n">
-        <v>1173690</v>
+        <v>46914</v>
       </c>
       <c r="K55" t="n">
-        <v>1149317</v>
+        <v>45229</v>
       </c>
       <c r="L55" t="n">
-        <v>19.0623</v>
+        <v>0.1723</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -3196,47 +3208,47 @@
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J56" t="n">
-        <v>23415</v>
+        <v>70371</v>
       </c>
       <c r="K56" t="n">
-        <v>21917</v>
+        <v>68161</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0978</v>
+        <v>0.2664</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -3245,47 +3257,47 @@
         <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J57" t="n">
-        <v>14049</v>
+        <v>20286</v>
       </c>
       <c r="K57" t="n">
-        <v>13151</v>
+        <v>19385</v>
       </c>
       <c r="L57" t="n">
-        <v>0.06</v>
+        <v>0.0702</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -3294,16 +3306,16 @@
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>20</v>
+        <v>1194</v>
       </c>
       <c r="J58" t="n">
-        <v>10787</v>
+        <v>101430</v>
       </c>
       <c r="K58" t="n">
-        <v>10229</v>
+        <v>97112</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0394</v>
+        <v>0.5688</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -3313,28 +3325,28 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>7</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -3343,16 +3355,16 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="J59" t="n">
-        <v>4683</v>
+        <v>50715</v>
       </c>
       <c r="K59" t="n">
-        <v>4385</v>
+        <v>47867</v>
       </c>
       <c r="L59" t="n">
-        <v>0.013</v>
+        <v>0.2266</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
@@ -3362,28 +3374,28 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3392,16 +3404,16 @@
         <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>60</v>
+        <v>7950</v>
       </c>
       <c r="J60" t="n">
-        <v>14049</v>
+        <v>202860</v>
       </c>
       <c r="K60" t="n">
-        <v>13373</v>
+        <v>195602</v>
       </c>
       <c r="L60" t="n">
-        <v>0.058</v>
+        <v>1.3571</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -3411,28 +3423,28 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B61" t="n">
+        <v>15</v>
+      </c>
+      <c r="C61" t="n">
+        <v>42</v>
+      </c>
+      <c r="D61" t="n">
         <v>30</v>
       </c>
-      <c r="B61" t="n">
-        <v>9</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21</v>
-      </c>
-      <c r="D61" t="n">
-        <v>10</v>
-      </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3441,16 +3453,16 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>932</v>
+        <v>41720</v>
       </c>
       <c r="J61" t="n">
-        <v>42147</v>
+        <v>1173690</v>
       </c>
       <c r="K61" t="n">
-        <v>40115</v>
+        <v>1149317</v>
       </c>
       <c r="L61" t="n">
-        <v>0.253</v>
+        <v>19.0623</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -3460,28 +3472,28 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
         <v>7</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -3490,47 +3502,47 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="J62" t="n">
-        <v>988547</v>
+        <v>23415</v>
       </c>
       <c r="K62" t="n">
-        <v>951134</v>
+        <v>21917</v>
       </c>
       <c r="L62" t="n">
-        <v>4.1745</v>
+        <v>0.0978</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3539,47 +3551,47 @@
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="J63" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="K63" t="n">
-        <v>6861710</v>
+        <v>13151</v>
       </c>
       <c r="L63" t="n">
-        <v>183.2784</v>
+        <v>0.06</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
         <v>7</v>
       </c>
       <c r="D64" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
@@ -3588,44 +3600,44 @@
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>1053</v>
+        <v>20</v>
       </c>
       <c r="J64" t="n">
-        <v>424263</v>
+        <v>10787</v>
       </c>
       <c r="K64" t="n">
-        <v>407630</v>
+        <v>10229</v>
       </c>
       <c r="L64" t="n">
-        <v>1.5868</v>
+        <v>0.0394</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3637,44 +3649,44 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>205171</v>
+        <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>2596356</v>
+        <v>4683</v>
       </c>
       <c r="K65" t="n">
-        <v>5051654</v>
+        <v>4385</v>
       </c>
       <c r="L65" t="n">
-        <v>12.0275</v>
+        <v>0.013</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B66" t="n">
         <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3686,48 +3698,48 @@
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>12200</v>
+        <v>60</v>
       </c>
       <c r="J66" t="n">
-        <v>865452</v>
+        <v>14049</v>
       </c>
       <c r="K66" t="n">
-        <v>1674182</v>
+        <v>13373</v>
       </c>
       <c r="L66" t="n">
-        <v>2.4971</v>
+        <v>0.058</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="n">
         <v>21</v>
       </c>
-      <c r="B67" t="n">
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" t="n">
-        <v>28</v>
-      </c>
-      <c r="D67" t="n">
-        <v>10</v>
-      </c>
-      <c r="E67" t="n">
-        <v>10</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
       <c r="G67" t="n">
         <v>6</v>
       </c>
@@ -3735,47 +3747,47 @@
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>2519</v>
+        <v>932</v>
       </c>
       <c r="J67" t="n">
-        <v>11172</v>
+        <v>42147</v>
       </c>
       <c r="K67" t="n">
-        <v>17867</v>
+        <v>40115</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0343</v>
+        <v>0.253</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3784,16 +3796,16 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>2788</v>
+        <v>41</v>
       </c>
       <c r="J68" t="n">
-        <v>13167</v>
+        <v>988547</v>
       </c>
       <c r="K68" t="n">
-        <v>21077</v>
+        <v>951134</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0473</v>
+        <v>4.1745</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
@@ -3803,28 +3815,28 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -3833,16 +3845,16 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>2272</v>
+        <v>54920</v>
       </c>
       <c r="J69" t="n">
-        <v>9177</v>
+        <v>6919829</v>
       </c>
       <c r="K69" t="n">
-        <v>14657</v>
+        <v>6861710</v>
       </c>
       <c r="L69" t="n">
-        <v>0.027</v>
+        <v>183.2784</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
@@ -3852,25 +3864,25 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3882,16 +3894,16 @@
         <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>2191</v>
+        <v>1053</v>
       </c>
       <c r="J70" t="n">
-        <v>5187</v>
+        <v>424263</v>
       </c>
       <c r="K70" t="n">
-        <v>8237</v>
+        <v>407630</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0143</v>
+        <v>1.5868</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -3901,25 +3913,25 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3931,16 +3943,16 @@
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>171</v>
+        <v>205171</v>
       </c>
       <c r="J71" t="n">
-        <v>1197</v>
+        <v>2596356</v>
       </c>
       <c r="K71" t="n">
-        <v>1817</v>
+        <v>5051654</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0024</v>
+        <v>12.0275</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
@@ -3950,25 +3962,25 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3980,44 +3992,44 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>21</v>
+        <v>12200</v>
       </c>
       <c r="J72" t="n">
-        <v>858</v>
+        <v>865452</v>
       </c>
       <c r="K72" t="n">
-        <v>1212</v>
+        <v>1674182</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0022</v>
+        <v>2.4971</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -4028,37 +4040,39 @@
       <c r="H73" t="n">
         <v>5</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>2519</v>
+      </c>
       <c r="J73" t="n">
-        <v>348</v>
+        <v>11172</v>
       </c>
       <c r="K73" t="n">
-        <v>282</v>
+        <v>17867</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0001</v>
+        <v>0.0343</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
@@ -4075,37 +4089,39 @@
       <c r="H74" t="n">
         <v>5</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>2788</v>
+      </c>
       <c r="J74" t="n">
-        <v>8008</v>
+        <v>13167</v>
       </c>
       <c r="K74" t="n">
-        <v>11912</v>
+        <v>21077</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0174</v>
+        <v>0.0473</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
@@ -4122,37 +4138,39 @@
       <c r="H75" t="n">
         <v>5</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>2272</v>
+      </c>
       <c r="J75" t="n">
-        <v>572</v>
+        <v>9177</v>
       </c>
       <c r="K75" t="n">
-        <v>784</v>
+        <v>14657</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001</v>
+        <v>0.027</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
         <v>13</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
@@ -4169,37 +4187,39 @@
       <c r="H76" t="n">
         <v>5</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>2191</v>
+      </c>
       <c r="J76" t="n">
-        <v>286</v>
+        <v>5187</v>
       </c>
       <c r="K76" t="n">
-        <v>356</v>
+        <v>8237</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
@@ -4216,37 +4236,39 @@
       <c r="H77" t="n">
         <v>5</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>171</v>
+      </c>
       <c r="J77" t="n">
-        <v>1430</v>
+        <v>1197</v>
       </c>
       <c r="K77" t="n">
-        <v>2068</v>
+        <v>1817</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0029</v>
+        <v>0.0024</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" t="n">
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>10</v>
@@ -4263,46 +4285,48 @@
       <c r="H78" t="n">
         <v>5</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>21</v>
+      </c>
       <c r="J78" t="n">
-        <v>1144</v>
+        <v>858</v>
       </c>
       <c r="K78" t="n">
-        <v>1640</v>
+        <v>1212</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0028</v>
+        <v>0.0022</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -4312,35 +4336,35 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>3990</v>
+        <v>348</v>
       </c>
       <c r="K79" t="n">
-        <v>6200</v>
+        <v>282</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
@@ -4359,13 +4383,13 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>2860</v>
+        <v>8008</v>
       </c>
       <c r="K80" t="n">
-        <v>4120</v>
+        <v>11912</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0119</v>
+        <v>0.0174</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
@@ -4375,19 +4399,19 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
@@ -4406,13 +4430,13 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6250</v>
+        <v>572</v>
       </c>
       <c r="K81" t="n">
-        <v>10697</v>
+        <v>784</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0162</v>
+        <v>0.001</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -4422,19 +4446,19 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -4443,7 +4467,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -4453,13 +4477,13 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>14230</v>
+        <v>286</v>
       </c>
       <c r="K82" t="n">
-        <v>23531</v>
+        <v>356</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0366</v>
+        <v>0.0001</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
@@ -4469,16 +4493,16 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
         <v>5</v>
@@ -4490,7 +4514,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4500,13 +4524,13 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>7115</v>
+        <v>1430</v>
       </c>
       <c r="K83" t="n">
-        <v>11761</v>
+        <v>2068</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0116</v>
+        <v>0.0029</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -4516,44 +4540,44 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
         <v>1</v>
       </c>
-      <c r="B84" t="n">
-        <v>9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>5</v>
-      </c>
-      <c r="D84" t="n">
-        <v>10</v>
-      </c>
-      <c r="E84" t="n">
-        <v>10</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
       <c r="G84" t="n">
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5685</v>
+        <v>1144</v>
       </c>
       <c r="K84" t="n">
-        <v>9623</v>
+        <v>1640</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0098</v>
+        <v>0.0028</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -4563,68 +4587,66 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>10</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3338</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>46032</v>
+        <v>3990</v>
       </c>
       <c r="K85" t="n">
-        <v>80278</v>
+        <v>6200</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2189</v>
+        <v>0.0072</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B86" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
@@ -4633,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -4643,31 +4665,35 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>5685</v>
+        <v>2860</v>
       </c>
       <c r="K86" t="n">
-        <v>9623</v>
+        <v>4120</v>
       </c>
       <c r="L86" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0119</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="n">
         <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
@@ -4682,44 +4708,48 @@
         <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>3125</v>
+        <v>6250</v>
       </c>
       <c r="K87" t="n">
-        <v>5347</v>
+        <v>10697</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0064</v>
+        <v>0.0162</v>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
         <v>3</v>
-      </c>
-      <c r="B88" t="n">
-        <v>9</v>
-      </c>
-      <c r="C88" t="n">
-        <v>10</v>
-      </c>
-      <c r="D88" t="n">
-        <v>10</v>
-      </c>
-      <c r="E88" t="n">
-        <v>10</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4729,24 +4759,32 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>11370</v>
+        <v>14230</v>
       </c>
       <c r="K88" t="n">
-        <v>19253</v>
+        <v>23531</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0334</v>
+        <v>0.0366</v>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C89" t="n">
         <v>5</v>
@@ -4758,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -4768,17 +4806,285 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
+        <v>7115</v>
+      </c>
+      <c r="K89" t="n">
+        <v>11761</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B91" t="n">
+        <v>12</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3338</v>
+      </c>
+      <c r="J91" t="n">
+        <v>46032</v>
+      </c>
+      <c r="K91" t="n">
+        <v>80278</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K92" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
         <v>3125</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K93" t="n">
         <v>5347</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L93" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K94" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L95" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -473,11 +473,11 @@
         <v>46375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4606</v>
+        <v>0.4017</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15:12:52</t>
+          <t>16:26:52</t>
         </is>
       </c>
     </row>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,44 +440,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>514.8000000000001</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="J2" t="n">
-        <v>22148</v>
+        <v>470799</v>
       </c>
       <c r="K2" t="n">
-        <v>46375</v>
+        <v>870078</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4017</v>
+        <v>12.2089</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16:26:52</t>
+          <t>09:48:35</t>
         </is>
       </c>
     </row>
@@ -2482,370 +2482,370 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>394</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="J42" t="n">
-        <v>38178</v>
+        <v>313866</v>
       </c>
       <c r="K42" t="n">
-        <v>58116</v>
+        <v>579501</v>
       </c>
       <c r="L42" t="n">
-        <v>0.09379999999999999</v>
+        <v>1.1351</v>
       </c>
       <c r="M42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
         <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>1578</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="J43" t="n">
-        <v>52500</v>
+        <v>148050</v>
       </c>
       <c r="K43" t="n">
-        <v>92122</v>
+        <v>283143</v>
       </c>
       <c r="L43" t="n">
-        <v>6.5428</v>
+        <v>0.8347</v>
       </c>
       <c r="M43" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C44" t="n">
         <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H44" t="n">
         <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>1577.999992666665</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="J44" t="n">
-        <v>57540</v>
+        <v>153972</v>
       </c>
       <c r="K44" t="n">
-        <v>100522</v>
+        <v>293934</v>
       </c>
       <c r="L44" t="n">
-        <v>2.1297</v>
+        <v>0.6929</v>
       </c>
       <c r="M44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B45" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" t="n">
+        <v>14</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
         <v>12</v>
       </c>
-      <c r="C45" t="n">
-        <v>21</v>
-      </c>
-      <c r="D45" t="n">
-        <v>15</v>
-      </c>
-      <c r="E45" t="n">
-        <v>50</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6</v>
-      </c>
       <c r="H45" t="n">
         <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>3202</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="J45" t="n">
-        <v>351288</v>
+        <v>177660</v>
       </c>
       <c r="K45" t="n">
-        <v>466643</v>
+        <v>337098</v>
       </c>
       <c r="L45" t="n">
-        <v>1.9582</v>
+        <v>0.753</v>
       </c>
       <c r="M45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>51</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="J46" t="n">
-        <v>29274</v>
+        <v>94752</v>
       </c>
       <c r="K46" t="n">
-        <v>37158</v>
+        <v>278913</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0469</v>
+        <v>0.2439</v>
       </c>
       <c r="M46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>20</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
         <v>7</v>
       </c>
-      <c r="D47" t="n">
-        <v>15</v>
-      </c>
-      <c r="E47" t="n">
-        <v>50</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6</v>
-      </c>
       <c r="H47" t="n">
         <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>192</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="J47" t="n">
-        <v>117096</v>
+        <v>47376</v>
       </c>
       <c r="K47" t="n">
-        <v>154821</v>
+        <v>191065</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2622</v>
+        <v>0.1299</v>
       </c>
       <c r="M47" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
         <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>370</v>
+        <v>795.6</v>
       </c>
       <c r="J48" t="n">
-        <v>34524</v>
+        <v>82908</v>
       </c>
       <c r="K48" t="n">
-        <v>60034</v>
+        <v>193885</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1695</v>
+        <v>0.4943</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" t="n">
         <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -2863,19 +2863,19 @@
         <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>260.0666666666666</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>11074</v>
+        <v>22148</v>
       </c>
       <c r="K49" t="n">
-        <v>22904</v>
+        <v>46375</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1305</v>
+        <v>0.3576</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -2884,65 +2884,67 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>14:45:01</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
         <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="J50" t="n">
-        <v>114660</v>
+        <v>11074</v>
       </c>
       <c r="K50" t="n">
-        <v>195602</v>
+        <v>22904</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0.0224</v>
+      </c>
+      <c r="M50" t="n">
+        <v>11</v>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>7</v>
@@ -2954,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -2963,38 +2965,40 @@
         <v>10</v>
       </c>
       <c r="I51" t="n">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="J51" t="n">
-        <v>30429</v>
+        <v>38178</v>
       </c>
       <c r="K51" t="n">
-        <v>28721</v>
+        <v>58116</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11</v>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
         <v>15</v>
@@ -3009,38 +3013,40 @@
         <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>20</v>
+        <v>1578</v>
       </c>
       <c r="J52" t="n">
-        <v>10143</v>
+        <v>52500</v>
       </c>
       <c r="K52" t="n">
-        <v>9575</v>
+        <v>92122</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>6.5428</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9</v>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
         <v>14</v>
@@ -3052,191 +3058,199 @@
         <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>160</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J53" t="n">
-        <v>81144</v>
+        <v>57540</v>
       </c>
       <c r="K53" t="n">
-        <v>77690</v>
+        <v>100522</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>2.1297</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9</v>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15</v>
+      </c>
+      <c r="E54" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3202</v>
+      </c>
+      <c r="J54" t="n">
+        <v>351288</v>
+      </c>
+      <c r="K54" t="n">
+        <v>466643</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.9582</v>
+      </c>
+      <c r="M54" t="n">
         <v>9</v>
       </c>
-      <c r="C54" t="n">
-        <v>14</v>
-      </c>
-      <c r="D54" t="n">
-        <v>15</v>
-      </c>
-      <c r="E54" t="n">
-        <v>15</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
-      </c>
-      <c r="I54" t="n">
-        <v>120</v>
-      </c>
-      <c r="J54" t="n">
-        <v>60858</v>
-      </c>
-      <c r="K54" t="n">
-        <v>58151</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
         <v>7</v>
       </c>
-      <c r="C55" t="n">
-        <v>14</v>
-      </c>
       <c r="D55" t="n">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J55" t="n">
-        <v>46914</v>
+        <v>29274</v>
       </c>
       <c r="K55" t="n">
-        <v>45229</v>
+        <v>37158</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1723</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9</v>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
         <v>7</v>
       </c>
-      <c r="C56" t="n">
-        <v>21</v>
-      </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="J56" t="n">
-        <v>70371</v>
+        <v>117096</v>
       </c>
       <c r="K56" t="n">
-        <v>68161</v>
+        <v>154821</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2664</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9</v>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
         <v>14</v>
@@ -3248,47 +3262,49 @@
         <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="J57" t="n">
-        <v>20286</v>
+        <v>34524</v>
       </c>
       <c r="K57" t="n">
-        <v>19385</v>
+        <v>60034</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B58" t="n">
         <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
@@ -3303,38 +3319,38 @@
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>1194</v>
+        <v>400</v>
       </c>
       <c r="J58" t="n">
-        <v>101430</v>
+        <v>114660</v>
       </c>
       <c r="K58" t="n">
-        <v>97112</v>
+        <v>195602</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5688</v>
+        <v>0.3841</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B59" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
         <v>7</v>
@@ -3346,47 +3362,47 @@
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="J59" t="n">
-        <v>50715</v>
+        <v>30429</v>
       </c>
       <c r="K59" t="n">
-        <v>47867</v>
+        <v>28721</v>
       </c>
       <c r="L59" t="n">
-        <v>0.2266</v>
+        <v>0.1367</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
         <v>15</v>
@@ -3395,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3404,47 +3420,47 @@
         <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>7950</v>
+        <v>20</v>
       </c>
       <c r="J60" t="n">
-        <v>202860</v>
+        <v>10143</v>
       </c>
       <c r="K60" t="n">
-        <v>195602</v>
+        <v>9575</v>
       </c>
       <c r="L60" t="n">
-        <v>1.3571</v>
+        <v>0.0359</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3453,47 +3469,47 @@
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>41720</v>
+        <v>160</v>
       </c>
       <c r="J61" t="n">
-        <v>1173690</v>
+        <v>81144</v>
       </c>
       <c r="K61" t="n">
-        <v>1149317</v>
+        <v>77690</v>
       </c>
       <c r="L61" t="n">
-        <v>19.0623</v>
+        <v>0.3027</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
         <v>6</v>
@@ -3502,47 +3518,47 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J62" t="n">
-        <v>23415</v>
+        <v>60858</v>
       </c>
       <c r="K62" t="n">
-        <v>21917</v>
+        <v>58151</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0978</v>
+        <v>0.2167</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3551,44 +3567,44 @@
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J63" t="n">
-        <v>14049</v>
+        <v>46914</v>
       </c>
       <c r="K63" t="n">
-        <v>13151</v>
+        <v>45229</v>
       </c>
       <c r="L63" t="n">
-        <v>0.06</v>
+        <v>0.1723</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B64" t="n">
         <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
@@ -3600,44 +3616,44 @@
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="J64" t="n">
-        <v>10787</v>
+        <v>70371</v>
       </c>
       <c r="K64" t="n">
-        <v>10229</v>
+        <v>68161</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0394</v>
+        <v>0.2664</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3649,47 +3665,47 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J65" t="n">
-        <v>4683</v>
+        <v>20286</v>
       </c>
       <c r="K65" t="n">
-        <v>4385</v>
+        <v>19385</v>
       </c>
       <c r="L65" t="n">
-        <v>0.013</v>
+        <v>0.0702</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -3698,16 +3714,16 @@
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>60</v>
+        <v>1194</v>
       </c>
       <c r="J66" t="n">
-        <v>14049</v>
+        <v>101430</v>
       </c>
       <c r="K66" t="n">
-        <v>13373</v>
+        <v>97112</v>
       </c>
       <c r="L66" t="n">
-        <v>0.058</v>
+        <v>0.5688</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
@@ -3717,28 +3733,28 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
@@ -3747,16 +3763,16 @@
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>932</v>
+        <v>124</v>
       </c>
       <c r="J67" t="n">
-        <v>42147</v>
+        <v>50715</v>
       </c>
       <c r="K67" t="n">
-        <v>40115</v>
+        <v>47867</v>
       </c>
       <c r="L67" t="n">
-        <v>0.253</v>
+        <v>0.2266</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
@@ -3766,28 +3782,28 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3796,47 +3812,47 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>41</v>
+        <v>7950</v>
       </c>
       <c r="J68" t="n">
-        <v>988547</v>
+        <v>202860</v>
       </c>
       <c r="K68" t="n">
-        <v>951134</v>
+        <v>195602</v>
       </c>
       <c r="L68" t="n">
-        <v>4.1745</v>
+        <v>1.3571</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -3845,47 +3861,47 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>54920</v>
+        <v>41720</v>
       </c>
       <c r="J69" t="n">
-        <v>6919829</v>
+        <v>1173690</v>
       </c>
       <c r="K69" t="n">
-        <v>6861710</v>
+        <v>1149317</v>
       </c>
       <c r="L69" t="n">
-        <v>183.2784</v>
+        <v>19.0623</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n">
         <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3894,48 +3910,48 @@
         <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>1053</v>
+        <v>124</v>
       </c>
       <c r="J70" t="n">
-        <v>424263</v>
+        <v>23415</v>
       </c>
       <c r="K70" t="n">
-        <v>407630</v>
+        <v>21917</v>
       </c>
       <c r="L70" t="n">
-        <v>1.5868</v>
+        <v>0.0978</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" t="n">
-        <v>84</v>
-      </c>
-      <c r="D71" t="n">
-        <v>100</v>
-      </c>
-      <c r="E71" t="n">
-        <v>100</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
       <c r="G71" t="n">
         <v>6</v>
       </c>
@@ -3943,47 +3959,47 @@
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>205171</v>
+        <v>60</v>
       </c>
       <c r="J71" t="n">
-        <v>2596356</v>
+        <v>14049</v>
       </c>
       <c r="K71" t="n">
-        <v>5051654</v>
+        <v>13151</v>
       </c>
       <c r="L71" t="n">
-        <v>12.0275</v>
+        <v>0.06</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -3992,38 +4008,38 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>12200</v>
+        <v>20</v>
       </c>
       <c r="J72" t="n">
-        <v>865452</v>
+        <v>10787</v>
       </c>
       <c r="K72" t="n">
-        <v>1674182</v>
+        <v>10229</v>
       </c>
       <c r="L72" t="n">
-        <v>2.4971</v>
+        <v>0.0394</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B73" t="n">
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
@@ -4041,38 +4057,38 @@
         <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>2519</v>
+        <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>11172</v>
+        <v>4683</v>
       </c>
       <c r="K73" t="n">
-        <v>17867</v>
+        <v>4385</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0343</v>
+        <v>0.013</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B74" t="n">
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
@@ -4090,48 +4106,48 @@
         <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>2788</v>
+        <v>60</v>
       </c>
       <c r="J74" t="n">
-        <v>13167</v>
+        <v>14049</v>
       </c>
       <c r="K74" t="n">
-        <v>21077</v>
+        <v>13373</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0473</v>
+        <v>0.058</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>21</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
         <v>3</v>
       </c>
-      <c r="C75" t="n">
-        <v>23</v>
-      </c>
-      <c r="D75" t="n">
-        <v>10</v>
-      </c>
-      <c r="E75" t="n">
-        <v>10</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
       <c r="G75" t="n">
         <v>6</v>
       </c>
@@ -4139,47 +4155,47 @@
         <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>2272</v>
+        <v>932</v>
       </c>
       <c r="J75" t="n">
-        <v>9177</v>
+        <v>42147</v>
       </c>
       <c r="K75" t="n">
-        <v>14657</v>
+        <v>40115</v>
       </c>
       <c r="L75" t="n">
-        <v>0.027</v>
+        <v>0.253</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -4188,16 +4204,16 @@
         <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>2191</v>
+        <v>41</v>
       </c>
       <c r="J76" t="n">
-        <v>5187</v>
+        <v>988547</v>
       </c>
       <c r="K76" t="n">
-        <v>8237</v>
+        <v>951134</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0143</v>
+        <v>4.1745</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
@@ -4207,28 +4223,28 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -4237,16 +4253,16 @@
         <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>171</v>
+        <v>54920</v>
       </c>
       <c r="J77" t="n">
-        <v>1197</v>
+        <v>6919829</v>
       </c>
       <c r="K77" t="n">
-        <v>1817</v>
+        <v>6861710</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0024</v>
+        <v>183.2784</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
@@ -4256,25 +4272,25 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -4286,44 +4302,44 @@
         <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>21</v>
+        <v>1053</v>
       </c>
       <c r="J78" t="n">
-        <v>858</v>
+        <v>424263</v>
       </c>
       <c r="K78" t="n">
-        <v>1212</v>
+        <v>407630</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0022</v>
+        <v>1.5868</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E79" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -4334,43 +4350,45 @@
       <c r="H79" t="n">
         <v>5</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>205171</v>
+      </c>
       <c r="J79" t="n">
-        <v>348</v>
+        <v>2596356</v>
       </c>
       <c r="K79" t="n">
-        <v>282</v>
+        <v>5051654</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0001</v>
+        <v>12.0275</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
         <v>28</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -4381,37 +4399,39 @@
       <c r="H80" t="n">
         <v>5</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>12200</v>
+      </c>
       <c r="J80" t="n">
-        <v>8008</v>
+        <v>865452</v>
       </c>
       <c r="K80" t="n">
-        <v>11912</v>
+        <v>1674182</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0174</v>
+        <v>2.4971</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
@@ -4428,37 +4448,39 @@
       <c r="H81" t="n">
         <v>5</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>2519</v>
+      </c>
       <c r="J81" t="n">
-        <v>572</v>
+        <v>11172</v>
       </c>
       <c r="K81" t="n">
-        <v>784</v>
+        <v>17867</v>
       </c>
       <c r="L81" t="n">
-        <v>0.001</v>
+        <v>0.0343</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -4475,37 +4497,39 @@
       <c r="H82" t="n">
         <v>5</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>2788</v>
+      </c>
       <c r="J82" t="n">
-        <v>286</v>
+        <v>13167</v>
       </c>
       <c r="K82" t="n">
-        <v>356</v>
+        <v>21077</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0001</v>
+        <v>0.0473</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
@@ -4522,37 +4546,39 @@
       <c r="H83" t="n">
         <v>5</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>2272</v>
+      </c>
       <c r="J83" t="n">
-        <v>1430</v>
+        <v>9177</v>
       </c>
       <c r="K83" t="n">
-        <v>2068</v>
+        <v>14657</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0029</v>
+        <v>0.027</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -4569,37 +4595,39 @@
       <c r="H84" t="n">
         <v>5</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>2191</v>
+      </c>
       <c r="J84" t="n">
-        <v>1144</v>
+        <v>5187</v>
       </c>
       <c r="K84" t="n">
-        <v>1640</v>
+        <v>8237</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0028</v>
+        <v>0.0143</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
@@ -4608,7 +4636,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -4616,37 +4644,39 @@
       <c r="H85" t="n">
         <v>5</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>171</v>
+      </c>
       <c r="J85" t="n">
-        <v>3990</v>
+        <v>1197</v>
       </c>
       <c r="K85" t="n">
-        <v>6200</v>
+        <v>1817</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0072</v>
+        <v>0.0024</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B86" t="n">
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
@@ -4663,43 +4693,45 @@
       <c r="H86" t="n">
         <v>5</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>21</v>
+      </c>
       <c r="J86" t="n">
-        <v>2860</v>
+        <v>858</v>
       </c>
       <c r="K86" t="n">
-        <v>4120</v>
+        <v>1212</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0119</v>
+        <v>0.0022</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4712,35 +4744,35 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>6250</v>
+        <v>348</v>
       </c>
       <c r="K87" t="n">
-        <v>10697</v>
+        <v>282</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0162</v>
+        <v>0.0001</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
@@ -4749,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4759,13 +4791,13 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>14230</v>
+        <v>8008</v>
       </c>
       <c r="K88" t="n">
-        <v>23531</v>
+        <v>11912</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0366</v>
+        <v>0.0174</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
@@ -4775,19 +4807,19 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B89" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
@@ -4796,7 +4828,7 @@
         <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -4806,13 +4838,13 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>7115</v>
+        <v>572</v>
       </c>
       <c r="K89" t="n">
-        <v>11761</v>
+        <v>784</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0116</v>
+        <v>0.001</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
@@ -4822,20 +4854,20 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
         <v>1</v>
       </c>
-      <c r="B90" t="n">
-        <v>9</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5</v>
-      </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
@@ -4843,23 +4875,23 @@
         <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5685</v>
+        <v>286</v>
       </c>
       <c r="K90" t="n">
-        <v>9623</v>
+        <v>356</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0098</v>
+        <v>0.0001</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
@@ -4869,68 +4901,66 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3338</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>46032</v>
+        <v>1430</v>
       </c>
       <c r="K91" t="n">
-        <v>80278</v>
+        <v>2068</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2189</v>
+        <v>0.0029</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
@@ -4939,7 +4969,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -4949,28 +4979,32 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5685</v>
+        <v>1144</v>
       </c>
       <c r="K92" t="n">
-        <v>9623</v>
+        <v>1640</v>
       </c>
       <c r="L92" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0028</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="n">
         <v>5</v>
@@ -4982,38 +5016,42 @@
         <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>3125</v>
+        <v>3990</v>
       </c>
       <c r="K93" t="n">
-        <v>5347</v>
+        <v>6200</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0064</v>
+        <v>0.0072</v>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
         <v>10</v>
@@ -5025,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -5035,27 +5073,35 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>11370</v>
+        <v>2860</v>
       </c>
       <c r="K94" t="n">
-        <v>19253</v>
+        <v>4120</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0334</v>
+        <v>0.0119</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>16:16:14</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B95" t="n">
         <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
@@ -5074,17 +5120,379 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
+        <v>6250</v>
+      </c>
+      <c r="K95" t="n">
+        <v>10697</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>13:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>14230</v>
+      </c>
+      <c r="K96" t="n">
+        <v>23531</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>7115</v>
+      </c>
+      <c r="K97" t="n">
+        <v>11761</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B99" t="n">
+        <v>12</v>
+      </c>
+      <c r="C99" t="n">
+        <v>14</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3338</v>
+      </c>
+      <c r="J99" t="n">
+        <v>46032</v>
+      </c>
+      <c r="K99" t="n">
+        <v>80278</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5685</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9623</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
         <v>3125</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K101" t="n">
         <v>5347</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L101" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K102" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L103" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" t="n">
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -464,16 +464,16 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>312.2499501315505</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>470799</v>
+        <v>156933</v>
       </c>
       <c r="K2" t="n">
-        <v>870078</v>
+        <v>285656</v>
       </c>
       <c r="L2" t="n">
-        <v>12.2089</v>
+        <v>0.5835</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>09:48:35</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
@@ -2482,13 +2482,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" t="n">
         <v>53</v>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>20</v>
@@ -2506,16 +2506,16 @@
         <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>154.4249671516788</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="J42" t="n">
-        <v>313866</v>
+        <v>470799</v>
       </c>
       <c r="K42" t="n">
-        <v>579501</v>
+        <v>870078</v>
       </c>
       <c r="L42" t="n">
-        <v>1.1351</v>
+        <v>10.5612</v>
       </c>
       <c r="M42" t="n">
         <v>12</v>
@@ -2527,19 +2527,19 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D43" t="n">
         <v>20</v>
@@ -2551,26 +2551,26 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
+        <v>15</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1098531</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2032386</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.7722</v>
+      </c>
+      <c r="M43" t="n">
         <v>12</v>
       </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34.79999440044767</v>
-      </c>
-      <c r="J43" t="n">
-        <v>148050</v>
-      </c>
-      <c r="K43" t="n">
-        <v>283143</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.8347</v>
-      </c>
-      <c r="M43" t="n">
-        <v>11</v>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>05</t>
@@ -2578,19 +2578,19 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B44" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>20</v>
@@ -2602,26 +2602,26 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
+        <v>15</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>784665</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1451232</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.1652</v>
+      </c>
+      <c r="M44" t="n">
         <v>12</v>
       </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1775.199999963032</v>
-      </c>
-      <c r="J44" t="n">
-        <v>153972</v>
-      </c>
-      <c r="K44" t="n">
-        <v>293934</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.6929</v>
-      </c>
-      <c r="M44" t="n">
-        <v>11</v>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>05</t>
@@ -2629,16 +2629,16 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>10:23:03</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>14</v>
@@ -2653,26 +2653,26 @@
         <v>3</v>
       </c>
       <c r="G45" t="n">
+        <v>15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="n">
+        <v>154.4249671516788</v>
+      </c>
+      <c r="J45" t="n">
+        <v>313866</v>
+      </c>
+      <c r="K45" t="n">
+        <v>579501</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.1351</v>
+      </c>
+      <c r="M45" t="n">
         <v>12</v>
       </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1676.933333333334</v>
-      </c>
-      <c r="J45" t="n">
-        <v>177660</v>
-      </c>
-      <c r="K45" t="n">
-        <v>337098</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="M45" t="n">
-        <v>11</v>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>05</t>
@@ -2680,16 +2680,16 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
         <v>14</v>
@@ -2701,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>12</v>
@@ -2710,16 +2710,16 @@
         <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>26.99999602929075</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="J46" t="n">
-        <v>94752</v>
+        <v>148050</v>
       </c>
       <c r="K46" t="n">
-        <v>278913</v>
+        <v>283143</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2439</v>
+        <v>0.8347</v>
       </c>
       <c r="M46" t="n">
         <v>11</v>
@@ -2731,16 +2731,16 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
         <v>14</v>
@@ -2752,25 +2752,25 @@
         <v>20</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
         <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>19.99999388246115</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="J47" t="n">
-        <v>47376</v>
+        <v>153972</v>
       </c>
       <c r="K47" t="n">
-        <v>191065</v>
+        <v>293934</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1299</v>
+        <v>0.6929</v>
       </c>
       <c r="M47" t="n">
         <v>11</v>
@@ -2782,16 +2782,16 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>14</v>
@@ -2803,25 +2803,25 @@
         <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>795.6</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="J48" t="n">
-        <v>82908</v>
+        <v>177660</v>
       </c>
       <c r="K48" t="n">
-        <v>193885</v>
+        <v>337098</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4943</v>
+        <v>0.753</v>
       </c>
       <c r="M48" t="n">
         <v>11</v>
@@ -2833,46 +2833,46 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
         <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
         <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>514.8000000000001</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="J49" t="n">
-        <v>22148</v>
+        <v>94752</v>
       </c>
       <c r="K49" t="n">
-        <v>46375</v>
+        <v>278913</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3576</v>
+        <v>0.2439</v>
       </c>
       <c r="M49" t="n">
         <v>11</v>
@@ -2884,28 +2884,28 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
         <v>14</v>
       </c>
-      <c r="C50" t="n">
-        <v>7</v>
-      </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -2914,16 +2914,16 @@
         <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>204</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="J50" t="n">
-        <v>11074</v>
+        <v>47376</v>
       </c>
       <c r="K50" t="n">
-        <v>22904</v>
+        <v>191065</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0224</v>
+        <v>0.1299</v>
       </c>
       <c r="M50" t="n">
         <v>11</v>
@@ -2935,181 +2935,181 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
+        <v>14</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
         <v>7</v>
       </c>
-      <c r="D51" t="n">
-        <v>15</v>
-      </c>
-      <c r="E51" t="n">
-        <v>15</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6</v>
-      </c>
       <c r="H51" t="n">
         <v>10</v>
       </c>
       <c r="I51" t="n">
-        <v>394</v>
+        <v>795.6</v>
       </c>
       <c r="J51" t="n">
-        <v>38178</v>
+        <v>82908</v>
       </c>
       <c r="K51" t="n">
-        <v>58116</v>
+        <v>193885</v>
       </c>
       <c r="L51" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.4943</v>
       </c>
       <c r="M51" t="n">
         <v>11</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
         <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>1578</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>52500</v>
+        <v>22148</v>
       </c>
       <c r="K52" t="n">
-        <v>92122</v>
+        <v>46375</v>
       </c>
       <c r="L52" t="n">
-        <v>6.5428</v>
+        <v>0.3576</v>
       </c>
       <c r="M52" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
         <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>1577.999992666665</v>
+        <v>204</v>
       </c>
       <c r="J53" t="n">
-        <v>57540</v>
+        <v>11074</v>
       </c>
       <c r="K53" t="n">
-        <v>100522</v>
+        <v>22904</v>
       </c>
       <c r="L53" t="n">
-        <v>2.1297</v>
+        <v>0.0224</v>
       </c>
       <c r="M53" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B54" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -3118,19 +3118,19 @@
         <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>3202</v>
+        <v>394</v>
       </c>
       <c r="J54" t="n">
-        <v>351288</v>
+        <v>38178</v>
       </c>
       <c r="K54" t="n">
-        <v>466643</v>
+        <v>58116</v>
       </c>
       <c r="L54" t="n">
-        <v>1.9582</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3139,25 +3139,25 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -3169,16 +3169,16 @@
         <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>51</v>
+        <v>1578</v>
       </c>
       <c r="J55" t="n">
-        <v>29274</v>
+        <v>52500</v>
       </c>
       <c r="K55" t="n">
-        <v>37158</v>
+        <v>92122</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0469</v>
+        <v>6.5428</v>
       </c>
       <c r="M55" t="n">
         <v>9</v>
@@ -3190,28 +3190,28 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -3220,16 +3220,16 @@
         <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>192</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="J56" t="n">
-        <v>117096</v>
+        <v>57540</v>
       </c>
       <c r="K56" t="n">
-        <v>154821</v>
+        <v>100522</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2622</v>
+        <v>2.1297</v>
       </c>
       <c r="M56" t="n">
         <v>9</v>
@@ -3241,50 +3241,50 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15</v>
+      </c>
+      <c r="E57" t="n">
+        <v>50</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3202</v>
+      </c>
+      <c r="J57" t="n">
+        <v>351288</v>
+      </c>
+      <c r="K57" t="n">
+        <v>466643</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.9582</v>
+      </c>
+      <c r="M57" t="n">
         <v>9</v>
       </c>
-      <c r="C57" t="n">
-        <v>14</v>
-      </c>
-      <c r="D57" t="n">
-        <v>15</v>
-      </c>
-      <c r="E57" t="n">
-        <v>15</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6</v>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-      <c r="I57" t="n">
-        <v>370</v>
-      </c>
-      <c r="J57" t="n">
-        <v>34524</v>
-      </c>
-      <c r="K57" t="n">
-        <v>60034</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2</v>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>04</t>
@@ -3292,28 +3292,28 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -3322,35 +3322,37 @@
         <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="J58" t="n">
-        <v>114660</v>
+        <v>29274</v>
       </c>
       <c r="K58" t="n">
-        <v>195602</v>
+        <v>37158</v>
       </c>
       <c r="L58" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0.0469</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9</v>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C59" t="n">
         <v>7</v>
@@ -3359,10 +3361,10 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -3371,87 +3373,91 @@
         <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="J59" t="n">
-        <v>30429</v>
+        <v>117096</v>
       </c>
       <c r="K59" t="n">
-        <v>28721</v>
+        <v>154821</v>
       </c>
       <c r="L59" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0.2622</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9</v>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" t="n">
         <v>3</v>
       </c>
-      <c r="C60" t="n">
-        <v>7</v>
-      </c>
-      <c r="D60" t="n">
-        <v>15</v>
-      </c>
-      <c r="E60" t="n">
-        <v>15</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
       <c r="G60" t="n">
         <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I60" t="n">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="J60" t="n">
-        <v>10143</v>
+        <v>34524</v>
       </c>
       <c r="K60" t="n">
-        <v>9575</v>
+        <v>60034</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0.1695</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
@@ -3460,25 +3466,25 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="J61" t="n">
-        <v>81144</v>
+        <v>114660</v>
       </c>
       <c r="K61" t="n">
-        <v>77690</v>
+        <v>195602</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3027</v>
+        <v>0.3841</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -3488,19 +3494,19 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B62" t="n">
         <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>15</v>
@@ -3515,19 +3521,19 @@
         <v>6</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J62" t="n">
-        <v>60858</v>
+        <v>30429</v>
       </c>
       <c r="K62" t="n">
-        <v>58151</v>
+        <v>28721</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2167</v>
+        <v>0.1367</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -3537,20 +3543,20 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
         <v>7</v>
       </c>
-      <c r="C63" t="n">
-        <v>14</v>
-      </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3567,16 +3573,16 @@
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J63" t="n">
-        <v>46914</v>
+        <v>10143</v>
       </c>
       <c r="K63" t="n">
-        <v>45229</v>
+        <v>9575</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1723</v>
+        <v>0.0359</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
@@ -3586,19 +3592,19 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
@@ -3607,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
@@ -3616,16 +3622,16 @@
         <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J64" t="n">
-        <v>70371</v>
+        <v>81144</v>
       </c>
       <c r="K64" t="n">
-        <v>68161</v>
+        <v>77690</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2664</v>
+        <v>0.3027</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
@@ -3635,16 +3641,16 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
         <v>14</v>
@@ -3656,7 +3662,7 @@
         <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -3665,16 +3671,16 @@
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J65" t="n">
-        <v>20286</v>
+        <v>60858</v>
       </c>
       <c r="K65" t="n">
-        <v>19385</v>
+        <v>58151</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0702</v>
+        <v>0.2167</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
@@ -3684,16 +3690,16 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B66" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
         <v>14</v>
@@ -3705,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -3714,38 +3720,38 @@
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>1194</v>
+        <v>80</v>
       </c>
       <c r="J66" t="n">
-        <v>101430</v>
+        <v>46914</v>
       </c>
       <c r="K66" t="n">
-        <v>97112</v>
+        <v>45229</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5688</v>
+        <v>0.1723</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
@@ -3754,7 +3760,7 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
@@ -3763,38 +3769,38 @@
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J67" t="n">
-        <v>50715</v>
+        <v>70371</v>
       </c>
       <c r="K67" t="n">
-        <v>47867</v>
+        <v>68161</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2266</v>
+        <v>0.2664</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B68" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
@@ -3803,7 +3809,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3812,44 +3818,44 @@
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>7950</v>
+        <v>40</v>
       </c>
       <c r="J68" t="n">
-        <v>202860</v>
+        <v>20286</v>
       </c>
       <c r="K68" t="n">
-        <v>195602</v>
+        <v>19385</v>
       </c>
       <c r="L68" t="n">
-        <v>1.3571</v>
+        <v>0.0702</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B69" t="n">
         <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
         <v>5</v>
@@ -3861,16 +3867,16 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>41720</v>
+        <v>1194</v>
       </c>
       <c r="J69" t="n">
-        <v>1173690</v>
+        <v>101430</v>
       </c>
       <c r="K69" t="n">
-        <v>1149317</v>
+        <v>97112</v>
       </c>
       <c r="L69" t="n">
-        <v>19.0623</v>
+        <v>0.5688</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
@@ -3880,13 +3886,13 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B70" t="n">
         <v>15</v>
@@ -3895,10 +3901,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F70" t="n">
         <v>5</v>
@@ -3913,13 +3919,13 @@
         <v>124</v>
       </c>
       <c r="J70" t="n">
-        <v>23415</v>
+        <v>50715</v>
       </c>
       <c r="K70" t="n">
-        <v>21917</v>
+        <v>47867</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0978</v>
+        <v>0.2266</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -3929,28 +3935,28 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -3959,16 +3965,16 @@
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>60</v>
+        <v>7950</v>
       </c>
       <c r="J71" t="n">
-        <v>14049</v>
+        <v>202860</v>
       </c>
       <c r="K71" t="n">
-        <v>13151</v>
+        <v>195602</v>
       </c>
       <c r="L71" t="n">
-        <v>0.06</v>
+        <v>1.3571</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
@@ -3978,28 +3984,28 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -4008,16 +4014,16 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="J72" t="n">
-        <v>10787</v>
+        <v>1173690</v>
       </c>
       <c r="K72" t="n">
-        <v>10229</v>
+        <v>1149317</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0394</v>
+        <v>19.0623</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
@@ -4027,16 +4033,16 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C73" t="n">
         <v>7</v>
@@ -4048,7 +4054,7 @@
         <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -4057,16 +4063,16 @@
         <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="J73" t="n">
-        <v>4683</v>
+        <v>23415</v>
       </c>
       <c r="K73" t="n">
-        <v>4385</v>
+        <v>21917</v>
       </c>
       <c r="L73" t="n">
-        <v>0.013</v>
+        <v>0.0978</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
@@ -4076,28 +4082,28 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
         <v>3</v>
-      </c>
-      <c r="C74" t="n">
-        <v>21</v>
-      </c>
-      <c r="D74" t="n">
-        <v>10</v>
-      </c>
-      <c r="E74" t="n">
-        <v>10</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -4112,10 +4118,10 @@
         <v>14049</v>
       </c>
       <c r="K74" t="n">
-        <v>13373</v>
+        <v>13151</v>
       </c>
       <c r="L74" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
@@ -4125,19 +4131,19 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
@@ -4146,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
@@ -4155,16 +4161,16 @@
         <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>42147</v>
+        <v>10787</v>
       </c>
       <c r="K75" t="n">
-        <v>40115</v>
+        <v>10229</v>
       </c>
       <c r="L75" t="n">
-        <v>0.253</v>
+        <v>0.0394</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -4174,28 +4180,28 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
         <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -4204,47 +4210,47 @@
         <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J76" t="n">
-        <v>988547</v>
+        <v>4683</v>
       </c>
       <c r="K76" t="n">
-        <v>951134</v>
+        <v>4385</v>
       </c>
       <c r="L76" t="n">
-        <v>4.1745</v>
+        <v>0.013</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -4253,48 +4259,48 @@
         <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="J77" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="K77" t="n">
-        <v>6861710</v>
+        <v>13373</v>
       </c>
       <c r="L77" t="n">
-        <v>183.2784</v>
+        <v>0.058</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>21</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
         <v>3</v>
       </c>
-      <c r="C78" t="n">
-        <v>7</v>
-      </c>
-      <c r="D78" t="n">
-        <v>100</v>
-      </c>
-      <c r="E78" t="n">
-        <v>100</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
       <c r="G78" t="n">
         <v>6</v>
       </c>
@@ -4302,38 +4308,38 @@
         <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="J78" t="n">
-        <v>424263</v>
+        <v>42147</v>
       </c>
       <c r="K78" t="n">
-        <v>407630</v>
+        <v>40115</v>
       </c>
       <c r="L78" t="n">
-        <v>1.5868</v>
+        <v>0.253</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
         <v>100</v>
@@ -4342,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -4351,16 +4357,16 @@
         <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>205171</v>
+        <v>41</v>
       </c>
       <c r="J79" t="n">
-        <v>2596356</v>
+        <v>988547</v>
       </c>
       <c r="K79" t="n">
-        <v>5051654</v>
+        <v>951134</v>
       </c>
       <c r="L79" t="n">
-        <v>12.0275</v>
+        <v>4.1745</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
@@ -4370,19 +4376,19 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D80" t="n">
         <v>100</v>
@@ -4391,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4400,16 +4406,16 @@
         <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>12200</v>
+        <v>54920</v>
       </c>
       <c r="J80" t="n">
-        <v>865452</v>
+        <v>6919829</v>
       </c>
       <c r="K80" t="n">
-        <v>1674182</v>
+        <v>6861710</v>
       </c>
       <c r="L80" t="n">
-        <v>2.4971</v>
+        <v>183.2784</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
@@ -4419,25 +4425,25 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B81" t="n">
         <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -4449,16 +4455,16 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>2519</v>
+        <v>1053</v>
       </c>
       <c r="J81" t="n">
-        <v>11172</v>
+        <v>424263</v>
       </c>
       <c r="K81" t="n">
-        <v>17867</v>
+        <v>407630</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0343</v>
+        <v>1.5868</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -4468,25 +4474,25 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -4498,16 +4504,16 @@
         <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>2788</v>
+        <v>205171</v>
       </c>
       <c r="J82" t="n">
-        <v>13167</v>
+        <v>2596356</v>
       </c>
       <c r="K82" t="n">
-        <v>21077</v>
+        <v>5051654</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0473</v>
+        <v>12.0275</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
@@ -4517,25 +4523,25 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B83" t="n">
         <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -4547,16 +4553,16 @@
         <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>2272</v>
+        <v>12200</v>
       </c>
       <c r="J83" t="n">
-        <v>9177</v>
+        <v>865452</v>
       </c>
       <c r="K83" t="n">
-        <v>14657</v>
+        <v>1674182</v>
       </c>
       <c r="L83" t="n">
-        <v>0.027</v>
+        <v>2.4971</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -4566,19 +4572,19 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B84" t="n">
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -4596,16 +4602,16 @@
         <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>2191</v>
+        <v>2519</v>
       </c>
       <c r="J84" t="n">
-        <v>5187</v>
+        <v>11172</v>
       </c>
       <c r="K84" t="n">
-        <v>8237</v>
+        <v>17867</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0143</v>
+        <v>0.0343</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -4615,19 +4621,19 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
@@ -4645,16 +4651,16 @@
         <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>171</v>
+        <v>2788</v>
       </c>
       <c r="J85" t="n">
-        <v>1197</v>
+        <v>13167</v>
       </c>
       <c r="K85" t="n">
-        <v>1817</v>
+        <v>21077</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0024</v>
+        <v>0.0473</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
@@ -4664,19 +4670,19 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
@@ -4694,44 +4700,44 @@
         <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>21</v>
+        <v>2272</v>
       </c>
       <c r="J86" t="n">
-        <v>858</v>
+        <v>9177</v>
       </c>
       <c r="K86" t="n">
-        <v>1212</v>
+        <v>14657</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0022</v>
+        <v>0.027</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4742,37 +4748,39 @@
       <c r="H87" t="n">
         <v>5</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>2191</v>
+      </c>
       <c r="J87" t="n">
-        <v>348</v>
+        <v>5187</v>
       </c>
       <c r="K87" t="n">
-        <v>282</v>
+        <v>8237</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
@@ -4789,37 +4797,39 @@
       <c r="H88" t="n">
         <v>5</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>171</v>
+      </c>
       <c r="J88" t="n">
-        <v>8008</v>
+        <v>1197</v>
       </c>
       <c r="K88" t="n">
-        <v>11912</v>
+        <v>1817</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0174</v>
+        <v>0.0024</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B89" t="n">
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
@@ -4836,43 +4846,45 @@
       <c r="H89" t="n">
         <v>5</v>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
       <c r="J89" t="n">
-        <v>572</v>
+        <v>858</v>
       </c>
       <c r="K89" t="n">
-        <v>784</v>
+        <v>1212</v>
       </c>
       <c r="L89" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B90" t="n">
         <v>2</v>
       </c>
       <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
         <v>1</v>
       </c>
-      <c r="D90" t="n">
-        <v>10</v>
-      </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4885,10 +4897,10 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="K90" t="n">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="L90" t="n">
         <v>0.0001</v>
@@ -4896,24 +4908,24 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -4932,13 +4944,13 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>1430</v>
+        <v>8008</v>
       </c>
       <c r="K91" t="n">
-        <v>2068</v>
+        <v>11912</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0029</v>
+        <v>0.0174</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
@@ -4948,19 +4960,19 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
@@ -4979,13 +4991,13 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>1144</v>
+        <v>572</v>
       </c>
       <c r="K92" t="n">
-        <v>1640</v>
+        <v>784</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0028</v>
+        <v>0.001</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
@@ -4995,19 +5007,19 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
@@ -5016,7 +5028,7 @@
         <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -5026,13 +5038,13 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>3990</v>
+        <v>286</v>
       </c>
       <c r="K93" t="n">
-        <v>6200</v>
+        <v>356</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
@@ -5042,19 +5054,19 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94" t="n">
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -5073,13 +5085,13 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="K94" t="n">
-        <v>4120</v>
+        <v>2068</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0119</v>
+        <v>0.0029</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
@@ -5089,19 +5101,19 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
         <v>4</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5</v>
-      </c>
-      <c r="C95" t="n">
-        <v>10</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
@@ -5120,13 +5132,13 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>6250</v>
+        <v>1144</v>
       </c>
       <c r="K95" t="n">
-        <v>10697</v>
+        <v>1640</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0162</v>
+        <v>0.0028</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
@@ -5136,19 +5148,19 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B96" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
@@ -5157,7 +5169,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
@@ -5167,13 +5179,13 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>14230</v>
+        <v>3990</v>
       </c>
       <c r="K96" t="n">
-        <v>23531</v>
+        <v>6200</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0366</v>
+        <v>0.0072</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
@@ -5183,19 +5195,19 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B97" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
@@ -5204,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -5214,13 +5226,13 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>7115</v>
+        <v>2860</v>
       </c>
       <c r="K97" t="n">
-        <v>11761</v>
+        <v>4120</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0116</v>
+        <v>0.0119</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
@@ -5230,44 +5242,44 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>10</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
         <v>1</v>
       </c>
-      <c r="B98" t="n">
-        <v>9</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>10</v>
-      </c>
-      <c r="E98" t="n">
-        <v>10</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2</v>
-      </c>
       <c r="G98" t="n">
         <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="K98" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0098</v>
+        <v>0.0162</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
@@ -5277,65 +5289,63 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>10</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3338</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>46032</v>
+        <v>14230</v>
       </c>
       <c r="K99" t="n">
-        <v>80278</v>
+        <v>23531</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2189</v>
+        <v>0.0366</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C100" t="n">
         <v>5</v>
@@ -5347,7 +5357,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -5357,28 +5367,32 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="K100" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="L100" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
         <v>5</v>
@@ -5390,7 +5404,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -5400,79 +5414,93 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="K101" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0064</v>
+        <v>0.0098</v>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E102" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3338</v>
+      </c>
       <c r="J102" t="n">
-        <v>11370</v>
+        <v>46032</v>
       </c>
       <c r="K102" t="n">
-        <v>19253</v>
+        <v>80278</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0334</v>
+        <v>0.2189</v>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
         <v>2</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -5482,17 +5510,142 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="K103" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0071</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11370</v>
+      </c>
+      <c r="K105" t="n">
+        <v>19253</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3125</v>
+      </c>
+      <c r="K106" t="n">
+        <v>5347</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,50 +389,40 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Obj.value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Variables</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Constraints</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Obj.value</t>
+          <t>Run time</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Variables</t>
+          <t>Total time</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Constraints</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Run time</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -440,55 +430,49 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B2" t="n">
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>128790</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>230986</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>156933</v>
-      </c>
-      <c r="K2" t="n">
-        <v>285656</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5835</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+        <v>1.0875</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>16:40:53</t>
-        </is>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>20:52:46</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="3">
@@ -508,35 +492,27 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>260.0666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>41454</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>95584</v>
       </c>
       <c r="I3" t="n">
-        <v>260.0666666666666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>41454</v>
-      </c>
+        <v>0.1386</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>95584</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1386</v>
-      </c>
-      <c r="M3" t="n">
         <v>29</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>11:48:14</t>
         </is>
@@ -559,35 +535,27 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>50337</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>96574</v>
       </c>
       <c r="I4" t="n">
-        <v>169</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50337</v>
-      </c>
+        <v>0.2697</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>96574</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2697</v>
-      </c>
-      <c r="M4" t="n">
         <v>28</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>15:57:04</t>
         </is>
@@ -610,35 +578,27 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1714.999981406038</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>100674</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>195295</v>
       </c>
       <c r="I5" t="n">
-        <v>1714.999981406038</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100674</v>
-      </c>
+        <v>0.5799</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>195295</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5799</v>
-      </c>
-      <c r="M5" t="n">
         <v>28</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>15:37:04</t>
         </is>
@@ -661,35 +621,27 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>379.9999997701302</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>26894</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>46930</v>
       </c>
       <c r="I6" t="n">
-        <v>379.9999997701302</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26894</v>
-      </c>
+        <v>0.4965</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>46930</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.4965</v>
-      </c>
-      <c r="M6" t="n">
         <v>28</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>15:36:17</t>
         </is>
@@ -712,35 +664,27 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1071.333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>302022</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>596943</v>
       </c>
       <c r="I7" t="n">
-        <v>1071.333333333333</v>
-      </c>
-      <c r="J7" t="n">
-        <v>302022</v>
-      </c>
+        <v>510.9069</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>596943</v>
-      </c>
-      <c r="L7" t="n">
-        <v>510.9069</v>
-      </c>
-      <c r="M7" t="n">
         <v>28</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>11:54:06</t>
         </is>
@@ -763,35 +707,27 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>810</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>76986</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>213912</v>
       </c>
       <c r="I8" t="n">
-        <v>810</v>
-      </c>
-      <c r="J8" t="n">
-        <v>76986</v>
-      </c>
+        <v>0.2822</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>213912</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2822</v>
-      </c>
-      <c r="M8" t="n">
         <v>28</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>10:10:02</t>
         </is>
@@ -814,35 +750,27 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2142</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>115479</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>317295</v>
       </c>
       <c r="I9" t="n">
-        <v>2142</v>
-      </c>
-      <c r="J9" t="n">
-        <v>115479</v>
-      </c>
+        <v>67.02849999999999</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>317295</v>
-      </c>
-      <c r="L9" t="n">
-        <v>67.02849999999999</v>
-      </c>
-      <c r="M9" t="n">
         <v>28</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>10:00:43</t>
         </is>
@@ -865,35 +793,27 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>62181</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>302687</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>62181</v>
-      </c>
+        <v>0.3342</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>302687</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="M10" t="n">
         <v>28</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>09:12:06</t>
         </is>
@@ -916,35 +836,27 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>168549</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>310007</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>168549</v>
-      </c>
+        <v>0.594</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>310007</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="M11" t="n">
         <v>24</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16:20:49</t>
         </is>
@@ -967,35 +879,27 @@
         <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>56031</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>101589</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>56031</v>
-      </c>
+        <v>0.093</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>101589</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="M12" t="n">
         <v>24</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16:08:30</t>
         </is>
@@ -1018,35 +922,27 @@
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>562362</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>1039470</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>562362</v>
-      </c>
+        <v>2.6686</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>1039470</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.6686</v>
-      </c>
-      <c r="M13" t="n">
         <v>24</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16:03:09</t>
         </is>
@@ -1069,35 +965,27 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>112518</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>205817</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>112518</v>
-      </c>
+        <v>0.2438</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>205817</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.2438</v>
-      </c>
-      <c r="M14" t="n">
         <v>24</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>12:29:36</t>
         </is>
@@ -1120,35 +1008,27 @@
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>118440</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>216717</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>118440</v>
-      </c>
+        <v>0.2484</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>216717</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.2484</v>
-      </c>
-      <c r="M15" t="n">
         <v>24</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>11:01:43</t>
         </is>
@@ -1171,35 +1051,27 @@
         <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>47376</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>211077</v>
       </c>
       <c r="I16" t="n">
-        <v>304</v>
-      </c>
-      <c r="J16" t="n">
-        <v>47376</v>
-      </c>
+        <v>0.1306</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>211077</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.1306</v>
-      </c>
-      <c r="M16" t="n">
         <v>24</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>10:57:09</t>
         </is>
@@ -1222,35 +1094,27 @@
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>23688</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>103067</v>
       </c>
       <c r="I17" t="n">
-        <v>84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23688</v>
-      </c>
+        <v>0.0512</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>103067</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0512</v>
-      </c>
-      <c r="M17" t="n">
         <v>24</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>10:56:41</t>
         </is>
@@ -1273,35 +1137,27 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>20727</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>97591</v>
       </c>
       <c r="I18" t="n">
-        <v>65.0000000000002</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20727</v>
-      </c>
+        <v>0.0536</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>97591</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0536</v>
-      </c>
-      <c r="M18" t="n">
         <v>24</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>10:53:58</t>
         </is>
@@ -1324,35 +1180,27 @@
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>32571</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>98911</v>
       </c>
       <c r="I19" t="n">
-        <v>85.99999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>32571</v>
-      </c>
+        <v>0.1316</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>98911</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.1316</v>
-      </c>
-      <c r="M19" t="n">
         <v>24</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>09:32:06</t>
         </is>
@@ -1375,35 +1223,27 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>5537</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>23707</v>
       </c>
       <c r="I20" t="n">
-        <v>100.0061393594561</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5537</v>
-      </c>
+        <v>0.0179</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>23707</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0179</v>
-      </c>
-      <c r="M20" t="n">
         <v>23</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>14:22:38</t>
         </is>
@@ -1426,35 +1266,27 @@
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>496356</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>937352</v>
       </c>
       <c r="I21" t="n">
-        <v>295101.3333333332</v>
-      </c>
-      <c r="J21" t="n">
-        <v>496356</v>
-      </c>
+        <v>1.8175</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>937352</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.8175</v>
-      </c>
-      <c r="M21" t="n">
         <v>23</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>14:12:33</t>
         </is>
@@ -1477,35 +1309,27 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>60116</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>102342</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>60116</v>
-      </c>
+        <v>0.2605</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>102342</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.2605</v>
-      </c>
-      <c r="M22" t="n">
         <v>23</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>14:06:43</t>
         </is>
@@ -1528,35 +1352,27 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>34804</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>99742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>34804</v>
-      </c>
+        <v>0.1609</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>99742</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.1609</v>
-      </c>
-      <c r="M23" t="n">
         <v>23</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>14:05:47</t>
         </is>
@@ -1579,35 +1395,27 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>8701</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>24205</v>
       </c>
       <c r="I24" t="n">
-        <v>178.7777777777777</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8701</v>
-      </c>
+        <v>0.0183</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>24205</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="M24" t="n">
         <v>23</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>13:57:36</t>
         </is>
@@ -1630,35 +1438,27 @@
         <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>11907</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>54384</v>
       </c>
       <c r="I25" t="n">
-        <v>177.1111111111111</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11907</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>54384</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0538</v>
-      </c>
-      <c r="M25" t="n">
         <v>23</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>13:04:30</t>
         </is>
@@ -1681,35 +1481,27 @@
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>18711</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>55167</v>
       </c>
       <c r="I26" t="n">
-        <v>7.999999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>18711</v>
-      </c>
+        <v>0.0654</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>55167</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="M26" t="n">
-        <v>20</v>
-      </c>
-      <c r="N26" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>21:10:29</t>
         </is>
@@ -1732,35 +1524,27 @@
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>50281</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>155342</v>
       </c>
       <c r="I27" t="n">
-        <v>32.66666666666667</v>
-      </c>
-      <c r="J27" t="n">
-        <v>50281</v>
-      </c>
+        <v>0.1682</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>155342</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="M27" t="n">
-        <v>20</v>
-      </c>
-      <c r="N27" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>20:49:42</t>
         </is>
@@ -1783,35 +1567,27 @@
         <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>32382</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>153575</v>
       </c>
       <c r="I28" t="n">
-        <v>3.999999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>32382</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>153575</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="M28" t="n">
-        <v>20</v>
-      </c>
-      <c r="N28" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>18:43:32</t>
         </is>
@@ -1834,35 +1610,27 @@
         <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>101164</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>317602</v>
       </c>
       <c r="I29" t="n">
-        <v>240.6554934823091</v>
-      </c>
-      <c r="J29" t="n">
-        <v>101164</v>
-      </c>
+        <v>0.487</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>317602</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="M29" t="n">
         <v>18</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>13:06:33</t>
         </is>
@@ -1885,35 +1653,27 @@
         <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>64764</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>314970</v>
       </c>
       <c r="I30" t="n">
-        <v>16</v>
-      </c>
-      <c r="J30" t="n">
-        <v>64764</v>
-      </c>
+        <v>0.2711</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>314970</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="M30" t="n">
         <v>18</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>13:05:55</t>
         </is>
@@ -1936,35 +1696,27 @@
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>173964</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>322866</v>
       </c>
       <c r="I31" t="n">
-        <v>2419.333333333333</v>
-      </c>
-      <c r="J31" t="n">
-        <v>173964</v>
-      </c>
+        <v>0.4497</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>322866</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="M31" t="n">
         <v>18</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>13:00:40</t>
         </is>
@@ -1987,35 +1739,27 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>602</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>86982</v>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>171967</v>
       </c>
       <c r="I32" t="n">
-        <v>602</v>
-      </c>
-      <c r="J32" t="n">
-        <v>86982</v>
-      </c>
+        <v>0.2673</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>171967</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.2673</v>
-      </c>
-      <c r="M32" t="n">
         <v>18</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>12:41:09</t>
         </is>
@@ -2038,35 +1782,27 @@
         <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>73332</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>167389</v>
       </c>
       <c r="I33" t="n">
-        <v>38</v>
-      </c>
-      <c r="J33" t="n">
-        <v>73332</v>
-      </c>
+        <v>0.1522</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>167389</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="M33" t="n">
         <v>18</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>12:14:42</t>
         </is>
@@ -2089,35 +1825,27 @@
         <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>13395</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>293328</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>684598</v>
       </c>
       <c r="I34" t="n">
-        <v>13395</v>
-      </c>
-      <c r="J34" t="n">
-        <v>293328</v>
-      </c>
+        <v>2.7488</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>684598</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.7488</v>
-      </c>
-      <c r="M34" t="n">
         <v>18</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>12:10:49</t>
         </is>
@@ -2140,35 +1868,27 @@
         <v>25</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>129528</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>640400</v>
       </c>
       <c r="I35" t="n">
-        <v>45.00000000000001</v>
-      </c>
-      <c r="J35" t="n">
-        <v>129528</v>
-      </c>
+        <v>1.3063</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>640400</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.3063</v>
-      </c>
-      <c r="M35" t="n">
         <v>18</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>12:04:36</t>
         </is>
@@ -2191,35 +1911,27 @@
         <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>12292</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>54509</v>
       </c>
       <c r="I36" t="n">
-        <v>33</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12292</v>
-      </c>
+        <v>0.0383</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>54509</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0383</v>
-      </c>
-      <c r="M36" t="n">
         <v>17</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>17:36:28</t>
         </is>
@@ -2242,35 +1954,27 @@
         <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>76048</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>229623</v>
       </c>
       <c r="I37" t="n">
-        <v>1804.999934139618</v>
-      </c>
-      <c r="J37" t="n">
-        <v>76048</v>
-      </c>
+        <v>44.1138</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>229623</v>
-      </c>
-      <c r="L37" t="n">
-        <v>44.1138</v>
-      </c>
-      <c r="M37" t="n">
         <v>17</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>17:15:46</t>
         </is>
@@ -2293,35 +1997,27 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>19012</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>55785</v>
       </c>
       <c r="I38" t="n">
-        <v>36</v>
-      </c>
-      <c r="J38" t="n">
-        <v>19012</v>
-      </c>
+        <v>0.0372</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>55785</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0372</v>
-      </c>
-      <c r="M38" t="n">
         <v>17</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>17:14:09</t>
         </is>
@@ -2344,35 +2040,27 @@
         <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>36610</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>110682</v>
       </c>
       <c r="I39" t="n">
-        <v>190.0000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>36610</v>
-      </c>
+        <v>1.3782</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>110682</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.3782</v>
-      </c>
-      <c r="M39" t="n">
         <v>16</v>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>16:59:12</t>
         </is>
@@ -2395,35 +2083,27 @@
         <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>1659.5</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>73220</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>224873</v>
       </c>
       <c r="I40" t="n">
-        <v>1659.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>73220</v>
-      </c>
+        <v>11.8307</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>224873</v>
-      </c>
-      <c r="L40" t="n">
-        <v>11.8307</v>
-      </c>
-      <c r="M40" t="n">
         <v>16</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>15:54:14</t>
         </is>
@@ -2431,10 +2111,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C41" t="n">
         <v>14</v>
@@ -2446,253 +2126,217 @@
         <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>180306</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>323890</v>
       </c>
       <c r="I41" t="n">
-        <v>253</v>
+        <v>0.9242</v>
       </c>
       <c r="J41" t="n">
-        <v>45696</v>
+        <v>85.39668083190918</v>
       </c>
       <c r="K41" t="n">
-        <v>109671</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.5595</v>
-      </c>
-      <c r="M41" t="n">
         <v>13</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>13:31:27</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>20:42:16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="G42" t="n">
-        <v>15</v>
+        <v>45696</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>109671</v>
       </c>
       <c r="I42" t="n">
-        <v>312.2499501315505</v>
-      </c>
-      <c r="J42" t="n">
-        <v>470799</v>
-      </c>
+        <v>0.5595</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>870078</v>
-      </c>
-      <c r="L42" t="n">
-        <v>10.5612</v>
-      </c>
-      <c r="M42" t="n">
-        <v>12</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>10:48:29</t>
+        <v>13</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B43" t="n">
         <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>83.3</v>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>83846</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>142303</v>
       </c>
       <c r="I43" t="n">
-        <v>11.6</v>
+        <v>1.8509</v>
       </c>
       <c r="J43" t="n">
-        <v>1098531</v>
+        <v>23.30194091796875</v>
       </c>
       <c r="K43" t="n">
-        <v>2032386</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.7722</v>
-      </c>
-      <c r="M43" t="n">
         <v>12</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>10:26:05</t>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B44" t="n">
         <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>41923</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>70616</v>
       </c>
       <c r="I44" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>784665</v>
-      </c>
+        <v>0.1649</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>1451232</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.1652</v>
-      </c>
-      <c r="M44" t="n">
         <v>12</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>10:23:03</t>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>17:01:55</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B45" t="n">
         <v>53</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>209615</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>357364</v>
       </c>
       <c r="I45" t="n">
-        <v>154.4249671516788</v>
-      </c>
-      <c r="J45" t="n">
-        <v>313866</v>
-      </c>
+        <v>136.8438</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>579501</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.1351</v>
-      </c>
-      <c r="M45" t="n">
         <v>12</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>09:43:26</t>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B46" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>20</v>
@@ -2701,49 +2345,41 @@
         <v>20</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>784665</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1447964</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.8677</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
         <v>12</v>
       </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" t="n">
-        <v>34.79999440044767</v>
-      </c>
-      <c r="J46" t="n">
-        <v>148050</v>
-      </c>
-      <c r="K46" t="n">
-        <v>283143</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.8347</v>
-      </c>
-      <c r="M46" t="n">
-        <v>11</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>19:35:10</t>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
         <v>20</v>
@@ -2752,49 +2388,41 @@
         <v>20</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
+        <v>156933</v>
+      </c>
+      <c r="H47" t="n">
+        <v>285656</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.5835</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
         <v>12</v>
       </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1775.199999963032</v>
-      </c>
-      <c r="J47" t="n">
-        <v>153972</v>
-      </c>
-      <c r="K47" t="n">
-        <v>293934</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.6929</v>
-      </c>
-      <c r="M47" t="n">
-        <v>11</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>19:32:25</t>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
         <v>20</v>
@@ -2803,49 +2431,41 @@
         <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G48" t="n">
+        <v>470799</v>
+      </c>
+      <c r="H48" t="n">
+        <v>870078</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10.5612</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
         <v>12</v>
       </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1676.933333333334</v>
-      </c>
-      <c r="J48" t="n">
-        <v>177660</v>
-      </c>
-      <c r="K48" t="n">
-        <v>337098</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="M48" t="n">
-        <v>11</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>19:31:10</t>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D49" t="n">
         <v>20</v>
@@ -2854,46 +2474,38 @@
         <v>20</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>11.6</v>
       </c>
       <c r="G49" t="n">
+        <v>1098531</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2032386</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.7722</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
         <v>12</v>
       </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-      <c r="I49" t="n">
-        <v>26.99999602929075</v>
-      </c>
-      <c r="J49" t="n">
-        <v>94752</v>
-      </c>
-      <c r="K49" t="n">
-        <v>278913</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.2439</v>
-      </c>
-      <c r="M49" t="n">
-        <v>11</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>19:26:29</t>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
         <v>14</v>
@@ -2905,46 +2517,38 @@
         <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>313866</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>579501</v>
       </c>
       <c r="I50" t="n">
-        <v>19.99999388246115</v>
-      </c>
-      <c r="J50" t="n">
-        <v>47376</v>
-      </c>
+        <v>1.1351</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>191065</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1299</v>
-      </c>
-      <c r="M50" t="n">
-        <v>11</v>
-      </c>
-      <c r="N50" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>18:18:46</t>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
         <v>14</v>
@@ -2956,403 +2560,339 @@
         <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>148050</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>283143</v>
       </c>
       <c r="I51" t="n">
-        <v>795.6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>82908</v>
-      </c>
+        <v>0.8347</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>193885</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.4943</v>
-      </c>
-      <c r="M51" t="n">
         <v>11</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>18:18:14</t>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
         <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>153972</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>293934</v>
       </c>
       <c r="I52" t="n">
-        <v>514.8000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>22148</v>
-      </c>
+        <v>0.6929</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>46375</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="M52" t="n">
         <v>11</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>17:58:17</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B53" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" t="n">
         <v>14</v>
       </c>
-      <c r="C53" t="n">
-        <v>7</v>
-      </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>177660</v>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>337098</v>
       </c>
       <c r="I53" t="n">
-        <v>204</v>
-      </c>
-      <c r="J53" t="n">
-        <v>11074</v>
-      </c>
+        <v>0.753</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>22904</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.0224</v>
-      </c>
-      <c r="M53" t="n">
         <v>11</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>17:57:16</t>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>94752</v>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>278913</v>
       </c>
       <c r="I54" t="n">
-        <v>394</v>
-      </c>
-      <c r="J54" t="n">
-        <v>38178</v>
-      </c>
+        <v>0.2439</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>58116</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.09379999999999999</v>
-      </c>
-      <c r="M54" t="n">
         <v>11</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>16:59:47</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>47376</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>191065</v>
       </c>
       <c r="I55" t="n">
-        <v>1578</v>
-      </c>
-      <c r="J55" t="n">
-        <v>52500</v>
-      </c>
+        <v>0.1299</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>92122</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.5428</v>
-      </c>
-      <c r="M55" t="n">
-        <v>9</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>15:40:32</t>
+        <v>11</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
         <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>795.6</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>82908</v>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>193885</v>
       </c>
       <c r="I56" t="n">
-        <v>1577.999992666665</v>
-      </c>
-      <c r="J56" t="n">
-        <v>57540</v>
-      </c>
+        <v>0.4943</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>100522</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.1297</v>
-      </c>
-      <c r="M56" t="n">
-        <v>9</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>13:15:26</t>
+        <v>11</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>22148</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>46375</v>
       </c>
       <c r="I57" t="n">
-        <v>3202</v>
-      </c>
-      <c r="J57" t="n">
-        <v>351288</v>
-      </c>
+        <v>0.3576</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>466643</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.9582</v>
-      </c>
-      <c r="M57" t="n">
-        <v>9</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>13:08:32</t>
+        <v>11</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>11074</v>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>22904</v>
       </c>
       <c r="I58" t="n">
-        <v>51</v>
-      </c>
-      <c r="J58" t="n">
-        <v>29274</v>
-      </c>
+        <v>0.0224</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>37158</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.0469</v>
-      </c>
-      <c r="M58" t="n">
-        <v>9</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>13:06:01</t>
+        <v>11</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>7</v>
@@ -3361,49 +2901,41 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>38178</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>58116</v>
       </c>
       <c r="I59" t="n">
-        <v>192</v>
-      </c>
-      <c r="J59" t="n">
-        <v>117096</v>
-      </c>
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>154821</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.2622</v>
-      </c>
-      <c r="M59" t="n">
-        <v>9</v>
-      </c>
-      <c r="N59" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>12:33:52</t>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
         <v>14</v>
@@ -3415,49 +2947,41 @@
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1578</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>52500</v>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>92122</v>
       </c>
       <c r="I60" t="n">
-        <v>370</v>
-      </c>
-      <c r="J60" t="n">
-        <v>34524</v>
-      </c>
+        <v>6.5428</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>60034</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2</v>
-      </c>
-      <c r="N60" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" t="n">
         <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
@@ -3466,90 +2990,78 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>57540</v>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>100522</v>
       </c>
       <c r="I61" t="n">
-        <v>400</v>
-      </c>
-      <c r="J61" t="n">
-        <v>114660</v>
-      </c>
+        <v>2.1297</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>195602</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
+        <v>9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B62" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21</v>
+      </c>
+      <c r="D62" t="n">
+        <v>15</v>
+      </c>
+      <c r="E62" t="n">
+        <v>50</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3202</v>
+      </c>
+      <c r="G62" t="n">
+        <v>351288</v>
+      </c>
+      <c r="H62" t="n">
+        <v>466643</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.9582</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
         <v>9</v>
       </c>
-      <c r="C62" t="n">
-        <v>7</v>
-      </c>
-      <c r="D62" t="n">
-        <v>15</v>
-      </c>
-      <c r="E62" t="n">
-        <v>15</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-      <c r="I62" t="n">
-        <v>60</v>
-      </c>
-      <c r="J62" t="n">
-        <v>30429</v>
-      </c>
-      <c r="K62" t="n">
-        <v>28721</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
@@ -3561,99 +3073,87 @@
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>29274</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>37158</v>
       </c>
       <c r="I63" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>10143</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>9575</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>10:31:13</t>
+        <v>9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B64" t="n">
         <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>117096</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>154821</v>
       </c>
       <c r="I64" t="n">
-        <v>160</v>
-      </c>
-      <c r="J64" t="n">
-        <v>81144</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>77690</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>10:11:51</t>
+        <v>9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
         <v>15</v>
@@ -3662,44 +3162,38 @@
         <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>90153</v>
       </c>
       <c r="H65" t="n">
+        <v>159936</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3852</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="n">
         <v>5</v>
       </c>
-      <c r="I65" t="n">
-        <v>120</v>
-      </c>
-      <c r="J65" t="n">
-        <v>60858</v>
-      </c>
-      <c r="K65" t="n">
-        <v>58151</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>10:08:08</t>
-        </is>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>18:06:21</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>27.60113215446472</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
         <v>14</v>
@@ -3711,47 +3205,41 @@
         <v>15</v>
       </c>
       <c r="F66" t="n">
+        <v>370</v>
+      </c>
+      <c r="G66" t="n">
+        <v>34524</v>
+      </c>
+      <c r="H66" t="n">
+        <v>60034</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
         <v>2</v>
       </c>
-      <c r="G66" t="n">
-        <v>6</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-      <c r="I66" t="n">
-        <v>80</v>
-      </c>
-      <c r="J66" t="n">
-        <v>46914</v>
-      </c>
-      <c r="K66" t="n">
-        <v>45229</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.1723</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>10:07:24</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
@@ -3760,47 +3248,39 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>114660</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>195602</v>
       </c>
       <c r="I67" t="n">
-        <v>120</v>
-      </c>
-      <c r="J67" t="n">
-        <v>70371</v>
-      </c>
-      <c r="K67" t="n">
-        <v>68161</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.2664</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
+        <v>0.3841</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
         <is>
           <t>30/03</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>10:07:13</t>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
@@ -3809,47 +3289,39 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>30429</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>28721</v>
       </c>
       <c r="I68" t="n">
-        <v>40</v>
-      </c>
-      <c r="J68" t="n">
-        <v>20286</v>
-      </c>
-      <c r="K68" t="n">
-        <v>19385</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
+        <v>0.1367</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
         <is>
           <t>30/03</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>10:06:35</t>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
@@ -3858,47 +3330,39 @@
         <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>10143</v>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>9575</v>
       </c>
       <c r="I69" t="n">
-        <v>1194</v>
-      </c>
-      <c r="J69" t="n">
-        <v>101430</v>
-      </c>
-      <c r="K69" t="n">
-        <v>97112</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.5688</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>29/03</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>17:33:32</t>
+        <v>0.0359</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
@@ -3907,47 +3371,39 @@
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>81144</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>77690</v>
       </c>
       <c r="I70" t="n">
-        <v>124</v>
-      </c>
-      <c r="J70" t="n">
-        <v>50715</v>
-      </c>
-      <c r="K70" t="n">
-        <v>47867</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.2266</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>29/03</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>17:32:30</t>
+        <v>0.3027</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
@@ -3956,636 +3412,532 @@
         <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>60858</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>58151</v>
       </c>
       <c r="I71" t="n">
-        <v>7950</v>
-      </c>
-      <c r="J71" t="n">
-        <v>202860</v>
-      </c>
-      <c r="K71" t="n">
-        <v>195602</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1.3571</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>29/03</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>17:30:40</t>
+        <v>0.2167</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>46914</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>45229</v>
       </c>
       <c r="I72" t="n">
-        <v>41720</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1173690</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1149317</v>
-      </c>
-      <c r="L72" t="n">
-        <v>19.0623</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>29/03</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>17:24:49</t>
+        <v>0.1723</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>70371</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>68161</v>
       </c>
       <c r="I73" t="n">
-        <v>124</v>
-      </c>
-      <c r="J73" t="n">
-        <v>23415</v>
-      </c>
-      <c r="K73" t="n">
-        <v>21917</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.0978</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>29/03</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>17:20:01</t>
+        <v>0.2664</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>20286</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>19385</v>
       </c>
       <c r="I74" t="n">
-        <v>60</v>
-      </c>
-      <c r="J74" t="n">
-        <v>14049</v>
-      </c>
-      <c r="K74" t="n">
-        <v>13151</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>29/03</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>17:18:54</t>
+        <v>0.0702</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>30/03</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1194</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>101430</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>97112</v>
       </c>
       <c r="I75" t="n">
-        <v>20</v>
-      </c>
-      <c r="J75" t="n">
-        <v>10787</v>
-      </c>
-      <c r="K75" t="n">
-        <v>10229</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.0394</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
+        <v>0.5688</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
         <is>
           <t>29/03</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>17:11:33</t>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n">
         <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>50715</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>47867</v>
       </c>
       <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4683</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4385</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
+        <v>0.2266</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
         <is>
           <t>29/03</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>17:06:49</t>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>7950</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>202860</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>195602</v>
       </c>
       <c r="I77" t="n">
-        <v>60</v>
-      </c>
-      <c r="J77" t="n">
-        <v>14049</v>
-      </c>
-      <c r="K77" t="n">
-        <v>13373</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
+        <v>1.3571</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
         <is>
           <t>29/03</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>17:06:35</t>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B78" t="n">
+        <v>15</v>
+      </c>
+      <c r="C78" t="n">
+        <v>42</v>
+      </c>
+      <c r="D78" t="n">
         <v>30</v>
       </c>
-      <c r="B78" t="n">
-        <v>9</v>
-      </c>
-      <c r="C78" t="n">
-        <v>21</v>
-      </c>
-      <c r="D78" t="n">
-        <v>10</v>
-      </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>41720</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>1173690</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>1149317</v>
       </c>
       <c r="I78" t="n">
-        <v>932</v>
-      </c>
-      <c r="J78" t="n">
-        <v>42147</v>
-      </c>
-      <c r="K78" t="n">
-        <v>40115</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
+        <v>19.0623</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
         <is>
           <t>29/03</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>17:01:54</t>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
         <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>23415</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>21917</v>
       </c>
       <c r="I79" t="n">
-        <v>41</v>
-      </c>
-      <c r="J79" t="n">
-        <v>988547</v>
-      </c>
-      <c r="K79" t="n">
-        <v>951134</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.1745</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>18:07:24</t>
+        <v>0.0978</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
         <v>7</v>
       </c>
-      <c r="C80" t="n">
-        <v>49</v>
-      </c>
       <c r="D80" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>14049</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>13151</v>
       </c>
       <c r="I80" t="n">
-        <v>54920</v>
-      </c>
-      <c r="J80" t="n">
-        <v>6919829</v>
-      </c>
-      <c r="K80" t="n">
-        <v>6861710</v>
-      </c>
-      <c r="L80" t="n">
-        <v>183.2784</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>12:20:56</t>
+        <v>0.06</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
         <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>10787</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>10229</v>
       </c>
       <c r="I81" t="n">
-        <v>1053</v>
-      </c>
-      <c r="J81" t="n">
-        <v>424263</v>
-      </c>
-      <c r="K81" t="n">
-        <v>407630</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1.5868</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>12:10:52</t>
+        <v>0.0394</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>4683</v>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>4385</v>
       </c>
       <c r="I82" t="n">
-        <v>205171</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2596356</v>
-      </c>
-      <c r="K82" t="n">
-        <v>5051654</v>
-      </c>
-      <c r="L82" t="n">
-        <v>12.0275</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>12:02:08</t>
+        <v>0.013</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B83" t="n">
         <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>14049</v>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>13373</v>
       </c>
       <c r="I83" t="n">
-        <v>12200</v>
-      </c>
-      <c r="J83" t="n">
-        <v>865452</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1674182</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.4971</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>11:47:50</t>
+        <v>0.058</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="n">
         <v>21</v>
       </c>
-      <c r="B84" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" t="n">
-        <v>28</v>
-      </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
@@ -4593,339 +3945,285 @@
         <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>932</v>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>42147</v>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>40115</v>
       </c>
       <c r="I84" t="n">
-        <v>2519</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11172</v>
-      </c>
-      <c r="K84" t="n">
-        <v>17867</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.0343</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>26/03</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>11:46:11</t>
+        <v>0.253</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>29/03</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>988547</v>
       </c>
       <c r="H85" t="n">
-        <v>5</v>
+        <v>951134</v>
       </c>
       <c r="I85" t="n">
-        <v>2788</v>
-      </c>
-      <c r="J85" t="n">
-        <v>13167</v>
-      </c>
-      <c r="K85" t="n">
-        <v>21077</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.0473</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
+        <v>4.1745</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
         <is>
           <t>26/03</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>11:42:46</t>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>54920</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>6919829</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>6861710</v>
       </c>
       <c r="I86" t="n">
-        <v>2272</v>
-      </c>
-      <c r="J86" t="n">
-        <v>9177</v>
-      </c>
-      <c r="K86" t="n">
-        <v>14657</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
+        <v>183.2784</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
         <is>
           <t>26/03</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>11:42:38</t>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B87" t="n">
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>1053</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>424263</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>407630</v>
       </c>
       <c r="I87" t="n">
-        <v>2191</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5187</v>
-      </c>
-      <c r="K87" t="n">
-        <v>8237</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.0143</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
+        <v>1.5868</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
         <is>
           <t>26/03</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>11:42:28</t>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>205171</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>2596356</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>5051654</v>
       </c>
       <c r="I88" t="n">
-        <v>171</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1197</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1817</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
+        <v>12.0275</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
         <is>
           <t>26/03</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>11:42:15</t>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>12200</v>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>865452</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>1674182</v>
       </c>
       <c r="I89" t="n">
-        <v>21</v>
-      </c>
-      <c r="J89" t="n">
-        <v>858</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1212</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>25/03</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>10:48:42</t>
+        <v>2.4971</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2519</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>11172</v>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>348</v>
-      </c>
-      <c r="K90" t="n">
-        <v>282</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>25/03</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>10:26:16</t>
+        <v>17867</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -4934,45 +4232,39 @@
         <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2788</v>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>13167</v>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>8008</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11912</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>18:05:32</t>
+        <v>21077</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0473</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
@@ -4981,46 +4273,40 @@
         <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2272</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>9177</v>
       </c>
       <c r="H92" t="n">
-        <v>5</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>572</v>
-      </c>
-      <c r="K92" t="n">
-        <v>784</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>17:42:33</t>
+        <v>14657</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="n">
         <v>13</v>
       </c>
-      <c r="B93" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
@@ -5028,45 +4314,39 @@
         <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2191</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>5187</v>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>286</v>
-      </c>
-      <c r="K93" t="n">
-        <v>356</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>17:34:10</t>
+        <v>8237</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -5075,45 +4355,39 @@
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>1197</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1430</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2068</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>17:33:55</t>
+        <v>1817</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>26/03</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="n">
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
@@ -5122,92 +4396,78 @@
         <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>858</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1144</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1640</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>17:33:30</t>
+        <v>1212</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>25/03</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="H96" t="n">
-        <v>5</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3990</v>
-      </c>
-      <c r="K96" t="n">
-        <v>6200</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>24/03</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>16:51:20</t>
+        <v>282</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>25/03</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
@@ -5215,46 +4475,38 @@
       <c r="E97" t="n">
         <v>10</v>
       </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>8008</v>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2860</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4120</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr">
+        <v>11912</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
         <is>
           <t>24/03</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>16:16:14</t>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
@@ -5262,46 +4514,38 @@
       <c r="E98" t="n">
         <v>10</v>
       </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="H98" t="n">
-        <v>5</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6250</v>
-      </c>
-      <c r="K98" t="n">
-        <v>10697</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr">
+        <v>784</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
         <is>
           <t>24/03</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>13:51:32</t>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
@@ -5309,43 +4553,35 @@
       <c r="E99" t="n">
         <v>10</v>
       </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>14230</v>
-      </c>
-      <c r="K99" t="n">
-        <v>23531</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.0366</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr">
+        <v>356</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
         <is>
           <t>24/03</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>13:30:17</t>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
         <v>5</v>
@@ -5356,46 +4592,38 @@
       <c r="E100" t="n">
         <v>10</v>
       </c>
-      <c r="F100" t="n">
-        <v>3</v>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>1430</v>
       </c>
       <c r="H100" t="n">
-        <v>5</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>7115</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11761</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr">
+        <v>2068</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
         <is>
           <t>24/03</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>13:29:37</t>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -5403,95 +4631,77 @@
       <c r="E101" t="n">
         <v>10</v>
       </c>
-      <c r="F101" t="n">
-        <v>2</v>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>1144</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5685</v>
-      </c>
-      <c r="K101" t="n">
-        <v>9623</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
+        <v>1640</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
         <is>
           <t>24/03</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>13:25:58</t>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B102" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>15</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>3990</v>
       </c>
       <c r="H102" t="n">
-        <v>10</v>
+        <v>6200</v>
       </c>
       <c r="I102" t="n">
-        <v>3338</v>
-      </c>
-      <c r="J102" t="n">
-        <v>46032</v>
-      </c>
-      <c r="K102" t="n">
-        <v>80278</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.2189</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>01/04</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>11:34:58</t>
+        <v>0.0072</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
@@ -5499,42 +4709,38 @@
       <c r="E103" t="n">
         <v>10</v>
       </c>
-      <c r="F103" t="n">
-        <v>2</v>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>2860</v>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5685</v>
-      </c>
-      <c r="K103" t="n">
-        <v>9623</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>13:26:30</t>
+        <v>4120</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" t="n">
         <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -5542,39 +4748,35 @@
       <c r="E104" t="n">
         <v>10</v>
       </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>6250</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3125</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5347</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>13:23:05</t>
+        <v>10697</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
         <v>10</v>
@@ -5585,35 +4787,35 @@
       <c r="E105" t="n">
         <v>10</v>
       </c>
-      <c r="F105" t="n">
-        <v>2</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>14230</v>
       </c>
       <c r="H105" t="n">
-        <v>5</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11370</v>
-      </c>
-      <c r="K105" t="n">
-        <v>19253</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.0334</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+        <v>23531</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C106" t="n">
         <v>5</v>
@@ -5624,28 +4826,240 @@
       <c r="E106" t="n">
         <v>10</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>7115</v>
+      </c>
+      <c r="H106" t="n">
+        <v>11761</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G106" t="n">
-        <v>6</v>
-      </c>
-      <c r="H106" t="n">
+      <c r="B107" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" t="n">
         <v>5</v>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>5685</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9623</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12</v>
+      </c>
+      <c r="C108" t="n">
+        <v>14</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3338</v>
+      </c>
+      <c r="G108" t="n">
+        <v>46032</v>
+      </c>
+      <c r="H108" t="n">
+        <v>80278</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>5685</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9623</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" t="n">
+        <v>10</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
         <v>3125</v>
       </c>
-      <c r="K106" t="n">
+      <c r="H110" t="n">
         <v>5347</v>
       </c>
-      <c r="L106" t="n">
+      <c r="I110" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H111" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I112" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,13 +430,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="n">
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
@@ -445,34 +445,34 @@
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>80.39999999999995</v>
+        <v>397.0000000000007</v>
       </c>
       <c r="G2" t="n">
-        <v>128790</v>
+        <v>180306</v>
       </c>
       <c r="H2" t="n">
-        <v>230986</v>
+        <v>323890</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+        <v>0.586</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50.3349597454071</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>05</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>40.33630633354187</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>17:07:09</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2111,10 +2111,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
         <v>14</v>
@@ -2126,86 +2126,86 @@
         <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="G41" t="n">
-        <v>180306</v>
+        <v>45696</v>
       </c>
       <c r="H41" t="n">
-        <v>323890</v>
+        <v>109671</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9242</v>
-      </c>
-      <c r="J41" t="n">
-        <v>85.39668083190918</v>
-      </c>
+        <v>0.5595</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>13</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>20:42:16</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>253</v>
+        <v>83.3</v>
       </c>
       <c r="G42" t="n">
-        <v>45696</v>
+        <v>83846</v>
       </c>
       <c r="H42" t="n">
-        <v>109671</v>
+        <v>142303</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5595</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J42" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="n">
         <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2214,20 +2214,18 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>83.3</v>
+        <v>3.5</v>
       </c>
       <c r="G43" t="n">
-        <v>83846</v>
+        <v>41923</v>
       </c>
       <c r="H43" t="n">
-        <v>142303</v>
+        <v>70616</v>
       </c>
       <c r="I43" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J43" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>0.1649</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>12</v>
       </c>
@@ -2238,19 +2236,19 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>17:01:55</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" t="n">
         <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
@@ -2259,16 +2257,16 @@
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G44" t="n">
-        <v>41923</v>
+        <v>209615</v>
       </c>
       <c r="H44" t="n">
-        <v>70616</v>
+        <v>357364</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1649</v>
+        <v>136.8438</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
@@ -2281,13 +2279,13 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17:01:55</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B45" t="n">
         <v>53</v>
@@ -2296,22 +2294,22 @@
         <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F45" t="n">
-        <v>351.5332879941108</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>209615</v>
+        <v>784665</v>
       </c>
       <c r="H45" t="n">
-        <v>357364</v>
+        <v>1447964</v>
       </c>
       <c r="I45" t="n">
-        <v>136.8438</v>
+        <v>5.8677</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
@@ -2324,19 +2322,19 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" t="n">
         <v>53</v>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
         <v>20</v>
@@ -2348,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>784665</v>
+        <v>156933</v>
       </c>
       <c r="H46" t="n">
-        <v>1447964</v>
+        <v>285656</v>
       </c>
       <c r="I46" t="n">
-        <v>5.8677</v>
+        <v>0.5835</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
@@ -2367,19 +2365,19 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B47" t="n">
         <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D47" t="n">
         <v>20</v>
@@ -2388,16 +2386,16 @@
         <v>20</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G47" t="n">
-        <v>156933</v>
+        <v>470799</v>
       </c>
       <c r="H47" t="n">
-        <v>285656</v>
+        <v>870078</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5835</v>
+        <v>10.5612</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -2410,19 +2408,19 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" t="n">
         <v>53</v>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D48" t="n">
         <v>20</v>
@@ -2431,16 +2429,16 @@
         <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>312.2499501315505</v>
+        <v>11.6</v>
       </c>
       <c r="G48" t="n">
-        <v>470799</v>
+        <v>1098531</v>
       </c>
       <c r="H48" t="n">
-        <v>870078</v>
+        <v>2032386</v>
       </c>
       <c r="I48" t="n">
-        <v>10.5612</v>
+        <v>5.7722</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -2453,19 +2451,19 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" t="n">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
         <v>20</v>
@@ -2474,16 +2472,16 @@
         <v>20</v>
       </c>
       <c r="F49" t="n">
-        <v>11.6</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G49" t="n">
-        <v>1098531</v>
+        <v>313866</v>
       </c>
       <c r="H49" t="n">
-        <v>2032386</v>
+        <v>579501</v>
       </c>
       <c r="I49" t="n">
-        <v>5.7722</v>
+        <v>1.1351</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -2496,16 +2494,16 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
         <v>14</v>
@@ -2517,20 +2515,20 @@
         <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>154.4249671516788</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G50" t="n">
-        <v>313866</v>
+        <v>148050</v>
       </c>
       <c r="H50" t="n">
-        <v>579501</v>
+        <v>283143</v>
       </c>
       <c r="I50" t="n">
-        <v>1.1351</v>
+        <v>0.8347</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2539,16 +2537,16 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" t="n">
         <v>14</v>
@@ -2560,16 +2558,16 @@
         <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>34.79999440044767</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G51" t="n">
-        <v>148050</v>
+        <v>153972</v>
       </c>
       <c r="H51" t="n">
-        <v>283143</v>
+        <v>293934</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8347</v>
+        <v>0.6929</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
@@ -2582,16 +2580,16 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>14</v>
@@ -2603,16 +2601,16 @@
         <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>1775.199999963032</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G52" t="n">
-        <v>153972</v>
+        <v>177660</v>
       </c>
       <c r="H52" t="n">
-        <v>293934</v>
+        <v>337098</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6929</v>
+        <v>0.753</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
@@ -2625,16 +2623,16 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C53" t="n">
         <v>14</v>
@@ -2646,16 +2644,16 @@
         <v>20</v>
       </c>
       <c r="F53" t="n">
-        <v>1676.933333333334</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G53" t="n">
-        <v>177660</v>
+        <v>94752</v>
       </c>
       <c r="H53" t="n">
-        <v>337098</v>
+        <v>278913</v>
       </c>
       <c r="I53" t="n">
-        <v>0.753</v>
+        <v>0.2439</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
@@ -2668,16 +2666,16 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>14</v>
@@ -2689,16 +2687,16 @@
         <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>26.99999602929075</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G54" t="n">
-        <v>94752</v>
+        <v>47376</v>
       </c>
       <c r="H54" t="n">
-        <v>278913</v>
+        <v>191065</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2439</v>
+        <v>0.1299</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
@@ -2711,16 +2709,16 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
         <v>14</v>
@@ -2732,16 +2730,16 @@
         <v>20</v>
       </c>
       <c r="F55" t="n">
-        <v>19.99999388246115</v>
+        <v>795.6</v>
       </c>
       <c r="G55" t="n">
-        <v>47376</v>
+        <v>82908</v>
       </c>
       <c r="H55" t="n">
-        <v>191065</v>
+        <v>193885</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1299</v>
+        <v>0.4943</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -2754,13 +2752,13 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" t="n">
         <v>14</v>
@@ -2769,22 +2767,22 @@
         <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>795.6</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>82908</v>
+        <v>22148</v>
       </c>
       <c r="H56" t="n">
-        <v>193885</v>
+        <v>46375</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4943</v>
+        <v>0.3576</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -2797,19 +2795,19 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" t="n">
         <v>14</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
@@ -2818,16 +2816,16 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>514.8000000000001</v>
+        <v>204</v>
       </c>
       <c r="G57" t="n">
-        <v>22148</v>
+        <v>11074</v>
       </c>
       <c r="H57" t="n">
-        <v>46375</v>
+        <v>22904</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3576</v>
+        <v>0.0224</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -2840,37 +2838,37 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>204</v>
+        <v>394</v>
       </c>
       <c r="G58" t="n">
-        <v>11074</v>
+        <v>38178</v>
       </c>
       <c r="H58" t="n">
-        <v>22904</v>
+        <v>58116</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0224</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -2878,24 +2876,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
         <v>15</v>
@@ -2904,20 +2902,20 @@
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>394</v>
+        <v>1578</v>
       </c>
       <c r="G59" t="n">
-        <v>38178</v>
+        <v>52500</v>
       </c>
       <c r="H59" t="n">
-        <v>58116</v>
+        <v>92122</v>
       </c>
       <c r="I59" t="n">
-        <v>0.09379999999999999</v>
+        <v>6.5428</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2926,13 +2924,13 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B60" t="n">
         <v>15</v>
@@ -2947,16 +2945,16 @@
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>1578</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G60" t="n">
-        <v>52500</v>
+        <v>57540</v>
       </c>
       <c r="H60" t="n">
-        <v>92122</v>
+        <v>100522</v>
       </c>
       <c r="I60" t="n">
-        <v>6.5428</v>
+        <v>2.1297</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -2969,37 +2967,37 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F61" t="n">
-        <v>1577.999992666665</v>
+        <v>3202</v>
       </c>
       <c r="G61" t="n">
-        <v>57540</v>
+        <v>351288</v>
       </c>
       <c r="H61" t="n">
-        <v>100522</v>
+        <v>466643</v>
       </c>
       <c r="I61" t="n">
-        <v>2.1297</v>
+        <v>1.9582</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
@@ -3012,19 +3010,19 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>15</v>
@@ -3033,16 +3031,16 @@
         <v>50</v>
       </c>
       <c r="F62" t="n">
-        <v>3202</v>
+        <v>51</v>
       </c>
       <c r="G62" t="n">
-        <v>351288</v>
+        <v>29274</v>
       </c>
       <c r="H62" t="n">
-        <v>466643</v>
+        <v>37158</v>
       </c>
       <c r="I62" t="n">
-        <v>1.9582</v>
+        <v>0.0469</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
@@ -3055,16 +3053,16 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
         <v>7</v>
@@ -3076,16 +3074,16 @@
         <v>50</v>
       </c>
       <c r="F63" t="n">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G63" t="n">
-        <v>29274</v>
+        <v>117096</v>
       </c>
       <c r="H63" t="n">
-        <v>37158</v>
+        <v>154821</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0469</v>
+        <v>0.2622</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -3098,51 +3096,51 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>192</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G64" t="n">
-        <v>117096</v>
+        <v>128790</v>
       </c>
       <c r="H64" t="n">
-        <v>154821</v>
+        <v>230986</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2622</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>1.0875</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13</v>
+      </c>
       <c r="K64" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>12:33:52</t>
-        </is>
+          <t>20:52:46</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="65">
@@ -3190,56 +3188,56 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>370</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G66" t="n">
-        <v>34524</v>
+        <v>176967</v>
       </c>
       <c r="H66" t="n">
-        <v>60034</v>
+        <v>310009</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J66" t="n">
+        <v>16</v>
+      </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
@@ -3248,39 +3246,41 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="G67" t="n">
-        <v>114660</v>
+        <v>34524</v>
       </c>
       <c r="H67" t="n">
-        <v>195602</v>
+        <v>60034</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3841</v>
+        <v>0.1695</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
@@ -3289,16 +3289,16 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="G68" t="n">
-        <v>30429</v>
+        <v>114660</v>
       </c>
       <c r="H68" t="n">
-        <v>28721</v>
+        <v>195602</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1367</v>
+        <v>0.3841</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3309,16 +3309,16 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C69" t="n">
         <v>7</v>
@@ -3330,16 +3330,16 @@
         <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G69" t="n">
-        <v>10143</v>
+        <v>30429</v>
       </c>
       <c r="H69" t="n">
-        <v>9575</v>
+        <v>28721</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0359</v>
+        <v>0.1367</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3350,19 +3350,19 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
@@ -3371,16 +3371,16 @@
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>81144</v>
+        <v>10143</v>
       </c>
       <c r="H70" t="n">
-        <v>77690</v>
+        <v>9575</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3027</v>
+        <v>0.0359</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3391,16 +3391,16 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C71" t="n">
         <v>14</v>
@@ -3412,16 +3412,16 @@
         <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G71" t="n">
-        <v>60858</v>
+        <v>81144</v>
       </c>
       <c r="H71" t="n">
-        <v>58151</v>
+        <v>77690</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2167</v>
+        <v>0.3027</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3432,16 +3432,16 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
         <v>14</v>
@@ -3453,16 +3453,16 @@
         <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G72" t="n">
-        <v>46914</v>
+        <v>60858</v>
       </c>
       <c r="H72" t="n">
-        <v>45229</v>
+        <v>58151</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1723</v>
+        <v>0.2167</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3473,19 +3473,19 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" t="n">
         <v>7</v>
       </c>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
@@ -3494,16 +3494,16 @@
         <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G73" t="n">
-        <v>70371</v>
+        <v>46914</v>
       </c>
       <c r="H73" t="n">
-        <v>68161</v>
+        <v>45229</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2664</v>
+        <v>0.1723</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3514,19 +3514,19 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
@@ -3535,16 +3535,16 @@
         <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G74" t="n">
-        <v>20286</v>
+        <v>70371</v>
       </c>
       <c r="H74" t="n">
-        <v>19385</v>
+        <v>68161</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0702</v>
+        <v>0.2664</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3555,16 +3555,16 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
         <v>14</v>
@@ -3576,39 +3576,39 @@
         <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>1194</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>101430</v>
+        <v>20286</v>
       </c>
       <c r="H75" t="n">
-        <v>97112</v>
+        <v>19385</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5688</v>
+        <v>0.0702</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" t="n">
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D76" t="n">
         <v>15</v>
@@ -3617,16 +3617,16 @@
         <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>124</v>
+        <v>1194</v>
       </c>
       <c r="G76" t="n">
-        <v>50715</v>
+        <v>101430</v>
       </c>
       <c r="H76" t="n">
-        <v>47867</v>
+        <v>97112</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2266</v>
+        <v>0.5688</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3637,19 +3637,19 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="n">
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
         <v>15</v>
@@ -3658,16 +3658,16 @@
         <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>7950</v>
+        <v>124</v>
       </c>
       <c r="G77" t="n">
-        <v>202860</v>
+        <v>50715</v>
       </c>
       <c r="H77" t="n">
-        <v>195602</v>
+        <v>47867</v>
       </c>
       <c r="I77" t="n">
-        <v>1.3571</v>
+        <v>0.2266</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3678,37 +3678,37 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B78" t="n">
         <v>15</v>
       </c>
       <c r="C78" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>41720</v>
+        <v>7950</v>
       </c>
       <c r="G78" t="n">
-        <v>1173690</v>
+        <v>202860</v>
       </c>
       <c r="H78" t="n">
-        <v>1149317</v>
+        <v>195602</v>
       </c>
       <c r="I78" t="n">
-        <v>19.0623</v>
+        <v>1.3571</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3719,37 +3719,37 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B79" t="n">
         <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>124</v>
+        <v>41720</v>
       </c>
       <c r="G79" t="n">
-        <v>23415</v>
+        <v>1173690</v>
       </c>
       <c r="H79" t="n">
-        <v>21917</v>
+        <v>1149317</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0978</v>
+        <v>19.0623</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3760,16 +3760,16 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C80" t="n">
         <v>7</v>
@@ -3781,16 +3781,16 @@
         <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G80" t="n">
-        <v>14049</v>
+        <v>23415</v>
       </c>
       <c r="H80" t="n">
-        <v>13151</v>
+        <v>21917</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06</v>
+        <v>0.0978</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3801,16 +3801,16 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" t="n">
         <v>7</v>
@@ -3822,16 +3822,16 @@
         <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G81" t="n">
-        <v>10787</v>
+        <v>14049</v>
       </c>
       <c r="H81" t="n">
-        <v>10229</v>
+        <v>13151</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0394</v>
+        <v>0.06</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3842,16 +3842,16 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
         <v>7</v>
@@ -3866,13 +3866,13 @@
         <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>4683</v>
+        <v>10787</v>
       </c>
       <c r="H82" t="n">
-        <v>4385</v>
+        <v>10229</v>
       </c>
       <c r="I82" t="n">
-        <v>0.013</v>
+        <v>0.0394</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3883,19 +3883,19 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B83" t="n">
         <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
@@ -3904,16 +3904,16 @@
         <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>14049</v>
+        <v>4683</v>
       </c>
       <c r="H83" t="n">
-        <v>13373</v>
+        <v>4385</v>
       </c>
       <c r="I83" t="n">
-        <v>0.058</v>
+        <v>0.013</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3924,16 +3924,16 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
         <v>21</v>
@@ -3945,16 +3945,16 @@
         <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="G84" t="n">
-        <v>42147</v>
+        <v>14049</v>
       </c>
       <c r="H84" t="n">
-        <v>40115</v>
+        <v>13373</v>
       </c>
       <c r="I84" t="n">
-        <v>0.253</v>
+        <v>0.058</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3965,60 +3965,60 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>41</v>
+        <v>932</v>
       </c>
       <c r="G85" t="n">
-        <v>988547</v>
+        <v>42147</v>
       </c>
       <c r="H85" t="n">
-        <v>951134</v>
+        <v>40115</v>
       </c>
       <c r="I85" t="n">
-        <v>4.1745</v>
+        <v>0.253</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B86" t="n">
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
         <v>100</v>
@@ -4027,16 +4027,16 @@
         <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>54920</v>
+        <v>41</v>
       </c>
       <c r="G86" t="n">
-        <v>6919829</v>
+        <v>988547</v>
       </c>
       <c r="H86" t="n">
-        <v>6861710</v>
+        <v>951134</v>
       </c>
       <c r="I86" t="n">
-        <v>183.2784</v>
+        <v>4.1745</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -4047,19 +4047,19 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D87" t="n">
         <v>100</v>
@@ -4068,16 +4068,16 @@
         <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>1053</v>
+        <v>54920</v>
       </c>
       <c r="G87" t="n">
-        <v>424263</v>
+        <v>6919829</v>
       </c>
       <c r="H87" t="n">
-        <v>407630</v>
+        <v>6861710</v>
       </c>
       <c r="I87" t="n">
-        <v>1.5868</v>
+        <v>183.2784</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4088,19 +4088,19 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>100</v>
@@ -4109,16 +4109,16 @@
         <v>100</v>
       </c>
       <c r="F88" t="n">
-        <v>205171</v>
+        <v>1053</v>
       </c>
       <c r="G88" t="n">
-        <v>2596356</v>
+        <v>424263</v>
       </c>
       <c r="H88" t="n">
-        <v>5051654</v>
+        <v>407630</v>
       </c>
       <c r="I88" t="n">
-        <v>12.0275</v>
+        <v>1.5868</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4129,19 +4129,19 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B89" t="n">
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D89" t="n">
         <v>100</v>
@@ -4150,16 +4150,16 @@
         <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>12200</v>
+        <v>205171</v>
       </c>
       <c r="G89" t="n">
-        <v>865452</v>
+        <v>2596356</v>
       </c>
       <c r="H89" t="n">
-        <v>1674182</v>
+        <v>5051654</v>
       </c>
       <c r="I89" t="n">
-        <v>2.4971</v>
+        <v>12.0275</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4170,13 +4170,13 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" t="n">
         <v>3</v>
@@ -4185,22 +4185,22 @@
         <v>28</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>2519</v>
+        <v>12200</v>
       </c>
       <c r="G90" t="n">
-        <v>11172</v>
+        <v>865452</v>
       </c>
       <c r="H90" t="n">
-        <v>17867</v>
+        <v>1674182</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0343</v>
+        <v>2.4971</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4211,19 +4211,19 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B91" t="n">
         <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -4232,16 +4232,16 @@
         <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>2788</v>
+        <v>2519</v>
       </c>
       <c r="G91" t="n">
-        <v>13167</v>
+        <v>11172</v>
       </c>
       <c r="H91" t="n">
-        <v>21077</v>
+        <v>17867</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0473</v>
+        <v>0.0343</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4252,19 +4252,19 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" t="n">
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
@@ -4273,16 +4273,16 @@
         <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>2272</v>
+        <v>2788</v>
       </c>
       <c r="G92" t="n">
-        <v>9177</v>
+        <v>13167</v>
       </c>
       <c r="H92" t="n">
-        <v>14657</v>
+        <v>21077</v>
       </c>
       <c r="I92" t="n">
-        <v>0.027</v>
+        <v>0.0473</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4293,19 +4293,19 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" t="n">
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
@@ -4314,16 +4314,16 @@
         <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>2191</v>
+        <v>2272</v>
       </c>
       <c r="G93" t="n">
-        <v>5187</v>
+        <v>9177</v>
       </c>
       <c r="H93" t="n">
-        <v>8237</v>
+        <v>14657</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0143</v>
+        <v>0.027</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4334,19 +4334,19 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -4355,16 +4355,16 @@
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>171</v>
+        <v>2191</v>
       </c>
       <c r="G94" t="n">
-        <v>1197</v>
+        <v>5187</v>
       </c>
       <c r="H94" t="n">
-        <v>1817</v>
+        <v>8237</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0024</v>
+        <v>0.0143</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4375,16 +4375,16 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
         <v>3</v>
@@ -4396,33 +4396,33 @@
         <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="G95" t="n">
-        <v>858</v>
+        <v>1197</v>
       </c>
       <c r="H95" t="n">
-        <v>1212</v>
+        <v>1817</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0022</v>
+        <v>0.0024</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B96" t="n">
         <v>2</v>
@@ -4431,20 +4431,22 @@
         <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21</v>
+      </c>
       <c r="G96" t="n">
-        <v>348</v>
+        <v>858</v>
       </c>
       <c r="H96" t="n">
-        <v>282</v>
+        <v>1212</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4455,58 +4457,58 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>8008</v>
+        <v>348</v>
       </c>
       <c r="H97" t="n">
-        <v>11912</v>
+        <v>282</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0174</v>
+        <v>0.0001</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B98" t="n">
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
@@ -4516,13 +4518,13 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>572</v>
+        <v>8008</v>
       </c>
       <c r="H98" t="n">
-        <v>784</v>
+        <v>11912</v>
       </c>
       <c r="I98" t="n">
-        <v>0.001</v>
+        <v>0.0174</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4533,19 +4535,19 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
@@ -4555,13 +4557,13 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="H99" t="n">
-        <v>356</v>
+        <v>784</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4572,19 +4574,19 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B100" t="n">
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>10</v>
@@ -4594,13 +4596,13 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>1430</v>
+        <v>286</v>
       </c>
       <c r="H100" t="n">
-        <v>2068</v>
+        <v>356</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0029</v>
+        <v>0.0001</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4611,19 +4613,19 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -4633,13 +4635,13 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>1144</v>
+        <v>1430</v>
       </c>
       <c r="H101" t="n">
-        <v>1640</v>
+        <v>2068</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4650,19 +4652,19 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
@@ -4672,13 +4674,13 @@
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>3990</v>
+        <v>1144</v>
       </c>
       <c r="H102" t="n">
-        <v>6200</v>
+        <v>1640</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0072</v>
+        <v>0.0028</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4689,19 +4691,19 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
@@ -4711,13 +4713,13 @@
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>2860</v>
+        <v>3990</v>
       </c>
       <c r="H103" t="n">
-        <v>4120</v>
+        <v>6200</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0119</v>
+        <v>0.0072</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4728,16 +4730,16 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>10</v>
@@ -4750,13 +4752,13 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>6250</v>
+        <v>2860</v>
       </c>
       <c r="H104" t="n">
-        <v>10697</v>
+        <v>4120</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0162</v>
+        <v>0.0119</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4767,16 +4769,16 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
         <v>10</v>
@@ -4789,13 +4791,13 @@
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>14230</v>
+        <v>6250</v>
       </c>
       <c r="H105" t="n">
-        <v>23531</v>
+        <v>10697</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0366</v>
+        <v>0.0162</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4806,19 +4808,19 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B106" t="n">
         <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -4828,13 +4830,13 @@
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>7115</v>
+        <v>14230</v>
       </c>
       <c r="H106" t="n">
-        <v>11761</v>
+        <v>23531</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0116</v>
+        <v>0.0366</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4845,16 +4847,16 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
         <v>5</v>
@@ -4867,13 +4869,13 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H107" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0098</v>
+        <v>0.0116</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4884,92 +4886,96 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>46032</v>
+        <v>5685</v>
       </c>
       <c r="H108" t="n">
-        <v>80278</v>
+        <v>9623</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2189</v>
+        <v>0.0098</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3338</v>
+      </c>
       <c r="G109" t="n">
-        <v>5685</v>
+        <v>46032</v>
       </c>
       <c r="H109" t="n">
-        <v>9623</v>
+        <v>80278</v>
       </c>
       <c r="I109" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.2189</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>11:34:58</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
         <v>5</v>
@@ -4982,32 +4988,32 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H110" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0064</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:26:30</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B111" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5017,28 +5023,32 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>11370</v>
+        <v>3125</v>
       </c>
       <c r="H111" t="n">
-        <v>19253</v>
+        <v>5347</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0334</v>
+        <v>0.0064</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -5048,19 +5058,50 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>3125</v>
+        <v>11370</v>
       </c>
       <c r="H112" t="n">
-        <v>5347</v>
+        <v>19253</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0071</v>
+        <v>0.0334</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,38 +430,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B2" t="n">
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>397.0000000000007</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G2" t="n">
-        <v>180306</v>
+        <v>242263</v>
       </c>
       <c r="H2" t="n">
-        <v>323890</v>
+        <v>462297</v>
       </c>
       <c r="I2" t="n">
-        <v>0.586</v>
+        <v>0.6081</v>
       </c>
       <c r="J2" t="n">
-        <v>50.3349597454071</v>
+        <v>59.47169375419617</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:07:09</t>
+          <t>13:10:18</t>
         </is>
       </c>
     </row>
@@ -1595,96 +1595,100 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C29" t="n">
         <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>240.6554934823091</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G29" t="n">
-        <v>101164</v>
+        <v>180306</v>
       </c>
       <c r="H29" t="n">
-        <v>317602</v>
+        <v>323519</v>
       </c>
       <c r="I29" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J29" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K29" t="n">
         <v>18</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B30" t="n">
+        <v>53</v>
+      </c>
+      <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
-        <v>14</v>
-      </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>64764</v>
+        <v>90153</v>
       </c>
       <c r="H30" t="n">
-        <v>314970</v>
+        <v>161308</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J30" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K30" t="n">
         <v>18</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
         <v>14</v>
@@ -1696,16 +1700,16 @@
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>2419.333333333333</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G31" t="n">
-        <v>173964</v>
+        <v>101164</v>
       </c>
       <c r="H31" t="n">
-        <v>322866</v>
+        <v>317602</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4497</v>
+        <v>0.487</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -1718,19 +1722,19 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>25</v>
@@ -1739,16 +1743,16 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>602</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>86982</v>
+        <v>64764</v>
       </c>
       <c r="H32" t="n">
-        <v>171967</v>
+        <v>314970</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2673</v>
+        <v>0.2711</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -1761,19 +1765,19 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
         <v>25</v>
@@ -1782,16 +1786,16 @@
         <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>73332</v>
+        <v>173964</v>
       </c>
       <c r="H33" t="n">
-        <v>167389</v>
+        <v>322866</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1522</v>
+        <v>0.4497</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
@@ -1804,19 +1808,19 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
         <v>25</v>
@@ -1825,16 +1829,16 @@
         <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>13395</v>
+        <v>602</v>
       </c>
       <c r="G34" t="n">
-        <v>293328</v>
+        <v>86982</v>
       </c>
       <c r="H34" t="n">
-        <v>684598</v>
+        <v>171967</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7488</v>
+        <v>0.2673</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1847,19 +1851,19 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="n">
         <v>7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>28</v>
       </c>
       <c r="D35" t="n">
         <v>25</v>
@@ -1868,16 +1872,16 @@
         <v>25</v>
       </c>
       <c r="F35" t="n">
-        <v>45.00000000000001</v>
+        <v>38</v>
       </c>
       <c r="G35" t="n">
-        <v>129528</v>
+        <v>73332</v>
       </c>
       <c r="H35" t="n">
-        <v>640400</v>
+        <v>167389</v>
       </c>
       <c r="I35" t="n">
-        <v>1.3063</v>
+        <v>0.1522</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
@@ -1890,41 +1894,41 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>13395</v>
       </c>
       <c r="G36" t="n">
-        <v>12292</v>
+        <v>293328</v>
       </c>
       <c r="H36" t="n">
-        <v>54509</v>
+        <v>684598</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0383</v>
+        <v>2.7488</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1933,13 +1937,13 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B37" t="n">
         <v>7</v>
@@ -1948,26 +1952,26 @@
         <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>1804.999934139618</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>76048</v>
+        <v>129528</v>
       </c>
       <c r="H37" t="n">
-        <v>229623</v>
+        <v>640400</v>
       </c>
       <c r="I37" t="n">
-        <v>44.1138</v>
+        <v>1.3063</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1976,16 +1980,16 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
@@ -1997,16 +2001,16 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" t="n">
-        <v>19012</v>
+        <v>12292</v>
       </c>
       <c r="H38" t="n">
-        <v>55785</v>
+        <v>54509</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0372</v>
+        <v>0.0383</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
@@ -2019,19 +2023,19 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
@@ -2040,20 +2044,20 @@
         <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>190.0000000000001</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G39" t="n">
-        <v>36610</v>
+        <v>76048</v>
       </c>
       <c r="H39" t="n">
-        <v>110682</v>
+        <v>229623</v>
       </c>
       <c r="I39" t="n">
-        <v>1.3782</v>
+        <v>44.1138</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2062,19 +2066,19 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
         <v>15</v>
@@ -2083,20 +2087,20 @@
         <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>1659.5</v>
+        <v>36</v>
       </c>
       <c r="G40" t="n">
-        <v>73220</v>
+        <v>19012</v>
       </c>
       <c r="H40" t="n">
-        <v>224873</v>
+        <v>55785</v>
       </c>
       <c r="I40" t="n">
-        <v>11.8307</v>
+        <v>0.0372</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2105,213 +2109,215 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C41" t="n">
         <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>253</v>
+        <v>328.0000000000005</v>
       </c>
       <c r="G41" t="n">
-        <v>45696</v>
+        <v>100170</v>
       </c>
       <c r="H41" t="n">
-        <v>109671</v>
+        <v>173166</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5595</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0.7959000000000001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30.95691275596619</v>
+      </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:55:51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>83.3</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>83846</v>
+        <v>36610</v>
       </c>
       <c r="H42" t="n">
-        <v>142303</v>
+        <v>110682</v>
       </c>
       <c r="I42" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J42" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>1.3782</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>3.5</v>
+        <v>1659.5</v>
       </c>
       <c r="G43" t="n">
-        <v>41923</v>
+        <v>73220</v>
       </c>
       <c r="H43" t="n">
-        <v>70616</v>
+        <v>224873</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1649</v>
+        <v>11.8307</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17:01:55</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>351.5332879941108</v>
+        <v>253</v>
       </c>
       <c r="G44" t="n">
-        <v>209615</v>
+        <v>45696</v>
       </c>
       <c r="H44" t="n">
-        <v>357364</v>
+        <v>109671</v>
       </c>
       <c r="I44" t="n">
-        <v>136.8438</v>
+        <v>0.5595</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B45" t="n">
         <v>53</v>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="G45" t="n">
-        <v>784665</v>
+        <v>83846</v>
       </c>
       <c r="H45" t="n">
-        <v>1447964</v>
+        <v>142303</v>
       </c>
       <c r="I45" t="n">
-        <v>5.8677</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K45" t="n">
         <v>12</v>
       </c>
@@ -2322,13 +2328,13 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B46" t="n">
         <v>53</v>
@@ -2337,22 +2343,22 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G46" t="n">
-        <v>156933</v>
+        <v>41923</v>
       </c>
       <c r="H46" t="n">
-        <v>285656</v>
+        <v>70616</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5835</v>
+        <v>0.1649</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
@@ -2365,37 +2371,37 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>17:01:55</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B47" t="n">
         <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>312.2499501315505</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G47" t="n">
-        <v>470799</v>
+        <v>209615</v>
       </c>
       <c r="H47" t="n">
-        <v>870078</v>
+        <v>357364</v>
       </c>
       <c r="I47" t="n">
-        <v>10.5612</v>
+        <v>136.8438</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -2408,19 +2414,19 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" t="n">
         <v>53</v>
       </c>
       <c r="C48" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>20</v>
@@ -2429,16 +2435,16 @@
         <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1098531</v>
+        <v>784665</v>
       </c>
       <c r="H48" t="n">
-        <v>2032386</v>
+        <v>1447964</v>
       </c>
       <c r="I48" t="n">
-        <v>5.7722</v>
+        <v>5.8677</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -2451,19 +2457,19 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" t="n">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>20</v>
@@ -2472,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="F49" t="n">
-        <v>154.4249671516788</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>313866</v>
+        <v>156933</v>
       </c>
       <c r="H49" t="n">
-        <v>579501</v>
+        <v>285656</v>
       </c>
       <c r="I49" t="n">
-        <v>1.1351</v>
+        <v>0.5835</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -2494,19 +2500,19 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
         <v>20</v>
@@ -2515,20 +2521,20 @@
         <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>34.79999440044767</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G50" t="n">
-        <v>148050</v>
+        <v>470799</v>
       </c>
       <c r="H50" t="n">
-        <v>283143</v>
+        <v>870078</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8347</v>
+        <v>10.5612</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2537,19 +2543,19 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D51" t="n">
         <v>20</v>
@@ -2558,20 +2564,20 @@
         <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>1775.199999963032</v>
+        <v>11.6</v>
       </c>
       <c r="G51" t="n">
-        <v>153972</v>
+        <v>1098531</v>
       </c>
       <c r="H51" t="n">
-        <v>293934</v>
+        <v>2032386</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6929</v>
+        <v>5.7722</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2580,16 +2586,16 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C52" t="n">
         <v>14</v>
@@ -2601,20 +2607,20 @@
         <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>1676.933333333334</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G52" t="n">
-        <v>177660</v>
+        <v>313866</v>
       </c>
       <c r="H52" t="n">
-        <v>337098</v>
+        <v>579501</v>
       </c>
       <c r="I52" t="n">
-        <v>0.753</v>
+        <v>1.1351</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2623,16 +2629,16 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C53" t="n">
         <v>14</v>
@@ -2644,16 +2650,16 @@
         <v>20</v>
       </c>
       <c r="F53" t="n">
-        <v>26.99999602929075</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G53" t="n">
-        <v>94752</v>
+        <v>148050</v>
       </c>
       <c r="H53" t="n">
-        <v>278913</v>
+        <v>283143</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2439</v>
+        <v>0.8347</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
@@ -2666,16 +2672,16 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
         <v>14</v>
@@ -2687,16 +2693,16 @@
         <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>19.99999388246115</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G54" t="n">
-        <v>47376</v>
+        <v>153972</v>
       </c>
       <c r="H54" t="n">
-        <v>191065</v>
+        <v>293934</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1299</v>
+        <v>0.6929</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
@@ -2709,16 +2715,16 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B55" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>14</v>
@@ -2730,16 +2736,16 @@
         <v>20</v>
       </c>
       <c r="F55" t="n">
-        <v>795.6</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G55" t="n">
-        <v>82908</v>
+        <v>177660</v>
       </c>
       <c r="H55" t="n">
-        <v>193885</v>
+        <v>337098</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4943</v>
+        <v>0.753</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -2752,37 +2758,37 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B56" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
         <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>514.8000000000001</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G56" t="n">
-        <v>22148</v>
+        <v>94752</v>
       </c>
       <c r="H56" t="n">
-        <v>46375</v>
+        <v>278913</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3576</v>
+        <v>0.2439</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -2795,37 +2801,37 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="n">
         <v>14</v>
       </c>
-      <c r="C57" t="n">
-        <v>7</v>
-      </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F57" t="n">
-        <v>204</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G57" t="n">
-        <v>11074</v>
+        <v>47376</v>
       </c>
       <c r="H57" t="n">
-        <v>22904</v>
+        <v>191065</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0224</v>
+        <v>0.1299</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -2838,37 +2844,37 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F58" t="n">
-        <v>394</v>
+        <v>795.6</v>
       </c>
       <c r="G58" t="n">
-        <v>38178</v>
+        <v>82908</v>
       </c>
       <c r="H58" t="n">
-        <v>58116</v>
+        <v>193885</v>
       </c>
       <c r="I58" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.4943</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -2876,132 +2882,132 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="n">
         <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>1578</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>52500</v>
+        <v>22148</v>
       </c>
       <c r="H59" t="n">
-        <v>92122</v>
+        <v>46375</v>
       </c>
       <c r="I59" t="n">
-        <v>6.5428</v>
+        <v>0.3576</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>1577.999992666665</v>
+        <v>204</v>
       </c>
       <c r="G60" t="n">
-        <v>57540</v>
+        <v>11074</v>
       </c>
       <c r="H60" t="n">
-        <v>100522</v>
+        <v>22904</v>
       </c>
       <c r="I60" t="n">
-        <v>2.1297</v>
+        <v>0.0224</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>3202</v>
+        <v>394</v>
       </c>
       <c r="G61" t="n">
-        <v>351288</v>
+        <v>38178</v>
       </c>
       <c r="H61" t="n">
-        <v>466643</v>
+        <v>58116</v>
       </c>
       <c r="I61" t="n">
-        <v>1.9582</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3010,37 +3016,37 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>51</v>
+        <v>1578</v>
       </c>
       <c r="G62" t="n">
-        <v>29274</v>
+        <v>52500</v>
       </c>
       <c r="H62" t="n">
-        <v>37158</v>
+        <v>92122</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0469</v>
+        <v>6.5428</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
@@ -3053,37 +3059,37 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>192</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G63" t="n">
-        <v>117096</v>
+        <v>57540</v>
       </c>
       <c r="H63" t="n">
-        <v>154821</v>
+        <v>100522</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2622</v>
+        <v>2.1297</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -3096,59 +3102,59 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F64" t="n">
-        <v>80.39999999999995</v>
+        <v>3202</v>
       </c>
       <c r="G64" t="n">
-        <v>128790</v>
+        <v>351288</v>
       </c>
       <c r="H64" t="n">
-        <v>230986</v>
+        <v>466643</v>
       </c>
       <c r="I64" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J64" t="n">
-        <v>13</v>
-      </c>
+        <v>1.9582</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B65" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
         <v>7</v>
@@ -3157,87 +3163,87 @@
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F65" t="n">
-        <v>3.5</v>
+        <v>51</v>
       </c>
       <c r="G65" t="n">
-        <v>90153</v>
+        <v>29274</v>
       </c>
       <c r="H65" t="n">
-        <v>159936</v>
+        <v>37158</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3852</v>
-      </c>
-      <c r="J65" t="n">
-        <v>12</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>18:06:21</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>27.60113215446472</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F66" t="n">
-        <v>991.6000000000008</v>
+        <v>192</v>
       </c>
       <c r="G66" t="n">
-        <v>176967</v>
+        <v>117096</v>
       </c>
       <c r="H66" t="n">
-        <v>310009</v>
+        <v>154821</v>
       </c>
       <c r="I66" t="n">
-        <v>18.2853</v>
-      </c>
-      <c r="J66" t="n">
-        <v>16</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>15:25:32</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>70.88821601867676</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
@@ -3246,123 +3252,127 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>370</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G67" t="n">
-        <v>34524</v>
+        <v>128790</v>
       </c>
       <c r="H67" t="n">
-        <v>60034</v>
+        <v>230986</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1.0875</v>
+      </c>
+      <c r="J67" t="n">
+        <v>13</v>
+      </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>20:52:46</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B68" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>400</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G68" t="n">
-        <v>114660</v>
+        <v>150255</v>
       </c>
       <c r="H68" t="n">
-        <v>195602</v>
+        <v>260064</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>404.4721</v>
+      </c>
+      <c r="J68" t="n">
+        <v>16</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
-        </is>
+          <t>17:55:00</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>60</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G69" t="n">
-        <v>30429</v>
+        <v>176967</v>
       </c>
       <c r="H69" t="n">
-        <v>28721</v>
+        <v>310009</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J69" t="n">
+        <v>16</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
@@ -3371,39 +3381,41 @@
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="G70" t="n">
-        <v>10143</v>
+        <v>34524</v>
       </c>
       <c r="H70" t="n">
-        <v>9575</v>
+        <v>60034</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0359</v>
+        <v>0.1695</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B71" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
@@ -3412,16 +3424,16 @@
         <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G71" t="n">
-        <v>81144</v>
+        <v>114660</v>
       </c>
       <c r="H71" t="n">
-        <v>77690</v>
+        <v>195602</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3027</v>
+        <v>0.3841</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3432,19 +3444,19 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B72" t="n">
         <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
@@ -3453,16 +3465,16 @@
         <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G72" t="n">
-        <v>60858</v>
+        <v>30429</v>
       </c>
       <c r="H72" t="n">
-        <v>58151</v>
+        <v>28721</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2167</v>
+        <v>0.1367</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3473,20 +3485,20 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
         <v>7</v>
       </c>
-      <c r="C73" t="n">
-        <v>14</v>
-      </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
@@ -3494,16 +3506,16 @@
         <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>46914</v>
+        <v>10143</v>
       </c>
       <c r="H73" t="n">
-        <v>45229</v>
+        <v>9575</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1723</v>
+        <v>0.0359</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3514,19 +3526,19 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
@@ -3535,16 +3547,16 @@
         <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G74" t="n">
-        <v>70371</v>
+        <v>81144</v>
       </c>
       <c r="H74" t="n">
-        <v>68161</v>
+        <v>77690</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2664</v>
+        <v>0.3027</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3555,16 +3567,16 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C75" t="n">
         <v>14</v>
@@ -3576,16 +3588,16 @@
         <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G75" t="n">
-        <v>20286</v>
+        <v>60858</v>
       </c>
       <c r="H75" t="n">
-        <v>19385</v>
+        <v>58151</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0702</v>
+        <v>0.2167</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3596,16 +3608,16 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
         <v>14</v>
@@ -3617,39 +3629,39 @@
         <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>1194</v>
+        <v>80</v>
       </c>
       <c r="G76" t="n">
-        <v>101430</v>
+        <v>46914</v>
       </c>
       <c r="H76" t="n">
-        <v>97112</v>
+        <v>45229</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5688</v>
+        <v>0.1723</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
         <v>15</v>
@@ -3658,39 +3670,39 @@
         <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G77" t="n">
-        <v>50715</v>
+        <v>70371</v>
       </c>
       <c r="H77" t="n">
-        <v>47867</v>
+        <v>68161</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2266</v>
+        <v>0.2664</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
         <v>15</v>
@@ -3699,57 +3711,57 @@
         <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>7950</v>
+        <v>40</v>
       </c>
       <c r="G78" t="n">
-        <v>202860</v>
+        <v>20286</v>
       </c>
       <c r="H78" t="n">
-        <v>195602</v>
+        <v>19385</v>
       </c>
       <c r="I78" t="n">
-        <v>1.3571</v>
+        <v>0.0702</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B79" t="n">
         <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>41720</v>
+        <v>1194</v>
       </c>
       <c r="G79" t="n">
-        <v>1173690</v>
+        <v>101430</v>
       </c>
       <c r="H79" t="n">
-        <v>1149317</v>
+        <v>97112</v>
       </c>
       <c r="I79" t="n">
-        <v>19.0623</v>
+        <v>0.5688</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3760,13 +3772,13 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B80" t="n">
         <v>15</v>
@@ -3775,22 +3787,22 @@
         <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F80" t="n">
         <v>124</v>
       </c>
       <c r="G80" t="n">
-        <v>23415</v>
+        <v>50715</v>
       </c>
       <c r="H80" t="n">
-        <v>21917</v>
+        <v>47867</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0978</v>
+        <v>0.2266</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3801,37 +3813,37 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F81" t="n">
-        <v>60</v>
+        <v>7950</v>
       </c>
       <c r="G81" t="n">
-        <v>14049</v>
+        <v>202860</v>
       </c>
       <c r="H81" t="n">
-        <v>13151</v>
+        <v>195602</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06</v>
+        <v>1.3571</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3842,37 +3854,37 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="G82" t="n">
-        <v>10787</v>
+        <v>1173690</v>
       </c>
       <c r="H82" t="n">
-        <v>10229</v>
+        <v>1149317</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0394</v>
+        <v>19.0623</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3883,16 +3895,16 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
         <v>7</v>
@@ -3904,16 +3916,16 @@
         <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G83" t="n">
-        <v>4683</v>
+        <v>23415</v>
       </c>
       <c r="H83" t="n">
-        <v>4385</v>
+        <v>21917</v>
       </c>
       <c r="I83" t="n">
-        <v>0.013</v>
+        <v>0.0978</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3924,19 +3936,19 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -3951,10 +3963,10 @@
         <v>14049</v>
       </c>
       <c r="H84" t="n">
-        <v>13373</v>
+        <v>13151</v>
       </c>
       <c r="I84" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3965,19 +3977,19 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
@@ -3986,16 +3998,16 @@
         <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>42147</v>
+        <v>10787</v>
       </c>
       <c r="H85" t="n">
-        <v>40115</v>
+        <v>10229</v>
       </c>
       <c r="I85" t="n">
-        <v>0.253</v>
+        <v>0.0394</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4006,142 +4018,142 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
         <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>988547</v>
+        <v>4683</v>
       </c>
       <c r="H86" t="n">
-        <v>951134</v>
+        <v>4385</v>
       </c>
       <c r="I86" t="n">
-        <v>4.1745</v>
+        <v>0.013</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="G87" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="H87" t="n">
-        <v>6861710</v>
+        <v>13373</v>
       </c>
       <c r="I87" t="n">
-        <v>183.2784</v>
+        <v>0.058</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D88" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="G88" t="n">
-        <v>424263</v>
+        <v>42147</v>
       </c>
       <c r="H88" t="n">
-        <v>407630</v>
+        <v>40115</v>
       </c>
       <c r="I88" t="n">
-        <v>1.5868</v>
+        <v>0.253</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
         <v>100</v>
@@ -4150,16 +4162,16 @@
         <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>205171</v>
+        <v>41</v>
       </c>
       <c r="G89" t="n">
-        <v>2596356</v>
+        <v>988547</v>
       </c>
       <c r="H89" t="n">
-        <v>5051654</v>
+        <v>951134</v>
       </c>
       <c r="I89" t="n">
-        <v>12.0275</v>
+        <v>4.1745</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4170,19 +4182,19 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D90" t="n">
         <v>100</v>
@@ -4191,16 +4203,16 @@
         <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>12200</v>
+        <v>54920</v>
       </c>
       <c r="G90" t="n">
-        <v>865452</v>
+        <v>6919829</v>
       </c>
       <c r="H90" t="n">
-        <v>1674182</v>
+        <v>6861710</v>
       </c>
       <c r="I90" t="n">
-        <v>2.4971</v>
+        <v>183.2784</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4211,37 +4223,37 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B91" t="n">
         <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F91" t="n">
-        <v>2519</v>
+        <v>1053</v>
       </c>
       <c r="G91" t="n">
-        <v>11172</v>
+        <v>424263</v>
       </c>
       <c r="H91" t="n">
-        <v>17867</v>
+        <v>407630</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0343</v>
+        <v>1.5868</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4252,37 +4264,37 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B92" t="n">
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>2788</v>
+        <v>205171</v>
       </c>
       <c r="G92" t="n">
-        <v>13167</v>
+        <v>2596356</v>
       </c>
       <c r="H92" t="n">
-        <v>21077</v>
+        <v>5051654</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0473</v>
+        <v>12.0275</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4293,37 +4305,37 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B93" t="n">
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>2272</v>
+        <v>12200</v>
       </c>
       <c r="G93" t="n">
-        <v>9177</v>
+        <v>865452</v>
       </c>
       <c r="H93" t="n">
-        <v>14657</v>
+        <v>1674182</v>
       </c>
       <c r="I93" t="n">
-        <v>0.027</v>
+        <v>2.4971</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4334,19 +4346,19 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
@@ -4355,16 +4367,16 @@
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>2191</v>
+        <v>2519</v>
       </c>
       <c r="G94" t="n">
-        <v>5187</v>
+        <v>11172</v>
       </c>
       <c r="H94" t="n">
-        <v>8237</v>
+        <v>17867</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0143</v>
+        <v>0.0343</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4375,19 +4387,19 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
@@ -4396,16 +4408,16 @@
         <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>171</v>
+        <v>2788</v>
       </c>
       <c r="G95" t="n">
-        <v>1197</v>
+        <v>13167</v>
       </c>
       <c r="H95" t="n">
-        <v>1817</v>
+        <v>21077</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0024</v>
+        <v>0.0473</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4416,19 +4428,19 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
@@ -4437,78 +4449,80 @@
         <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>21</v>
+        <v>2272</v>
       </c>
       <c r="G96" t="n">
-        <v>858</v>
+        <v>9177</v>
       </c>
       <c r="H96" t="n">
-        <v>1212</v>
+        <v>14657</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0022</v>
+        <v>0.027</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>11</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2191</v>
+      </c>
       <c r="G97" t="n">
-        <v>348</v>
+        <v>5187</v>
       </c>
       <c r="H97" t="n">
-        <v>282</v>
+        <v>8237</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
@@ -4516,38 +4530,40 @@
       <c r="E98" t="n">
         <v>10</v>
       </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>171</v>
+      </c>
       <c r="G98" t="n">
-        <v>8008</v>
+        <v>1197</v>
       </c>
       <c r="H98" t="n">
-        <v>11912</v>
+        <v>1817</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0174</v>
+        <v>0.0024</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
@@ -4555,51 +4571,53 @@
       <c r="E99" t="n">
         <v>10</v>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>21</v>
+      </c>
       <c r="G99" t="n">
-        <v>572</v>
+        <v>858</v>
       </c>
       <c r="H99" t="n">
-        <v>784</v>
+        <v>1212</v>
       </c>
       <c r="I99" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B100" t="n">
         <v>2</v>
       </c>
       <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>10</v>
-      </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H100" t="n">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="I100" t="n">
         <v>0.0001</v>
@@ -4608,24 +4626,24 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B101" t="n">
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -4635,13 +4653,13 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>1430</v>
+        <v>8008</v>
       </c>
       <c r="H101" t="n">
-        <v>2068</v>
+        <v>11912</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0029</v>
+        <v>0.0174</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4652,19 +4670,19 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B102" t="n">
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
@@ -4674,13 +4692,13 @@
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>1144</v>
+        <v>572</v>
       </c>
       <c r="H102" t="n">
-        <v>1640</v>
+        <v>784</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0028</v>
+        <v>0.001</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4691,19 +4709,19 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
@@ -4713,13 +4731,13 @@
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>3990</v>
+        <v>286</v>
       </c>
       <c r="H103" t="n">
-        <v>6200</v>
+        <v>356</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4730,19 +4748,19 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" t="n">
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -4752,13 +4770,13 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="H104" t="n">
-        <v>4120</v>
+        <v>2068</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0119</v>
+        <v>0.0029</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4769,19 +4787,19 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
         <v>4</v>
-      </c>
-      <c r="B105" t="n">
-        <v>5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>10</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
@@ -4791,13 +4809,13 @@
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>6250</v>
+        <v>1144</v>
       </c>
       <c r="H105" t="n">
-        <v>10697</v>
+        <v>1640</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0162</v>
+        <v>0.0028</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4808,19 +4826,19 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -4830,13 +4848,13 @@
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>14230</v>
+        <v>3990</v>
       </c>
       <c r="H106" t="n">
-        <v>23531</v>
+        <v>6200</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0366</v>
+        <v>0.0072</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4847,19 +4865,19 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
         <v>10</v>
@@ -4869,13 +4887,13 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>7115</v>
+        <v>2860</v>
       </c>
       <c r="H107" t="n">
-        <v>11761</v>
+        <v>4120</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0116</v>
+        <v>0.0119</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4886,19 +4904,19 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B108" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -4908,13 +4926,13 @@
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H108" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0098</v>
+        <v>0.0162</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4925,57 +4943,55 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>46032</v>
+        <v>14230</v>
       </c>
       <c r="H109" t="n">
-        <v>80278</v>
+        <v>23531</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2189</v>
+        <v>0.0366</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B110" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C110" t="n">
         <v>5</v>
@@ -4988,29 +5004,33 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H110" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I110" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
@@ -5023,60 +5043,74 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H111" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0064</v>
+        <v>0.0098</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E112" t="n">
-        <v>10</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3338</v>
+      </c>
       <c r="G112" t="n">
-        <v>11370</v>
+        <v>46032</v>
       </c>
       <c r="H112" t="n">
-        <v>19253</v>
+        <v>80278</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0334</v>
+        <v>0.2189</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
         <v>5</v>
@@ -5089,18 +5123,119 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H113" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0071</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" t="n">
+        <v>10</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9</v>
+      </c>
+      <c r="C115" t="n">
+        <v>10</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10</v>
+      </c>
+      <c r="E115" t="n">
+        <v>10</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H115" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,38 +430,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>35.70000000000003</v>
+        <v>425.3549954086733</v>
       </c>
       <c r="G2" t="n">
-        <v>242263</v>
+        <v>100170</v>
       </c>
       <c r="H2" t="n">
-        <v>462297</v>
+        <v>174727</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6081</v>
+        <v>20.1682</v>
       </c>
       <c r="J2" t="n">
-        <v>59.47169375419617</v>
+        <v>59.42745089530945</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13:10:18</t>
+          <t>10:09:25</t>
         </is>
       </c>
     </row>
@@ -1466,50 +1466,52 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>7.999999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="G26" t="n">
-        <v>18711</v>
+        <v>50085</v>
       </c>
       <c r="H26" t="n">
-        <v>55167</v>
+        <v>86863</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K26" t="n">
         <v>20</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="n">
         <v>11</v>
@@ -1518,22 +1520,22 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>32.66666666666667</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>50281</v>
+        <v>18711</v>
       </c>
       <c r="H27" t="n">
-        <v>155342</v>
+        <v>55167</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1682</v>
+        <v>0.0654</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -1546,16 +1548,16 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
         <v>7</v>
@@ -1567,16 +1569,16 @@
         <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>3.999999999999999</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G28" t="n">
-        <v>32382</v>
+        <v>50281</v>
       </c>
       <c r="H28" t="n">
-        <v>153575</v>
+        <v>155342</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1282</v>
+        <v>0.1682</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -1589,58 +1591,56 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>812.130000000004</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>180306</v>
+        <v>32382</v>
       </c>
       <c r="H29" t="n">
-        <v>323519</v>
+        <v>153575</v>
       </c>
       <c r="I29" t="n">
-        <v>12.3114</v>
-      </c>
-      <c r="J29" t="n">
-        <v>78.16917204856873</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B30" t="n">
         <v>53</v>
@@ -1649,28 +1649,28 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
-        <v>40.70000000000001</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G30" t="n">
-        <v>90153</v>
+        <v>242263</v>
       </c>
       <c r="H30" t="n">
-        <v>161308</v>
+        <v>462297</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4574</v>
+        <v>0.5239</v>
       </c>
       <c r="J30" t="n">
-        <v>33.15888476371765</v>
+        <v>64.54806518554688</v>
       </c>
       <c r="K30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1679,102 +1679,106 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C31" t="n">
         <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>240.6554934823091</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G31" t="n">
-        <v>101164</v>
+        <v>180306</v>
       </c>
       <c r="H31" t="n">
-        <v>317602</v>
+        <v>323519</v>
       </c>
       <c r="I31" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J31" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K31" t="n">
         <v>18</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B32" t="n">
+        <v>53</v>
+      </c>
+      <c r="C32" t="n">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>14</v>
-      </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>64764</v>
+        <v>90153</v>
       </c>
       <c r="H32" t="n">
-        <v>314970</v>
+        <v>161308</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J32" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K32" t="n">
         <v>18</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
         <v>14</v>
@@ -1786,16 +1790,16 @@
         <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>2419.333333333333</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G33" t="n">
-        <v>173964</v>
+        <v>101164</v>
       </c>
       <c r="H33" t="n">
-        <v>322866</v>
+        <v>317602</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4497</v>
+        <v>0.487</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
@@ -1808,19 +1812,19 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
         <v>25</v>
@@ -1829,16 +1833,16 @@
         <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>602</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>86982</v>
+        <v>64764</v>
       </c>
       <c r="H34" t="n">
-        <v>171967</v>
+        <v>314970</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2673</v>
+        <v>0.2711</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1851,19 +1855,19 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>25</v>
@@ -1872,16 +1876,16 @@
         <v>25</v>
       </c>
       <c r="F35" t="n">
-        <v>38</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73332</v>
+        <v>173964</v>
       </c>
       <c r="H35" t="n">
-        <v>167389</v>
+        <v>322866</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1522</v>
+        <v>0.4497</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
@@ -1894,19 +1898,19 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>25</v>
@@ -1915,16 +1919,16 @@
         <v>25</v>
       </c>
       <c r="F36" t="n">
-        <v>13395</v>
+        <v>602</v>
       </c>
       <c r="G36" t="n">
-        <v>293328</v>
+        <v>86982</v>
       </c>
       <c r="H36" t="n">
-        <v>684598</v>
+        <v>171967</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7488</v>
+        <v>0.2673</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -1937,19 +1941,19 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" t="n">
         <v>7</v>
-      </c>
-      <c r="C37" t="n">
-        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>25</v>
@@ -1958,16 +1962,16 @@
         <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>45.00000000000001</v>
+        <v>38</v>
       </c>
       <c r="G37" t="n">
-        <v>129528</v>
+        <v>73332</v>
       </c>
       <c r="H37" t="n">
-        <v>640400</v>
+        <v>167389</v>
       </c>
       <c r="I37" t="n">
-        <v>1.3063</v>
+        <v>0.1522</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
@@ -1980,41 +1984,41 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>33</v>
+        <v>13395</v>
       </c>
       <c r="G38" t="n">
-        <v>12292</v>
+        <v>293328</v>
       </c>
       <c r="H38" t="n">
-        <v>54509</v>
+        <v>684598</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0383</v>
+        <v>2.7488</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2023,13 +2027,13 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B39" t="n">
         <v>7</v>
@@ -2038,26 +2042,26 @@
         <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F39" t="n">
-        <v>1804.999934139618</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>76048</v>
+        <v>129528</v>
       </c>
       <c r="H39" t="n">
-        <v>229623</v>
+        <v>640400</v>
       </c>
       <c r="I39" t="n">
-        <v>44.1138</v>
+        <v>1.3063</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2066,16 +2070,16 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
         <v>7</v>
@@ -2087,16 +2091,16 @@
         <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40" t="n">
-        <v>19012</v>
+        <v>12292</v>
       </c>
       <c r="H40" t="n">
-        <v>55785</v>
+        <v>54509</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0372</v>
+        <v>0.0383</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
@@ -2109,64 +2113,62 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>328.0000000000005</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G41" t="n">
-        <v>100170</v>
+        <v>76048</v>
       </c>
       <c r="H41" t="n">
-        <v>173166</v>
+        <v>229623</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7959000000000001</v>
-      </c>
-      <c r="J41" t="n">
-        <v>30.95691275596619</v>
-      </c>
+        <v>44.1138</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>17:55:51</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>15</v>
@@ -2175,20 +2177,20 @@
         <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>190.0000000000001</v>
+        <v>36</v>
       </c>
       <c r="G42" t="n">
-        <v>36610</v>
+        <v>19012</v>
       </c>
       <c r="H42" t="n">
-        <v>110682</v>
+        <v>55785</v>
       </c>
       <c r="I42" t="n">
-        <v>1.3782</v>
+        <v>0.0372</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2197,19 +2199,19 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
         <v>15</v>
@@ -2218,16 +2220,16 @@
         <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>1659.5</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>73220</v>
+        <v>36610</v>
       </c>
       <c r="H43" t="n">
-        <v>224873</v>
+        <v>110682</v>
       </c>
       <c r="I43" t="n">
-        <v>11.8307</v>
+        <v>1.3782</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -2240,19 +2242,19 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>15</v>
@@ -2261,20 +2263,20 @@
         <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>253</v>
+        <v>1659.5</v>
       </c>
       <c r="G44" t="n">
-        <v>45696</v>
+        <v>73220</v>
       </c>
       <c r="H44" t="n">
-        <v>109671</v>
+        <v>224873</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5595</v>
+        <v>11.8307</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2283,64 +2285,62 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
         <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>83.3</v>
+        <v>253</v>
       </c>
       <c r="G45" t="n">
-        <v>83846</v>
+        <v>45696</v>
       </c>
       <c r="H45" t="n">
-        <v>142303</v>
+        <v>109671</v>
       </c>
       <c r="I45" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J45" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>0.5595</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B46" t="n">
         <v>53</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2349,18 +2349,20 @@
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>3.5</v>
+        <v>83.3</v>
       </c>
       <c r="G46" t="n">
-        <v>41923</v>
+        <v>83846</v>
       </c>
       <c r="H46" t="n">
-        <v>70616</v>
+        <v>142303</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1649</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J46" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K46" t="n">
         <v>12</v>
       </c>
@@ -2371,19 +2373,19 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>17:01:55</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B47" t="n">
         <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2392,16 +2394,16 @@
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>351.5332879941108</v>
+        <v>3.5</v>
       </c>
       <c r="G47" t="n">
-        <v>209615</v>
+        <v>41923</v>
       </c>
       <c r="H47" t="n">
-        <v>357364</v>
+        <v>70616</v>
       </c>
       <c r="I47" t="n">
-        <v>136.8438</v>
+        <v>0.1649</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -2414,13 +2416,13 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>17:01:55</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B48" t="n">
         <v>53</v>
@@ -2429,22 +2431,22 @@
         <v>35</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G48" t="n">
-        <v>784665</v>
+        <v>209615</v>
       </c>
       <c r="H48" t="n">
-        <v>1447964</v>
+        <v>357364</v>
       </c>
       <c r="I48" t="n">
-        <v>5.8677</v>
+        <v>136.8438</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -2457,19 +2459,19 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" t="n">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>20</v>
@@ -2481,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>156933</v>
+        <v>784665</v>
       </c>
       <c r="H49" t="n">
-        <v>285656</v>
+        <v>1447964</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5835</v>
+        <v>5.8677</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -2500,19 +2502,19 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" t="n">
         <v>53</v>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
         <v>20</v>
@@ -2521,16 +2523,16 @@
         <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>312.2499501315505</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>470799</v>
+        <v>156933</v>
       </c>
       <c r="H50" t="n">
-        <v>870078</v>
+        <v>285656</v>
       </c>
       <c r="I50" t="n">
-        <v>10.5612</v>
+        <v>0.5835</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
@@ -2543,19 +2545,19 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" t="n">
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
         <v>20</v>
@@ -2564,16 +2566,16 @@
         <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>11.6</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G51" t="n">
-        <v>1098531</v>
+        <v>470799</v>
       </c>
       <c r="H51" t="n">
-        <v>2032386</v>
+        <v>870078</v>
       </c>
       <c r="I51" t="n">
-        <v>5.7722</v>
+        <v>10.5612</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
@@ -2586,19 +2588,19 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" t="n">
         <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
         <v>20</v>
@@ -2607,16 +2609,16 @@
         <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>154.4249671516788</v>
+        <v>11.6</v>
       </c>
       <c r="G52" t="n">
-        <v>313866</v>
+        <v>1098531</v>
       </c>
       <c r="H52" t="n">
-        <v>579501</v>
+        <v>2032386</v>
       </c>
       <c r="I52" t="n">
-        <v>1.1351</v>
+        <v>5.7722</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
@@ -2629,16 +2631,16 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
         <v>14</v>
@@ -2650,20 +2652,20 @@
         <v>20</v>
       </c>
       <c r="F53" t="n">
-        <v>34.79999440044767</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G53" t="n">
-        <v>148050</v>
+        <v>313866</v>
       </c>
       <c r="H53" t="n">
-        <v>283143</v>
+        <v>579501</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8347</v>
+        <v>1.1351</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2672,16 +2674,16 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" t="n">
         <v>14</v>
@@ -2693,16 +2695,16 @@
         <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>1775.199999963032</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G54" t="n">
-        <v>153972</v>
+        <v>148050</v>
       </c>
       <c r="H54" t="n">
-        <v>293934</v>
+        <v>283143</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6929</v>
+        <v>0.8347</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
@@ -2715,16 +2717,16 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C55" t="n">
         <v>14</v>
@@ -2736,16 +2738,16 @@
         <v>20</v>
       </c>
       <c r="F55" t="n">
-        <v>1676.933333333334</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G55" t="n">
-        <v>177660</v>
+        <v>153972</v>
       </c>
       <c r="H55" t="n">
-        <v>337098</v>
+        <v>293934</v>
       </c>
       <c r="I55" t="n">
-        <v>0.753</v>
+        <v>0.6929</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -2758,16 +2760,16 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>14</v>
@@ -2779,16 +2781,16 @@
         <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>26.99999602929075</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G56" t="n">
-        <v>94752</v>
+        <v>177660</v>
       </c>
       <c r="H56" t="n">
-        <v>278913</v>
+        <v>337098</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2439</v>
+        <v>0.753</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -2801,16 +2803,16 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
         <v>14</v>
@@ -2822,16 +2824,16 @@
         <v>20</v>
       </c>
       <c r="F57" t="n">
-        <v>19.99999388246115</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G57" t="n">
-        <v>47376</v>
+        <v>94752</v>
       </c>
       <c r="H57" t="n">
-        <v>191065</v>
+        <v>278913</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1299</v>
+        <v>0.2439</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -2844,16 +2846,16 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
@@ -2865,16 +2867,16 @@
         <v>20</v>
       </c>
       <c r="F58" t="n">
-        <v>795.6</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G58" t="n">
-        <v>82908</v>
+        <v>47376</v>
       </c>
       <c r="H58" t="n">
-        <v>193885</v>
+        <v>191065</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4943</v>
+        <v>0.1299</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -2887,13 +2889,13 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" t="n">
         <v>14</v>
@@ -2902,22 +2904,22 @@
         <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>514.8000000000001</v>
+        <v>795.6</v>
       </c>
       <c r="G59" t="n">
-        <v>22148</v>
+        <v>82908</v>
       </c>
       <c r="H59" t="n">
-        <v>46375</v>
+        <v>193885</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3576</v>
+        <v>0.4943</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -2930,19 +2932,19 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" t="n">
         <v>14</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
@@ -2951,16 +2953,16 @@
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>204</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>11074</v>
+        <v>22148</v>
       </c>
       <c r="H60" t="n">
-        <v>22904</v>
+        <v>46375</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0224</v>
+        <v>0.3576</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -2973,37 +2975,37 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
         <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="G61" t="n">
-        <v>38178</v>
+        <v>11074</v>
       </c>
       <c r="H61" t="n">
-        <v>58116</v>
+        <v>22904</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.0224</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
@@ -3011,24 +3013,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B62" t="n">
         <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>15</v>
@@ -3037,20 +3039,20 @@
         <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>1578</v>
+        <v>394</v>
       </c>
       <c r="G62" t="n">
-        <v>52500</v>
+        <v>38178</v>
       </c>
       <c r="H62" t="n">
-        <v>92122</v>
+        <v>58116</v>
       </c>
       <c r="I62" t="n">
-        <v>6.5428</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3059,13 +3061,13 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B63" t="n">
         <v>15</v>
@@ -3080,16 +3082,16 @@
         <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>1577.999992666665</v>
+        <v>1578</v>
       </c>
       <c r="G63" t="n">
-        <v>57540</v>
+        <v>52500</v>
       </c>
       <c r="H63" t="n">
-        <v>100522</v>
+        <v>92122</v>
       </c>
       <c r="I63" t="n">
-        <v>2.1297</v>
+        <v>6.5428</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -3102,37 +3104,37 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>3202</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G64" t="n">
-        <v>351288</v>
+        <v>57540</v>
       </c>
       <c r="H64" t="n">
-        <v>466643</v>
+        <v>100522</v>
       </c>
       <c r="I64" t="n">
-        <v>1.9582</v>
+        <v>2.1297</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -3145,19 +3147,19 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D65" t="n">
         <v>15</v>
@@ -3166,16 +3168,16 @@
         <v>50</v>
       </c>
       <c r="F65" t="n">
-        <v>51</v>
+        <v>3202</v>
       </c>
       <c r="G65" t="n">
-        <v>29274</v>
+        <v>351288</v>
       </c>
       <c r="H65" t="n">
-        <v>37158</v>
+        <v>466643</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0469</v>
+        <v>1.9582</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
@@ -3188,16 +3190,16 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
         <v>7</v>
@@ -3209,16 +3211,16 @@
         <v>50</v>
       </c>
       <c r="F66" t="n">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="G66" t="n">
-        <v>117096</v>
+        <v>29274</v>
       </c>
       <c r="H66" t="n">
-        <v>154821</v>
+        <v>37158</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2622</v>
+        <v>0.0469</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
@@ -3231,99 +3233,99 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:06:01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F67" t="n">
-        <v>80.39999999999995</v>
+        <v>192</v>
       </c>
       <c r="G67" t="n">
-        <v>128790</v>
+        <v>117096</v>
       </c>
       <c r="H67" t="n">
-        <v>230986</v>
+        <v>154821</v>
       </c>
       <c r="I67" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J67" t="n">
-        <v>13</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68" t="n">
         <v>53</v>
       </c>
       <c r="C68" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>798.3000000000002</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G68" t="n">
-        <v>150255</v>
+        <v>128790</v>
       </c>
       <c r="H68" t="n">
-        <v>260064</v>
+        <v>230986</v>
       </c>
       <c r="I68" t="n">
-        <v>404.4721</v>
+        <v>1.0875</v>
       </c>
       <c r="J68" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K68" t="n">
         <v>5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>17:55:00</t>
+          <t>20:52:46</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>446.8833899497986</v>
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" t="n">
         <v>53</v>
@@ -3332,22 +3334,22 @@
         <v>21</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>991.6000000000008</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G69" t="n">
-        <v>176967</v>
+        <v>150255</v>
       </c>
       <c r="H69" t="n">
-        <v>310009</v>
+        <v>260064</v>
       </c>
       <c r="I69" t="n">
-        <v>18.2853</v>
+        <v>404.4721</v>
       </c>
       <c r="J69" t="n">
         <v>16</v>
@@ -3357,147 +3359,151 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>15:25:32</t>
+          <t>17:55:00</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>70.88821601867676</v>
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>370</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G70" t="n">
-        <v>34524</v>
+        <v>176967</v>
       </c>
       <c r="H70" t="n">
-        <v>60034</v>
+        <v>310009</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J70" t="n">
+        <v>16</v>
+      </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F71" t="n">
-        <v>400</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G71" t="n">
-        <v>114660</v>
+        <v>726789</v>
       </c>
       <c r="H71" t="n">
-        <v>195602</v>
+        <v>1394725</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J71" t="n">
+        <v>19</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F72" t="n">
-        <v>60</v>
+        <v>239.4799987045459</v>
       </c>
       <c r="G72" t="n">
-        <v>30429</v>
+        <v>484526</v>
       </c>
       <c r="H72" t="n">
-        <v>28721</v>
+        <v>928511</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>5.8352</v>
+      </c>
+      <c r="J72" t="n">
+        <v>19</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>09:03:29</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>112.8302147388458</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
@@ -3506,39 +3512,41 @@
         <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="G73" t="n">
-        <v>10143</v>
+        <v>34524</v>
       </c>
       <c r="H73" t="n">
-        <v>9575</v>
+        <v>60034</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0359</v>
+        <v>0.1695</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
@@ -3547,16 +3555,16 @@
         <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G74" t="n">
-        <v>81144</v>
+        <v>114660</v>
       </c>
       <c r="H74" t="n">
-        <v>77690</v>
+        <v>195602</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3027</v>
+        <v>0.3841</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3567,19 +3575,19 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B75" t="n">
         <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
@@ -3588,16 +3596,16 @@
         <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G75" t="n">
-        <v>60858</v>
+        <v>30429</v>
       </c>
       <c r="H75" t="n">
-        <v>58151</v>
+        <v>28721</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2167</v>
+        <v>0.1367</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3608,20 +3616,20 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
         <v>7</v>
       </c>
-      <c r="C76" t="n">
-        <v>14</v>
-      </c>
       <c r="D76" t="n">
         <v>15</v>
       </c>
@@ -3629,16 +3637,16 @@
         <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G76" t="n">
-        <v>46914</v>
+        <v>10143</v>
       </c>
       <c r="H76" t="n">
-        <v>45229</v>
+        <v>9575</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1723</v>
+        <v>0.0359</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3649,19 +3657,19 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D77" t="n">
         <v>15</v>
@@ -3670,16 +3678,16 @@
         <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G77" t="n">
-        <v>70371</v>
+        <v>81144</v>
       </c>
       <c r="H77" t="n">
-        <v>68161</v>
+        <v>77690</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2664</v>
+        <v>0.3027</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3690,16 +3698,16 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
         <v>14</v>
@@ -3711,16 +3719,16 @@
         <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G78" t="n">
-        <v>20286</v>
+        <v>60858</v>
       </c>
       <c r="H78" t="n">
-        <v>19385</v>
+        <v>58151</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0702</v>
+        <v>0.2167</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3731,16 +3739,16 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
         <v>14</v>
@@ -3752,39 +3760,39 @@
         <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>1194</v>
+        <v>80</v>
       </c>
       <c r="G79" t="n">
-        <v>101430</v>
+        <v>46914</v>
       </c>
       <c r="H79" t="n">
-        <v>97112</v>
+        <v>45229</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5688</v>
+        <v>0.1723</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B80" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
         <v>15</v>
@@ -3793,39 +3801,39 @@
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G80" t="n">
-        <v>50715</v>
+        <v>70371</v>
       </c>
       <c r="H80" t="n">
-        <v>47867</v>
+        <v>68161</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2266</v>
+        <v>0.2664</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B81" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D81" t="n">
         <v>15</v>
@@ -3834,57 +3842,57 @@
         <v>15</v>
       </c>
       <c r="F81" t="n">
-        <v>7950</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>202860</v>
+        <v>20286</v>
       </c>
       <c r="H81" t="n">
-        <v>195602</v>
+        <v>19385</v>
       </c>
       <c r="I81" t="n">
-        <v>1.3571</v>
+        <v>0.0702</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B82" t="n">
         <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>41720</v>
+        <v>1194</v>
       </c>
       <c r="G82" t="n">
-        <v>1173690</v>
+        <v>101430</v>
       </c>
       <c r="H82" t="n">
-        <v>1149317</v>
+        <v>97112</v>
       </c>
       <c r="I82" t="n">
-        <v>19.0623</v>
+        <v>0.5688</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3895,13 +3903,13 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B83" t="n">
         <v>15</v>
@@ -3910,22 +3918,22 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
         <v>124</v>
       </c>
       <c r="G83" t="n">
-        <v>23415</v>
+        <v>50715</v>
       </c>
       <c r="H83" t="n">
-        <v>21917</v>
+        <v>47867</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0978</v>
+        <v>0.2266</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3936,37 +3944,37 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>60</v>
+        <v>7950</v>
       </c>
       <c r="G84" t="n">
-        <v>14049</v>
+        <v>202860</v>
       </c>
       <c r="H84" t="n">
-        <v>13151</v>
+        <v>195602</v>
       </c>
       <c r="I84" t="n">
-        <v>0.06</v>
+        <v>1.3571</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3977,37 +3985,37 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="G85" t="n">
-        <v>10787</v>
+        <v>1173690</v>
       </c>
       <c r="H85" t="n">
-        <v>10229</v>
+        <v>1149317</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0394</v>
+        <v>19.0623</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4018,16 +4026,16 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
         <v>7</v>
@@ -4039,16 +4047,16 @@
         <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G86" t="n">
-        <v>4683</v>
+        <v>23415</v>
       </c>
       <c r="H86" t="n">
-        <v>4385</v>
+        <v>21917</v>
       </c>
       <c r="I86" t="n">
-        <v>0.013</v>
+        <v>0.0978</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -4059,19 +4067,19 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:20:01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
@@ -4086,10 +4094,10 @@
         <v>14049</v>
       </c>
       <c r="H87" t="n">
-        <v>13373</v>
+        <v>13151</v>
       </c>
       <c r="I87" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4100,19 +4108,19 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
@@ -4121,16 +4129,16 @@
         <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="G88" t="n">
-        <v>42147</v>
+        <v>10787</v>
       </c>
       <c r="H88" t="n">
-        <v>40115</v>
+        <v>10229</v>
       </c>
       <c r="I88" t="n">
-        <v>0.253</v>
+        <v>0.0394</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4141,142 +4149,142 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
         <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>988547</v>
+        <v>4683</v>
       </c>
       <c r="H89" t="n">
-        <v>951134</v>
+        <v>4385</v>
       </c>
       <c r="I89" t="n">
-        <v>4.1745</v>
+        <v>0.013</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="H90" t="n">
-        <v>6861710</v>
+        <v>13373</v>
       </c>
       <c r="I90" t="n">
-        <v>183.2784</v>
+        <v>0.058</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="G91" t="n">
-        <v>424263</v>
+        <v>42147</v>
       </c>
       <c r="H91" t="n">
-        <v>407630</v>
+        <v>40115</v>
       </c>
       <c r="I91" t="n">
-        <v>1.5868</v>
+        <v>0.253</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
         <v>100</v>
@@ -4285,16 +4293,16 @@
         <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>205171</v>
+        <v>41</v>
       </c>
       <c r="G92" t="n">
-        <v>2596356</v>
+        <v>988547</v>
       </c>
       <c r="H92" t="n">
-        <v>5051654</v>
+        <v>951134</v>
       </c>
       <c r="I92" t="n">
-        <v>12.0275</v>
+        <v>4.1745</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4305,19 +4313,19 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D93" t="n">
         <v>100</v>
@@ -4326,16 +4334,16 @@
         <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>12200</v>
+        <v>54920</v>
       </c>
       <c r="G93" t="n">
-        <v>865452</v>
+        <v>6919829</v>
       </c>
       <c r="H93" t="n">
-        <v>1674182</v>
+        <v>6861710</v>
       </c>
       <c r="I93" t="n">
-        <v>2.4971</v>
+        <v>183.2784</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4346,37 +4354,37 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F94" t="n">
-        <v>2519</v>
+        <v>1053</v>
       </c>
       <c r="G94" t="n">
-        <v>11172</v>
+        <v>424263</v>
       </c>
       <c r="H94" t="n">
-        <v>17867</v>
+        <v>407630</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0343</v>
+        <v>1.5868</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4387,37 +4395,37 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D95" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F95" t="n">
-        <v>2788</v>
+        <v>205171</v>
       </c>
       <c r="G95" t="n">
-        <v>13167</v>
+        <v>2596356</v>
       </c>
       <c r="H95" t="n">
-        <v>21077</v>
+        <v>5051654</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0473</v>
+        <v>12.0275</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4428,37 +4436,37 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B96" t="n">
         <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F96" t="n">
-        <v>2272</v>
+        <v>12200</v>
       </c>
       <c r="G96" t="n">
-        <v>9177</v>
+        <v>865452</v>
       </c>
       <c r="H96" t="n">
-        <v>14657</v>
+        <v>1674182</v>
       </c>
       <c r="I96" t="n">
-        <v>0.027</v>
+        <v>2.4971</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4469,19 +4477,19 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B97" t="n">
         <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
@@ -4490,16 +4498,16 @@
         <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>2191</v>
+        <v>2519</v>
       </c>
       <c r="G97" t="n">
-        <v>5187</v>
+        <v>11172</v>
       </c>
       <c r="H97" t="n">
-        <v>8237</v>
+        <v>17867</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0143</v>
+        <v>0.0343</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4510,19 +4518,19 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B98" t="n">
         <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
@@ -4531,16 +4539,16 @@
         <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>171</v>
+        <v>2788</v>
       </c>
       <c r="G98" t="n">
-        <v>1197</v>
+        <v>13167</v>
       </c>
       <c r="H98" t="n">
-        <v>1817</v>
+        <v>21077</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0024</v>
+        <v>0.0473</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4551,19 +4559,19 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
@@ -4572,78 +4580,80 @@
         <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>21</v>
+        <v>2272</v>
       </c>
       <c r="G99" t="n">
-        <v>858</v>
+        <v>9177</v>
       </c>
       <c r="H99" t="n">
-        <v>1212</v>
+        <v>14657</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0022</v>
+        <v>0.027</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>11</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2191</v>
+      </c>
       <c r="G100" t="n">
-        <v>348</v>
+        <v>5187</v>
       </c>
       <c r="H100" t="n">
-        <v>282</v>
+        <v>8237</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -4651,38 +4661,40 @@
       <c r="E101" t="n">
         <v>10</v>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>171</v>
+      </c>
       <c r="G101" t="n">
-        <v>8008</v>
+        <v>1197</v>
       </c>
       <c r="H101" t="n">
-        <v>11912</v>
+        <v>1817</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0174</v>
+        <v>0.0024</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B102" t="n">
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
@@ -4690,51 +4702,53 @@
       <c r="E102" t="n">
         <v>10</v>
       </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>21</v>
+      </c>
       <c r="G102" t="n">
-        <v>572</v>
+        <v>858</v>
       </c>
       <c r="H102" t="n">
-        <v>784</v>
+        <v>1212</v>
       </c>
       <c r="I102" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B103" t="n">
         <v>2</v>
       </c>
       <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
         <v>1</v>
       </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H103" t="n">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="I103" t="n">
         <v>0.0001</v>
@@ -4743,24 +4757,24 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B104" t="n">
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -4770,13 +4784,13 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>1430</v>
+        <v>8008</v>
       </c>
       <c r="H104" t="n">
-        <v>2068</v>
+        <v>11912</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0029</v>
+        <v>0.0174</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4787,19 +4801,19 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
@@ -4809,13 +4823,13 @@
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>1144</v>
+        <v>572</v>
       </c>
       <c r="H105" t="n">
-        <v>1640</v>
+        <v>784</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0028</v>
+        <v>0.001</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4826,19 +4840,19 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -4848,13 +4862,13 @@
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>3990</v>
+        <v>286</v>
       </c>
       <c r="H106" t="n">
-        <v>6200</v>
+        <v>356</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4865,19 +4879,19 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107" t="n">
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
         <v>10</v>
@@ -4887,13 +4901,13 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="H107" t="n">
-        <v>4120</v>
+        <v>2068</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0119</v>
+        <v>0.0029</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4904,19 +4918,19 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
         <v>4</v>
-      </c>
-      <c r="B108" t="n">
-        <v>5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>10</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -4926,13 +4940,13 @@
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>6250</v>
+        <v>1144</v>
       </c>
       <c r="H108" t="n">
-        <v>10697</v>
+        <v>1640</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0162</v>
+        <v>0.0028</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4943,19 +4957,19 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B109" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
         <v>10</v>
@@ -4965,13 +4979,13 @@
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>14230</v>
+        <v>3990</v>
       </c>
       <c r="H109" t="n">
-        <v>23531</v>
+        <v>6200</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0366</v>
+        <v>0.0072</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4982,19 +4996,19 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B110" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -5004,13 +5018,13 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>7115</v>
+        <v>2860</v>
       </c>
       <c r="H110" t="n">
-        <v>11761</v>
+        <v>4120</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0116</v>
+        <v>0.0119</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5021,19 +5035,19 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B111" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5043,13 +5057,13 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H111" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0098</v>
+        <v>0.0162</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5060,57 +5074,55 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>15</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>46032</v>
+        <v>14230</v>
       </c>
       <c r="H112" t="n">
-        <v>80278</v>
+        <v>23531</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2189</v>
+        <v>0.0366</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B113" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
         <v>5</v>
@@ -5123,29 +5135,33 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H113" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I113" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
         <v>5</v>
@@ -5158,60 +5174,74 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H114" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0064</v>
+        <v>0.0098</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
-      </c>
-      <c r="F115" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3338</v>
+      </c>
       <c r="G115" t="n">
-        <v>11370</v>
+        <v>46032</v>
       </c>
       <c r="H115" t="n">
-        <v>19253</v>
+        <v>80278</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0334</v>
+        <v>0.2189</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
         <v>5</v>
@@ -5224,18 +5254,119 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H116" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0071</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10</v>
+      </c>
+      <c r="E117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>10</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H118" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H119" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,34 +430,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>425.3549954086733</v>
+        <v>455.9000000000002</v>
       </c>
       <c r="G2" t="n">
-        <v>100170</v>
+        <v>137130</v>
       </c>
       <c r="H2" t="n">
-        <v>174727</v>
+        <v>263923</v>
       </c>
       <c r="I2" t="n">
-        <v>20.1682</v>
+        <v>4.2147</v>
       </c>
       <c r="J2" t="n">
-        <v>59.42745089530945</v>
+        <v>125.785080909729</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10:09:25</t>
+          <t>16:01:15</t>
         </is>
       </c>
     </row>
@@ -1466,34 +1466,34 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B26" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>34.7</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>50085</v>
+        <v>72450</v>
       </c>
       <c r="H26" t="n">
-        <v>86863</v>
+        <v>135305</v>
       </c>
       <c r="I26" t="n">
-        <v>0.107</v>
+        <v>1.6791</v>
       </c>
       <c r="J26" t="n">
-        <v>7.774892807006836</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K26" t="n">
         <v>20</v>
@@ -1505,172 +1505,178 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>7.999999999999999</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G27" t="n">
-        <v>18711</v>
+        <v>64890</v>
       </c>
       <c r="H27" t="n">
-        <v>55167</v>
+        <v>120487</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1.6408</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36.27230906486511</v>
+      </c>
       <c r="K27" t="n">
         <v>20</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>32.66666666666667</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G28" t="n">
-        <v>50281</v>
+        <v>33390</v>
       </c>
       <c r="H28" t="n">
-        <v>155342</v>
+        <v>59357</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>1.1474</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18.94928789138794</v>
+      </c>
       <c r="K28" t="n">
         <v>20</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>3.999999999999999</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G29" t="n">
-        <v>32382</v>
+        <v>28350</v>
       </c>
       <c r="H29" t="n">
-        <v>153575</v>
+        <v>49723</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>1.0807</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16.81134915351868</v>
+      </c>
       <c r="K29" t="n">
         <v>20</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>35.70000000000003</v>
+        <v>12.7</v>
       </c>
       <c r="G30" t="n">
-        <v>242263</v>
+        <v>11865</v>
       </c>
       <c r="H30" t="n">
-        <v>462297</v>
+        <v>20427</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5239</v>
+        <v>0.0203</v>
       </c>
       <c r="J30" t="n">
-        <v>64.54806518554688</v>
+        <v>1.177000284194946</v>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1679,43 +1685,43 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" t="n">
         <v>53</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>812.130000000004</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>180306</v>
+        <v>41923</v>
       </c>
       <c r="H31" t="n">
-        <v>323519</v>
+        <v>71749</v>
       </c>
       <c r="I31" t="n">
-        <v>12.3114</v>
+        <v>0.0829</v>
       </c>
       <c r="J31" t="n">
-        <v>78.16917204856873</v>
+        <v>6.332224130630493</v>
       </c>
       <c r="K31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1724,43 +1730,43 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B32" t="n">
         <v>53</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>40.70000000000001</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G32" t="n">
-        <v>90153</v>
+        <v>100170</v>
       </c>
       <c r="H32" t="n">
-        <v>161308</v>
+        <v>174727</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4574</v>
+        <v>239.0865</v>
       </c>
       <c r="J32" t="n">
-        <v>33.15888476371765</v>
+        <v>315.8266220092773</v>
       </c>
       <c r="K32" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1769,84 +1775,86 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B33" t="n">
+        <v>53</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" t="n">
         <v>11</v>
       </c>
-      <c r="C33" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" t="n">
-        <v>25</v>
-      </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>240.6554934823091</v>
+        <v>34.7</v>
       </c>
       <c r="G33" t="n">
-        <v>101164</v>
+        <v>50085</v>
       </c>
       <c r="H33" t="n">
-        <v>317602</v>
+        <v>86863</v>
       </c>
       <c r="I33" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K33" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
         <v>7</v>
       </c>
-      <c r="C34" t="n">
-        <v>14</v>
-      </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>64764</v>
+        <v>18711</v>
       </c>
       <c r="H34" t="n">
-        <v>314970</v>
+        <v>55167</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2711</v>
+        <v>0.0654</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1855,19 +1863,19 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>25</v>
@@ -1876,20 +1884,20 @@
         <v>25</v>
       </c>
       <c r="F35" t="n">
-        <v>2419.333333333333</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G35" t="n">
-        <v>173964</v>
+        <v>50281</v>
       </c>
       <c r="H35" t="n">
-        <v>322866</v>
+        <v>155342</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4497</v>
+        <v>0.1682</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1898,16 +1906,16 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
@@ -1919,20 +1927,20 @@
         <v>25</v>
       </c>
       <c r="F36" t="n">
-        <v>602</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>86982</v>
+        <v>32382</v>
       </c>
       <c r="H36" t="n">
-        <v>171967</v>
+        <v>153575</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2673</v>
+        <v>0.1282</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1941,16 +1949,16 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
@@ -1962,149 +1970,155 @@
         <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G37" t="n">
-        <v>73332</v>
+        <v>242263</v>
       </c>
       <c r="H37" t="n">
-        <v>167389</v>
+        <v>462297</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0.5239</v>
+      </c>
+      <c r="J37" t="n">
+        <v>64.54806518554688</v>
+      </c>
       <c r="K37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>13395</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G38" t="n">
-        <v>293328</v>
+        <v>180306</v>
       </c>
       <c r="H38" t="n">
-        <v>684598</v>
+        <v>323519</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7488</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J38" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K38" t="n">
         <v>18</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B39" t="n">
+        <v>53</v>
+      </c>
+      <c r="C39" t="n">
         <v>7</v>
       </c>
-      <c r="C39" t="n">
-        <v>28</v>
-      </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>45.00000000000001</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>129528</v>
+        <v>90153</v>
       </c>
       <c r="H39" t="n">
-        <v>640400</v>
+        <v>161308</v>
       </c>
       <c r="I39" t="n">
-        <v>1.3063</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J39" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K39" t="n">
         <v>18</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F40" t="n">
-        <v>33</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G40" t="n">
-        <v>12292</v>
+        <v>101164</v>
       </c>
       <c r="H40" t="n">
-        <v>54509</v>
+        <v>317602</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0383</v>
+        <v>0.487</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2113,41 +2127,41 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B41" t="n">
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F41" t="n">
-        <v>1804.999934139618</v>
+        <v>16</v>
       </c>
       <c r="G41" t="n">
-        <v>76048</v>
+        <v>64764</v>
       </c>
       <c r="H41" t="n">
-        <v>229623</v>
+        <v>314970</v>
       </c>
       <c r="I41" t="n">
-        <v>44.1138</v>
+        <v>0.2711</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2156,41 +2170,41 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F42" t="n">
-        <v>36</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>19012</v>
+        <v>173964</v>
       </c>
       <c r="H42" t="n">
-        <v>55785</v>
+        <v>322866</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0372</v>
+        <v>0.4497</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2199,41 +2213,41 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>190.0000000000001</v>
+        <v>602</v>
       </c>
       <c r="G43" t="n">
-        <v>36610</v>
+        <v>86982</v>
       </c>
       <c r="H43" t="n">
-        <v>110682</v>
+        <v>171967</v>
       </c>
       <c r="I43" t="n">
-        <v>1.3782</v>
+        <v>0.2673</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2242,41 +2256,41 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>1659.5</v>
+        <v>38</v>
       </c>
       <c r="G44" t="n">
-        <v>73220</v>
+        <v>73332</v>
       </c>
       <c r="H44" t="n">
-        <v>224873</v>
+        <v>167389</v>
       </c>
       <c r="I44" t="n">
-        <v>11.8307</v>
+        <v>0.1522</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2285,41 +2299,41 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>253</v>
+        <v>13395</v>
       </c>
       <c r="G45" t="n">
-        <v>45696</v>
+        <v>293328</v>
       </c>
       <c r="H45" t="n">
-        <v>109671</v>
+        <v>684598</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5595</v>
+        <v>2.7488</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2328,316 +2342,314 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F46" t="n">
-        <v>83.3</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>83846</v>
+        <v>129528</v>
       </c>
       <c r="H46" t="n">
-        <v>142303</v>
+        <v>640400</v>
       </c>
       <c r="I46" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J46" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>1.3063</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>3.5</v>
+        <v>33</v>
       </c>
       <c r="G47" t="n">
-        <v>41923</v>
+        <v>12292</v>
       </c>
       <c r="H47" t="n">
-        <v>70616</v>
+        <v>54509</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1649</v>
+        <v>0.0383</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>17:01:55</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>351.5332879941108</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G48" t="n">
-        <v>209615</v>
+        <v>76048</v>
       </c>
       <c r="H48" t="n">
-        <v>357364</v>
+        <v>229623</v>
       </c>
       <c r="I48" t="n">
-        <v>136.8438</v>
+        <v>44.1138</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G49" t="n">
-        <v>784665</v>
+        <v>19012</v>
       </c>
       <c r="H49" t="n">
-        <v>1447964</v>
+        <v>55785</v>
       </c>
       <c r="I49" t="n">
-        <v>5.8677</v>
+        <v>0.0372</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>156933</v>
+        <v>36610</v>
       </c>
       <c r="H50" t="n">
-        <v>285656</v>
+        <v>110682</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5835</v>
+        <v>1.3782</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>312.2499501315505</v>
+        <v>1659.5</v>
       </c>
       <c r="G51" t="n">
-        <v>470799</v>
+        <v>73220</v>
       </c>
       <c r="H51" t="n">
-        <v>870078</v>
+        <v>224873</v>
       </c>
       <c r="I51" t="n">
-        <v>10.5612</v>
+        <v>11.8307</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>11.6</v>
+        <v>253</v>
       </c>
       <c r="G52" t="n">
-        <v>1098531</v>
+        <v>45696</v>
       </c>
       <c r="H52" t="n">
-        <v>2032386</v>
+        <v>109671</v>
       </c>
       <c r="I52" t="n">
-        <v>5.7722</v>
+        <v>0.5595</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B53" t="n">
         <v>53</v>
@@ -2646,24 +2658,26 @@
         <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>154.4249671516788</v>
+        <v>83.3</v>
       </c>
       <c r="G53" t="n">
-        <v>313866</v>
+        <v>83846</v>
       </c>
       <c r="H53" t="n">
-        <v>579501</v>
+        <v>142303</v>
       </c>
       <c r="I53" t="n">
-        <v>1.1351</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J53" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K53" t="n">
         <v>12</v>
       </c>
@@ -2674,41 +2688,41 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>34.79999440044767</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G54" t="n">
-        <v>148050</v>
+        <v>209615</v>
       </c>
       <c r="H54" t="n">
-        <v>283143</v>
+        <v>357364</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8347</v>
+        <v>136.8438</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2717,19 +2731,19 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>20</v>
@@ -2738,20 +2752,20 @@
         <v>20</v>
       </c>
       <c r="F55" t="n">
-        <v>1775.199999963032</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>153972</v>
+        <v>784665</v>
       </c>
       <c r="H55" t="n">
-        <v>293934</v>
+        <v>1447964</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6929</v>
+        <v>5.8677</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2760,19 +2774,19 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B56" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
         <v>20</v>
@@ -2781,20 +2795,20 @@
         <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>1676.933333333334</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>177660</v>
+        <v>156933</v>
       </c>
       <c r="H56" t="n">
-        <v>337098</v>
+        <v>285656</v>
       </c>
       <c r="I56" t="n">
-        <v>0.753</v>
+        <v>0.5835</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2803,19 +2817,19 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
         <v>20</v>
@@ -2824,20 +2838,20 @@
         <v>20</v>
       </c>
       <c r="F57" t="n">
-        <v>26.99999602929075</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G57" t="n">
-        <v>94752</v>
+        <v>470799</v>
       </c>
       <c r="H57" t="n">
-        <v>278913</v>
+        <v>870078</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2439</v>
+        <v>10.5612</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2846,19 +2860,19 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D58" t="n">
         <v>20</v>
@@ -2867,20 +2881,20 @@
         <v>20</v>
       </c>
       <c r="F58" t="n">
-        <v>19.99999388246115</v>
+        <v>11.6</v>
       </c>
       <c r="G58" t="n">
-        <v>47376</v>
+        <v>1098531</v>
       </c>
       <c r="H58" t="n">
-        <v>191065</v>
+        <v>2032386</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1299</v>
+        <v>5.7722</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2889,16 +2903,16 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B59" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C59" t="n">
         <v>14</v>
@@ -2910,20 +2924,20 @@
         <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>795.6</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G59" t="n">
-        <v>82908</v>
+        <v>313866</v>
       </c>
       <c r="H59" t="n">
-        <v>193885</v>
+        <v>579501</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4943</v>
+        <v>1.1351</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2932,37 +2946,37 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B60" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C60" t="n">
         <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F60" t="n">
-        <v>514.8000000000001</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G60" t="n">
-        <v>22148</v>
+        <v>148050</v>
       </c>
       <c r="H60" t="n">
-        <v>46375</v>
+        <v>283143</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3576</v>
+        <v>0.8347</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -2975,37 +2989,37 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B61" t="n">
+        <v>26</v>
+      </c>
+      <c r="C61" t="n">
         <v>14</v>
       </c>
-      <c r="C61" t="n">
-        <v>7</v>
-      </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>204</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G61" t="n">
-        <v>11074</v>
+        <v>153972</v>
       </c>
       <c r="H61" t="n">
-        <v>22904</v>
+        <v>293934</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0224</v>
+        <v>0.6929</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
@@ -3018,37 +3032,37 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>394</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G62" t="n">
-        <v>38178</v>
+        <v>177660</v>
       </c>
       <c r="H62" t="n">
-        <v>58116</v>
+        <v>337098</v>
       </c>
       <c r="I62" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.753</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
@@ -3056,239 +3070,239 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
         <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>1578</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G63" t="n">
-        <v>52500</v>
+        <v>94752</v>
       </c>
       <c r="H63" t="n">
-        <v>92122</v>
+        <v>278913</v>
       </c>
       <c r="I63" t="n">
-        <v>6.5428</v>
+        <v>0.2439</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B64" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
         <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>1577.999992666665</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G64" t="n">
-        <v>57540</v>
+        <v>47376</v>
       </c>
       <c r="H64" t="n">
-        <v>100522</v>
+        <v>191065</v>
       </c>
       <c r="I64" t="n">
-        <v>2.1297</v>
+        <v>0.1299</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E65" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>3202</v>
+        <v>795.6</v>
       </c>
       <c r="G65" t="n">
-        <v>351288</v>
+        <v>82908</v>
       </c>
       <c r="H65" t="n">
-        <v>466643</v>
+        <v>193885</v>
       </c>
       <c r="I65" t="n">
-        <v>1.9582</v>
+        <v>0.4943</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>51</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>29274</v>
+        <v>22148</v>
       </c>
       <c r="H66" t="n">
-        <v>37158</v>
+        <v>46375</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0469</v>
+        <v>0.3576</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C67" t="n">
         <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G67" t="n">
-        <v>117096</v>
+        <v>11074</v>
       </c>
       <c r="H67" t="n">
-        <v>154821</v>
+        <v>22904</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2622</v>
+        <v>0.0224</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="B68" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
         <v>15</v>
@@ -3297,235 +3311,235 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>80.39999999999995</v>
+        <v>394</v>
       </c>
       <c r="G68" t="n">
-        <v>128790</v>
+        <v>38178</v>
       </c>
       <c r="H68" t="n">
-        <v>230986</v>
+        <v>58116</v>
       </c>
       <c r="I68" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J68" t="n">
-        <v>13</v>
-      </c>
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>16:59:47</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>798.3000000000002</v>
+        <v>1578</v>
       </c>
       <c r="G69" t="n">
-        <v>150255</v>
+        <v>52500</v>
       </c>
       <c r="H69" t="n">
-        <v>260064</v>
+        <v>92122</v>
       </c>
       <c r="I69" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J69" t="n">
-        <v>16</v>
-      </c>
+        <v>6.5428</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>15:40:32</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B70" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>991.6000000000008</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G70" t="n">
-        <v>176967</v>
+        <v>57540</v>
       </c>
       <c r="H70" t="n">
-        <v>310009</v>
+        <v>100522</v>
       </c>
       <c r="I70" t="n">
-        <v>18.2853</v>
-      </c>
-      <c r="J70" t="n">
-        <v>16</v>
-      </c>
+        <v>2.1297</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>15:25:32</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>70.88821601867676</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>13:15:26</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C71" t="n">
         <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F71" t="n">
-        <v>581.1349844453474</v>
+        <v>3202</v>
       </c>
       <c r="G71" t="n">
-        <v>726789</v>
+        <v>351288</v>
       </c>
       <c r="H71" t="n">
-        <v>1394725</v>
+        <v>466643</v>
       </c>
       <c r="I71" t="n">
-        <v>390.7028</v>
-      </c>
-      <c r="J71" t="n">
-        <v>19</v>
-      </c>
+        <v>1.9582</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>09:22:03</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>562.8080189228058</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B72" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F72" t="n">
-        <v>239.4799987045459</v>
+        <v>51</v>
       </c>
       <c r="G72" t="n">
-        <v>484526</v>
+        <v>29274</v>
       </c>
       <c r="H72" t="n">
-        <v>928511</v>
+        <v>37158</v>
       </c>
       <c r="I72" t="n">
-        <v>5.8352</v>
-      </c>
-      <c r="J72" t="n">
-        <v>19</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>09:03:29</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>112.8302147388458</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F73" t="n">
-        <v>370</v>
+        <v>192</v>
       </c>
       <c r="G73" t="n">
-        <v>34524</v>
+        <v>117096</v>
       </c>
       <c r="H73" t="n">
-        <v>60034</v>
+        <v>154821</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1695</v>
+        <v>0.2622</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3534,19 +3548,19 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B74" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
@@ -3555,200 +3569,210 @@
         <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>400</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G74" t="n">
-        <v>114660</v>
+        <v>128790</v>
       </c>
       <c r="H74" t="n">
-        <v>195602</v>
+        <v>230986</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1.0875</v>
+      </c>
+      <c r="J74" t="n">
+        <v>13</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
-        </is>
+          <t>20:52:46</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B75" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>60</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G75" t="n">
-        <v>30429</v>
+        <v>150255</v>
       </c>
       <c r="H75" t="n">
-        <v>28721</v>
+        <v>260064</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>404.4721</v>
+      </c>
+      <c r="J75" t="n">
+        <v>16</v>
+      </c>
+      <c r="K75" t="n">
+        <v>5</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>17:55:00</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G76" t="n">
-        <v>10143</v>
+        <v>176967</v>
       </c>
       <c r="H76" t="n">
-        <v>9575</v>
+        <v>310009</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J76" t="n">
+        <v>16</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>10:31:13</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B77" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F77" t="n">
-        <v>160</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G77" t="n">
-        <v>81144</v>
+        <v>726789</v>
       </c>
       <c r="H77" t="n">
-        <v>77690</v>
+        <v>1394725</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>10:11:51</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C78" t="n">
         <v>14</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F78" t="n">
-        <v>120</v>
+        <v>239.4799987045459</v>
       </c>
       <c r="G78" t="n">
-        <v>60858</v>
+        <v>484526</v>
       </c>
       <c r="H78" t="n">
-        <v>58151</v>
+        <v>928511</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>5.8352</v>
+      </c>
+      <c r="J78" t="n">
+        <v>19</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>10:08:08</t>
-        </is>
+          <t>09:03:29</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>112.8302147388458</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
         <v>14</v>
@@ -3760,39 +3784,41 @@
         <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="G79" t="n">
-        <v>46914</v>
+        <v>34524</v>
       </c>
       <c r="H79" t="n">
-        <v>45229</v>
+        <v>60034</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1723</v>
+        <v>0.1695</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
         <v>15</v>
@@ -3801,16 +3827,16 @@
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="G80" t="n">
-        <v>70371</v>
+        <v>114660</v>
       </c>
       <c r="H80" t="n">
-        <v>68161</v>
+        <v>195602</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2664</v>
+        <v>0.3841</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3821,19 +3847,19 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
         <v>15</v>
@@ -3842,16 +3868,16 @@
         <v>15</v>
       </c>
       <c r="F81" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G81" t="n">
-        <v>20286</v>
+        <v>30429</v>
       </c>
       <c r="H81" t="n">
-        <v>19385</v>
+        <v>28721</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0702</v>
+        <v>0.1367</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3862,19 +3888,19 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
         <v>15</v>
@@ -3883,39 +3909,39 @@
         <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>1194</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>101430</v>
+        <v>10143</v>
       </c>
       <c r="H82" t="n">
-        <v>97112</v>
+        <v>9575</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5688</v>
+        <v>0.0359</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
@@ -3924,39 +3950,39 @@
         <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>50715</v>
+        <v>81144</v>
       </c>
       <c r="H83" t="n">
-        <v>47867</v>
+        <v>77690</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2266</v>
+        <v>0.3027</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
         <v>15</v>
@@ -3965,180 +3991,180 @@
         <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>7950</v>
+        <v>120</v>
       </c>
       <c r="G84" t="n">
-        <v>202860</v>
+        <v>60858</v>
       </c>
       <c r="H84" t="n">
-        <v>195602</v>
+        <v>58151</v>
       </c>
       <c r="I84" t="n">
-        <v>1.3571</v>
+        <v>0.2167</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>41720</v>
+        <v>80</v>
       </c>
       <c r="G85" t="n">
-        <v>1173690</v>
+        <v>46914</v>
       </c>
       <c r="H85" t="n">
-        <v>1149317</v>
+        <v>45229</v>
       </c>
       <c r="I85" t="n">
-        <v>19.0623</v>
+        <v>0.1723</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G86" t="n">
-        <v>23415</v>
+        <v>70371</v>
       </c>
       <c r="H86" t="n">
-        <v>21917</v>
+        <v>68161</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0978</v>
+        <v>0.2664</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>17:20:01</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>14049</v>
+        <v>20286</v>
       </c>
       <c r="H87" t="n">
-        <v>13151</v>
+        <v>19385</v>
       </c>
       <c r="I87" t="n">
-        <v>0.06</v>
+        <v>0.0702</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>1194</v>
       </c>
       <c r="G88" t="n">
-        <v>10787</v>
+        <v>101430</v>
       </c>
       <c r="H88" t="n">
-        <v>10229</v>
+        <v>97112</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0394</v>
+        <v>0.5688</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4149,37 +4175,37 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
         <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G89" t="n">
-        <v>4683</v>
+        <v>50715</v>
       </c>
       <c r="H89" t="n">
-        <v>4385</v>
+        <v>47867</v>
       </c>
       <c r="I89" t="n">
-        <v>0.013</v>
+        <v>0.2266</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4190,37 +4216,37 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>60</v>
+        <v>7950</v>
       </c>
       <c r="G90" t="n">
-        <v>14049</v>
+        <v>202860</v>
       </c>
       <c r="H90" t="n">
-        <v>13373</v>
+        <v>195602</v>
       </c>
       <c r="I90" t="n">
-        <v>0.058</v>
+        <v>1.3571</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4231,37 +4257,37 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B91" t="n">
+        <v>15</v>
+      </c>
+      <c r="C91" t="n">
+        <v>42</v>
+      </c>
+      <c r="D91" t="n">
         <v>30</v>
       </c>
-      <c r="B91" t="n">
-        <v>9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>21</v>
-      </c>
-      <c r="D91" t="n">
-        <v>10</v>
-      </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
-        <v>932</v>
+        <v>41720</v>
       </c>
       <c r="G91" t="n">
-        <v>42147</v>
+        <v>1173690</v>
       </c>
       <c r="H91" t="n">
-        <v>40115</v>
+        <v>1149317</v>
       </c>
       <c r="I91" t="n">
-        <v>0.253</v>
+        <v>19.0623</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4272,95 +4298,95 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
         <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G92" t="n">
-        <v>988547</v>
+        <v>14049</v>
       </c>
       <c r="H92" t="n">
-        <v>951134</v>
+        <v>13151</v>
       </c>
       <c r="I92" t="n">
-        <v>4.1745</v>
+        <v>0.06</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B93" t="n">
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>54920</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>6919829</v>
+        <v>10787</v>
       </c>
       <c r="H93" t="n">
-        <v>6861710</v>
+        <v>10229</v>
       </c>
       <c r="I93" t="n">
-        <v>183.2784</v>
+        <v>0.0394</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -4369,145 +4395,145 @@
         <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>1053</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>424263</v>
+        <v>4683</v>
       </c>
       <c r="H94" t="n">
-        <v>407630</v>
+        <v>4385</v>
       </c>
       <c r="I94" t="n">
-        <v>1.5868</v>
+        <v>0.013</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>205171</v>
+        <v>60</v>
       </c>
       <c r="G95" t="n">
-        <v>2596356</v>
+        <v>14049</v>
       </c>
       <c r="H95" t="n">
-        <v>5051654</v>
+        <v>13373</v>
       </c>
       <c r="I95" t="n">
-        <v>12.0275</v>
+        <v>0.058</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C96" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D96" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>12200</v>
+        <v>932</v>
       </c>
       <c r="G96" t="n">
-        <v>865452</v>
+        <v>42147</v>
       </c>
       <c r="H96" t="n">
-        <v>1674182</v>
+        <v>40115</v>
       </c>
       <c r="I96" t="n">
-        <v>2.4971</v>
+        <v>0.253</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>2519</v>
+        <v>41</v>
       </c>
       <c r="G97" t="n">
-        <v>11172</v>
+        <v>988547</v>
       </c>
       <c r="H97" t="n">
-        <v>17867</v>
+        <v>951134</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0343</v>
+        <v>4.1745</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4518,37 +4544,37 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F98" t="n">
-        <v>2788</v>
+        <v>54920</v>
       </c>
       <c r="G98" t="n">
-        <v>13167</v>
+        <v>6919829</v>
       </c>
       <c r="H98" t="n">
-        <v>21077</v>
+        <v>6861710</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0473</v>
+        <v>183.2784</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4559,37 +4585,37 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B99" t="n">
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F99" t="n">
-        <v>2272</v>
+        <v>1053</v>
       </c>
       <c r="G99" t="n">
-        <v>9177</v>
+        <v>424263</v>
       </c>
       <c r="H99" t="n">
-        <v>14657</v>
+        <v>407630</v>
       </c>
       <c r="I99" t="n">
-        <v>0.027</v>
+        <v>1.5868</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4600,37 +4626,37 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>2191</v>
+        <v>205171</v>
       </c>
       <c r="G100" t="n">
-        <v>5187</v>
+        <v>2596356</v>
       </c>
       <c r="H100" t="n">
-        <v>8237</v>
+        <v>5051654</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0143</v>
+        <v>12.0275</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4641,37 +4667,37 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B101" t="n">
         <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>171</v>
+        <v>12200</v>
       </c>
       <c r="G101" t="n">
-        <v>1197</v>
+        <v>865452</v>
       </c>
       <c r="H101" t="n">
-        <v>1817</v>
+        <v>1674182</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0024</v>
+        <v>2.4971</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4682,19 +4708,19 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
@@ -4703,78 +4729,80 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>21</v>
+        <v>2519</v>
       </c>
       <c r="G102" t="n">
-        <v>858</v>
+        <v>11172</v>
       </c>
       <c r="H102" t="n">
-        <v>1212</v>
+        <v>17867</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0022</v>
+        <v>0.0343</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>11</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2788</v>
+      </c>
       <c r="G103" t="n">
-        <v>348</v>
+        <v>13167</v>
       </c>
       <c r="H103" t="n">
-        <v>282</v>
+        <v>21077</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0001</v>
+        <v>0.0473</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -4782,38 +4810,40 @@
       <c r="E104" t="n">
         <v>10</v>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>2272</v>
+      </c>
       <c r="G104" t="n">
-        <v>8008</v>
+        <v>9177</v>
       </c>
       <c r="H104" t="n">
-        <v>11912</v>
+        <v>14657</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0174</v>
+        <v>0.027</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
@@ -4821,38 +4851,40 @@
       <c r="E105" t="n">
         <v>10</v>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>2191</v>
+      </c>
       <c r="G105" t="n">
-        <v>572</v>
+        <v>5187</v>
       </c>
       <c r="H105" t="n">
-        <v>784</v>
+        <v>8237</v>
       </c>
       <c r="I105" t="n">
-        <v>0.001</v>
+        <v>0.0143</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -4860,38 +4892,40 @@
       <c r="E106" t="n">
         <v>10</v>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>171</v>
+      </c>
       <c r="G106" t="n">
-        <v>286</v>
+        <v>1197</v>
       </c>
       <c r="H106" t="n">
-        <v>356</v>
+        <v>1817</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0001</v>
+        <v>0.0024</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B107" t="n">
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
         <v>10</v>
@@ -4899,77 +4933,79 @@
       <c r="E107" t="n">
         <v>10</v>
       </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>21</v>
+      </c>
       <c r="G107" t="n">
-        <v>1430</v>
+        <v>858</v>
       </c>
       <c r="H107" t="n">
-        <v>2068</v>
+        <v>1212</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0029</v>
+        <v>0.0022</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B108" t="n">
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>1144</v>
+        <v>348</v>
       </c>
       <c r="H108" t="n">
-        <v>1640</v>
+        <v>282</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0028</v>
+        <v>0.0001</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D109" t="n">
         <v>10</v>
@@ -4979,13 +5015,13 @@
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>3990</v>
+        <v>8008</v>
       </c>
       <c r="H109" t="n">
-        <v>6200</v>
+        <v>11912</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0072</v>
+        <v>0.0174</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4996,19 +5032,19 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B110" t="n">
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -5018,13 +5054,13 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>2860</v>
+        <v>572</v>
       </c>
       <c r="H110" t="n">
-        <v>4120</v>
+        <v>784</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0119</v>
+        <v>0.001</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5035,19 +5071,19 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5057,13 +5093,13 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>6250</v>
+        <v>286</v>
       </c>
       <c r="H111" t="n">
-        <v>10697</v>
+        <v>356</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0162</v>
+        <v>0.0001</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5074,19 +5110,19 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B112" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -5096,13 +5132,13 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>14230</v>
+        <v>1430</v>
       </c>
       <c r="H112" t="n">
-        <v>23531</v>
+        <v>2068</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0366</v>
+        <v>0.0029</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5113,19 +5149,19 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
         <v>10</v>
@@ -5135,13 +5171,13 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>7115</v>
+        <v>1144</v>
       </c>
       <c r="H113" t="n">
-        <v>11761</v>
+        <v>1640</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0116</v>
+        <v>0.0028</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -5152,16 +5188,16 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B114" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
         <v>5</v>
@@ -5174,13 +5210,13 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>5685</v>
+        <v>3990</v>
       </c>
       <c r="H114" t="n">
-        <v>9623</v>
+        <v>6200</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0098</v>
+        <v>0.0072</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5191,60 +5227,58 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>15</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>46032</v>
+        <v>2860</v>
       </c>
       <c r="H115" t="n">
-        <v>80278</v>
+        <v>4120</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2189</v>
+        <v>0.0119</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
         <v>10</v>
@@ -5254,32 +5288,36 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H116" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I116" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0162</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
         <v>10</v>
@@ -5289,32 +5327,36 @@
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>3125</v>
+        <v>14230</v>
       </c>
       <c r="H117" t="n">
-        <v>5347</v>
+        <v>23531</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0064</v>
+        <v>0.0366</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -5324,25 +5366,33 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>11370</v>
+        <v>7115</v>
       </c>
       <c r="H118" t="n">
-        <v>19253</v>
+        <v>11761</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0334</v>
+        <v>0.0116</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C119" t="n">
         <v>5</v>
@@ -5355,18 +5405,199 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H119" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0071</v>
+        <v>0.0098</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="n">
+        <v>14</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
+        <v>15</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3338</v>
+      </c>
+      <c r="G120" t="n">
+        <v>46032</v>
+      </c>
+      <c r="H120" t="n">
+        <v>80278</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>5685</v>
+      </c>
+      <c r="H121" t="n">
+        <v>9623</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>10</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H123" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H124" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -445,19 +445,19 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>455.9000000000002</v>
+        <v>538.8000000000004</v>
       </c>
       <c r="G2" t="n">
         <v>137130</v>
       </c>
       <c r="H2" t="n">
-        <v>263923</v>
+        <v>256923</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2147</v>
+        <v>4.7325</v>
       </c>
       <c r="J2" t="n">
-        <v>125.785080909729</v>
+        <v>283.3506486415863</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16:01:15</t>
+          <t>17:23:42</t>
         </is>
       </c>
     </row>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>15</v>
@@ -439,29 +439,29 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>538.8000000000004</v>
+        <v>2866.099999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>137130</v>
+        <v>171150</v>
       </c>
       <c r="H2" t="n">
-        <v>256923</v>
+        <v>322773</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7325</v>
+        <v>1.8062</v>
       </c>
       <c r="J2" t="n">
-        <v>283.3506486415863</v>
+        <v>140.6541011333466</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:23:42</t>
+          <t>10:06:45</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B26" t="n">
         <v>15</v>
@@ -1475,28 +1475,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>265.4000000000001</v>
+        <v>1481.05</v>
       </c>
       <c r="G26" t="n">
-        <v>72450</v>
+        <v>137130</v>
       </c>
       <c r="H26" t="n">
-        <v>135305</v>
+        <v>256923</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6791</v>
+        <v>0.9375</v>
       </c>
       <c r="J26" t="n">
-        <v>51.79183006286621</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1505,40 +1505,40 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C27" t="n">
         <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>302.6600000000017</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G27" t="n">
-        <v>64890</v>
+        <v>484526</v>
       </c>
       <c r="H27" t="n">
-        <v>120487</v>
+        <v>907193</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6408</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>36.27230906486511</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K27" t="n">
         <v>20</v>
@@ -1550,13 +1550,13 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B28" t="n">
         <v>15</v>
@@ -1565,25 +1565,25 @@
         <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>230.5100000000003</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>33390</v>
+        <v>72450</v>
       </c>
       <c r="H28" t="n">
-        <v>59357</v>
+        <v>135305</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1474</v>
+        <v>1.6791</v>
       </c>
       <c r="J28" t="n">
-        <v>18.94928789138794</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K28" t="n">
         <v>20</v>
@@ -1595,13 +1595,13 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B29" t="n">
         <v>15</v>
@@ -1610,25 +1610,25 @@
         <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>203.5600000000005</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G29" t="n">
-        <v>28350</v>
+        <v>64890</v>
       </c>
       <c r="H29" t="n">
-        <v>49723</v>
+        <v>120487</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0807</v>
+        <v>1.6408</v>
       </c>
       <c r="J29" t="n">
-        <v>16.81134915351868</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K29" t="n">
         <v>20</v>
@@ -1640,40 +1640,40 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B30" t="n">
         <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>12.7</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G30" t="n">
-        <v>11865</v>
+        <v>33390</v>
       </c>
       <c r="H30" t="n">
-        <v>20427</v>
+        <v>59357</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0203</v>
+        <v>1.1474</v>
       </c>
       <c r="J30" t="n">
-        <v>1.177000284194946</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K30" t="n">
         <v>20</v>
@@ -1685,40 +1685,40 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>35.70000000000001</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G31" t="n">
-        <v>41923</v>
+        <v>28350</v>
       </c>
       <c r="H31" t="n">
-        <v>71749</v>
+        <v>49723</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0829</v>
+        <v>1.0807</v>
       </c>
       <c r="J31" t="n">
-        <v>6.332224130630493</v>
+        <v>16.81134915351868</v>
       </c>
       <c r="K31" t="n">
         <v>20</v>
@@ -1730,40 +1730,40 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>840.5064285714258</v>
+        <v>12.7</v>
       </c>
       <c r="G32" t="n">
-        <v>100170</v>
+        <v>11865</v>
       </c>
       <c r="H32" t="n">
-        <v>174727</v>
+        <v>20427</v>
       </c>
       <c r="I32" t="n">
-        <v>239.0865</v>
+        <v>0.0203</v>
       </c>
       <c r="J32" t="n">
-        <v>315.8266220092773</v>
+        <v>1.177000284194946</v>
       </c>
       <c r="K32" t="n">
         <v>20</v>
@@ -1775,13 +1775,13 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B33" t="n">
         <v>53</v>
@@ -1790,25 +1790,25 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>34.7</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>50085</v>
+        <v>41923</v>
       </c>
       <c r="H33" t="n">
-        <v>86863</v>
+        <v>71749</v>
       </c>
       <c r="I33" t="n">
-        <v>0.107</v>
+        <v>0.0829</v>
       </c>
       <c r="J33" t="n">
-        <v>7.774892807006836</v>
+        <v>6.332224130630493</v>
       </c>
       <c r="K33" t="n">
         <v>20</v>
@@ -1820,123 +1820,127 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B34" t="n">
+        <v>53</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" t="n">
         <v>11</v>
       </c>
-      <c r="C34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D34" t="n">
-        <v>15</v>
-      </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>7.999999999999999</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G34" t="n">
-        <v>18711</v>
+        <v>100170</v>
       </c>
       <c r="H34" t="n">
-        <v>55167</v>
+        <v>174727</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>239.0865</v>
+      </c>
+      <c r="J34" t="n">
+        <v>315.8266220092773</v>
+      </c>
       <c r="K34" t="n">
         <v>20</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>32.66666666666667</v>
+        <v>34.7</v>
       </c>
       <c r="G35" t="n">
-        <v>50281</v>
+        <v>50085</v>
       </c>
       <c r="H35" t="n">
-        <v>155342</v>
+        <v>86863</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K35" t="n">
         <v>20</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>3.999999999999999</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>32382</v>
+        <v>18711</v>
       </c>
       <c r="H36" t="n">
-        <v>153575</v>
+        <v>55167</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1282</v>
+        <v>0.0654</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -1949,16 +1953,16 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B37" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
@@ -1970,82 +1974,78 @@
         <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>35.70000000000003</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>242263</v>
+        <v>50281</v>
       </c>
       <c r="H37" t="n">
-        <v>462297</v>
+        <v>155342</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5239</v>
-      </c>
-      <c r="J37" t="n">
-        <v>64.54806518554688</v>
-      </c>
+        <v>0.1682</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B38" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>812.130000000004</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>180306</v>
+        <v>32382</v>
       </c>
       <c r="H38" t="n">
-        <v>323519</v>
+        <v>153575</v>
       </c>
       <c r="I38" t="n">
-        <v>12.3114</v>
-      </c>
-      <c r="J38" t="n">
-        <v>78.16917204856873</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B39" t="n">
         <v>53</v>
@@ -2054,28 +2054,28 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F39" t="n">
-        <v>40.70000000000001</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G39" t="n">
-        <v>90153</v>
+        <v>242263</v>
       </c>
       <c r="H39" t="n">
-        <v>161308</v>
+        <v>462297</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4574</v>
+        <v>0.5239</v>
       </c>
       <c r="J39" t="n">
-        <v>33.15888476371765</v>
+        <v>64.54806518554688</v>
       </c>
       <c r="K39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2084,102 +2084,106 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C40" t="n">
         <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>240.6554934823091</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G40" t="n">
-        <v>101164</v>
+        <v>180306</v>
       </c>
       <c r="H40" t="n">
-        <v>317602</v>
+        <v>323519</v>
       </c>
       <c r="I40" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J40" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K40" t="n">
         <v>18</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B41" t="n">
+        <v>53</v>
+      </c>
+      <c r="C41" t="n">
         <v>7</v>
       </c>
-      <c r="C41" t="n">
-        <v>14</v>
-      </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>16</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>64764</v>
+        <v>90153</v>
       </c>
       <c r="H41" t="n">
-        <v>314970</v>
+        <v>161308</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J41" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K41" t="n">
         <v>18</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>14</v>
@@ -2191,16 +2195,16 @@
         <v>25</v>
       </c>
       <c r="F42" t="n">
-        <v>2419.333333333333</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G42" t="n">
-        <v>173964</v>
+        <v>101164</v>
       </c>
       <c r="H42" t="n">
-        <v>322866</v>
+        <v>317602</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4497</v>
+        <v>0.487</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
@@ -2213,19 +2217,19 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
         <v>25</v>
@@ -2234,16 +2238,16 @@
         <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>602</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
-        <v>86982</v>
+        <v>64764</v>
       </c>
       <c r="H43" t="n">
-        <v>171967</v>
+        <v>314970</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2673</v>
+        <v>0.2711</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -2256,19 +2260,19 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
         <v>25</v>
@@ -2277,16 +2281,16 @@
         <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>38</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>73332</v>
+        <v>173964</v>
       </c>
       <c r="H44" t="n">
-        <v>167389</v>
+        <v>322866</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1522</v>
+        <v>0.4497</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
@@ -2299,19 +2303,19 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
         <v>25</v>
@@ -2320,16 +2324,16 @@
         <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>13395</v>
+        <v>602</v>
       </c>
       <c r="G45" t="n">
-        <v>293328</v>
+        <v>86982</v>
       </c>
       <c r="H45" t="n">
-        <v>684598</v>
+        <v>171967</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7488</v>
+        <v>0.2673</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
@@ -2342,19 +2346,19 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" t="n">
         <v>7</v>
-      </c>
-      <c r="C46" t="n">
-        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>25</v>
@@ -2363,16 +2367,16 @@
         <v>25</v>
       </c>
       <c r="F46" t="n">
-        <v>45.00000000000001</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
-        <v>129528</v>
+        <v>73332</v>
       </c>
       <c r="H46" t="n">
-        <v>640400</v>
+        <v>167389</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3063</v>
+        <v>0.1522</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
@@ -2385,41 +2389,41 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>13395</v>
       </c>
       <c r="G47" t="n">
-        <v>12292</v>
+        <v>293328</v>
       </c>
       <c r="H47" t="n">
-        <v>54509</v>
+        <v>684598</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0383</v>
+        <v>2.7488</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2428,13 +2432,13 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B48" t="n">
         <v>7</v>
@@ -2443,26 +2447,26 @@
         <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F48" t="n">
-        <v>1804.999934139618</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>76048</v>
+        <v>129528</v>
       </c>
       <c r="H48" t="n">
-        <v>229623</v>
+        <v>640400</v>
       </c>
       <c r="I48" t="n">
-        <v>44.1138</v>
+        <v>1.3063</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2471,16 +2475,16 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
         <v>7</v>
@@ -2492,16 +2496,16 @@
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G49" t="n">
-        <v>19012</v>
+        <v>12292</v>
       </c>
       <c r="H49" t="n">
-        <v>55785</v>
+        <v>54509</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0372</v>
+        <v>0.0383</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -2514,19 +2518,19 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>15</v>
@@ -2535,20 +2539,20 @@
         <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>190.0000000000001</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G50" t="n">
-        <v>36610</v>
+        <v>76048</v>
       </c>
       <c r="H50" t="n">
-        <v>110682</v>
+        <v>229623</v>
       </c>
       <c r="I50" t="n">
-        <v>1.3782</v>
+        <v>44.1138</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2557,19 +2561,19 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>15</v>
@@ -2578,20 +2582,20 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>1659.5</v>
+        <v>36</v>
       </c>
       <c r="G51" t="n">
-        <v>73220</v>
+        <v>19012</v>
       </c>
       <c r="H51" t="n">
-        <v>224873</v>
+        <v>55785</v>
       </c>
       <c r="I51" t="n">
-        <v>11.8307</v>
+        <v>0.0372</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2600,16 +2604,16 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
         <v>14</v>
@@ -2621,20 +2625,20 @@
         <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>253</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>45696</v>
+        <v>36610</v>
       </c>
       <c r="H52" t="n">
-        <v>109671</v>
+        <v>110682</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5595</v>
+        <v>1.3782</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2643,127 +2647,127 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>83.3</v>
+        <v>1659.5</v>
       </c>
       <c r="G53" t="n">
-        <v>83846</v>
+        <v>73220</v>
       </c>
       <c r="H53" t="n">
-        <v>142303</v>
+        <v>224873</v>
       </c>
       <c r="I53" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J53" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>11.8307</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B54" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>351.5332879941108</v>
+        <v>253</v>
       </c>
       <c r="G54" t="n">
-        <v>209615</v>
+        <v>45696</v>
       </c>
       <c r="H54" t="n">
-        <v>357364</v>
+        <v>109671</v>
       </c>
       <c r="I54" t="n">
-        <v>136.8438</v>
+        <v>0.5595</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B55" t="n">
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="G55" t="n">
-        <v>784665</v>
+        <v>83846</v>
       </c>
       <c r="H55" t="n">
-        <v>1447964</v>
+        <v>142303</v>
       </c>
       <c r="I55" t="n">
-        <v>5.8677</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K55" t="n">
         <v>12</v>
       </c>
@@ -2774,37 +2778,37 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" t="n">
         <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G56" t="n">
-        <v>156933</v>
+        <v>209615</v>
       </c>
       <c r="H56" t="n">
-        <v>285656</v>
+        <v>357364</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5835</v>
+        <v>136.8438</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -2817,19 +2821,19 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B57" t="n">
         <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>20</v>
@@ -2838,16 +2842,16 @@
         <v>20</v>
       </c>
       <c r="F57" t="n">
-        <v>312.2499501315505</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>470799</v>
+        <v>784665</v>
       </c>
       <c r="H57" t="n">
-        <v>870078</v>
+        <v>1447964</v>
       </c>
       <c r="I57" t="n">
-        <v>10.5612</v>
+        <v>5.8677</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -2860,19 +2864,19 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" t="n">
         <v>53</v>
       </c>
       <c r="C58" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>20</v>
@@ -2881,16 +2885,16 @@
         <v>20</v>
       </c>
       <c r="F58" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1098531</v>
+        <v>156933</v>
       </c>
       <c r="H58" t="n">
-        <v>2032386</v>
+        <v>285656</v>
       </c>
       <c r="I58" t="n">
-        <v>5.7722</v>
+        <v>0.5835</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -2903,19 +2907,19 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" t="n">
         <v>53</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D59" t="n">
         <v>20</v>
@@ -2924,16 +2928,16 @@
         <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>154.4249671516788</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G59" t="n">
-        <v>313866</v>
+        <v>470799</v>
       </c>
       <c r="H59" t="n">
-        <v>579501</v>
+        <v>870078</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1351</v>
+        <v>10.5612</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -2946,19 +2950,19 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D60" t="n">
         <v>20</v>
@@ -2967,20 +2971,20 @@
         <v>20</v>
       </c>
       <c r="F60" t="n">
-        <v>34.79999440044767</v>
+        <v>11.6</v>
       </c>
       <c r="G60" t="n">
-        <v>148050</v>
+        <v>1098531</v>
       </c>
       <c r="H60" t="n">
-        <v>283143</v>
+        <v>2032386</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8347</v>
+        <v>5.7722</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2989,16 +2993,16 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C61" t="n">
         <v>14</v>
@@ -3010,20 +3014,20 @@
         <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>1775.199999963032</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G61" t="n">
-        <v>153972</v>
+        <v>313866</v>
       </c>
       <c r="H61" t="n">
-        <v>293934</v>
+        <v>579501</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6929</v>
+        <v>1.1351</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3032,16 +3036,16 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C62" t="n">
         <v>14</v>
@@ -3053,16 +3057,16 @@
         <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>1676.933333333334</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G62" t="n">
-        <v>177660</v>
+        <v>148050</v>
       </c>
       <c r="H62" t="n">
-        <v>337098</v>
+        <v>283143</v>
       </c>
       <c r="I62" t="n">
-        <v>0.753</v>
+        <v>0.8347</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
@@ -3075,16 +3079,16 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C63" t="n">
         <v>14</v>
@@ -3096,16 +3100,16 @@
         <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>26.99999602929075</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G63" t="n">
-        <v>94752</v>
+        <v>153972</v>
       </c>
       <c r="H63" t="n">
-        <v>278913</v>
+        <v>293934</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2439</v>
+        <v>0.6929</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -3118,16 +3122,16 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>14</v>
@@ -3139,16 +3143,16 @@
         <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>19.99999388246115</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G64" t="n">
-        <v>47376</v>
+        <v>177660</v>
       </c>
       <c r="H64" t="n">
-        <v>191065</v>
+        <v>337098</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1299</v>
+        <v>0.753</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -3161,16 +3165,16 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
         <v>14</v>
@@ -3182,16 +3186,16 @@
         <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>795.6</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G65" t="n">
-        <v>82908</v>
+        <v>94752</v>
       </c>
       <c r="H65" t="n">
-        <v>193885</v>
+        <v>278913</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4943</v>
+        <v>0.2439</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
@@ -3204,37 +3208,37 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
         <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>514.8000000000001</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G66" t="n">
-        <v>22148</v>
+        <v>47376</v>
       </c>
       <c r="H66" t="n">
-        <v>46375</v>
+        <v>191065</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3576</v>
+        <v>0.1299</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
@@ -3247,37 +3251,37 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" t="n">
         <v>14</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F67" t="n">
-        <v>204</v>
+        <v>795.6</v>
       </c>
       <c r="G67" t="n">
-        <v>11074</v>
+        <v>82908</v>
       </c>
       <c r="H67" t="n">
-        <v>22904</v>
+        <v>193885</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0224</v>
+        <v>0.4943</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
@@ -3290,37 +3294,37 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B68" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>394</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>38178</v>
+        <v>22148</v>
       </c>
       <c r="H68" t="n">
-        <v>58116</v>
+        <v>46375</v>
       </c>
       <c r="I68" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.3576</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
@@ -3328,67 +3332,67 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>1578</v>
+        <v>204</v>
       </c>
       <c r="G69" t="n">
-        <v>52500</v>
+        <v>11074</v>
       </c>
       <c r="H69" t="n">
-        <v>92122</v>
+        <v>22904</v>
       </c>
       <c r="I69" t="n">
-        <v>6.5428</v>
+        <v>0.0224</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" t="n">
         <v>15</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
         <v>15</v>
@@ -3397,20 +3401,20 @@
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>1577.999992666665</v>
+        <v>394</v>
       </c>
       <c r="G70" t="n">
-        <v>57540</v>
+        <v>38178</v>
       </c>
       <c r="H70" t="n">
-        <v>100522</v>
+        <v>58116</v>
       </c>
       <c r="I70" t="n">
-        <v>2.1297</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3419,37 +3423,37 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D71" t="n">
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>3202</v>
+        <v>1578</v>
       </c>
       <c r="G71" t="n">
-        <v>351288</v>
+        <v>52500</v>
       </c>
       <c r="H71" t="n">
-        <v>466643</v>
+        <v>92122</v>
       </c>
       <c r="I71" t="n">
-        <v>1.9582</v>
+        <v>6.5428</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
@@ -3462,37 +3466,37 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>51</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G72" t="n">
-        <v>29274</v>
+        <v>57540</v>
       </c>
       <c r="H72" t="n">
-        <v>37158</v>
+        <v>100522</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0469</v>
+        <v>2.1297</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
@@ -3505,19 +3509,19 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B73" t="n">
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D73" t="n">
         <v>15</v>
@@ -3526,16 +3530,16 @@
         <v>50</v>
       </c>
       <c r="F73" t="n">
-        <v>192</v>
+        <v>3202</v>
       </c>
       <c r="G73" t="n">
-        <v>117096</v>
+        <v>351288</v>
       </c>
       <c r="H73" t="n">
-        <v>154821</v>
+        <v>466643</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2622</v>
+        <v>1.9582</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
@@ -3548,142 +3552,142 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B74" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F74" t="n">
-        <v>80.39999999999995</v>
+        <v>51</v>
       </c>
       <c r="G74" t="n">
-        <v>128790</v>
+        <v>29274</v>
       </c>
       <c r="H74" t="n">
-        <v>230986</v>
+        <v>37158</v>
       </c>
       <c r="I74" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J74" t="n">
-        <v>13</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B75" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F75" t="n">
-        <v>798.3000000000002</v>
+        <v>192</v>
       </c>
       <c r="G75" t="n">
-        <v>150255</v>
+        <v>117096</v>
       </c>
       <c r="H75" t="n">
-        <v>260064</v>
+        <v>154821</v>
       </c>
       <c r="I75" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J75" t="n">
-        <v>16</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n">
         <v>53</v>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>991.6000000000008</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G76" t="n">
-        <v>176967</v>
+        <v>128790</v>
       </c>
       <c r="H76" t="n">
-        <v>310009</v>
+        <v>230986</v>
       </c>
       <c r="I76" t="n">
-        <v>18.2853</v>
+        <v>1.0875</v>
       </c>
       <c r="J76" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K76" t="n">
         <v>5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>15:25:32</t>
+          <t>20:52:46</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>70.88821601867676</v>
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B77" t="n">
         <v>53</v>
@@ -3692,133 +3696,133 @@
         <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>581.1349844453474</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G77" t="n">
-        <v>726789</v>
+        <v>150255</v>
       </c>
       <c r="H77" t="n">
-        <v>1394725</v>
+        <v>260064</v>
       </c>
       <c r="I77" t="n">
-        <v>390.7028</v>
+        <v>404.4721</v>
       </c>
       <c r="J77" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K77" t="n">
         <v>5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>09:22:03</t>
+          <t>17:55:00</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>562.8080189228058</v>
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B78" t="n">
         <v>53</v>
       </c>
       <c r="C78" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F78" t="n">
-        <v>239.4799987045459</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G78" t="n">
-        <v>484526</v>
+        <v>176967</v>
       </c>
       <c r="H78" t="n">
-        <v>928511</v>
+        <v>310009</v>
       </c>
       <c r="I78" t="n">
-        <v>5.8352</v>
+        <v>18.2853</v>
       </c>
       <c r="J78" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K78" t="n">
         <v>5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>09:03:29</t>
+          <t>15:25:32</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>112.8302147388458</v>
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C79" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D79" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F79" t="n">
-        <v>370</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G79" t="n">
-        <v>34524</v>
+        <v>726789</v>
       </c>
       <c r="H79" t="n">
-        <v>60034</v>
+        <v>1394725</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J79" t="n">
+        <v>19</v>
+      </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B80" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D80" t="n">
         <v>15</v>
@@ -3827,39 +3831,41 @@
         <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="G80" t="n">
-        <v>114660</v>
+        <v>34524</v>
       </c>
       <c r="H80" t="n">
-        <v>195602</v>
+        <v>60034</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3841</v>
+        <v>0.1695</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15:56:14</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D81" t="n">
         <v>15</v>
@@ -3868,16 +3874,16 @@
         <v>15</v>
       </c>
       <c r="F81" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="G81" t="n">
-        <v>30429</v>
+        <v>114660</v>
       </c>
       <c r="H81" t="n">
-        <v>28721</v>
+        <v>195602</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1367</v>
+        <v>0.3841</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3888,16 +3894,16 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C82" t="n">
         <v>7</v>
@@ -3909,16 +3915,16 @@
         <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G82" t="n">
-        <v>10143</v>
+        <v>30429</v>
       </c>
       <c r="H82" t="n">
-        <v>9575</v>
+        <v>28721</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0359</v>
+        <v>0.1367</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3929,19 +3935,19 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
@@ -3950,16 +3956,16 @@
         <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>81144</v>
+        <v>10143</v>
       </c>
       <c r="H83" t="n">
-        <v>77690</v>
+        <v>9575</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3027</v>
+        <v>0.0359</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3970,16 +3976,16 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
         <v>14</v>
@@ -3991,16 +3997,16 @@
         <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
-        <v>60858</v>
+        <v>81144</v>
       </c>
       <c r="H84" t="n">
-        <v>58151</v>
+        <v>77690</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2167</v>
+        <v>0.3027</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -4011,16 +4017,16 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
         <v>14</v>
@@ -4032,16 +4038,16 @@
         <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G85" t="n">
-        <v>46914</v>
+        <v>60858</v>
       </c>
       <c r="H85" t="n">
-        <v>45229</v>
+        <v>58151</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1723</v>
+        <v>0.2167</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4052,19 +4058,19 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B86" t="n">
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -4073,16 +4079,16 @@
         <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G86" t="n">
-        <v>70371</v>
+        <v>46914</v>
       </c>
       <c r="H86" t="n">
-        <v>68161</v>
+        <v>45229</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2664</v>
+        <v>0.1723</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -4093,19 +4099,19 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
         <v>15</v>
@@ -4114,16 +4120,16 @@
         <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G87" t="n">
-        <v>20286</v>
+        <v>70371</v>
       </c>
       <c r="H87" t="n">
-        <v>19385</v>
+        <v>68161</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0702</v>
+        <v>0.2664</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4134,16 +4140,16 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B88" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>14</v>
@@ -4155,39 +4161,39 @@
         <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>1194</v>
+        <v>40</v>
       </c>
       <c r="G88" t="n">
-        <v>101430</v>
+        <v>20286</v>
       </c>
       <c r="H88" t="n">
-        <v>97112</v>
+        <v>19385</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5688</v>
+        <v>0.0702</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89" t="n">
         <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
         <v>15</v>
@@ -4196,16 +4202,16 @@
         <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>124</v>
+        <v>1194</v>
       </c>
       <c r="G89" t="n">
-        <v>50715</v>
+        <v>101430</v>
       </c>
       <c r="H89" t="n">
-        <v>47867</v>
+        <v>97112</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2266</v>
+        <v>0.5688</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4216,19 +4222,19 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B90" t="n">
         <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
         <v>15</v>
@@ -4237,16 +4243,16 @@
         <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>7950</v>
+        <v>124</v>
       </c>
       <c r="G90" t="n">
-        <v>202860</v>
+        <v>50715</v>
       </c>
       <c r="H90" t="n">
-        <v>195602</v>
+        <v>47867</v>
       </c>
       <c r="I90" t="n">
-        <v>1.3571</v>
+        <v>0.2266</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4257,37 +4263,37 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B91" t="n">
         <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>41720</v>
+        <v>7950</v>
       </c>
       <c r="G91" t="n">
-        <v>1173690</v>
+        <v>202860</v>
       </c>
       <c r="H91" t="n">
-        <v>1149317</v>
+        <v>195602</v>
       </c>
       <c r="I91" t="n">
-        <v>19.0623</v>
+        <v>1.3571</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4298,37 +4304,37 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F92" t="n">
-        <v>60</v>
+        <v>41720</v>
       </c>
       <c r="G92" t="n">
-        <v>14049</v>
+        <v>1173690</v>
       </c>
       <c r="H92" t="n">
-        <v>13151</v>
+        <v>1149317</v>
       </c>
       <c r="I92" t="n">
-        <v>0.06</v>
+        <v>19.0623</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4339,16 +4345,16 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
         <v>7</v>
@@ -4360,16 +4366,16 @@
         <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G93" t="n">
-        <v>10787</v>
+        <v>14049</v>
       </c>
       <c r="H93" t="n">
-        <v>10229</v>
+        <v>13151</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0394</v>
+        <v>0.06</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4380,16 +4386,16 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
         <v>7</v>
@@ -4404,13 +4410,13 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>4683</v>
+        <v>10787</v>
       </c>
       <c r="H94" t="n">
-        <v>4385</v>
+        <v>10229</v>
       </c>
       <c r="I94" t="n">
-        <v>0.013</v>
+        <v>0.0394</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4421,19 +4427,19 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
@@ -4442,16 +4448,16 @@
         <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G95" t="n">
-        <v>14049</v>
+        <v>4683</v>
       </c>
       <c r="H95" t="n">
-        <v>13373</v>
+        <v>4385</v>
       </c>
       <c r="I95" t="n">
-        <v>0.058</v>
+        <v>0.013</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4462,16 +4468,16 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
         <v>21</v>
@@ -4483,16 +4489,16 @@
         <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="G96" t="n">
-        <v>42147</v>
+        <v>14049</v>
       </c>
       <c r="H96" t="n">
-        <v>40115</v>
+        <v>13373</v>
       </c>
       <c r="I96" t="n">
-        <v>0.253</v>
+        <v>0.058</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4503,60 +4509,60 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D97" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>41</v>
+        <v>932</v>
       </c>
       <c r="G97" t="n">
-        <v>988547</v>
+        <v>42147</v>
       </c>
       <c r="H97" t="n">
-        <v>951134</v>
+        <v>40115</v>
       </c>
       <c r="I97" t="n">
-        <v>4.1745</v>
+        <v>0.253</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B98" t="n">
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
         <v>100</v>
@@ -4565,16 +4571,16 @@
         <v>100</v>
       </c>
       <c r="F98" t="n">
-        <v>54920</v>
+        <v>41</v>
       </c>
       <c r="G98" t="n">
-        <v>6919829</v>
+        <v>988547</v>
       </c>
       <c r="H98" t="n">
-        <v>6861710</v>
+        <v>951134</v>
       </c>
       <c r="I98" t="n">
-        <v>183.2784</v>
+        <v>4.1745</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4585,19 +4591,19 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D99" t="n">
         <v>100</v>
@@ -4606,16 +4612,16 @@
         <v>100</v>
       </c>
       <c r="F99" t="n">
-        <v>1053</v>
+        <v>54920</v>
       </c>
       <c r="G99" t="n">
-        <v>424263</v>
+        <v>6919829</v>
       </c>
       <c r="H99" t="n">
-        <v>407630</v>
+        <v>6861710</v>
       </c>
       <c r="I99" t="n">
-        <v>1.5868</v>
+        <v>183.2784</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4626,19 +4632,19 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
         <v>100</v>
@@ -4647,16 +4653,16 @@
         <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>205171</v>
+        <v>1053</v>
       </c>
       <c r="G100" t="n">
-        <v>2596356</v>
+        <v>424263</v>
       </c>
       <c r="H100" t="n">
-        <v>5051654</v>
+        <v>407630</v>
       </c>
       <c r="I100" t="n">
-        <v>12.0275</v>
+        <v>1.5868</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4667,19 +4673,19 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B101" t="n">
         <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D101" t="n">
         <v>100</v>
@@ -4688,16 +4694,16 @@
         <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>12200</v>
+        <v>205171</v>
       </c>
       <c r="G101" t="n">
-        <v>865452</v>
+        <v>2596356</v>
       </c>
       <c r="H101" t="n">
-        <v>1674182</v>
+        <v>5051654</v>
       </c>
       <c r="I101" t="n">
-        <v>2.4971</v>
+        <v>12.0275</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4708,13 +4714,13 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B102" t="n">
         <v>3</v>
@@ -4723,22 +4729,22 @@
         <v>28</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E102" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F102" t="n">
-        <v>2519</v>
+        <v>12200</v>
       </c>
       <c r="G102" t="n">
-        <v>11172</v>
+        <v>865452</v>
       </c>
       <c r="H102" t="n">
-        <v>17867</v>
+        <v>1674182</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0343</v>
+        <v>2.4971</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4749,19 +4755,19 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B103" t="n">
         <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
@@ -4770,16 +4776,16 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>2788</v>
+        <v>2519</v>
       </c>
       <c r="G103" t="n">
-        <v>13167</v>
+        <v>11172</v>
       </c>
       <c r="H103" t="n">
-        <v>21077</v>
+        <v>17867</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0473</v>
+        <v>0.0343</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4790,19 +4796,19 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B104" t="n">
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -4811,16 +4817,16 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>2272</v>
+        <v>2788</v>
       </c>
       <c r="G104" t="n">
-        <v>9177</v>
+        <v>13167</v>
       </c>
       <c r="H104" t="n">
-        <v>14657</v>
+        <v>21077</v>
       </c>
       <c r="I104" t="n">
-        <v>0.027</v>
+        <v>0.0473</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4831,19 +4837,19 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B105" t="n">
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
@@ -4852,16 +4858,16 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>2191</v>
+        <v>2272</v>
       </c>
       <c r="G105" t="n">
-        <v>5187</v>
+        <v>9177</v>
       </c>
       <c r="H105" t="n">
-        <v>8237</v>
+        <v>14657</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0143</v>
+        <v>0.027</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4872,19 +4878,19 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -4893,16 +4899,16 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>171</v>
+        <v>2191</v>
       </c>
       <c r="G106" t="n">
-        <v>1197</v>
+        <v>5187</v>
       </c>
       <c r="H106" t="n">
-        <v>1817</v>
+        <v>8237</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0024</v>
+        <v>0.0143</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4913,16 +4919,16 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
         <v>3</v>
@@ -4934,33 +4940,33 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="G107" t="n">
-        <v>858</v>
+        <v>1197</v>
       </c>
       <c r="H107" t="n">
-        <v>1212</v>
+        <v>1817</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0022</v>
+        <v>0.0024</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B108" t="n">
         <v>2</v>
@@ -4969,20 +4975,22 @@
         <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
-      </c>
-      <c r="F108" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>21</v>
+      </c>
       <c r="G108" t="n">
-        <v>348</v>
+        <v>858</v>
       </c>
       <c r="H108" t="n">
-        <v>282</v>
+        <v>1212</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4993,58 +5001,58 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B109" t="n">
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>8008</v>
+        <v>348</v>
       </c>
       <c r="H109" t="n">
-        <v>11912</v>
+        <v>282</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0174</v>
+        <v>0.0001</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B110" t="n">
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -5054,13 +5062,13 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>572</v>
+        <v>8008</v>
       </c>
       <c r="H110" t="n">
-        <v>784</v>
+        <v>11912</v>
       </c>
       <c r="I110" t="n">
-        <v>0.001</v>
+        <v>0.0174</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5071,19 +5079,19 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5093,13 +5101,13 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="H111" t="n">
-        <v>356</v>
+        <v>784</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5110,19 +5118,19 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
         <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -5132,13 +5140,13 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>1430</v>
+        <v>286</v>
       </c>
       <c r="H112" t="n">
-        <v>2068</v>
+        <v>356</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0029</v>
+        <v>0.0001</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5149,19 +5157,19 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B113" t="n">
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
         <v>10</v>
@@ -5171,13 +5179,13 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>1144</v>
+        <v>1430</v>
       </c>
       <c r="H113" t="n">
-        <v>1640</v>
+        <v>2068</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0028</v>
+        <v>0.0029</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -5188,19 +5196,19 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -5210,13 +5218,13 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>3990</v>
+        <v>1144</v>
       </c>
       <c r="H114" t="n">
-        <v>6200</v>
+        <v>1640</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0072</v>
+        <v>0.0028</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5227,19 +5235,19 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
         <v>10</v>
@@ -5249,13 +5257,13 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>2860</v>
+        <v>3990</v>
       </c>
       <c r="H115" t="n">
-        <v>4120</v>
+        <v>6200</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0119</v>
+        <v>0.0072</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5266,16 +5274,16 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
         <v>10</v>
@@ -5288,13 +5296,13 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>6250</v>
+        <v>2860</v>
       </c>
       <c r="H116" t="n">
-        <v>10697</v>
+        <v>4120</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0162</v>
+        <v>0.0119</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5305,16 +5313,16 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B117" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
         <v>10</v>
@@ -5327,13 +5335,13 @@
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>14230</v>
+        <v>6250</v>
       </c>
       <c r="H117" t="n">
-        <v>23531</v>
+        <v>10697</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0366</v>
+        <v>0.0162</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5344,19 +5352,19 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B118" t="n">
         <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -5366,13 +5374,13 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>7115</v>
+        <v>14230</v>
       </c>
       <c r="H118" t="n">
-        <v>11761</v>
+        <v>23531</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0116</v>
+        <v>0.0366</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5383,16 +5391,16 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B119" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
         <v>5</v>
@@ -5405,13 +5413,13 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H119" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0098</v>
+        <v>0.0116</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5422,92 +5430,96 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>46032</v>
+        <v>5685</v>
       </c>
       <c r="H120" t="n">
-        <v>80278</v>
+        <v>9623</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2189</v>
+        <v>0.0098</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B121" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D121" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
-      </c>
-      <c r="F121" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3338</v>
+      </c>
       <c r="G121" t="n">
-        <v>5685</v>
+        <v>46032</v>
       </c>
       <c r="H121" t="n">
-        <v>9623</v>
+        <v>80278</v>
       </c>
       <c r="I121" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.2189</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>11:34:58</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122" t="n">
         <v>5</v>
@@ -5520,32 +5532,32 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H122" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0064</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:26:30</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B123" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -5555,28 +5567,32 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>11370</v>
+        <v>3125</v>
       </c>
       <c r="H123" t="n">
-        <v>19253</v>
+        <v>5347</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0334</v>
+        <v>0.0064</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
         <v>10</v>
@@ -5586,19 +5602,50 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>3125</v>
+        <v>11370</v>
       </c>
       <c r="H124" t="n">
-        <v>5347</v>
+        <v>19253</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0071</v>
+        <v>0.0334</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10</v>
+      </c>
+      <c r="E125" t="n">
+        <v>10</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,49 +430,49 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>2866.099999999999</v>
+        <v>441.6662039194914</v>
       </c>
       <c r="G2" t="n">
-        <v>171150</v>
+        <v>123396</v>
       </c>
       <c r="H2" t="n">
-        <v>322773</v>
+        <v>210562</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>140.6541011333466</v>
+        <v>1.1831</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>05</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>10:06:45</t>
-        </is>
+          <t>15:48:52</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>17.6006920337677</v>
       </c>
     </row>
     <row r="3">
@@ -821,185 +821,193 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>194.1985625642336</v>
       </c>
       <c r="G11" t="n">
-        <v>168549</v>
+        <v>82264</v>
       </c>
       <c r="H11" t="n">
-        <v>310007</v>
+        <v>140184</v>
       </c>
       <c r="I11" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0.7481</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19.88840103149414</v>
+      </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>15:48:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G12" t="n">
-        <v>56031</v>
+        <v>41132</v>
       </c>
       <c r="H12" t="n">
-        <v>101589</v>
+        <v>69806</v>
       </c>
       <c r="I12" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0.1328</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.808650016784668</v>
+      </c>
       <c r="K12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>15:42:52</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G13" t="n">
-        <v>562362</v>
+        <v>45087</v>
       </c>
       <c r="H13" t="n">
-        <v>1039470</v>
+        <v>76551</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6686</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0.153</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.129974126815796</v>
+      </c>
       <c r="K13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>14:48:06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G14" t="n">
-        <v>112518</v>
+        <v>15820</v>
       </c>
       <c r="H14" t="n">
-        <v>205817</v>
+        <v>26962</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2438</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0.0307</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.667943239212036</v>
+      </c>
       <c r="K14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>12:13:53</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
         <v>20</v>
@@ -1011,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118440</v>
+        <v>168549</v>
       </c>
       <c r="H15" t="n">
-        <v>216717</v>
+        <v>310007</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2484</v>
+        <v>0.594</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
@@ -1030,19 +1038,19 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>20</v>
@@ -1051,16 +1059,16 @@
         <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47376</v>
+        <v>56031</v>
       </c>
       <c r="H16" t="n">
-        <v>211077</v>
+        <v>101589</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1306</v>
+        <v>0.093</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -1073,19 +1081,19 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
         <v>20</v>
@@ -1094,16 +1102,16 @@
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>23688</v>
+        <v>562362</v>
       </c>
       <c r="H17" t="n">
-        <v>103067</v>
+        <v>1039470</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0512</v>
+        <v>2.6686</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
@@ -1116,19 +1124,19 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
@@ -1137,16 +1145,16 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>20727</v>
+        <v>112518</v>
       </c>
       <c r="H18" t="n">
-        <v>97591</v>
+        <v>205817</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0536</v>
+        <v>0.2438</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1159,19 +1167,19 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
@@ -1180,16 +1188,16 @@
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>85.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32571</v>
+        <v>118440</v>
       </c>
       <c r="H19" t="n">
-        <v>98911</v>
+        <v>216717</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1316</v>
+        <v>0.2484</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -1202,41 +1210,41 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>100.0061393594561</v>
+        <v>304</v>
       </c>
       <c r="G20" t="n">
-        <v>5537</v>
+        <v>47376</v>
       </c>
       <c r="H20" t="n">
-        <v>23707</v>
+        <v>211077</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0179</v>
+        <v>0.1306</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1245,41 +1253,41 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>295101.3333333332</v>
+        <v>84</v>
       </c>
       <c r="G21" t="n">
-        <v>496356</v>
+        <v>23688</v>
       </c>
       <c r="H21" t="n">
-        <v>937352</v>
+        <v>103067</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8175</v>
+        <v>0.0512</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1288,41 +1296,41 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G22" t="n">
-        <v>60116</v>
+        <v>20727</v>
       </c>
       <c r="H22" t="n">
-        <v>102342</v>
+        <v>97591</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2605</v>
+        <v>0.0536</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1331,41 +1339,41 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B23" t="n">
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>34804</v>
+        <v>32571</v>
       </c>
       <c r="H23" t="n">
-        <v>99742</v>
+        <v>98911</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1609</v>
+        <v>0.1316</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1374,16 +1382,16 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>7</v>
@@ -1395,16 +1403,16 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>178.7777777777777</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G24" t="n">
-        <v>8701</v>
+        <v>5537</v>
       </c>
       <c r="H24" t="n">
-        <v>24205</v>
+        <v>23707</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0183</v>
+        <v>0.0179</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -1417,37 +1425,37 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>177.1111111111111</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G25" t="n">
-        <v>11907</v>
+        <v>496356</v>
       </c>
       <c r="H25" t="n">
-        <v>54384</v>
+        <v>937352</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0538</v>
+        <v>1.8175</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -1460,193 +1468,185 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>1481.05</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>137130</v>
+        <v>60116</v>
       </c>
       <c r="H26" t="n">
-        <v>256923</v>
+        <v>102342</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="J26" t="n">
-        <v>91.78385400772095</v>
-      </c>
+        <v>0.2605</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B27" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>2998.900000000002</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>484526</v>
+        <v>34804</v>
       </c>
       <c r="H27" t="n">
-        <v>907193</v>
+        <v>99742</v>
       </c>
       <c r="I27" t="n">
-        <v>9.097899999999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>334.5952842235565</v>
-      </c>
+        <v>0.1609</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18:26:57</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>265.4000000000001</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G28" t="n">
-        <v>72450</v>
+        <v>8701</v>
       </c>
       <c r="H28" t="n">
-        <v>135305</v>
+        <v>24205</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6791</v>
-      </c>
-      <c r="J28" t="n">
-        <v>51.79183006286621</v>
-      </c>
+        <v>0.0183</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>302.6600000000017</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G29" t="n">
-        <v>64890</v>
+        <v>11907</v>
       </c>
       <c r="H29" t="n">
-        <v>120487</v>
+        <v>54384</v>
       </c>
       <c r="I29" t="n">
-        <v>1.6408</v>
-      </c>
-      <c r="J29" t="n">
-        <v>36.27230906486511</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B30" t="n">
         <v>15</v>
@@ -1655,28 +1655,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>230.5100000000003</v>
+        <v>2866.099999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>33390</v>
+        <v>171150</v>
       </c>
       <c r="H30" t="n">
-        <v>59357</v>
+        <v>322773</v>
       </c>
       <c r="I30" t="n">
-        <v>1.1474</v>
+        <v>1.8062</v>
       </c>
       <c r="J30" t="n">
-        <v>18.94928789138794</v>
+        <v>140.6541011333466</v>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1685,13 +1685,13 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>10:06:45</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B31" t="n">
         <v>15</v>
@@ -1700,28 +1700,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>203.5600000000005</v>
+        <v>1481.05</v>
       </c>
       <c r="G31" t="n">
-        <v>28350</v>
+        <v>137130</v>
       </c>
       <c r="H31" t="n">
-        <v>49723</v>
+        <v>256923</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0807</v>
+        <v>0.9375</v>
       </c>
       <c r="J31" t="n">
-        <v>16.81134915351868</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1730,40 +1730,40 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>12.7</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G32" t="n">
-        <v>11865</v>
+        <v>484526</v>
       </c>
       <c r="H32" t="n">
-        <v>20427</v>
+        <v>907193</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0203</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>1.177000284194946</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K32" t="n">
         <v>20</v>
@@ -1775,40 +1775,40 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B33" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F33" t="n">
-        <v>35.70000000000001</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>41923</v>
+        <v>72450</v>
       </c>
       <c r="H33" t="n">
-        <v>71749</v>
+        <v>135305</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0829</v>
+        <v>1.6791</v>
       </c>
       <c r="J33" t="n">
-        <v>6.332224130630493</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K33" t="n">
         <v>20</v>
@@ -1820,40 +1820,40 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B34" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
         <v>14</v>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>840.5064285714258</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G34" t="n">
-        <v>100170</v>
+        <v>64890</v>
       </c>
       <c r="H34" t="n">
-        <v>174727</v>
+        <v>120487</v>
       </c>
       <c r="I34" t="n">
-        <v>239.0865</v>
+        <v>1.6408</v>
       </c>
       <c r="J34" t="n">
-        <v>315.8266220092773</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K34" t="n">
         <v>20</v>
@@ -1865,40 +1865,40 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B35" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>34.7</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G35" t="n">
-        <v>50085</v>
+        <v>33390</v>
       </c>
       <c r="H35" t="n">
-        <v>86863</v>
+        <v>59357</v>
       </c>
       <c r="I35" t="n">
-        <v>0.107</v>
+        <v>1.1474</v>
       </c>
       <c r="J35" t="n">
-        <v>7.774892807006836</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K35" t="n">
         <v>20</v>
@@ -1910,172 +1910,178 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B36" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14</v>
+      </c>
+      <c r="D36" t="n">
         <v>11</v>
       </c>
-      <c r="C36" t="n">
-        <v>7</v>
-      </c>
-      <c r="D36" t="n">
-        <v>15</v>
-      </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>7.999999999999999</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G36" t="n">
-        <v>18711</v>
+        <v>28350</v>
       </c>
       <c r="H36" t="n">
-        <v>55167</v>
+        <v>49723</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>1.0807</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16.81134915351868</v>
+      </c>
       <c r="K36" t="n">
         <v>20</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>32.66666666666667</v>
+        <v>12.7</v>
       </c>
       <c r="G37" t="n">
-        <v>50281</v>
+        <v>11865</v>
       </c>
       <c r="H37" t="n">
-        <v>155342</v>
+        <v>20427</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0.0203</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.177000284194946</v>
+      </c>
       <c r="K37" t="n">
         <v>20</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>3.999999999999999</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>32382</v>
+        <v>41923</v>
       </c>
       <c r="H38" t="n">
-        <v>153575</v>
+        <v>71749</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0.0829</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.332224130630493</v>
+      </c>
       <c r="K38" t="n">
         <v>20</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" t="n">
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>35.70000000000003</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G39" t="n">
-        <v>242263</v>
+        <v>100170</v>
       </c>
       <c r="H39" t="n">
-        <v>462297</v>
+        <v>174727</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5239</v>
+        <v>239.0865</v>
       </c>
       <c r="J39" t="n">
-        <v>64.54806518554688</v>
+        <v>315.8266220092773</v>
       </c>
       <c r="K39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2084,43 +2090,43 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B40" t="n">
         <v>53</v>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>812.130000000004</v>
+        <v>34.7</v>
       </c>
       <c r="G40" t="n">
-        <v>180306</v>
+        <v>50085</v>
       </c>
       <c r="H40" t="n">
-        <v>323519</v>
+        <v>86863</v>
       </c>
       <c r="I40" t="n">
-        <v>12.3114</v>
+        <v>0.107</v>
       </c>
       <c r="J40" t="n">
-        <v>78.16917204856873</v>
+        <v>7.774892807006836</v>
       </c>
       <c r="K40" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2129,16 +2135,16 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
@@ -2150,43 +2156,41 @@
         <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>40.70000000000001</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>90153</v>
+        <v>18711</v>
       </c>
       <c r="H41" t="n">
-        <v>161308</v>
+        <v>55167</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4574</v>
-      </c>
-      <c r="J41" t="n">
-        <v>33.15888476371765</v>
-      </c>
+        <v>0.0654</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" t="n">
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>25</v>
@@ -2195,20 +2199,20 @@
         <v>25</v>
       </c>
       <c r="F42" t="n">
-        <v>240.6554934823091</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G42" t="n">
-        <v>101164</v>
+        <v>50281</v>
       </c>
       <c r="H42" t="n">
-        <v>317602</v>
+        <v>155342</v>
       </c>
       <c r="I42" t="n">
-        <v>0.487</v>
+        <v>0.1682</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2217,19 +2221,19 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
         <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>25</v>
@@ -2238,20 +2242,20 @@
         <v>25</v>
       </c>
       <c r="F43" t="n">
-        <v>16</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>64764</v>
+        <v>32382</v>
       </c>
       <c r="H43" t="n">
-        <v>314970</v>
+        <v>153575</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2711</v>
+        <v>0.1282</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2260,19 +2264,19 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B44" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
         <v>25</v>
@@ -2281,127 +2285,133 @@
         <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>2419.333333333333</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G44" t="n">
-        <v>173964</v>
+        <v>242263</v>
       </c>
       <c r="H44" t="n">
-        <v>322866</v>
+        <v>462297</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0.5239</v>
+      </c>
+      <c r="J44" t="n">
+        <v>64.54806518554688</v>
+      </c>
       <c r="K44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>602</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G45" t="n">
-        <v>86982</v>
+        <v>180306</v>
       </c>
       <c r="H45" t="n">
-        <v>171967</v>
+        <v>323519</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2673</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J45" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K45" t="n">
         <v>18</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C46" t="n">
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>38</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>73332</v>
+        <v>90153</v>
       </c>
       <c r="H46" t="n">
-        <v>167389</v>
+        <v>161308</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J46" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K46" t="n">
         <v>18</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
         <v>25</v>
@@ -2410,16 +2420,16 @@
         <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>13395</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G47" t="n">
-        <v>293328</v>
+        <v>101164</v>
       </c>
       <c r="H47" t="n">
-        <v>684598</v>
+        <v>317602</v>
       </c>
       <c r="I47" t="n">
-        <v>2.7488</v>
+        <v>0.487</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -2432,19 +2442,19 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
         <v>25</v>
@@ -2453,16 +2463,16 @@
         <v>25</v>
       </c>
       <c r="F48" t="n">
-        <v>45.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="G48" t="n">
-        <v>129528</v>
+        <v>64764</v>
       </c>
       <c r="H48" t="n">
-        <v>640400</v>
+        <v>314970</v>
       </c>
       <c r="I48" t="n">
-        <v>1.3063</v>
+        <v>0.2711</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -2475,41 +2485,41 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G49" t="n">
-        <v>12292</v>
+        <v>173964</v>
       </c>
       <c r="H49" t="n">
-        <v>54509</v>
+        <v>322866</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0383</v>
+        <v>0.4497</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2518,41 +2528,41 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B50" t="n">
+        <v>19</v>
+      </c>
+      <c r="C50" t="n">
         <v>7</v>
       </c>
-      <c r="C50" t="n">
-        <v>28</v>
-      </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F50" t="n">
-        <v>1804.999934139618</v>
+        <v>602</v>
       </c>
       <c r="G50" t="n">
-        <v>76048</v>
+        <v>86982</v>
       </c>
       <c r="H50" t="n">
-        <v>229623</v>
+        <v>171967</v>
       </c>
       <c r="I50" t="n">
-        <v>44.1138</v>
+        <v>0.2673</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2561,41 +2571,41 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G51" t="n">
-        <v>19012</v>
+        <v>73332</v>
       </c>
       <c r="H51" t="n">
-        <v>55785</v>
+        <v>167389</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0372</v>
+        <v>0.1522</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2604,41 +2614,41 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>190.0000000000001</v>
+        <v>13395</v>
       </c>
       <c r="G52" t="n">
-        <v>36610</v>
+        <v>293328</v>
       </c>
       <c r="H52" t="n">
-        <v>110682</v>
+        <v>684598</v>
       </c>
       <c r="I52" t="n">
-        <v>1.3782</v>
+        <v>2.7488</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2647,41 +2657,41 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>28</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F53" t="n">
-        <v>1659.5</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>73220</v>
+        <v>129528</v>
       </c>
       <c r="H53" t="n">
-        <v>224873</v>
+        <v>640400</v>
       </c>
       <c r="I53" t="n">
-        <v>11.8307</v>
+        <v>1.3063</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2690,20 +2700,20 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
         <v>7</v>
       </c>
-      <c r="C54" t="n">
-        <v>14</v>
-      </c>
       <c r="D54" t="n">
         <v>15</v>
       </c>
@@ -2711,20 +2721,20 @@
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n">
-        <v>45696</v>
+        <v>12292</v>
       </c>
       <c r="H54" t="n">
-        <v>109671</v>
+        <v>54509</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5595</v>
+        <v>0.0383</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2733,256 +2743,256 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>83.3</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G55" t="n">
-        <v>83846</v>
+        <v>76048</v>
       </c>
       <c r="H55" t="n">
-        <v>142303</v>
+        <v>229623</v>
       </c>
       <c r="I55" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J55" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>44.1138</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>351.5332879941108</v>
+        <v>36</v>
       </c>
       <c r="G56" t="n">
-        <v>209615</v>
+        <v>19012</v>
       </c>
       <c r="H56" t="n">
-        <v>357364</v>
+        <v>55785</v>
       </c>
       <c r="I56" t="n">
-        <v>136.8438</v>
+        <v>0.0372</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>784665</v>
+        <v>36610</v>
       </c>
       <c r="H57" t="n">
-        <v>1447964</v>
+        <v>110682</v>
       </c>
       <c r="I57" t="n">
-        <v>5.8677</v>
+        <v>1.3782</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B58" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1659.5</v>
       </c>
       <c r="G58" t="n">
-        <v>156933</v>
+        <v>73220</v>
       </c>
       <c r="H58" t="n">
-        <v>285656</v>
+        <v>224873</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5835</v>
+        <v>11.8307</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B59" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>312.2499501315505</v>
+        <v>253</v>
       </c>
       <c r="G59" t="n">
-        <v>470799</v>
+        <v>45696</v>
       </c>
       <c r="H59" t="n">
-        <v>870078</v>
+        <v>109671</v>
       </c>
       <c r="I59" t="n">
-        <v>10.5612</v>
+        <v>0.5595</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" t="n">
         <v>53</v>
       </c>
       <c r="C60" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>11.6</v>
+        <v>83.3</v>
       </c>
       <c r="G60" t="n">
-        <v>1098531</v>
+        <v>83846</v>
       </c>
       <c r="H60" t="n">
-        <v>2032386</v>
+        <v>142303</v>
       </c>
       <c r="I60" t="n">
-        <v>5.7722</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J60" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K60" t="n">
         <v>12</v>
       </c>
@@ -2993,37 +3003,37 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B61" t="n">
         <v>53</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>154.4249671516788</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G61" t="n">
-        <v>313866</v>
+        <v>209615</v>
       </c>
       <c r="H61" t="n">
-        <v>579501</v>
+        <v>357364</v>
       </c>
       <c r="I61" t="n">
-        <v>1.1351</v>
+        <v>136.8438</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
@@ -3036,19 +3046,19 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
         <v>20</v>
@@ -3057,20 +3067,20 @@
         <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>34.79999440044767</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>148050</v>
+        <v>784665</v>
       </c>
       <c r="H62" t="n">
-        <v>283143</v>
+        <v>1447964</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8347</v>
+        <v>5.8677</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3079,19 +3089,19 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B63" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
         <v>20</v>
@@ -3100,20 +3110,20 @@
         <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>1775.199999963032</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>153972</v>
+        <v>156933</v>
       </c>
       <c r="H63" t="n">
-        <v>293934</v>
+        <v>285656</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6929</v>
+        <v>0.5835</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3122,19 +3132,19 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
         <v>20</v>
@@ -3143,20 +3153,20 @@
         <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>1676.933333333334</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G64" t="n">
-        <v>177660</v>
+        <v>470799</v>
       </c>
       <c r="H64" t="n">
-        <v>337098</v>
+        <v>870078</v>
       </c>
       <c r="I64" t="n">
-        <v>0.753</v>
+        <v>10.5612</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3165,19 +3175,19 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D65" t="n">
         <v>20</v>
@@ -3186,20 +3196,20 @@
         <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>26.99999602929075</v>
+        <v>11.6</v>
       </c>
       <c r="G65" t="n">
-        <v>94752</v>
+        <v>1098531</v>
       </c>
       <c r="H65" t="n">
-        <v>278913</v>
+        <v>2032386</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2439</v>
+        <v>5.7722</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3208,16 +3218,16 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C66" t="n">
         <v>14</v>
@@ -3229,20 +3239,20 @@
         <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>19.99999388246115</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G66" t="n">
-        <v>47376</v>
+        <v>313866</v>
       </c>
       <c r="H66" t="n">
-        <v>191065</v>
+        <v>579501</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1299</v>
+        <v>1.1351</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3251,16 +3261,16 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B67" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C67" t="n">
         <v>14</v>
@@ -3272,16 +3282,16 @@
         <v>20</v>
       </c>
       <c r="F67" t="n">
-        <v>795.6</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G67" t="n">
-        <v>82908</v>
+        <v>148050</v>
       </c>
       <c r="H67" t="n">
-        <v>193885</v>
+        <v>283143</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4943</v>
+        <v>0.8347</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
@@ -3294,37 +3304,37 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C68" t="n">
         <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F68" t="n">
-        <v>514.8000000000001</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G68" t="n">
-        <v>22148</v>
+        <v>153972</v>
       </c>
       <c r="H68" t="n">
-        <v>46375</v>
+        <v>293934</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3576</v>
+        <v>0.6929</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
@@ -3337,37 +3347,37 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B69" t="n">
+        <v>30</v>
+      </c>
+      <c r="C69" t="n">
         <v>14</v>
       </c>
-      <c r="C69" t="n">
-        <v>7</v>
-      </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>204</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G69" t="n">
-        <v>11074</v>
+        <v>177660</v>
       </c>
       <c r="H69" t="n">
-        <v>22904</v>
+        <v>337098</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0224</v>
+        <v>0.753</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
@@ -3380,37 +3390,37 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>394</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G70" t="n">
-        <v>38178</v>
+        <v>94752</v>
       </c>
       <c r="H70" t="n">
-        <v>58116</v>
+        <v>278913</v>
       </c>
       <c r="I70" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.2439</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
@@ -3418,193 +3428,193 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
         <v>14</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>1578</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G71" t="n">
-        <v>52500</v>
+        <v>47376</v>
       </c>
       <c r="H71" t="n">
-        <v>92122</v>
+        <v>191065</v>
       </c>
       <c r="I71" t="n">
-        <v>6.5428</v>
+        <v>0.1299</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" t="n">
         <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F72" t="n">
-        <v>1577.999992666665</v>
+        <v>795.6</v>
       </c>
       <c r="G72" t="n">
-        <v>57540</v>
+        <v>82908</v>
       </c>
       <c r="H72" t="n">
-        <v>100522</v>
+        <v>193885</v>
       </c>
       <c r="I72" t="n">
-        <v>2.1297</v>
+        <v>0.4943</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>3202</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>351288</v>
+        <v>22148</v>
       </c>
       <c r="H73" t="n">
-        <v>466643</v>
+        <v>46375</v>
       </c>
       <c r="I73" t="n">
-        <v>1.9582</v>
+        <v>0.3576</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C74" t="n">
         <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="G74" t="n">
-        <v>29274</v>
+        <v>11074</v>
       </c>
       <c r="H74" t="n">
-        <v>37158</v>
+        <v>22904</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0469</v>
+        <v>0.0224</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C75" t="n">
         <v>7</v>
@@ -3613,23 +3623,23 @@
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>192</v>
+        <v>394</v>
       </c>
       <c r="G75" t="n">
-        <v>117096</v>
+        <v>38178</v>
       </c>
       <c r="H75" t="n">
-        <v>154821</v>
+        <v>58116</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2622</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3638,19 +3648,19 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B76" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D76" t="n">
         <v>15</v>
@@ -3659,192 +3669,192 @@
         <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>80.39999999999995</v>
+        <v>1578</v>
       </c>
       <c r="G76" t="n">
-        <v>128790</v>
+        <v>52500</v>
       </c>
       <c r="H76" t="n">
-        <v>230986</v>
+        <v>92122</v>
       </c>
       <c r="I76" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J76" t="n">
-        <v>13</v>
-      </c>
+        <v>6.5428</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>15:40:32</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>798.3000000000002</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G77" t="n">
-        <v>150255</v>
+        <v>57540</v>
       </c>
       <c r="H77" t="n">
-        <v>260064</v>
+        <v>100522</v>
       </c>
       <c r="I77" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J77" t="n">
-        <v>16</v>
-      </c>
+        <v>2.1297</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>13:15:26</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B78" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
         <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
-        <v>991.6000000000008</v>
+        <v>3202</v>
       </c>
       <c r="G78" t="n">
-        <v>176967</v>
+        <v>351288</v>
       </c>
       <c r="H78" t="n">
-        <v>310009</v>
+        <v>466643</v>
       </c>
       <c r="I78" t="n">
-        <v>18.2853</v>
-      </c>
-      <c r="J78" t="n">
-        <v>16</v>
-      </c>
+        <v>1.9582</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>15:25:32</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>70.88821601867676</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F79" t="n">
-        <v>581.1349844453474</v>
+        <v>51</v>
       </c>
       <c r="G79" t="n">
-        <v>726789</v>
+        <v>29274</v>
       </c>
       <c r="H79" t="n">
-        <v>1394725</v>
+        <v>37158</v>
       </c>
       <c r="I79" t="n">
-        <v>390.7028</v>
-      </c>
-      <c r="J79" t="n">
-        <v>19</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>09:22:03</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>562.8080189228058</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C80" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
         <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F80" t="n">
-        <v>370</v>
+        <v>192</v>
       </c>
       <c r="G80" t="n">
-        <v>34524</v>
+        <v>117096</v>
       </c>
       <c r="H80" t="n">
-        <v>60034</v>
+        <v>154821</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1695</v>
+        <v>0.2622</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3853,19 +3863,19 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>10:59:59</t>
+          <t>12:33:52</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B81" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
         <v>15</v>
@@ -3874,156 +3884,164 @@
         <v>15</v>
       </c>
       <c r="F81" t="n">
-        <v>400</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G81" t="n">
-        <v>114660</v>
+        <v>128790</v>
       </c>
       <c r="H81" t="n">
-        <v>195602</v>
+        <v>230986</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1.0875</v>
+      </c>
+      <c r="J81" t="n">
+        <v>13</v>
+      </c>
+      <c r="K81" t="n">
+        <v>5</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
-        </is>
+          <t>20:52:46</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F82" t="n">
-        <v>60</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G82" t="n">
-        <v>30429</v>
+        <v>150255</v>
       </c>
       <c r="H82" t="n">
-        <v>28721</v>
+        <v>260064</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>404.4721</v>
+      </c>
+      <c r="J82" t="n">
+        <v>16</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>17:55:00</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G83" t="n">
-        <v>10143</v>
+        <v>176967</v>
       </c>
       <c r="H83" t="n">
-        <v>9575</v>
+        <v>310009</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J83" t="n">
+        <v>16</v>
+      </c>
+      <c r="K83" t="n">
+        <v>5</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>10:31:13</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B84" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C84" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F84" t="n">
-        <v>160</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G84" t="n">
-        <v>81144</v>
+        <v>726789</v>
       </c>
       <c r="H84" t="n">
-        <v>77690</v>
+        <v>1394725</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J84" t="n">
+        <v>19</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>10:11:51</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
@@ -4038,39 +4056,41 @@
         <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="G85" t="n">
-        <v>60858</v>
+        <v>34524</v>
       </c>
       <c r="H85" t="n">
-        <v>58151</v>
+        <v>60034</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2167</v>
+        <v>0.1695</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -4079,16 +4099,16 @@
         <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="G86" t="n">
-        <v>46914</v>
+        <v>114660</v>
       </c>
       <c r="H86" t="n">
-        <v>45229</v>
+        <v>195602</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1723</v>
+        <v>0.3841</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -4099,20 +4119,20 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="n">
         <v>7</v>
       </c>
-      <c r="C87" t="n">
-        <v>21</v>
-      </c>
       <c r="D87" t="n">
         <v>15</v>
       </c>
@@ -4120,16 +4140,16 @@
         <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G87" t="n">
-        <v>70371</v>
+        <v>30429</v>
       </c>
       <c r="H87" t="n">
-        <v>68161</v>
+        <v>28721</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2664</v>
+        <v>0.1367</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4140,19 +4160,19 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>15</v>
@@ -4161,16 +4181,16 @@
         <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G88" t="n">
-        <v>20286</v>
+        <v>10143</v>
       </c>
       <c r="H88" t="n">
-        <v>19385</v>
+        <v>9575</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0702</v>
+        <v>0.0359</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4181,16 +4201,16 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
         <v>14</v>
@@ -4202,39 +4222,39 @@
         <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>1194</v>
+        <v>160</v>
       </c>
       <c r="G89" t="n">
-        <v>101430</v>
+        <v>81144</v>
       </c>
       <c r="H89" t="n">
-        <v>97112</v>
+        <v>77690</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5688</v>
+        <v>0.3027</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B90" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
         <v>15</v>
@@ -4243,39 +4263,39 @@
         <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G90" t="n">
-        <v>50715</v>
+        <v>60858</v>
       </c>
       <c r="H90" t="n">
-        <v>47867</v>
+        <v>58151</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2266</v>
+        <v>0.2167</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B91" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
         <v>15</v>
@@ -4284,139 +4304,139 @@
         <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>7950</v>
+        <v>80</v>
       </c>
       <c r="G91" t="n">
-        <v>202860</v>
+        <v>46914</v>
       </c>
       <c r="H91" t="n">
-        <v>195602</v>
+        <v>45229</v>
       </c>
       <c r="I91" t="n">
-        <v>1.3571</v>
+        <v>0.1723</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B92" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D92" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>41720</v>
+        <v>120</v>
       </c>
       <c r="G92" t="n">
-        <v>1173690</v>
+        <v>70371</v>
       </c>
       <c r="H92" t="n">
-        <v>1149317</v>
+        <v>68161</v>
       </c>
       <c r="I92" t="n">
-        <v>19.0623</v>
+        <v>0.2664</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
-        <v>14049</v>
+        <v>20286</v>
       </c>
       <c r="H93" t="n">
-        <v>13151</v>
+        <v>19385</v>
       </c>
       <c r="I93" t="n">
-        <v>0.06</v>
+        <v>0.0702</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1194</v>
       </c>
       <c r="G94" t="n">
-        <v>10787</v>
+        <v>101430</v>
       </c>
       <c r="H94" t="n">
-        <v>10229</v>
+        <v>97112</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0394</v>
+        <v>0.5688</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4427,37 +4447,37 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C95" t="n">
         <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G95" t="n">
-        <v>4683</v>
+        <v>50715</v>
       </c>
       <c r="H95" t="n">
-        <v>4385</v>
+        <v>47867</v>
       </c>
       <c r="I95" t="n">
-        <v>0.013</v>
+        <v>0.2266</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4468,37 +4488,37 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
-        <v>60</v>
+        <v>7950</v>
       </c>
       <c r="G96" t="n">
-        <v>14049</v>
+        <v>202860</v>
       </c>
       <c r="H96" t="n">
-        <v>13373</v>
+        <v>195602</v>
       </c>
       <c r="I96" t="n">
-        <v>0.058</v>
+        <v>1.3571</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4509,37 +4529,37 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15</v>
+      </c>
+      <c r="C97" t="n">
+        <v>42</v>
+      </c>
+      <c r="D97" t="n">
         <v>30</v>
       </c>
-      <c r="B97" t="n">
-        <v>9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>21</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10</v>
-      </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F97" t="n">
-        <v>932</v>
+        <v>41720</v>
       </c>
       <c r="G97" t="n">
-        <v>42147</v>
+        <v>1173690</v>
       </c>
       <c r="H97" t="n">
-        <v>40115</v>
+        <v>1149317</v>
       </c>
       <c r="I97" t="n">
-        <v>0.253</v>
+        <v>19.0623</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4550,95 +4570,95 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" t="n">
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G98" t="n">
-        <v>988547</v>
+        <v>14049</v>
       </c>
       <c r="H98" t="n">
-        <v>951134</v>
+        <v>13151</v>
       </c>
       <c r="I98" t="n">
-        <v>4.1745</v>
+        <v>0.06</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B99" t="n">
         <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>54920</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>6919829</v>
+        <v>10787</v>
       </c>
       <c r="H99" t="n">
-        <v>6861710</v>
+        <v>10229</v>
       </c>
       <c r="I99" t="n">
-        <v>183.2784</v>
+        <v>0.0394</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
@@ -4647,145 +4667,145 @@
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>1053</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>424263</v>
+        <v>4683</v>
       </c>
       <c r="H100" t="n">
-        <v>407630</v>
+        <v>4385</v>
       </c>
       <c r="I100" t="n">
-        <v>1.5868</v>
+        <v>0.013</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B101" t="n">
         <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>205171</v>
+        <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>2596356</v>
+        <v>14049</v>
       </c>
       <c r="H101" t="n">
-        <v>5051654</v>
+        <v>13373</v>
       </c>
       <c r="I101" t="n">
-        <v>12.0275</v>
+        <v>0.058</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D102" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>12200</v>
+        <v>932</v>
       </c>
       <c r="G102" t="n">
-        <v>865452</v>
+        <v>42147</v>
       </c>
       <c r="H102" t="n">
-        <v>1674182</v>
+        <v>40115</v>
       </c>
       <c r="I102" t="n">
-        <v>2.4971</v>
+        <v>0.253</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F103" t="n">
-        <v>2519</v>
+        <v>41</v>
       </c>
       <c r="G103" t="n">
-        <v>11172</v>
+        <v>988547</v>
       </c>
       <c r="H103" t="n">
-        <v>17867</v>
+        <v>951134</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0343</v>
+        <v>4.1745</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4796,37 +4816,37 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F104" t="n">
-        <v>2788</v>
+        <v>54920</v>
       </c>
       <c r="G104" t="n">
-        <v>13167</v>
+        <v>6919829</v>
       </c>
       <c r="H104" t="n">
-        <v>21077</v>
+        <v>6861710</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0473</v>
+        <v>183.2784</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4837,37 +4857,37 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B105" t="n">
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>2272</v>
+        <v>1053</v>
       </c>
       <c r="G105" t="n">
-        <v>9177</v>
+        <v>424263</v>
       </c>
       <c r="H105" t="n">
-        <v>14657</v>
+        <v>407630</v>
       </c>
       <c r="I105" t="n">
-        <v>0.027</v>
+        <v>1.5868</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4878,37 +4898,37 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D106" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>2191</v>
+        <v>205171</v>
       </c>
       <c r="G106" t="n">
-        <v>5187</v>
+        <v>2596356</v>
       </c>
       <c r="H106" t="n">
-        <v>8237</v>
+        <v>5051654</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0143</v>
+        <v>12.0275</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4919,37 +4939,37 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B107" t="n">
         <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F107" t="n">
-        <v>171</v>
+        <v>12200</v>
       </c>
       <c r="G107" t="n">
-        <v>1197</v>
+        <v>865452</v>
       </c>
       <c r="H107" t="n">
-        <v>1817</v>
+        <v>1674182</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0024</v>
+        <v>2.4971</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4960,19 +4980,19 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -4981,78 +5001,80 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>21</v>
+        <v>2519</v>
       </c>
       <c r="G108" t="n">
-        <v>858</v>
+        <v>11172</v>
       </c>
       <c r="H108" t="n">
-        <v>1212</v>
+        <v>17867</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0022</v>
+        <v>0.0343</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2788</v>
+      </c>
       <c r="G109" t="n">
-        <v>348</v>
+        <v>13167</v>
       </c>
       <c r="H109" t="n">
-        <v>282</v>
+        <v>21077</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0001</v>
+        <v>0.0473</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -5060,38 +5082,40 @@
       <c r="E110" t="n">
         <v>10</v>
       </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>2272</v>
+      </c>
       <c r="G110" t="n">
-        <v>8008</v>
+        <v>9177</v>
       </c>
       <c r="H110" t="n">
-        <v>11912</v>
+        <v>14657</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0174</v>
+        <v>0.027</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5099,38 +5123,40 @@
       <c r="E111" t="n">
         <v>10</v>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>2191</v>
+      </c>
       <c r="G111" t="n">
-        <v>572</v>
+        <v>5187</v>
       </c>
       <c r="H111" t="n">
-        <v>784</v>
+        <v>8237</v>
       </c>
       <c r="I111" t="n">
-        <v>0.001</v>
+        <v>0.0143</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -5138,38 +5164,40 @@
       <c r="E112" t="n">
         <v>10</v>
       </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>171</v>
+      </c>
       <c r="G112" t="n">
-        <v>286</v>
+        <v>1197</v>
       </c>
       <c r="H112" t="n">
-        <v>356</v>
+        <v>1817</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0001</v>
+        <v>0.0024</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B113" t="n">
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>10</v>
@@ -5177,77 +5205,79 @@
       <c r="E113" t="n">
         <v>10</v>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>21</v>
+      </c>
       <c r="G113" t="n">
-        <v>1430</v>
+        <v>858</v>
       </c>
       <c r="H113" t="n">
-        <v>2068</v>
+        <v>1212</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0029</v>
+        <v>0.0022</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B114" t="n">
         <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>1144</v>
+        <v>348</v>
       </c>
       <c r="H114" t="n">
-        <v>1640</v>
+        <v>282</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0028</v>
+        <v>0.0001</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D115" t="n">
         <v>10</v>
@@ -5257,13 +5287,13 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>3990</v>
+        <v>8008</v>
       </c>
       <c r="H115" t="n">
-        <v>6200</v>
+        <v>11912</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0072</v>
+        <v>0.0174</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5274,19 +5304,19 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D116" t="n">
         <v>10</v>
@@ -5296,13 +5326,13 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>2860</v>
+        <v>572</v>
       </c>
       <c r="H116" t="n">
-        <v>4120</v>
+        <v>784</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0119</v>
+        <v>0.001</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5313,19 +5343,19 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>10</v>
@@ -5335,13 +5365,13 @@
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>6250</v>
+        <v>286</v>
       </c>
       <c r="H117" t="n">
-        <v>10697</v>
+        <v>356</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0162</v>
+        <v>0.0001</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5352,19 +5382,19 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -5374,13 +5404,13 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>14230</v>
+        <v>1430</v>
       </c>
       <c r="H118" t="n">
-        <v>23531</v>
+        <v>2068</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0366</v>
+        <v>0.0029</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5391,19 +5421,19 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B119" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
         <v>10</v>
@@ -5413,13 +5443,13 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>7115</v>
+        <v>1144</v>
       </c>
       <c r="H119" t="n">
-        <v>11761</v>
+        <v>1640</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0116</v>
+        <v>0.0028</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5430,16 +5460,16 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B120" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
         <v>5</v>
@@ -5452,13 +5482,13 @@
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>5685</v>
+        <v>3990</v>
       </c>
       <c r="H120" t="n">
-        <v>9623</v>
+        <v>6200</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0098</v>
+        <v>0.0072</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5469,60 +5499,58 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B121" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E121" t="n">
-        <v>15</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>46032</v>
+        <v>2860</v>
       </c>
       <c r="H121" t="n">
-        <v>80278</v>
+        <v>4120</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2189</v>
+        <v>0.0119</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
         <v>10</v>
@@ -5532,32 +5560,36 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H122" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I122" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0162</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -5567,32 +5599,36 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>3125</v>
+        <v>14230</v>
       </c>
       <c r="H123" t="n">
-        <v>5347</v>
+        <v>23531</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0064</v>
+        <v>0.0366</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
         <v>10</v>
@@ -5602,25 +5638,33 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>11370</v>
+        <v>7115</v>
       </c>
       <c r="H124" t="n">
-        <v>19253</v>
+        <v>11761</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0334</v>
+        <v>0.0116</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C125" t="n">
         <v>5</v>
@@ -5633,18 +5677,199 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H125" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0071</v>
+        <v>0.0098</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3338</v>
+      </c>
+      <c r="G126" t="n">
+        <v>46032</v>
+      </c>
+      <c r="H126" t="n">
+        <v>80278</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10</v>
+      </c>
+      <c r="E127" t="n">
+        <v>10</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>5685</v>
+      </c>
+      <c r="H127" t="n">
+        <v>9623</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10</v>
+      </c>
+      <c r="E128" t="n">
+        <v>10</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10</v>
+      </c>
+      <c r="E129" t="n">
+        <v>10</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H129" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,49 +430,49 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>441.6662039194914</v>
+        <v>454.9200000000004</v>
       </c>
       <c r="G2" t="n">
-        <v>123396</v>
+        <v>171150</v>
       </c>
       <c r="H2" t="n">
-        <v>210562</v>
+        <v>328653</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1831</v>
-      </c>
-      <c r="J2" t="inlineStr">
+        <v>17.4979</v>
+      </c>
+      <c r="J2" t="n">
+        <v>111.6140871047974</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>15:48:52</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>17.6006920337677</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>22:15:34</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -821,34 +821,34 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>194.1985625642336</v>
+        <v>132.9200000000002</v>
       </c>
       <c r="G11" t="n">
-        <v>82264</v>
+        <v>88830</v>
       </c>
       <c r="H11" t="n">
-        <v>140184</v>
+        <v>163893</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7481</v>
+        <v>2.4003</v>
       </c>
       <c r="J11" t="n">
-        <v>19.88840103149414</v>
+        <v>54.70359301567078</v>
       </c>
       <c r="K11" t="n">
         <v>25</v>
@@ -860,40 +860,40 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>15:48:00</t>
+          <t>22:03:17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B12" t="n">
         <v>52</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3541666666666663</v>
+        <v>452.4166163610693</v>
       </c>
       <c r="G12" t="n">
-        <v>41132</v>
+        <v>307944</v>
       </c>
       <c r="H12" t="n">
-        <v>69806</v>
+        <v>578609</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1328</v>
+        <v>276.8241</v>
       </c>
       <c r="J12" t="n">
-        <v>5.808650016784668</v>
+        <v>515.666118144989</v>
       </c>
       <c r="K12" t="n">
         <v>25</v>
@@ -905,40 +905,40 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>15:42:52</t>
+          <t>20:58:57</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3541666666666663</v>
+        <v>86.37333333333341</v>
       </c>
       <c r="G13" t="n">
-        <v>45087</v>
+        <v>296660</v>
       </c>
       <c r="H13" t="n">
-        <v>76551</v>
+        <v>572139</v>
       </c>
       <c r="I13" t="n">
-        <v>0.153</v>
+        <v>1.3724</v>
       </c>
       <c r="J13" t="n">
-        <v>6.129974126815796</v>
+        <v>40.32892489433289</v>
       </c>
       <c r="K13" t="n">
         <v>25</v>
@@ -950,19 +950,19 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14:48:06</t>
+          <t>20:47:34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
@@ -971,19 +971,19 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>12.7</v>
+        <v>367.8516666666674</v>
       </c>
       <c r="G14" t="n">
-        <v>15820</v>
+        <v>82264</v>
       </c>
       <c r="H14" t="n">
-        <v>26962</v>
+        <v>141444</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0307</v>
+        <v>242.5427</v>
       </c>
       <c r="J14" t="n">
-        <v>2.667943239212036</v>
+        <v>253.2486069202423</v>
       </c>
       <c r="K14" t="n">
         <v>25</v>
@@ -995,148 +995,154 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12:13:53</t>
+          <t>16:13:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G15" t="n">
-        <v>168549</v>
+        <v>41132</v>
       </c>
       <c r="H15" t="n">
-        <v>310007</v>
+        <v>69806</v>
       </c>
       <c r="I15" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0.1328</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.808650016784668</v>
+      </c>
       <c r="K15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>15:42:52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G16" t="n">
-        <v>56031</v>
+        <v>45087</v>
       </c>
       <c r="H16" t="n">
-        <v>101589</v>
+        <v>76551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0.153</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.129974126815796</v>
+      </c>
       <c r="K16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>14:48:06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G17" t="n">
-        <v>562362</v>
+        <v>15820</v>
       </c>
       <c r="H17" t="n">
-        <v>1039470</v>
+        <v>26962</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6686</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0.0307</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.667943239212036</v>
+      </c>
       <c r="K17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>12:13:53</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B18" t="n">
         <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
         <v>20</v>
@@ -1148,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>112518</v>
+        <v>168549</v>
       </c>
       <c r="H18" t="n">
-        <v>205817</v>
+        <v>310007</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2438</v>
+        <v>0.594</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1167,19 +1173,19 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
@@ -1191,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>118440</v>
+        <v>56031</v>
       </c>
       <c r="H19" t="n">
-        <v>216717</v>
+        <v>101589</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2484</v>
+        <v>0.093</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -1210,19 +1216,19 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D20" t="n">
         <v>20</v>
@@ -1231,16 +1237,16 @@
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>47376</v>
+        <v>562362</v>
       </c>
       <c r="H20" t="n">
-        <v>211077</v>
+        <v>1039470</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1306</v>
+        <v>2.6686</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
@@ -1253,19 +1259,19 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
         <v>20</v>
@@ -1274,16 +1280,16 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23688</v>
+        <v>112518</v>
       </c>
       <c r="H21" t="n">
-        <v>103067</v>
+        <v>205817</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0512</v>
+        <v>0.2438</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
@@ -1296,19 +1302,19 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
@@ -1317,16 +1323,16 @@
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20727</v>
+        <v>118440</v>
       </c>
       <c r="H22" t="n">
-        <v>97591</v>
+        <v>216717</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0536</v>
+        <v>0.2484</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -1339,19 +1345,19 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
         <v>20</v>
@@ -1360,16 +1366,16 @@
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>85.99999999999999</v>
+        <v>304</v>
       </c>
       <c r="G23" t="n">
-        <v>32571</v>
+        <v>47376</v>
       </c>
       <c r="H23" t="n">
-        <v>98911</v>
+        <v>211077</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1316</v>
+        <v>0.1306</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -1382,41 +1388,41 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>100.0061393594561</v>
+        <v>84</v>
       </c>
       <c r="G24" t="n">
-        <v>5537</v>
+        <v>23688</v>
       </c>
       <c r="H24" t="n">
-        <v>23707</v>
+        <v>103067</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0179</v>
+        <v>0.0512</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1425,41 +1431,41 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>295101.3333333332</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G25" t="n">
-        <v>496356</v>
+        <v>20727</v>
       </c>
       <c r="H25" t="n">
-        <v>937352</v>
+        <v>97591</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8175</v>
+        <v>0.0536</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1468,41 +1474,41 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>60116</v>
+        <v>32571</v>
       </c>
       <c r="H26" t="n">
-        <v>102342</v>
+        <v>98911</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2605</v>
+        <v>0.1316</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1511,19 +1517,19 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -1532,16 +1538,16 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G27" t="n">
-        <v>34804</v>
+        <v>5537</v>
       </c>
       <c r="H27" t="n">
-        <v>99742</v>
+        <v>23707</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1609</v>
+        <v>0.0179</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -1554,37 +1560,37 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>178.7777777777777</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G28" t="n">
-        <v>8701</v>
+        <v>496356</v>
       </c>
       <c r="H28" t="n">
-        <v>24205</v>
+        <v>937352</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0183</v>
+        <v>1.8175</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -1597,37 +1603,37 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>177.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>11907</v>
+        <v>60116</v>
       </c>
       <c r="H29" t="n">
-        <v>54384</v>
+        <v>102342</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0538</v>
+        <v>0.2605</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -1640,148 +1646,142 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>2866.099999999999</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>171150</v>
+        <v>34804</v>
       </c>
       <c r="H30" t="n">
-        <v>322773</v>
+        <v>99742</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8062</v>
-      </c>
-      <c r="J30" t="n">
-        <v>140.6541011333466</v>
-      </c>
+        <v>0.1609</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10:06:45</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>1481.05</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G31" t="n">
-        <v>137130</v>
+        <v>8701</v>
       </c>
       <c r="H31" t="n">
-        <v>256923</v>
+        <v>24205</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="J31" t="n">
-        <v>91.78385400772095</v>
-      </c>
+        <v>0.0183</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>2998.900000000002</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G32" t="n">
-        <v>484526</v>
+        <v>11907</v>
       </c>
       <c r="H32" t="n">
-        <v>907193</v>
+        <v>54384</v>
       </c>
       <c r="I32" t="n">
-        <v>9.097899999999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>334.5952842235565</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18:26:57</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B33" t="n">
         <v>15</v>
@@ -1790,28 +1790,28 @@
         <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>265.4000000000001</v>
+        <v>1481.05</v>
       </c>
       <c r="G33" t="n">
-        <v>72450</v>
+        <v>137130</v>
       </c>
       <c r="H33" t="n">
-        <v>135305</v>
+        <v>256923</v>
       </c>
       <c r="I33" t="n">
-        <v>1.6791</v>
+        <v>0.9375</v>
       </c>
       <c r="J33" t="n">
-        <v>51.79183006286621</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1820,40 +1820,40 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C34" t="n">
         <v>14</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>302.6600000000017</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G34" t="n">
-        <v>64890</v>
+        <v>484526</v>
       </c>
       <c r="H34" t="n">
-        <v>120487</v>
+        <v>907193</v>
       </c>
       <c r="I34" t="n">
-        <v>1.6408</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>36.27230906486511</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K34" t="n">
         <v>20</v>
@@ -1865,13 +1865,13 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B35" t="n">
         <v>15</v>
@@ -1880,25 +1880,25 @@
         <v>14</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F35" t="n">
-        <v>230.5100000000003</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>33390</v>
+        <v>72450</v>
       </c>
       <c r="H35" t="n">
-        <v>59357</v>
+        <v>135305</v>
       </c>
       <c r="I35" t="n">
-        <v>1.1474</v>
+        <v>1.6791</v>
       </c>
       <c r="J35" t="n">
-        <v>18.94928789138794</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K35" t="n">
         <v>20</v>
@@ -1910,13 +1910,13 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" t="n">
         <v>15</v>
@@ -1925,25 +1925,25 @@
         <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>203.5600000000005</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G36" t="n">
-        <v>28350</v>
+        <v>64890</v>
       </c>
       <c r="H36" t="n">
-        <v>49723</v>
+        <v>120487</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0807</v>
+        <v>1.6408</v>
       </c>
       <c r="J36" t="n">
-        <v>16.81134915351868</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K36" t="n">
         <v>20</v>
@@ -1955,40 +1955,40 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B37" t="n">
         <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>12.7</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G37" t="n">
-        <v>11865</v>
+        <v>33390</v>
       </c>
       <c r="H37" t="n">
-        <v>20427</v>
+        <v>59357</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0203</v>
+        <v>1.1474</v>
       </c>
       <c r="J37" t="n">
-        <v>1.177000284194946</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K37" t="n">
         <v>20</v>
@@ -2000,40 +2000,40 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B38" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>35.70000000000001</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G38" t="n">
-        <v>41923</v>
+        <v>28350</v>
       </c>
       <c r="H38" t="n">
-        <v>71749</v>
+        <v>49723</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0829</v>
+        <v>1.0807</v>
       </c>
       <c r="J38" t="n">
-        <v>6.332224130630493</v>
+        <v>16.81134915351868</v>
       </c>
       <c r="K38" t="n">
         <v>20</v>
@@ -2045,40 +2045,40 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B39" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>840.5064285714258</v>
+        <v>12.7</v>
       </c>
       <c r="G39" t="n">
-        <v>100170</v>
+        <v>11865</v>
       </c>
       <c r="H39" t="n">
-        <v>174727</v>
+        <v>20427</v>
       </c>
       <c r="I39" t="n">
-        <v>239.0865</v>
+        <v>0.0203</v>
       </c>
       <c r="J39" t="n">
-        <v>315.8266220092773</v>
+        <v>1.177000284194946</v>
       </c>
       <c r="K39" t="n">
         <v>20</v>
@@ -2090,13 +2090,13 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B40" t="n">
         <v>53</v>
@@ -2105,25 +2105,25 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>34.7</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>50085</v>
+        <v>41923</v>
       </c>
       <c r="H40" t="n">
-        <v>86863</v>
+        <v>71749</v>
       </c>
       <c r="I40" t="n">
-        <v>0.107</v>
+        <v>0.0829</v>
       </c>
       <c r="J40" t="n">
-        <v>7.774892807006836</v>
+        <v>6.332224130630493</v>
       </c>
       <c r="K40" t="n">
         <v>20</v>
@@ -2135,123 +2135,127 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B41" t="n">
+        <v>53</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14</v>
+      </c>
+      <c r="D41" t="n">
         <v>11</v>
       </c>
-      <c r="C41" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>15</v>
-      </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>7.999999999999999</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G41" t="n">
-        <v>18711</v>
+        <v>100170</v>
       </c>
       <c r="H41" t="n">
-        <v>55167</v>
+        <v>174727</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>239.0865</v>
+      </c>
+      <c r="J41" t="n">
+        <v>315.8266220092773</v>
+      </c>
       <c r="K41" t="n">
         <v>20</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>32.66666666666667</v>
+        <v>34.7</v>
       </c>
       <c r="G42" t="n">
-        <v>50281</v>
+        <v>50085</v>
       </c>
       <c r="H42" t="n">
-        <v>155342</v>
+        <v>86863</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K42" t="n">
         <v>20</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>3.999999999999999</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>32382</v>
+        <v>18711</v>
       </c>
       <c r="H43" t="n">
-        <v>153575</v>
+        <v>55167</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1282</v>
+        <v>0.0654</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -2264,16 +2268,16 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
         <v>7</v>
@@ -2285,82 +2289,78 @@
         <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>35.70000000000003</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G44" t="n">
-        <v>242263</v>
+        <v>50281</v>
       </c>
       <c r="H44" t="n">
-        <v>462297</v>
+        <v>155342</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5239</v>
-      </c>
-      <c r="J44" t="n">
-        <v>64.54806518554688</v>
-      </c>
+        <v>0.1682</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>812.130000000004</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>180306</v>
+        <v>32382</v>
       </c>
       <c r="H45" t="n">
-        <v>323519</v>
+        <v>153575</v>
       </c>
       <c r="I45" t="n">
-        <v>12.3114</v>
-      </c>
-      <c r="J45" t="n">
-        <v>78.16917204856873</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B46" t="n">
         <v>53</v>
@@ -2369,28 +2369,28 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E46" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F46" t="n">
-        <v>40.70000000000001</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G46" t="n">
-        <v>90153</v>
+        <v>242263</v>
       </c>
       <c r="H46" t="n">
-        <v>161308</v>
+        <v>462297</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4574</v>
+        <v>0.5239</v>
       </c>
       <c r="J46" t="n">
-        <v>33.15888476371765</v>
+        <v>64.54806518554688</v>
       </c>
       <c r="K46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2399,102 +2399,106 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B47" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C47" t="n">
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>240.6554934823091</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G47" t="n">
-        <v>101164</v>
+        <v>180306</v>
       </c>
       <c r="H47" t="n">
-        <v>317602</v>
+        <v>323519</v>
       </c>
       <c r="I47" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J47" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K47" t="n">
         <v>18</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B48" t="n">
+        <v>53</v>
+      </c>
+      <c r="C48" t="n">
         <v>7</v>
       </c>
-      <c r="C48" t="n">
-        <v>14</v>
-      </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>16</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>64764</v>
+        <v>90153</v>
       </c>
       <c r="H48" t="n">
-        <v>314970</v>
+        <v>161308</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J48" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K48" t="n">
         <v>18</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
         <v>14</v>
@@ -2506,16 +2510,16 @@
         <v>25</v>
       </c>
       <c r="F49" t="n">
-        <v>2419.333333333333</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G49" t="n">
-        <v>173964</v>
+        <v>101164</v>
       </c>
       <c r="H49" t="n">
-        <v>322866</v>
+        <v>317602</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4497</v>
+        <v>0.487</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -2528,19 +2532,19 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
         <v>25</v>
@@ -2549,16 +2553,16 @@
         <v>25</v>
       </c>
       <c r="F50" t="n">
-        <v>602</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>86982</v>
+        <v>64764</v>
       </c>
       <c r="H50" t="n">
-        <v>171967</v>
+        <v>314970</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2673</v>
+        <v>0.2711</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
@@ -2571,19 +2575,19 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
         <v>25</v>
@@ -2592,16 +2596,16 @@
         <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>38</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G51" t="n">
-        <v>73332</v>
+        <v>173964</v>
       </c>
       <c r="H51" t="n">
-        <v>167389</v>
+        <v>322866</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1522</v>
+        <v>0.4497</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
@@ -2614,19 +2618,19 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
         <v>25</v>
@@ -2635,16 +2639,16 @@
         <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>13395</v>
+        <v>602</v>
       </c>
       <c r="G52" t="n">
-        <v>293328</v>
+        <v>86982</v>
       </c>
       <c r="H52" t="n">
-        <v>684598</v>
+        <v>171967</v>
       </c>
       <c r="I52" t="n">
-        <v>2.7488</v>
+        <v>0.2673</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
@@ -2657,19 +2661,19 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" t="n">
+        <v>16</v>
+      </c>
+      <c r="C53" t="n">
         <v>7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>25</v>
@@ -2678,16 +2682,16 @@
         <v>25</v>
       </c>
       <c r="F53" t="n">
-        <v>45.00000000000001</v>
+        <v>38</v>
       </c>
       <c r="G53" t="n">
-        <v>129528</v>
+        <v>73332</v>
       </c>
       <c r="H53" t="n">
-        <v>640400</v>
+        <v>167389</v>
       </c>
       <c r="I53" t="n">
-        <v>1.3063</v>
+        <v>0.1522</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
@@ -2700,41 +2704,41 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F54" t="n">
-        <v>33</v>
+        <v>13395</v>
       </c>
       <c r="G54" t="n">
-        <v>12292</v>
+        <v>293328</v>
       </c>
       <c r="H54" t="n">
-        <v>54509</v>
+        <v>684598</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0383</v>
+        <v>2.7488</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2743,13 +2747,13 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B55" t="n">
         <v>7</v>
@@ -2758,26 +2762,26 @@
         <v>28</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F55" t="n">
-        <v>1804.999934139618</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>76048</v>
+        <v>129528</v>
       </c>
       <c r="H55" t="n">
-        <v>229623</v>
+        <v>640400</v>
       </c>
       <c r="I55" t="n">
-        <v>44.1138</v>
+        <v>1.3063</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2786,16 +2790,16 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>7</v>
@@ -2807,16 +2811,16 @@
         <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G56" t="n">
-        <v>19012</v>
+        <v>12292</v>
       </c>
       <c r="H56" t="n">
-        <v>55785</v>
+        <v>54509</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0372</v>
+        <v>0.0383</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -2829,19 +2833,19 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>15</v>
@@ -2850,20 +2854,20 @@
         <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>190.0000000000001</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G57" t="n">
-        <v>36610</v>
+        <v>76048</v>
       </c>
       <c r="H57" t="n">
-        <v>110682</v>
+        <v>229623</v>
       </c>
       <c r="I57" t="n">
-        <v>1.3782</v>
+        <v>44.1138</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2872,19 +2876,19 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>15</v>
@@ -2893,20 +2897,20 @@
         <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>1659.5</v>
+        <v>36</v>
       </c>
       <c r="G58" t="n">
-        <v>73220</v>
+        <v>19012</v>
       </c>
       <c r="H58" t="n">
-        <v>224873</v>
+        <v>55785</v>
       </c>
       <c r="I58" t="n">
-        <v>11.8307</v>
+        <v>0.0372</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2915,16 +2919,16 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
         <v>14</v>
@@ -2936,20 +2940,20 @@
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>253</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>45696</v>
+        <v>36610</v>
       </c>
       <c r="H59" t="n">
-        <v>109671</v>
+        <v>110682</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5595</v>
+        <v>1.3782</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2958,127 +2962,127 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B60" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>83.3</v>
+        <v>1659.5</v>
       </c>
       <c r="G60" t="n">
-        <v>83846</v>
+        <v>73220</v>
       </c>
       <c r="H60" t="n">
-        <v>142303</v>
+        <v>224873</v>
       </c>
       <c r="I60" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J60" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>11.8307</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B61" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>351.5332879941108</v>
+        <v>253</v>
       </c>
       <c r="G61" t="n">
-        <v>209615</v>
+        <v>45696</v>
       </c>
       <c r="H61" t="n">
-        <v>357364</v>
+        <v>109671</v>
       </c>
       <c r="I61" t="n">
-        <v>136.8438</v>
+        <v>0.5595</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B62" t="n">
         <v>53</v>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="G62" t="n">
-        <v>784665</v>
+        <v>83846</v>
       </c>
       <c r="H62" t="n">
-        <v>1447964</v>
+        <v>142303</v>
       </c>
       <c r="I62" t="n">
-        <v>5.8677</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J62" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K62" t="n">
         <v>12</v>
       </c>
@@ -3089,37 +3093,37 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B63" t="n">
         <v>53</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G63" t="n">
-        <v>156933</v>
+        <v>209615</v>
       </c>
       <c r="H63" t="n">
-        <v>285656</v>
+        <v>357364</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5835</v>
+        <v>136.8438</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -3132,19 +3136,19 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B64" t="n">
         <v>53</v>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>20</v>
@@ -3153,16 +3157,16 @@
         <v>20</v>
       </c>
       <c r="F64" t="n">
-        <v>312.2499501315505</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>470799</v>
+        <v>784665</v>
       </c>
       <c r="H64" t="n">
-        <v>870078</v>
+        <v>1447964</v>
       </c>
       <c r="I64" t="n">
-        <v>10.5612</v>
+        <v>5.8677</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -3175,19 +3179,19 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" t="n">
         <v>53</v>
       </c>
       <c r="C65" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
         <v>20</v>
@@ -3196,16 +3200,16 @@
         <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1098531</v>
+        <v>156933</v>
       </c>
       <c r="H65" t="n">
-        <v>2032386</v>
+        <v>285656</v>
       </c>
       <c r="I65" t="n">
-        <v>5.7722</v>
+        <v>0.5835</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
@@ -3218,19 +3222,19 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" t="n">
         <v>53</v>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
         <v>20</v>
@@ -3239,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>154.4249671516788</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G66" t="n">
-        <v>313866</v>
+        <v>470799</v>
       </c>
       <c r="H66" t="n">
-        <v>579501</v>
+        <v>870078</v>
       </c>
       <c r="I66" t="n">
-        <v>1.1351</v>
+        <v>10.5612</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
@@ -3261,19 +3265,19 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D67" t="n">
         <v>20</v>
@@ -3282,20 +3286,20 @@
         <v>20</v>
       </c>
       <c r="F67" t="n">
-        <v>34.79999440044767</v>
+        <v>11.6</v>
       </c>
       <c r="G67" t="n">
-        <v>148050</v>
+        <v>1098531</v>
       </c>
       <c r="H67" t="n">
-        <v>283143</v>
+        <v>2032386</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8347</v>
+        <v>5.7722</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3304,16 +3308,16 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C68" t="n">
         <v>14</v>
@@ -3325,20 +3329,20 @@
         <v>20</v>
       </c>
       <c r="F68" t="n">
-        <v>1775.199999963032</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G68" t="n">
-        <v>153972</v>
+        <v>313866</v>
       </c>
       <c r="H68" t="n">
-        <v>293934</v>
+        <v>579501</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6929</v>
+        <v>1.1351</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3347,16 +3351,16 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
         <v>14</v>
@@ -3368,16 +3372,16 @@
         <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>1676.933333333334</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G69" t="n">
-        <v>177660</v>
+        <v>148050</v>
       </c>
       <c r="H69" t="n">
-        <v>337098</v>
+        <v>283143</v>
       </c>
       <c r="I69" t="n">
-        <v>0.753</v>
+        <v>0.8347</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
@@ -3390,16 +3394,16 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
         <v>14</v>
@@ -3411,16 +3415,16 @@
         <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>26.99999602929075</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G70" t="n">
-        <v>94752</v>
+        <v>153972</v>
       </c>
       <c r="H70" t="n">
-        <v>278913</v>
+        <v>293934</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2439</v>
+        <v>0.6929</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
@@ -3433,16 +3437,16 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>14</v>
@@ -3454,16 +3458,16 @@
         <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>19.99999388246115</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G71" t="n">
-        <v>47376</v>
+        <v>177660</v>
       </c>
       <c r="H71" t="n">
-        <v>191065</v>
+        <v>337098</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1299</v>
+        <v>0.753</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
@@ -3476,16 +3480,16 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
         <v>14</v>
@@ -3497,16 +3501,16 @@
         <v>20</v>
       </c>
       <c r="F72" t="n">
-        <v>795.6</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G72" t="n">
-        <v>82908</v>
+        <v>94752</v>
       </c>
       <c r="H72" t="n">
-        <v>193885</v>
+        <v>278913</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4943</v>
+        <v>0.2439</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
@@ -3519,37 +3523,37 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
         <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>514.8000000000001</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G73" t="n">
-        <v>22148</v>
+        <v>47376</v>
       </c>
       <c r="H73" t="n">
-        <v>46375</v>
+        <v>191065</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3576</v>
+        <v>0.1299</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
@@ -3562,37 +3566,37 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" t="n">
         <v>14</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>204</v>
+        <v>795.6</v>
       </c>
       <c r="G74" t="n">
-        <v>11074</v>
+        <v>82908</v>
       </c>
       <c r="H74" t="n">
-        <v>22904</v>
+        <v>193885</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0224</v>
+        <v>0.4943</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
@@ -3605,37 +3609,37 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>394</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>38178</v>
+        <v>22148</v>
       </c>
       <c r="H75" t="n">
-        <v>58116</v>
+        <v>46375</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.3576</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
@@ -3643,67 +3647,67 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>1578</v>
+        <v>204</v>
       </c>
       <c r="G76" t="n">
-        <v>52500</v>
+        <v>11074</v>
       </c>
       <c r="H76" t="n">
-        <v>92122</v>
+        <v>22904</v>
       </c>
       <c r="I76" t="n">
-        <v>6.5428</v>
+        <v>0.0224</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" t="n">
         <v>15</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
         <v>15</v>
@@ -3712,20 +3716,20 @@
         <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>1577.999992666665</v>
+        <v>394</v>
       </c>
       <c r="G77" t="n">
-        <v>57540</v>
+        <v>38178</v>
       </c>
       <c r="H77" t="n">
-        <v>100522</v>
+        <v>58116</v>
       </c>
       <c r="I77" t="n">
-        <v>2.1297</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3734,37 +3738,37 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>3202</v>
+        <v>1578</v>
       </c>
       <c r="G78" t="n">
-        <v>351288</v>
+        <v>52500</v>
       </c>
       <c r="H78" t="n">
-        <v>466643</v>
+        <v>92122</v>
       </c>
       <c r="I78" t="n">
-        <v>1.9582</v>
+        <v>6.5428</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
@@ -3777,37 +3781,37 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
         <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>51</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G79" t="n">
-        <v>29274</v>
+        <v>57540</v>
       </c>
       <c r="H79" t="n">
-        <v>37158</v>
+        <v>100522</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0469</v>
+        <v>2.1297</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -3820,19 +3824,19 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B80" t="n">
         <v>12</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
         <v>15</v>
@@ -3841,16 +3845,16 @@
         <v>50</v>
       </c>
       <c r="F80" t="n">
-        <v>192</v>
+        <v>3202</v>
       </c>
       <c r="G80" t="n">
-        <v>117096</v>
+        <v>351288</v>
       </c>
       <c r="H80" t="n">
-        <v>154821</v>
+        <v>466643</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2622</v>
+        <v>1.9582</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
@@ -3863,142 +3867,142 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B81" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
         <v>15</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F81" t="n">
-        <v>80.39999999999995</v>
+        <v>51</v>
       </c>
       <c r="G81" t="n">
-        <v>128790</v>
+        <v>29274</v>
       </c>
       <c r="H81" t="n">
-        <v>230986</v>
+        <v>37158</v>
       </c>
       <c r="I81" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J81" t="n">
-        <v>13</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B82" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F82" t="n">
-        <v>798.3000000000002</v>
+        <v>192</v>
       </c>
       <c r="G82" t="n">
-        <v>150255</v>
+        <v>117096</v>
       </c>
       <c r="H82" t="n">
-        <v>260064</v>
+        <v>154821</v>
       </c>
       <c r="I82" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J82" t="n">
-        <v>16</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" t="n">
         <v>53</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>991.6000000000008</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G83" t="n">
-        <v>176967</v>
+        <v>128790</v>
       </c>
       <c r="H83" t="n">
-        <v>310009</v>
+        <v>230986</v>
       </c>
       <c r="I83" t="n">
-        <v>18.2853</v>
+        <v>1.0875</v>
       </c>
       <c r="J83" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K83" t="n">
         <v>5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>15:25:32</t>
+          <t>20:52:46</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>70.88821601867676</v>
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B84" t="n">
         <v>53</v>
@@ -4007,172 +4011,176 @@
         <v>21</v>
       </c>
       <c r="D84" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F84" t="n">
-        <v>581.1349844453474</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G84" t="n">
-        <v>726789</v>
+        <v>150255</v>
       </c>
       <c r="H84" t="n">
-        <v>1394725</v>
+        <v>260064</v>
       </c>
       <c r="I84" t="n">
-        <v>390.7028</v>
+        <v>404.4721</v>
       </c>
       <c r="J84" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K84" t="n">
         <v>5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>09:22:03</t>
+          <t>17:55:00</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>562.8080189228058</v>
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B85" t="n">
         <v>52</v>
       </c>
-      <c r="B85" t="n">
-        <v>9</v>
-      </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>370</v>
+        <v>441.6662039194914</v>
       </c>
       <c r="G85" t="n">
-        <v>34524</v>
+        <v>123396</v>
       </c>
       <c r="H85" t="n">
-        <v>60034</v>
+        <v>210562</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1.1831</v>
+      </c>
+      <c r="J85" t="n">
+        <v>25</v>
+      </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>15:48:52</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>17.6006920337677</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C86" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>400</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G86" t="n">
-        <v>114660</v>
+        <v>176967</v>
       </c>
       <c r="H86" t="n">
-        <v>195602</v>
+        <v>310009</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J86" t="n">
+        <v>16</v>
+      </c>
+      <c r="K86" t="n">
+        <v>5</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F87" t="n">
-        <v>60</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G87" t="n">
-        <v>30429</v>
+        <v>726789</v>
       </c>
       <c r="H87" t="n">
-        <v>28721</v>
+        <v>1394725</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19</v>
+      </c>
+      <c r="K87" t="n">
+        <v>5</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
         <v>15</v>
@@ -4181,39 +4189,41 @@
         <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="G88" t="n">
-        <v>10143</v>
+        <v>34524</v>
       </c>
       <c r="H88" t="n">
-        <v>9575</v>
+        <v>60034</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0359</v>
+        <v>0.1695</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>10:31:13</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D89" t="n">
         <v>15</v>
@@ -4222,16 +4232,16 @@
         <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="G89" t="n">
-        <v>81144</v>
+        <v>114660</v>
       </c>
       <c r="H89" t="n">
-        <v>77690</v>
+        <v>195602</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3027</v>
+        <v>0.3841</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4242,19 +4252,19 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>15:56:14</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
         <v>15</v>
@@ -4263,16 +4273,16 @@
         <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>60858</v>
+        <v>30429</v>
       </c>
       <c r="H90" t="n">
-        <v>58151</v>
+        <v>28721</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2167</v>
+        <v>0.1367</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4283,20 +4293,20 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
         <v>7</v>
       </c>
-      <c r="C91" t="n">
-        <v>14</v>
-      </c>
       <c r="D91" t="n">
         <v>15</v>
       </c>
@@ -4304,16 +4314,16 @@
         <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>46914</v>
+        <v>10143</v>
       </c>
       <c r="H91" t="n">
-        <v>45229</v>
+        <v>9575</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1723</v>
+        <v>0.0359</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4324,19 +4334,19 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
@@ -4345,16 +4355,16 @@
         <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G92" t="n">
-        <v>70371</v>
+        <v>81144</v>
       </c>
       <c r="H92" t="n">
-        <v>68161</v>
+        <v>77690</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2664</v>
+        <v>0.3027</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4365,16 +4375,16 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
         <v>14</v>
@@ -4386,16 +4396,16 @@
         <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G93" t="n">
-        <v>20286</v>
+        <v>60858</v>
       </c>
       <c r="H93" t="n">
-        <v>19385</v>
+        <v>58151</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0702</v>
+        <v>0.2167</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4406,16 +4416,16 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B94" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
         <v>14</v>
@@ -4427,39 +4437,39 @@
         <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>1194</v>
+        <v>80</v>
       </c>
       <c r="G94" t="n">
-        <v>101430</v>
+        <v>46914</v>
       </c>
       <c r="H94" t="n">
-        <v>97112</v>
+        <v>45229</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5688</v>
+        <v>0.1723</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B95" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
         <v>15</v>
@@ -4468,39 +4478,39 @@
         <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>50715</v>
+        <v>70371</v>
       </c>
       <c r="H95" t="n">
-        <v>47867</v>
+        <v>68161</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2266</v>
+        <v>0.2664</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
         <v>15</v>
@@ -4509,57 +4519,57 @@
         <v>15</v>
       </c>
       <c r="F96" t="n">
-        <v>7950</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
-        <v>202860</v>
+        <v>20286</v>
       </c>
       <c r="H96" t="n">
-        <v>195602</v>
+        <v>19385</v>
       </c>
       <c r="I96" t="n">
-        <v>1.3571</v>
+        <v>0.0702</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B97" t="n">
         <v>15</v>
       </c>
       <c r="C97" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D97" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E97" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F97" t="n">
-        <v>41720</v>
+        <v>1194</v>
       </c>
       <c r="G97" t="n">
-        <v>1173690</v>
+        <v>101430</v>
       </c>
       <c r="H97" t="n">
-        <v>1149317</v>
+        <v>97112</v>
       </c>
       <c r="I97" t="n">
-        <v>19.0623</v>
+        <v>0.5688</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4570,37 +4580,37 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C98" t="n">
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G98" t="n">
-        <v>14049</v>
+        <v>50715</v>
       </c>
       <c r="H98" t="n">
-        <v>13151</v>
+        <v>47867</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06</v>
+        <v>0.2266</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4611,37 +4621,37 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>7950</v>
       </c>
       <c r="G99" t="n">
-        <v>10787</v>
+        <v>202860</v>
       </c>
       <c r="H99" t="n">
-        <v>10229</v>
+        <v>195602</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0394</v>
+        <v>1.3571</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4652,37 +4662,37 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="G100" t="n">
-        <v>4683</v>
+        <v>1173690</v>
       </c>
       <c r="H100" t="n">
-        <v>4385</v>
+        <v>1149317</v>
       </c>
       <c r="I100" t="n">
-        <v>0.013</v>
+        <v>19.0623</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4693,19 +4703,19 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -4720,10 +4730,10 @@
         <v>14049</v>
       </c>
       <c r="H101" t="n">
-        <v>13373</v>
+        <v>13151</v>
       </c>
       <c r="I101" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4734,19 +4744,19 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
@@ -4755,16 +4765,16 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>42147</v>
+        <v>10787</v>
       </c>
       <c r="H102" t="n">
-        <v>40115</v>
+        <v>10229</v>
       </c>
       <c r="I102" t="n">
-        <v>0.253</v>
+        <v>0.0394</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4775,142 +4785,142 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B103" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G103" t="n">
-        <v>988547</v>
+        <v>4683</v>
       </c>
       <c r="H103" t="n">
-        <v>951134</v>
+        <v>4385</v>
       </c>
       <c r="I103" t="n">
-        <v>4.1745</v>
+        <v>0.013</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D104" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="G104" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="H104" t="n">
-        <v>6861710</v>
+        <v>13373</v>
       </c>
       <c r="I104" t="n">
-        <v>183.2784</v>
+        <v>0.058</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="G105" t="n">
-        <v>424263</v>
+        <v>42147</v>
       </c>
       <c r="H105" t="n">
-        <v>407630</v>
+        <v>40115</v>
       </c>
       <c r="I105" t="n">
-        <v>1.5868</v>
+        <v>0.253</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
         <v>100</v>
@@ -4919,16 +4929,16 @@
         <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>205171</v>
+        <v>41</v>
       </c>
       <c r="G106" t="n">
-        <v>2596356</v>
+        <v>988547</v>
       </c>
       <c r="H106" t="n">
-        <v>5051654</v>
+        <v>951134</v>
       </c>
       <c r="I106" t="n">
-        <v>12.0275</v>
+        <v>4.1745</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4939,19 +4949,19 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D107" t="n">
         <v>100</v>
@@ -4960,16 +4970,16 @@
         <v>100</v>
       </c>
       <c r="F107" t="n">
-        <v>12200</v>
+        <v>54920</v>
       </c>
       <c r="G107" t="n">
-        <v>865452</v>
+        <v>6919829</v>
       </c>
       <c r="H107" t="n">
-        <v>1674182</v>
+        <v>6861710</v>
       </c>
       <c r="I107" t="n">
-        <v>2.4971</v>
+        <v>183.2784</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4980,37 +4990,37 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B108" t="n">
         <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>2519</v>
+        <v>1053</v>
       </c>
       <c r="G108" t="n">
-        <v>11172</v>
+        <v>424263</v>
       </c>
       <c r="H108" t="n">
-        <v>17867</v>
+        <v>407630</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0343</v>
+        <v>1.5868</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -5021,37 +5031,37 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B109" t="n">
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F109" t="n">
-        <v>2788</v>
+        <v>205171</v>
       </c>
       <c r="G109" t="n">
-        <v>13167</v>
+        <v>2596356</v>
       </c>
       <c r="H109" t="n">
-        <v>21077</v>
+        <v>5051654</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0473</v>
+        <v>12.0275</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -5062,37 +5072,37 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B110" t="n">
         <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>2272</v>
+        <v>12200</v>
       </c>
       <c r="G110" t="n">
-        <v>9177</v>
+        <v>865452</v>
       </c>
       <c r="H110" t="n">
-        <v>14657</v>
+        <v>1674182</v>
       </c>
       <c r="I110" t="n">
-        <v>0.027</v>
+        <v>2.4971</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5103,19 +5113,19 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B111" t="n">
         <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5124,16 +5134,16 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>2191</v>
+        <v>2519</v>
       </c>
       <c r="G111" t="n">
-        <v>5187</v>
+        <v>11172</v>
       </c>
       <c r="H111" t="n">
-        <v>8237</v>
+        <v>17867</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0143</v>
+        <v>0.0343</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5144,19 +5154,19 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B112" t="n">
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
@@ -5165,16 +5175,16 @@
         <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>171</v>
+        <v>2788</v>
       </c>
       <c r="G112" t="n">
-        <v>1197</v>
+        <v>13167</v>
       </c>
       <c r="H112" t="n">
-        <v>1817</v>
+        <v>21077</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0024</v>
+        <v>0.0473</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5185,19 +5195,19 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D113" t="n">
         <v>10</v>
@@ -5206,78 +5216,80 @@
         <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>21</v>
+        <v>2272</v>
       </c>
       <c r="G113" t="n">
-        <v>858</v>
+        <v>9177</v>
       </c>
       <c r="H113" t="n">
-        <v>1212</v>
+        <v>14657</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0022</v>
+        <v>0.027</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
-      </c>
-      <c r="F114" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2191</v>
+      </c>
       <c r="G114" t="n">
-        <v>348</v>
+        <v>5187</v>
       </c>
       <c r="H114" t="n">
-        <v>282</v>
+        <v>8237</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
         <v>10</v>
@@ -5285,38 +5297,40 @@
       <c r="E115" t="n">
         <v>10</v>
       </c>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>171</v>
+      </c>
       <c r="G115" t="n">
-        <v>8008</v>
+        <v>1197</v>
       </c>
       <c r="H115" t="n">
-        <v>11912</v>
+        <v>1817</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0174</v>
+        <v>0.0024</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116" t="n">
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
         <v>10</v>
@@ -5324,51 +5338,53 @@
       <c r="E116" t="n">
         <v>10</v>
       </c>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>21</v>
+      </c>
       <c r="G116" t="n">
-        <v>572</v>
+        <v>858</v>
       </c>
       <c r="H116" t="n">
-        <v>784</v>
+        <v>1212</v>
       </c>
       <c r="I116" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
       </c>
       <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
         <v>1</v>
       </c>
-      <c r="D117" t="n">
-        <v>10</v>
-      </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H117" t="n">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="I117" t="n">
         <v>0.0001</v>
@@ -5377,24 +5393,24 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B118" t="n">
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -5404,13 +5420,13 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>1430</v>
+        <v>8008</v>
       </c>
       <c r="H118" t="n">
-        <v>2068</v>
+        <v>11912</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0029</v>
+        <v>0.0174</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5421,19 +5437,19 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B119" t="n">
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
         <v>10</v>
@@ -5443,13 +5459,13 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>1144</v>
+        <v>572</v>
       </c>
       <c r="H119" t="n">
-        <v>1640</v>
+        <v>784</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0028</v>
+        <v>0.001</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5460,19 +5476,19 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>10</v>
@@ -5482,13 +5498,13 @@
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>3990</v>
+        <v>286</v>
       </c>
       <c r="H120" t="n">
-        <v>6200</v>
+        <v>356</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5499,19 +5515,19 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" t="n">
         <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -5521,13 +5537,13 @@
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="H121" t="n">
-        <v>4120</v>
+        <v>2068</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0119</v>
+        <v>0.0029</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5538,19 +5554,19 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+      <c r="C122" t="n">
         <v>4</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>10</v>
       </c>
       <c r="D122" t="n">
         <v>10</v>
@@ -5560,13 +5576,13 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>6250</v>
+        <v>1144</v>
       </c>
       <c r="H122" t="n">
-        <v>10697</v>
+        <v>1640</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0162</v>
+        <v>0.0028</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5577,19 +5593,19 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B123" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -5599,13 +5615,13 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>14230</v>
+        <v>3990</v>
       </c>
       <c r="H123" t="n">
-        <v>23531</v>
+        <v>6200</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0366</v>
+        <v>0.0072</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5616,19 +5632,19 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B124" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
         <v>10</v>
@@ -5638,13 +5654,13 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>7115</v>
+        <v>2860</v>
       </c>
       <c r="H124" t="n">
-        <v>11761</v>
+        <v>4120</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0116</v>
+        <v>0.0119</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5655,19 +5671,19 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
         <v>10</v>
@@ -5677,13 +5693,13 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H125" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0098</v>
+        <v>0.0162</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5694,57 +5710,55 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
-        <v>15</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>46032</v>
+        <v>14230</v>
       </c>
       <c r="H126" t="n">
-        <v>80278</v>
+        <v>23531</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2189</v>
+        <v>0.0366</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C127" t="n">
         <v>5</v>
@@ -5757,29 +5771,33 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H127" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I127" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C128" t="n">
         <v>5</v>
@@ -5792,60 +5810,74 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H128" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0064</v>
+        <v>0.0098</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B129" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C129" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
-      </c>
-      <c r="F129" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3338</v>
+      </c>
       <c r="G129" t="n">
-        <v>11370</v>
+        <v>46032</v>
       </c>
       <c r="H129" t="n">
-        <v>19253</v>
+        <v>80278</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0334</v>
+        <v>0.2189</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C130" t="n">
         <v>5</v>
@@ -5858,18 +5890,119 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H130" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0071</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" t="n">
+        <v>10</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10</v>
+      </c>
+      <c r="E132" t="n">
+        <v>10</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H132" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,38 +430,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>454.9200000000004</v>
+        <v>192.169958727693</v>
       </c>
       <c r="G2" t="n">
-        <v>171150</v>
+        <v>130284</v>
       </c>
       <c r="H2" t="n">
-        <v>328653</v>
+        <v>243314</v>
       </c>
       <c r="I2" t="n">
-        <v>17.4979</v>
+        <v>102.9669</v>
       </c>
       <c r="J2" t="n">
-        <v>111.6140871047974</v>
+        <v>116.1777791976929</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22:15:34</t>
+          <t>13:07:02</t>
         </is>
       </c>
     </row>
@@ -821,37 +821,37 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>132.9200000000002</v>
+        <v>193.9599974842045</v>
       </c>
       <c r="G11" t="n">
-        <v>88830</v>
+        <v>201124</v>
       </c>
       <c r="H11" t="n">
-        <v>163893</v>
+        <v>379954</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4003</v>
+        <v>241.8352</v>
       </c>
       <c r="J11" t="n">
-        <v>54.70359301567078</v>
+        <v>262.9411120414734</v>
       </c>
       <c r="K11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -860,43 +860,43 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>22:03:17</t>
+          <t>12:55:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>452.4166163610693</v>
+        <v>222.4827865570479</v>
       </c>
       <c r="G12" t="n">
-        <v>307944</v>
+        <v>102060</v>
       </c>
       <c r="H12" t="n">
-        <v>578609</v>
+        <v>186422</v>
       </c>
       <c r="I12" t="n">
-        <v>276.8241</v>
+        <v>39.1324</v>
       </c>
       <c r="J12" t="n">
-        <v>515.666118144989</v>
+        <v>49.38049507141113</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -905,43 +905,43 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20:58:57</t>
+          <t>11:48:39</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>86.37333333333341</v>
+        <v>141.7085714285718</v>
       </c>
       <c r="G13" t="n">
-        <v>296660</v>
+        <v>35595</v>
       </c>
       <c r="H13" t="n">
-        <v>572139</v>
+        <v>62763</v>
       </c>
       <c r="I13" t="n">
-        <v>1.3724</v>
+        <v>4.9841</v>
       </c>
       <c r="J13" t="n">
-        <v>40.32892489433289</v>
+        <v>8.940745115280151</v>
       </c>
       <c r="K13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20:47:34</t>
+          <t>11:46:45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B14" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>14</v>
@@ -971,22 +971,22 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>367.8516666666674</v>
+        <v>81.34857142857149</v>
       </c>
       <c r="G14" t="n">
-        <v>82264</v>
+        <v>23730</v>
       </c>
       <c r="H14" t="n">
-        <v>141444</v>
+        <v>41784</v>
       </c>
       <c r="I14" t="n">
-        <v>242.5427</v>
+        <v>0.9609</v>
       </c>
       <c r="J14" t="n">
-        <v>253.2486069202423</v>
+        <v>3.573290348052979</v>
       </c>
       <c r="K14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -995,43 +995,43 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16:13:40</t>
+          <t>11:42:53</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3541666666666663</v>
+        <v>134.9200000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>41132</v>
+        <v>88830</v>
       </c>
       <c r="H15" t="n">
-        <v>69806</v>
+        <v>165069</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1328</v>
+        <v>2.392</v>
       </c>
       <c r="J15" t="n">
-        <v>5.808650016784668</v>
+        <v>37.7786431312561</v>
       </c>
       <c r="K15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1040,43 +1040,43 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15:42:52</t>
+          <t>11:32:42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3541666666666663</v>
+        <v>110.9600000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>45087</v>
+        <v>171150</v>
       </c>
       <c r="H16" t="n">
-        <v>76551</v>
+        <v>353349</v>
       </c>
       <c r="I16" t="n">
-        <v>0.153</v>
+        <v>1.3947</v>
       </c>
       <c r="J16" t="n">
-        <v>6.129974126815796</v>
+        <v>53.02288413047791</v>
       </c>
       <c r="K16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1085,40 +1085,40 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14:48:06</t>
+          <t>08:25:22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>12.7</v>
+        <v>452.4166163610693</v>
       </c>
       <c r="G17" t="n">
-        <v>15820</v>
+        <v>307944</v>
       </c>
       <c r="H17" t="n">
-        <v>26962</v>
+        <v>578609</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0307</v>
+        <v>276.8241</v>
       </c>
       <c r="J17" t="n">
-        <v>2.667943239212036</v>
+        <v>515.666118144989</v>
       </c>
       <c r="K17" t="n">
         <v>25</v>
@@ -1130,234 +1130,244 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12:13:53</t>
+          <t>20:58:57</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>86.37333333333341</v>
       </c>
       <c r="G18" t="n">
-        <v>168549</v>
+        <v>296660</v>
       </c>
       <c r="H18" t="n">
-        <v>310007</v>
+        <v>572139</v>
       </c>
       <c r="I18" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1.3724</v>
+      </c>
+      <c r="J18" t="n">
+        <v>40.32892489433289</v>
+      </c>
       <c r="K18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>20:47:34</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>367.8516666666674</v>
       </c>
       <c r="G19" t="n">
-        <v>56031</v>
+        <v>82264</v>
       </c>
       <c r="H19" t="n">
-        <v>101589</v>
+        <v>141444</v>
       </c>
       <c r="I19" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>242.5427</v>
+      </c>
+      <c r="J19" t="n">
+        <v>253.2486069202423</v>
+      </c>
       <c r="K19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>16:13:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G20" t="n">
-        <v>562362</v>
+        <v>41132</v>
       </c>
       <c r="H20" t="n">
-        <v>1039470</v>
+        <v>69806</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6686</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0.1328</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.808650016784668</v>
+      </c>
       <c r="K20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>15:42:52</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G21" t="n">
-        <v>112518</v>
+        <v>45087</v>
       </c>
       <c r="H21" t="n">
-        <v>205817</v>
+        <v>76551</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2438</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0.153</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.129974126815796</v>
+      </c>
       <c r="K21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>14:48:06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G22" t="n">
-        <v>118440</v>
+        <v>15820</v>
       </c>
       <c r="H22" t="n">
-        <v>216717</v>
+        <v>26962</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2484</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0.0307</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.667943239212036</v>
+      </c>
       <c r="K22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>12:13:53</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
         <v>20</v>
@@ -1366,16 +1376,16 @@
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>47376</v>
+        <v>168549</v>
       </c>
       <c r="H23" t="n">
-        <v>211077</v>
+        <v>310007</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1306</v>
+        <v>0.594</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -1388,16 +1398,16 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>7</v>
@@ -1409,16 +1419,16 @@
         <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23688</v>
+        <v>56031</v>
       </c>
       <c r="H24" t="n">
-        <v>103067</v>
+        <v>101589</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0512</v>
+        <v>0.093</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -1431,19 +1441,19 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
         <v>20</v>
@@ -1452,16 +1462,16 @@
         <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>20727</v>
+        <v>562362</v>
       </c>
       <c r="H25" t="n">
-        <v>97591</v>
+        <v>1039470</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0536</v>
+        <v>2.6686</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -1474,19 +1484,19 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
         <v>20</v>
@@ -1495,16 +1505,16 @@
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>85.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>32571</v>
+        <v>112518</v>
       </c>
       <c r="H26" t="n">
-        <v>98911</v>
+        <v>205817</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1316</v>
+        <v>0.2438</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -1517,41 +1527,41 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>100.0061393594561</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>5537</v>
+        <v>118440</v>
       </c>
       <c r="H27" t="n">
-        <v>23707</v>
+        <v>216717</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0179</v>
+        <v>0.2484</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1560,41 +1570,41 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>295101.3333333332</v>
+        <v>304</v>
       </c>
       <c r="G28" t="n">
-        <v>496356</v>
+        <v>47376</v>
       </c>
       <c r="H28" t="n">
-        <v>937352</v>
+        <v>211077</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8175</v>
+        <v>0.1306</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1603,41 +1613,41 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G29" t="n">
-        <v>60116</v>
+        <v>23688</v>
       </c>
       <c r="H29" t="n">
-        <v>102342</v>
+        <v>103067</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2605</v>
+        <v>0.0512</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1646,41 +1656,41 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G30" t="n">
-        <v>34804</v>
+        <v>20727</v>
       </c>
       <c r="H30" t="n">
-        <v>99742</v>
+        <v>97591</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1609</v>
+        <v>0.0536</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1689,13 +1699,13 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B31" t="n">
         <v>11</v>
@@ -1704,26 +1714,26 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>178.7777777777777</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>8701</v>
+        <v>32571</v>
       </c>
       <c r="H31" t="n">
-        <v>24205</v>
+        <v>98911</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0183</v>
+        <v>0.1316</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1732,13 +1742,13 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B32" t="n">
         <v>7</v>
@@ -1747,22 +1757,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>177.1111111111111</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G32" t="n">
-        <v>11907</v>
+        <v>5537</v>
       </c>
       <c r="H32" t="n">
-        <v>54384</v>
+        <v>23707</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0538</v>
+        <v>0.0179</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -1775,238 +1785,228 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>1481.05</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G33" t="n">
-        <v>137130</v>
+        <v>496356</v>
       </c>
       <c r="H33" t="n">
-        <v>256923</v>
+        <v>937352</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="J33" t="n">
-        <v>91.78385400772095</v>
-      </c>
+        <v>1.8175</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B34" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>2998.900000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>484526</v>
+        <v>60116</v>
       </c>
       <c r="H34" t="n">
-        <v>907193</v>
+        <v>102342</v>
       </c>
       <c r="I34" t="n">
-        <v>9.097899999999999</v>
-      </c>
-      <c r="J34" t="n">
-        <v>334.5952842235565</v>
-      </c>
+        <v>0.2605</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>18:26:57</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>265.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>72450</v>
+        <v>34804</v>
       </c>
       <c r="H35" t="n">
-        <v>135305</v>
+        <v>99742</v>
       </c>
       <c r="I35" t="n">
-        <v>1.6791</v>
-      </c>
-      <c r="J35" t="n">
-        <v>51.79183006286621</v>
-      </c>
+        <v>0.1609</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>302.6600000000017</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G36" t="n">
-        <v>64890</v>
+        <v>8701</v>
       </c>
       <c r="H36" t="n">
-        <v>120487</v>
+        <v>24205</v>
       </c>
       <c r="I36" t="n">
-        <v>1.6408</v>
-      </c>
-      <c r="J36" t="n">
-        <v>36.27230906486511</v>
-      </c>
+        <v>0.0183</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>230.5100000000003</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>33390</v>
+        <v>11907</v>
       </c>
       <c r="H37" t="n">
-        <v>59357</v>
+        <v>54384</v>
       </c>
       <c r="I37" t="n">
-        <v>1.1474</v>
-      </c>
-      <c r="J37" t="n">
-        <v>18.94928789138794</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B38" t="n">
         <v>15</v>
@@ -2015,28 +2015,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>203.5600000000005</v>
+        <v>1481.05</v>
       </c>
       <c r="G38" t="n">
-        <v>28350</v>
+        <v>137130</v>
       </c>
       <c r="H38" t="n">
-        <v>49723</v>
+        <v>256923</v>
       </c>
       <c r="I38" t="n">
-        <v>1.0807</v>
+        <v>0.9375</v>
       </c>
       <c r="J38" t="n">
-        <v>16.81134915351868</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2045,40 +2045,40 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F39" t="n">
-        <v>12.7</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G39" t="n">
-        <v>11865</v>
+        <v>484526</v>
       </c>
       <c r="H39" t="n">
-        <v>20427</v>
+        <v>907193</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0203</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>1.177000284194946</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K39" t="n">
         <v>20</v>
@@ -2090,40 +2090,40 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B40" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F40" t="n">
-        <v>35.70000000000001</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>41923</v>
+        <v>72450</v>
       </c>
       <c r="H40" t="n">
-        <v>71749</v>
+        <v>135305</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0829</v>
+        <v>1.6791</v>
       </c>
       <c r="J40" t="n">
-        <v>6.332224130630493</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K40" t="n">
         <v>20</v>
@@ -2135,40 +2135,40 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B41" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
         <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>840.5064285714258</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G41" t="n">
-        <v>100170</v>
+        <v>64890</v>
       </c>
       <c r="H41" t="n">
-        <v>174727</v>
+        <v>120487</v>
       </c>
       <c r="I41" t="n">
-        <v>239.0865</v>
+        <v>1.6408</v>
       </c>
       <c r="J41" t="n">
-        <v>315.8266220092773</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K41" t="n">
         <v>20</v>
@@ -2180,40 +2180,40 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B42" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>34.7</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G42" t="n">
-        <v>50085</v>
+        <v>33390</v>
       </c>
       <c r="H42" t="n">
-        <v>86863</v>
+        <v>59357</v>
       </c>
       <c r="I42" t="n">
-        <v>0.107</v>
+        <v>1.1474</v>
       </c>
       <c r="J42" t="n">
-        <v>7.774892807006836</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K42" t="n">
         <v>20</v>
@@ -2225,172 +2225,178 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B43" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" t="n">
         <v>11</v>
       </c>
-      <c r="C43" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>15</v>
-      </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>7.999999999999999</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G43" t="n">
-        <v>18711</v>
+        <v>28350</v>
       </c>
       <c r="H43" t="n">
-        <v>55167</v>
+        <v>49723</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1.0807</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16.81134915351868</v>
+      </c>
       <c r="K43" t="n">
         <v>20</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>32.66666666666667</v>
+        <v>12.7</v>
       </c>
       <c r="G44" t="n">
-        <v>50281</v>
+        <v>11865</v>
       </c>
       <c r="H44" t="n">
-        <v>155342</v>
+        <v>20427</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0.0203</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.177000284194946</v>
+      </c>
       <c r="K44" t="n">
         <v>20</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>3.999999999999999</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>32382</v>
+        <v>41923</v>
       </c>
       <c r="H45" t="n">
-        <v>153575</v>
+        <v>71749</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0.0829</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.332224130630493</v>
+      </c>
       <c r="K45" t="n">
         <v>20</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" t="n">
         <v>53</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>35.70000000000003</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G46" t="n">
-        <v>242263</v>
+        <v>100170</v>
       </c>
       <c r="H46" t="n">
-        <v>462297</v>
+        <v>174727</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5239</v>
+        <v>239.0865</v>
       </c>
       <c r="J46" t="n">
-        <v>64.54806518554688</v>
+        <v>315.8266220092773</v>
       </c>
       <c r="K46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2399,43 +2405,43 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B47" t="n">
         <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>812.130000000004</v>
+        <v>34.7</v>
       </c>
       <c r="G47" t="n">
-        <v>180306</v>
+        <v>50085</v>
       </c>
       <c r="H47" t="n">
-        <v>323519</v>
+        <v>86863</v>
       </c>
       <c r="I47" t="n">
-        <v>12.3114</v>
+        <v>0.107</v>
       </c>
       <c r="J47" t="n">
-        <v>78.16917204856873</v>
+        <v>7.774892807006836</v>
       </c>
       <c r="K47" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2444,16 +2450,16 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B48" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
@@ -2465,43 +2471,41 @@
         <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>40.70000000000001</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>90153</v>
+        <v>18711</v>
       </c>
       <c r="H48" t="n">
-        <v>161308</v>
+        <v>55167</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4574</v>
-      </c>
-      <c r="J48" t="n">
-        <v>33.15888476371765</v>
-      </c>
+        <v>0.0654</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="n">
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>25</v>
@@ -2510,20 +2514,20 @@
         <v>25</v>
       </c>
       <c r="F49" t="n">
-        <v>240.6554934823091</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G49" t="n">
-        <v>101164</v>
+        <v>50281</v>
       </c>
       <c r="H49" t="n">
-        <v>317602</v>
+        <v>155342</v>
       </c>
       <c r="I49" t="n">
-        <v>0.487</v>
+        <v>0.1682</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2532,19 +2536,19 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" t="n">
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
         <v>25</v>
@@ -2553,20 +2557,20 @@
         <v>25</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>64764</v>
+        <v>32382</v>
       </c>
       <c r="H50" t="n">
-        <v>314970</v>
+        <v>153575</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2711</v>
+        <v>0.1282</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2575,19 +2579,19 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B51" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>25</v>
@@ -2596,127 +2600,133 @@
         <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>2419.333333333333</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G51" t="n">
-        <v>173964</v>
+        <v>242263</v>
       </c>
       <c r="H51" t="n">
-        <v>322866</v>
+        <v>462297</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0.5239</v>
+      </c>
+      <c r="J51" t="n">
+        <v>64.54806518554688</v>
+      </c>
       <c r="K51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B52" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>602</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G52" t="n">
-        <v>86982</v>
+        <v>180306</v>
       </c>
       <c r="H52" t="n">
-        <v>171967</v>
+        <v>323519</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2673</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J52" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K52" t="n">
         <v>18</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>38</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>73332</v>
+        <v>90153</v>
       </c>
       <c r="H53" t="n">
-        <v>167389</v>
+        <v>161308</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J53" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K53" t="n">
         <v>18</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
         <v>25</v>
@@ -2725,16 +2735,16 @@
         <v>25</v>
       </c>
       <c r="F54" t="n">
-        <v>13395</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G54" t="n">
-        <v>293328</v>
+        <v>101164</v>
       </c>
       <c r="H54" t="n">
-        <v>684598</v>
+        <v>317602</v>
       </c>
       <c r="I54" t="n">
-        <v>2.7488</v>
+        <v>0.487</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
@@ -2747,19 +2757,19 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B55" t="n">
         <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
         <v>25</v>
@@ -2768,16 +2778,16 @@
         <v>25</v>
       </c>
       <c r="F55" t="n">
-        <v>45.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>129528</v>
+        <v>64764</v>
       </c>
       <c r="H55" t="n">
-        <v>640400</v>
+        <v>314970</v>
       </c>
       <c r="I55" t="n">
-        <v>1.3063</v>
+        <v>0.2711</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -2790,41 +2800,41 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>33</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G56" t="n">
-        <v>12292</v>
+        <v>173964</v>
       </c>
       <c r="H56" t="n">
-        <v>54509</v>
+        <v>322866</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0383</v>
+        <v>0.4497</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2833,41 +2843,41 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B57" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" t="n">
         <v>7</v>
       </c>
-      <c r="C57" t="n">
-        <v>28</v>
-      </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F57" t="n">
-        <v>1804.999934139618</v>
+        <v>602</v>
       </c>
       <c r="G57" t="n">
-        <v>76048</v>
+        <v>86982</v>
       </c>
       <c r="H57" t="n">
-        <v>229623</v>
+        <v>171967</v>
       </c>
       <c r="I57" t="n">
-        <v>44.1138</v>
+        <v>0.2673</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2876,41 +2886,41 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="n">
-        <v>19012</v>
+        <v>73332</v>
       </c>
       <c r="H58" t="n">
-        <v>55785</v>
+        <v>167389</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0372</v>
+        <v>0.1522</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2919,41 +2929,41 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F59" t="n">
-        <v>190.0000000000001</v>
+        <v>13395</v>
       </c>
       <c r="G59" t="n">
-        <v>36610</v>
+        <v>293328</v>
       </c>
       <c r="H59" t="n">
-        <v>110682</v>
+        <v>684598</v>
       </c>
       <c r="I59" t="n">
-        <v>1.3782</v>
+        <v>2.7488</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2962,41 +2972,41 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
         <v>28</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F60" t="n">
-        <v>1659.5</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>73220</v>
+        <v>129528</v>
       </c>
       <c r="H60" t="n">
-        <v>224873</v>
+        <v>640400</v>
       </c>
       <c r="I60" t="n">
-        <v>11.8307</v>
+        <v>1.3063</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3005,20 +3015,20 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
         <v>7</v>
       </c>
-      <c r="C61" t="n">
-        <v>14</v>
-      </c>
       <c r="D61" t="n">
         <v>15</v>
       </c>
@@ -3026,20 +3036,20 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="G61" t="n">
-        <v>45696</v>
+        <v>12292</v>
       </c>
       <c r="H61" t="n">
-        <v>109671</v>
+        <v>54509</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5595</v>
+        <v>0.0383</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3048,256 +3058,256 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>83.3</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G62" t="n">
-        <v>83846</v>
+        <v>76048</v>
       </c>
       <c r="H62" t="n">
-        <v>142303</v>
+        <v>229623</v>
       </c>
       <c r="I62" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J62" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>44.1138</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>351.5332879941108</v>
+        <v>36</v>
       </c>
       <c r="G63" t="n">
-        <v>209615</v>
+        <v>19012</v>
       </c>
       <c r="H63" t="n">
-        <v>357364</v>
+        <v>55785</v>
       </c>
       <c r="I63" t="n">
-        <v>136.8438</v>
+        <v>0.0372</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>784665</v>
+        <v>36610</v>
       </c>
       <c r="H64" t="n">
-        <v>1447964</v>
+        <v>110682</v>
       </c>
       <c r="I64" t="n">
-        <v>5.8677</v>
+        <v>1.3782</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B65" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1659.5</v>
       </c>
       <c r="G65" t="n">
-        <v>156933</v>
+        <v>73220</v>
       </c>
       <c r="H65" t="n">
-        <v>285656</v>
+        <v>224873</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5835</v>
+        <v>11.8307</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B66" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>312.2499501315505</v>
+        <v>253</v>
       </c>
       <c r="G66" t="n">
-        <v>470799</v>
+        <v>45696</v>
       </c>
       <c r="H66" t="n">
-        <v>870078</v>
+        <v>109671</v>
       </c>
       <c r="I66" t="n">
-        <v>10.5612</v>
+        <v>0.5595</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B67" t="n">
         <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>11.6</v>
+        <v>83.3</v>
       </c>
       <c r="G67" t="n">
-        <v>1098531</v>
+        <v>83846</v>
       </c>
       <c r="H67" t="n">
-        <v>2032386</v>
+        <v>142303</v>
       </c>
       <c r="I67" t="n">
-        <v>5.7722</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K67" t="n">
         <v>12</v>
       </c>
@@ -3308,37 +3318,37 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B68" t="n">
         <v>53</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>154.4249671516788</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G68" t="n">
-        <v>313866</v>
+        <v>209615</v>
       </c>
       <c r="H68" t="n">
-        <v>579501</v>
+        <v>357364</v>
       </c>
       <c r="I68" t="n">
-        <v>1.1351</v>
+        <v>136.8438</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
@@ -3351,19 +3361,19 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>20</v>
@@ -3372,20 +3382,20 @@
         <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>34.79999440044767</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>148050</v>
+        <v>784665</v>
       </c>
       <c r="H69" t="n">
-        <v>283143</v>
+        <v>1447964</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8347</v>
+        <v>5.8677</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3394,19 +3404,19 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
         <v>20</v>
@@ -3415,20 +3425,20 @@
         <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>1775.199999963032</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>153972</v>
+        <v>156933</v>
       </c>
       <c r="H70" t="n">
-        <v>293934</v>
+        <v>285656</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6929</v>
+        <v>0.5835</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3437,19 +3447,19 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C71" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
         <v>20</v>
@@ -3458,20 +3468,20 @@
         <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>1676.933333333334</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G71" t="n">
-        <v>177660</v>
+        <v>470799</v>
       </c>
       <c r="H71" t="n">
-        <v>337098</v>
+        <v>870078</v>
       </c>
       <c r="I71" t="n">
-        <v>0.753</v>
+        <v>10.5612</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3480,19 +3490,19 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B72" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D72" t="n">
         <v>20</v>
@@ -3501,20 +3511,20 @@
         <v>20</v>
       </c>
       <c r="F72" t="n">
-        <v>26.99999602929075</v>
+        <v>11.6</v>
       </c>
       <c r="G72" t="n">
-        <v>94752</v>
+        <v>1098531</v>
       </c>
       <c r="H72" t="n">
-        <v>278913</v>
+        <v>2032386</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2439</v>
+        <v>5.7722</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3523,16 +3533,16 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C73" t="n">
         <v>14</v>
@@ -3544,20 +3554,20 @@
         <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>19.99999388246115</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G73" t="n">
-        <v>47376</v>
+        <v>313866</v>
       </c>
       <c r="H73" t="n">
-        <v>191065</v>
+        <v>579501</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1299</v>
+        <v>1.1351</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3566,16 +3576,16 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B74" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
         <v>14</v>
@@ -3587,16 +3597,16 @@
         <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>795.6</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G74" t="n">
-        <v>82908</v>
+        <v>148050</v>
       </c>
       <c r="H74" t="n">
-        <v>193885</v>
+        <v>283143</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4943</v>
+        <v>0.8347</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
@@ -3609,37 +3619,37 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C75" t="n">
         <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>514.8000000000001</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G75" t="n">
-        <v>22148</v>
+        <v>153972</v>
       </c>
       <c r="H75" t="n">
-        <v>46375</v>
+        <v>293934</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3576</v>
+        <v>0.6929</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
@@ -3652,37 +3662,37 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B76" t="n">
+        <v>30</v>
+      </c>
+      <c r="C76" t="n">
         <v>14</v>
       </c>
-      <c r="C76" t="n">
-        <v>7</v>
-      </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F76" t="n">
-        <v>204</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G76" t="n">
-        <v>11074</v>
+        <v>177660</v>
       </c>
       <c r="H76" t="n">
-        <v>22904</v>
+        <v>337098</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0224</v>
+        <v>0.753</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
@@ -3695,37 +3705,37 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>394</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G77" t="n">
-        <v>38178</v>
+        <v>94752</v>
       </c>
       <c r="H77" t="n">
-        <v>58116</v>
+        <v>278913</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.2439</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
@@ -3733,193 +3743,193 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
         <v>14</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>1578</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G78" t="n">
-        <v>52500</v>
+        <v>47376</v>
       </c>
       <c r="H78" t="n">
-        <v>92122</v>
+        <v>191065</v>
       </c>
       <c r="I78" t="n">
-        <v>6.5428</v>
+        <v>0.1299</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" t="n">
         <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>1577.999992666665</v>
+        <v>795.6</v>
       </c>
       <c r="G79" t="n">
-        <v>57540</v>
+        <v>82908</v>
       </c>
       <c r="H79" t="n">
-        <v>100522</v>
+        <v>193885</v>
       </c>
       <c r="I79" t="n">
-        <v>2.1297</v>
+        <v>0.4943</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>18:18:14</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>3202</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>351288</v>
+        <v>22148</v>
       </c>
       <c r="H80" t="n">
-        <v>466643</v>
+        <v>46375</v>
       </c>
       <c r="I80" t="n">
-        <v>1.9582</v>
+        <v>0.3576</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C81" t="n">
         <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="G81" t="n">
-        <v>29274</v>
+        <v>11074</v>
       </c>
       <c r="H81" t="n">
-        <v>37158</v>
+        <v>22904</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0469</v>
+        <v>0.0224</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
         <v>7</v>
@@ -3928,23 +3938,23 @@
         <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>192</v>
+        <v>394</v>
       </c>
       <c r="G82" t="n">
-        <v>117096</v>
+        <v>38178</v>
       </c>
       <c r="H82" t="n">
-        <v>154821</v>
+        <v>58116</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2622</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3953,19 +3963,19 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B83" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D83" t="n">
         <v>15</v>
@@ -3974,213 +3984,213 @@
         <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>80.39999999999995</v>
+        <v>1578</v>
       </c>
       <c r="G83" t="n">
-        <v>128790</v>
+        <v>52500</v>
       </c>
       <c r="H83" t="n">
-        <v>230986</v>
+        <v>92122</v>
       </c>
       <c r="I83" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J83" t="n">
-        <v>13</v>
-      </c>
+        <v>6.5428</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>15:40:32</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B84" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>798.3000000000002</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G84" t="n">
-        <v>150255</v>
+        <v>57540</v>
       </c>
       <c r="H84" t="n">
-        <v>260064</v>
+        <v>100522</v>
       </c>
       <c r="I84" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J84" t="n">
-        <v>16</v>
-      </c>
+        <v>2.1297</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>13:15:26</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="B85" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C85" t="n">
         <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F85" t="n">
-        <v>441.6662039194914</v>
+        <v>3202</v>
       </c>
       <c r="G85" t="n">
-        <v>123396</v>
+        <v>351288</v>
       </c>
       <c r="H85" t="n">
-        <v>210562</v>
+        <v>466643</v>
       </c>
       <c r="I85" t="n">
-        <v>1.1831</v>
-      </c>
-      <c r="J85" t="n">
-        <v>25</v>
-      </c>
+        <v>1.9582</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>15:48:52</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>17.6006920337677</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B86" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F86" t="n">
-        <v>991.6000000000008</v>
+        <v>51</v>
       </c>
       <c r="G86" t="n">
-        <v>176967</v>
+        <v>29274</v>
       </c>
       <c r="H86" t="n">
-        <v>310009</v>
+        <v>37158</v>
       </c>
       <c r="I86" t="n">
-        <v>18.2853</v>
-      </c>
-      <c r="J86" t="n">
-        <v>16</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>15:25:32</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>70.88821601867676</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B87" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F87" t="n">
-        <v>581.1349844453474</v>
+        <v>192</v>
       </c>
       <c r="G87" t="n">
-        <v>726789</v>
+        <v>117096</v>
       </c>
       <c r="H87" t="n">
-        <v>1394725</v>
+        <v>154821</v>
       </c>
       <c r="I87" t="n">
-        <v>390.7028</v>
-      </c>
-      <c r="J87" t="n">
-        <v>19</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>09:22:03</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>562.8080189228058</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
         <v>15</v>
@@ -4189,164 +4199,170 @@
         <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>370</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G88" t="n">
-        <v>34524</v>
+        <v>128790</v>
       </c>
       <c r="H88" t="n">
-        <v>60034</v>
+        <v>230986</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>1.0875</v>
+      </c>
+      <c r="J88" t="n">
+        <v>13</v>
+      </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>20:52:46</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C89" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>400</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G89" t="n">
-        <v>114660</v>
+        <v>150255</v>
       </c>
       <c r="H89" t="n">
-        <v>195602</v>
+        <v>260064</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3841</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>404.4721</v>
+      </c>
+      <c r="J89" t="n">
+        <v>16</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>15:56:14</t>
-        </is>
+          <t>17:55:00</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>60</v>
+        <v>441.6662039194914</v>
       </c>
       <c r="G90" t="n">
-        <v>30429</v>
+        <v>123396</v>
       </c>
       <c r="H90" t="n">
-        <v>28721</v>
+        <v>210562</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1.1831</v>
+      </c>
+      <c r="J90" t="n">
+        <v>25</v>
+      </c>
+      <c r="K90" t="n">
+        <v>5</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>15:48:52</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>17.6006920337677</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G91" t="n">
-        <v>10143</v>
+        <v>176967</v>
       </c>
       <c r="H91" t="n">
-        <v>9575</v>
+        <v>310009</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>18.2853</v>
+      </c>
+      <c r="J91" t="n">
+        <v>16</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>10:31:13</t>
-        </is>
+          <t>15:25:32</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="B92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D92" t="n">
         <v>15</v>
@@ -4355,121 +4371,127 @@
         <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>180.7885532385637</v>
       </c>
       <c r="G92" t="n">
-        <v>81144</v>
+        <v>74844</v>
       </c>
       <c r="H92" t="n">
-        <v>77690</v>
+        <v>137374</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3027</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>85.0227</v>
+      </c>
+      <c r="J92" t="n">
+        <v>26</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>10:11:51</t>
-        </is>
+          <t>11:57:49</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>93.46404194831848</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>120</v>
+        <v>192.1242857142866</v>
       </c>
       <c r="G93" t="n">
-        <v>60858</v>
+        <v>47460</v>
       </c>
       <c r="H93" t="n">
-        <v>58151</v>
+        <v>83742</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2167</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>9.1431</v>
+      </c>
+      <c r="J93" t="n">
+        <v>26</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>10:08:08</t>
-        </is>
+          <t>11:47:33</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>14.38211512565613</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D94" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>80</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G94" t="n">
-        <v>46914</v>
+        <v>726789</v>
       </c>
       <c r="H94" t="n">
-        <v>45229</v>
+        <v>1394725</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1723</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J94" t="n">
+        <v>19</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>10:07:24</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
         <v>15</v>
@@ -4478,39 +4500,41 @@
         <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="G95" t="n">
-        <v>70371</v>
+        <v>34524</v>
       </c>
       <c r="H95" t="n">
-        <v>68161</v>
+        <v>60034</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2664</v>
+        <v>0.1695</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
         <v>15</v>
@@ -4519,16 +4543,16 @@
         <v>15</v>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G96" t="n">
-        <v>20286</v>
+        <v>30429</v>
       </c>
       <c r="H96" t="n">
-        <v>19385</v>
+        <v>28721</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0702</v>
+        <v>0.1367</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4539,19 +4563,19 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B97" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D97" t="n">
         <v>15</v>
@@ -4560,39 +4584,39 @@
         <v>15</v>
       </c>
       <c r="F97" t="n">
-        <v>1194</v>
+        <v>20</v>
       </c>
       <c r="G97" t="n">
-        <v>101430</v>
+        <v>10143</v>
       </c>
       <c r="H97" t="n">
-        <v>97112</v>
+        <v>9575</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5688</v>
+        <v>0.0359</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B98" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D98" t="n">
         <v>15</v>
@@ -4601,39 +4625,39 @@
         <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G98" t="n">
-        <v>50715</v>
+        <v>81144</v>
       </c>
       <c r="H98" t="n">
-        <v>47867</v>
+        <v>77690</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2266</v>
+        <v>0.3027</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B99" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D99" t="n">
         <v>15</v>
@@ -4642,180 +4666,180 @@
         <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>7950</v>
+        <v>120</v>
       </c>
       <c r="G99" t="n">
-        <v>202860</v>
+        <v>60858</v>
       </c>
       <c r="H99" t="n">
-        <v>195602</v>
+        <v>58151</v>
       </c>
       <c r="I99" t="n">
-        <v>1.3571</v>
+        <v>0.2167</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B100" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E100" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F100" t="n">
-        <v>41720</v>
+        <v>80</v>
       </c>
       <c r="G100" t="n">
-        <v>1173690</v>
+        <v>46914</v>
       </c>
       <c r="H100" t="n">
-        <v>1149317</v>
+        <v>45229</v>
       </c>
       <c r="I100" t="n">
-        <v>19.0623</v>
+        <v>0.1723</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F101" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G101" t="n">
-        <v>14049</v>
+        <v>70371</v>
       </c>
       <c r="H101" t="n">
-        <v>13151</v>
+        <v>68161</v>
       </c>
       <c r="I101" t="n">
-        <v>0.06</v>
+        <v>0.2664</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E102" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G102" t="n">
-        <v>10787</v>
+        <v>20286</v>
       </c>
       <c r="H102" t="n">
-        <v>10229</v>
+        <v>19385</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0394</v>
+        <v>0.0702</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>1194</v>
       </c>
       <c r="G103" t="n">
-        <v>4683</v>
+        <v>101430</v>
       </c>
       <c r="H103" t="n">
-        <v>4385</v>
+        <v>97112</v>
       </c>
       <c r="I103" t="n">
-        <v>0.013</v>
+        <v>0.5688</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4826,37 +4850,37 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G104" t="n">
-        <v>14049</v>
+        <v>50715</v>
       </c>
       <c r="H104" t="n">
-        <v>13373</v>
+        <v>47867</v>
       </c>
       <c r="I104" t="n">
-        <v>0.058</v>
+        <v>0.2266</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4867,37 +4891,37 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>932</v>
+        <v>7950</v>
       </c>
       <c r="G105" t="n">
-        <v>42147</v>
+        <v>202860</v>
       </c>
       <c r="H105" t="n">
-        <v>40115</v>
+        <v>195602</v>
       </c>
       <c r="I105" t="n">
-        <v>0.253</v>
+        <v>1.3571</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4908,225 +4932,225 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D106" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E106" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F106" t="n">
-        <v>41</v>
+        <v>41720</v>
       </c>
       <c r="G106" t="n">
-        <v>988547</v>
+        <v>1173690</v>
       </c>
       <c r="H106" t="n">
-        <v>951134</v>
+        <v>1149317</v>
       </c>
       <c r="I106" t="n">
-        <v>4.1745</v>
+        <v>19.0623</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B107" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" t="n">
         <v>7</v>
       </c>
-      <c r="C107" t="n">
-        <v>49</v>
-      </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="G107" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="H107" t="n">
-        <v>6861710</v>
+        <v>13151</v>
       </c>
       <c r="I107" t="n">
-        <v>183.2784</v>
+        <v>0.06</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
         <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>1053</v>
+        <v>20</v>
       </c>
       <c r="G108" t="n">
-        <v>424263</v>
+        <v>10787</v>
       </c>
       <c r="H108" t="n">
-        <v>407630</v>
+        <v>10229</v>
       </c>
       <c r="I108" t="n">
-        <v>1.5868</v>
+        <v>0.0394</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B109" t="n">
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>205171</v>
+        <v>20</v>
       </c>
       <c r="G109" t="n">
-        <v>2596356</v>
+        <v>4683</v>
       </c>
       <c r="H109" t="n">
-        <v>5051654</v>
+        <v>4385</v>
       </c>
       <c r="I109" t="n">
-        <v>12.0275</v>
+        <v>0.013</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B110" t="n">
         <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>12200</v>
+        <v>60</v>
       </c>
       <c r="G110" t="n">
-        <v>865452</v>
+        <v>14049</v>
       </c>
       <c r="H110" t="n">
-        <v>1674182</v>
+        <v>13373</v>
       </c>
       <c r="I110" t="n">
-        <v>2.4971</v>
+        <v>0.058</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9</v>
+      </c>
+      <c r="C111" t="n">
         <v>21</v>
       </c>
-      <c r="B111" t="n">
-        <v>3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>28</v>
-      </c>
       <c r="D111" t="n">
         <v>10</v>
       </c>
@@ -5134,57 +5158,57 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>2519</v>
+        <v>932</v>
       </c>
       <c r="G111" t="n">
-        <v>11172</v>
+        <v>42147</v>
       </c>
       <c r="H111" t="n">
-        <v>17867</v>
+        <v>40115</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0343</v>
+        <v>0.253</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E112" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F112" t="n">
-        <v>2788</v>
+        <v>41</v>
       </c>
       <c r="G112" t="n">
-        <v>13167</v>
+        <v>988547</v>
       </c>
       <c r="H112" t="n">
-        <v>21077</v>
+        <v>951134</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0473</v>
+        <v>4.1745</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5195,37 +5219,37 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C113" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D113" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>2272</v>
+        <v>54920</v>
       </c>
       <c r="G113" t="n">
-        <v>9177</v>
+        <v>6919829</v>
       </c>
       <c r="H113" t="n">
-        <v>14657</v>
+        <v>6861710</v>
       </c>
       <c r="I113" t="n">
-        <v>0.027</v>
+        <v>183.2784</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -5236,37 +5260,37 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B114" t="n">
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F114" t="n">
-        <v>2191</v>
+        <v>1053</v>
       </c>
       <c r="G114" t="n">
-        <v>5187</v>
+        <v>424263</v>
       </c>
       <c r="H114" t="n">
-        <v>8237</v>
+        <v>407630</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0143</v>
+        <v>1.5868</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5277,37 +5301,37 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B115" t="n">
         <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F115" t="n">
-        <v>171</v>
+        <v>205171</v>
       </c>
       <c r="G115" t="n">
-        <v>1197</v>
+        <v>2596356</v>
       </c>
       <c r="H115" t="n">
-        <v>1817</v>
+        <v>5051654</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0024</v>
+        <v>12.0275</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5318,99 +5342,101 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D116" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>21</v>
+        <v>12200</v>
       </c>
       <c r="G116" t="n">
-        <v>858</v>
+        <v>865452</v>
       </c>
       <c r="H116" t="n">
-        <v>1212</v>
+        <v>1674182</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0022</v>
+        <v>2.4971</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2519</v>
+      </c>
       <c r="G117" t="n">
-        <v>348</v>
+        <v>11172</v>
       </c>
       <c r="H117" t="n">
-        <v>282</v>
+        <v>17867</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0001</v>
+        <v>0.0343</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
         <v>10</v>
@@ -5418,38 +5444,40 @@
       <c r="E118" t="n">
         <v>10</v>
       </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>2788</v>
+      </c>
       <c r="G118" t="n">
-        <v>8008</v>
+        <v>13167</v>
       </c>
       <c r="H118" t="n">
-        <v>11912</v>
+        <v>21077</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0174</v>
+        <v>0.0473</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D119" t="n">
         <v>10</v>
@@ -5457,77 +5485,81 @@
       <c r="E119" t="n">
         <v>10</v>
       </c>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>2272</v>
+      </c>
       <c r="G119" t="n">
-        <v>572</v>
+        <v>9177</v>
       </c>
       <c r="H119" t="n">
-        <v>784</v>
+        <v>14657</v>
       </c>
       <c r="I119" t="n">
-        <v>0.001</v>
+        <v>0.027</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
         <v>13</v>
       </c>
-      <c r="B120" t="n">
-        <v>2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
       <c r="D120" t="n">
         <v>10</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>2191</v>
+      </c>
       <c r="G120" t="n">
-        <v>286</v>
+        <v>5187</v>
       </c>
       <c r="H120" t="n">
-        <v>356</v>
+        <v>8237</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -5535,38 +5567,40 @@
       <c r="E121" t="n">
         <v>10</v>
       </c>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>171</v>
+      </c>
       <c r="G121" t="n">
-        <v>1430</v>
+        <v>1197</v>
       </c>
       <c r="H121" t="n">
-        <v>2068</v>
+        <v>1817</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0029</v>
+        <v>0.0024</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" t="n">
         <v>2</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
         <v>10</v>
@@ -5574,77 +5608,79 @@
       <c r="E122" t="n">
         <v>10</v>
       </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
       <c r="G122" t="n">
-        <v>1144</v>
+        <v>858</v>
       </c>
       <c r="H122" t="n">
-        <v>1640</v>
+        <v>1212</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0028</v>
+        <v>0.0022</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>3990</v>
+        <v>348</v>
       </c>
       <c r="H123" t="n">
-        <v>6200</v>
+        <v>282</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B124" t="n">
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D124" t="n">
         <v>10</v>
@@ -5654,13 +5690,13 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>2860</v>
+        <v>8008</v>
       </c>
       <c r="H124" t="n">
-        <v>4120</v>
+        <v>11912</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0119</v>
+        <v>0.0174</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5671,19 +5707,19 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>10</v>
@@ -5693,13 +5729,13 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>6250</v>
+        <v>572</v>
       </c>
       <c r="H125" t="n">
-        <v>10697</v>
+        <v>784</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0162</v>
+        <v>0.001</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5710,19 +5746,19 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B126" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>10</v>
@@ -5732,13 +5768,13 @@
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>14230</v>
+        <v>286</v>
       </c>
       <c r="H126" t="n">
-        <v>23531</v>
+        <v>356</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0366</v>
+        <v>0.0001</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5749,16 +5785,16 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B127" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
         <v>5</v>
@@ -5771,13 +5807,13 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>7115</v>
+        <v>1430</v>
       </c>
       <c r="H127" t="n">
-        <v>11761</v>
+        <v>2068</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0116</v>
+        <v>0.0029</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5788,19 +5824,19 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B128" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
@@ -5810,13 +5846,13 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>5685</v>
+        <v>1144</v>
       </c>
       <c r="H128" t="n">
-        <v>9623</v>
+        <v>1640</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0098</v>
+        <v>0.0028</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5827,60 +5863,58 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B129" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>15</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>46032</v>
+        <v>3990</v>
       </c>
       <c r="H129" t="n">
-        <v>80278</v>
+        <v>6200</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2189</v>
+        <v>0.0072</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D130" t="n">
         <v>10</v>
@@ -5890,32 +5924,36 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>5685</v>
+        <v>2860</v>
       </c>
       <c r="H130" t="n">
-        <v>9623</v>
+        <v>4120</v>
       </c>
       <c r="I130" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0119</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" t="n">
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
         <v>10</v>
@@ -5925,29 +5963,33 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>3125</v>
+        <v>6250</v>
       </c>
       <c r="H131" t="n">
-        <v>5347</v>
+        <v>10697</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0064</v>
+        <v>0.0162</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C132" t="n">
         <v>10</v>
@@ -5960,25 +6002,33 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>11370</v>
+        <v>14230</v>
       </c>
       <c r="H132" t="n">
-        <v>19253</v>
+        <v>23531</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0334</v>
+        <v>0.0366</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>13:30:17</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C133" t="n">
         <v>5</v>
@@ -5991,18 +6041,238 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>3125</v>
+        <v>7115</v>
       </c>
       <c r="H133" t="n">
-        <v>5347</v>
+        <v>11761</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0071</v>
+        <v>0.0116</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>13:29:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>5685</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9623</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>13:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>14</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3338</v>
+      </c>
+      <c r="G135" t="n">
+        <v>46032</v>
+      </c>
+      <c r="H135" t="n">
+        <v>80278</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.2189</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>5685</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9623</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>10</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H138" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,34 +430,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>192.169958727693</v>
+        <v>815.1200000000002</v>
       </c>
       <c r="G2" t="n">
-        <v>130284</v>
+        <v>173852</v>
       </c>
       <c r="H2" t="n">
-        <v>243314</v>
+        <v>202946</v>
       </c>
       <c r="I2" t="n">
-        <v>102.9669</v>
+        <v>2.171</v>
       </c>
       <c r="J2" t="n">
-        <v>116.1777791976929</v>
+        <v>231.4038231372833</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13:07:02</t>
+          <t>13:36:22</t>
         </is>
       </c>
     </row>
@@ -821,34 +821,34 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>193.9599974842045</v>
+        <v>624.1200000000005</v>
       </c>
       <c r="G11" t="n">
-        <v>201124</v>
+        <v>182868</v>
       </c>
       <c r="H11" t="n">
-        <v>379954</v>
+        <v>347214</v>
       </c>
       <c r="I11" t="n">
-        <v>241.8352</v>
+        <v>2.2122</v>
       </c>
       <c r="J11" t="n">
-        <v>262.9411120414734</v>
+        <v>225.9616279602051</v>
       </c>
       <c r="K11" t="n">
         <v>26</v>
@@ -860,40 +860,40 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12:55:28</t>
+          <t>13:30:32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>222.4827865570479</v>
+        <v>105.1200000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>102060</v>
+        <v>82908</v>
       </c>
       <c r="H12" t="n">
-        <v>186422</v>
+        <v>154114</v>
       </c>
       <c r="I12" t="n">
-        <v>39.1324</v>
+        <v>1.216</v>
       </c>
       <c r="J12" t="n">
-        <v>49.38049507141113</v>
+        <v>43.45148491859436</v>
       </c>
       <c r="K12" t="n">
         <v>26</v>
@@ -905,40 +905,40 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11:48:39</t>
+          <t>13:20:39</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>141.7085714285718</v>
+        <v>192.169958727693</v>
       </c>
       <c r="G13" t="n">
-        <v>35595</v>
+        <v>130284</v>
       </c>
       <c r="H13" t="n">
-        <v>62763</v>
+        <v>243314</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9841</v>
+        <v>102.9669</v>
       </c>
       <c r="J13" t="n">
-        <v>8.940745115280151</v>
+        <v>116.1777791976929</v>
       </c>
       <c r="K13" t="n">
         <v>26</v>
@@ -950,40 +950,40 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11:46:45</t>
+          <t>13:07:02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>81.34857142857149</v>
+        <v>193.9599974842045</v>
       </c>
       <c r="G14" t="n">
-        <v>23730</v>
+        <v>201124</v>
       </c>
       <c r="H14" t="n">
-        <v>41784</v>
+        <v>379954</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9609</v>
+        <v>241.8352</v>
       </c>
       <c r="J14" t="n">
-        <v>3.573290348052979</v>
+        <v>262.9411120414734</v>
       </c>
       <c r="K14" t="n">
         <v>26</v>
@@ -995,40 +995,40 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>11:42:53</t>
+          <t>12:55:28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B15" t="n">
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>134.9200000000001</v>
+        <v>222.4827865570479</v>
       </c>
       <c r="G15" t="n">
-        <v>88830</v>
+        <v>102060</v>
       </c>
       <c r="H15" t="n">
-        <v>165069</v>
+        <v>186422</v>
       </c>
       <c r="I15" t="n">
-        <v>2.392</v>
+        <v>39.1324</v>
       </c>
       <c r="J15" t="n">
-        <v>37.7786431312561</v>
+        <v>49.38049507141113</v>
       </c>
       <c r="K15" t="n">
         <v>26</v>
@@ -1040,40 +1040,40 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11:32:42</t>
+          <t>11:48:39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>110.9600000000001</v>
+        <v>141.7085714285718</v>
       </c>
       <c r="G16" t="n">
-        <v>171150</v>
+        <v>35595</v>
       </c>
       <c r="H16" t="n">
-        <v>353349</v>
+        <v>62763</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3947</v>
+        <v>4.9841</v>
       </c>
       <c r="J16" t="n">
-        <v>53.02288413047791</v>
+        <v>8.940745115280151</v>
       </c>
       <c r="K16" t="n">
         <v>26</v>
@@ -1085,43 +1085,43 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>08:25:22</t>
+          <t>11:46:45</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>452.4166163610693</v>
+        <v>81.34857142857149</v>
       </c>
       <c r="G17" t="n">
-        <v>307944</v>
+        <v>23730</v>
       </c>
       <c r="H17" t="n">
-        <v>578609</v>
+        <v>41784</v>
       </c>
       <c r="I17" t="n">
-        <v>276.8241</v>
+        <v>0.9609</v>
       </c>
       <c r="J17" t="n">
-        <v>515.666118144989</v>
+        <v>3.573290348052979</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1130,43 +1130,43 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20:58:57</t>
+          <t>11:42:53</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>86.37333333333341</v>
+        <v>134.9200000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>296660</v>
+        <v>88830</v>
       </c>
       <c r="H18" t="n">
-        <v>572139</v>
+        <v>165069</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3724</v>
+        <v>2.392</v>
       </c>
       <c r="J18" t="n">
-        <v>40.32892489433289</v>
+        <v>37.7786431312561</v>
       </c>
       <c r="K18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1175,43 +1175,43 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20:47:34</t>
+          <t>11:32:42</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
         <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>367.8516666666674</v>
+        <v>110.9600000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>82264</v>
+        <v>171150</v>
       </c>
       <c r="H19" t="n">
-        <v>141444</v>
+        <v>353349</v>
       </c>
       <c r="I19" t="n">
-        <v>242.5427</v>
+        <v>1.3947</v>
       </c>
       <c r="J19" t="n">
-        <v>253.2486069202423</v>
+        <v>53.02288413047791</v>
       </c>
       <c r="K19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1220,40 +1220,40 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16:13:40</t>
+          <t>08:25:22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B20" t="n">
         <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3541666666666663</v>
+        <v>452.4166163610693</v>
       </c>
       <c r="G20" t="n">
-        <v>41132</v>
+        <v>307944</v>
       </c>
       <c r="H20" t="n">
-        <v>69806</v>
+        <v>578609</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1328</v>
+        <v>276.8241</v>
       </c>
       <c r="J20" t="n">
-        <v>5.808650016784668</v>
+        <v>515.666118144989</v>
       </c>
       <c r="K20" t="n">
         <v>25</v>
@@ -1265,40 +1265,40 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15:42:52</t>
+          <t>20:58:57</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B21" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3541666666666663</v>
+        <v>86.37333333333341</v>
       </c>
       <c r="G21" t="n">
-        <v>45087</v>
+        <v>296660</v>
       </c>
       <c r="H21" t="n">
-        <v>76551</v>
+        <v>572139</v>
       </c>
       <c r="I21" t="n">
-        <v>0.153</v>
+        <v>1.3724</v>
       </c>
       <c r="J21" t="n">
-        <v>6.129974126815796</v>
+        <v>40.32892489433289</v>
       </c>
       <c r="K21" t="n">
         <v>25</v>
@@ -1310,19 +1310,19 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14:48:06</t>
+          <t>20:47:34</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
@@ -1331,19 +1331,19 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>12.7</v>
+        <v>367.8516666666674</v>
       </c>
       <c r="G22" t="n">
-        <v>15820</v>
+        <v>82264</v>
       </c>
       <c r="H22" t="n">
-        <v>26962</v>
+        <v>141444</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0307</v>
+        <v>242.5427</v>
       </c>
       <c r="J22" t="n">
-        <v>2.667943239212036</v>
+        <v>253.2486069202423</v>
       </c>
       <c r="K22" t="n">
         <v>25</v>
@@ -1355,148 +1355,154 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12:13:53</t>
+          <t>16:13:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G23" t="n">
-        <v>168549</v>
+        <v>41132</v>
       </c>
       <c r="H23" t="n">
-        <v>310007</v>
+        <v>69806</v>
       </c>
       <c r="I23" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0.1328</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.808650016784668</v>
+      </c>
       <c r="K23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>15:42:52</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G24" t="n">
-        <v>56031</v>
+        <v>45087</v>
       </c>
       <c r="H24" t="n">
-        <v>101589</v>
+        <v>76551</v>
       </c>
       <c r="I24" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0.153</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.129974126815796</v>
+      </c>
       <c r="K24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>14:48:06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G25" t="n">
-        <v>562362</v>
+        <v>15820</v>
       </c>
       <c r="H25" t="n">
-        <v>1039470</v>
+        <v>26962</v>
       </c>
       <c r="I25" t="n">
-        <v>2.6686</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0.0307</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.667943239212036</v>
+      </c>
       <c r="K25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>12:13:53</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B26" t="n">
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
         <v>20</v>
@@ -1508,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>112518</v>
+        <v>168549</v>
       </c>
       <c r="H26" t="n">
-        <v>205817</v>
+        <v>310007</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2438</v>
+        <v>0.594</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -1527,19 +1533,19 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>20</v>
@@ -1551,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118440</v>
+        <v>56031</v>
       </c>
       <c r="H27" t="n">
-        <v>216717</v>
+        <v>101589</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2484</v>
+        <v>0.093</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -1570,19 +1576,19 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D28" t="n">
         <v>20</v>
@@ -1591,16 +1597,16 @@
         <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47376</v>
+        <v>562362</v>
       </c>
       <c r="H28" t="n">
-        <v>211077</v>
+        <v>1039470</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1306</v>
+        <v>2.6686</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -1613,19 +1619,19 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>20</v>
@@ -1634,16 +1640,16 @@
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>23688</v>
+        <v>112518</v>
       </c>
       <c r="H29" t="n">
-        <v>103067</v>
+        <v>205817</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0512</v>
+        <v>0.2438</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -1656,19 +1662,19 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
@@ -1677,16 +1683,16 @@
         <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>20727</v>
+        <v>118440</v>
       </c>
       <c r="H30" t="n">
-        <v>97591</v>
+        <v>216717</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0536</v>
+        <v>0.2484</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -1699,19 +1705,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -1720,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>85.99999999999999</v>
+        <v>304</v>
       </c>
       <c r="G31" t="n">
-        <v>32571</v>
+        <v>47376</v>
       </c>
       <c r="H31" t="n">
-        <v>98911</v>
+        <v>211077</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1316</v>
+        <v>0.1306</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -1742,41 +1748,41 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>100.0061393594561</v>
+        <v>84</v>
       </c>
       <c r="G32" t="n">
-        <v>5537</v>
+        <v>23688</v>
       </c>
       <c r="H32" t="n">
-        <v>23707</v>
+        <v>103067</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0179</v>
+        <v>0.0512</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1785,41 +1791,41 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F33" t="n">
-        <v>295101.3333333332</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G33" t="n">
-        <v>496356</v>
+        <v>20727</v>
       </c>
       <c r="H33" t="n">
-        <v>937352</v>
+        <v>97591</v>
       </c>
       <c r="I33" t="n">
-        <v>1.8175</v>
+        <v>0.0536</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1828,41 +1834,41 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>60116</v>
+        <v>32571</v>
       </c>
       <c r="H34" t="n">
-        <v>102342</v>
+        <v>98911</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2605</v>
+        <v>0.1316</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1871,19 +1877,19 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -1892,16 +1898,16 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G35" t="n">
-        <v>34804</v>
+        <v>5537</v>
       </c>
       <c r="H35" t="n">
-        <v>99742</v>
+        <v>23707</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1609</v>
+        <v>0.0179</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
@@ -1914,37 +1920,37 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>178.7777777777777</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G36" t="n">
-        <v>8701</v>
+        <v>496356</v>
       </c>
       <c r="H36" t="n">
-        <v>24205</v>
+        <v>937352</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0183</v>
+        <v>1.8175</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -1957,37 +1963,37 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>177.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>11907</v>
+        <v>60116</v>
       </c>
       <c r="H37" t="n">
-        <v>54384</v>
+        <v>102342</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0538</v>
+        <v>0.2605</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
@@ -2000,148 +2006,142 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>1481.05</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>137130</v>
+        <v>34804</v>
       </c>
       <c r="H38" t="n">
-        <v>256923</v>
+        <v>99742</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="J38" t="n">
-        <v>91.78385400772095</v>
-      </c>
+        <v>0.1609</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B39" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>2998.900000000002</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G39" t="n">
-        <v>484526</v>
+        <v>8701</v>
       </c>
       <c r="H39" t="n">
-        <v>907193</v>
+        <v>24205</v>
       </c>
       <c r="I39" t="n">
-        <v>9.097899999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>334.5952842235565</v>
-      </c>
+        <v>0.0183</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18:26:57</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>265.4000000000001</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G40" t="n">
-        <v>72450</v>
+        <v>11907</v>
       </c>
       <c r="H40" t="n">
-        <v>135305</v>
+        <v>54384</v>
       </c>
       <c r="I40" t="n">
-        <v>1.6791</v>
-      </c>
-      <c r="J40" t="n">
-        <v>51.79183006286621</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B41" t="n">
         <v>15</v>
@@ -2150,28 +2150,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E41" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F41" t="n">
-        <v>302.6600000000017</v>
+        <v>1481.05</v>
       </c>
       <c r="G41" t="n">
-        <v>64890</v>
+        <v>137130</v>
       </c>
       <c r="H41" t="n">
-        <v>120487</v>
+        <v>256923</v>
       </c>
       <c r="I41" t="n">
-        <v>1.6408</v>
+        <v>0.9375</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27230906486511</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2180,40 +2180,40 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F42" t="n">
-        <v>230.5100000000003</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G42" t="n">
-        <v>33390</v>
+        <v>484526</v>
       </c>
       <c r="H42" t="n">
-        <v>59357</v>
+        <v>907193</v>
       </c>
       <c r="I42" t="n">
-        <v>1.1474</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>18.94928789138794</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K42" t="n">
         <v>20</v>
@@ -2225,13 +2225,13 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B43" t="n">
         <v>15</v>
@@ -2240,25 +2240,25 @@
         <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F43" t="n">
-        <v>203.5600000000005</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>28350</v>
+        <v>72450</v>
       </c>
       <c r="H43" t="n">
-        <v>49723</v>
+        <v>135305</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0807</v>
+        <v>1.6791</v>
       </c>
       <c r="J43" t="n">
-        <v>16.81134915351868</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K43" t="n">
         <v>20</v>
@@ -2270,40 +2270,40 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B44" t="n">
         <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>12.7</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G44" t="n">
-        <v>11865</v>
+        <v>64890</v>
       </c>
       <c r="H44" t="n">
-        <v>20427</v>
+        <v>120487</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0203</v>
+        <v>1.6408</v>
       </c>
       <c r="J44" t="n">
-        <v>1.177000284194946</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K44" t="n">
         <v>20</v>
@@ -2315,40 +2315,40 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>35.70000000000001</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G45" t="n">
-        <v>41923</v>
+        <v>33390</v>
       </c>
       <c r="H45" t="n">
-        <v>71749</v>
+        <v>59357</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0829</v>
+        <v>1.1474</v>
       </c>
       <c r="J45" t="n">
-        <v>6.332224130630493</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K45" t="n">
         <v>20</v>
@@ -2360,16 +2360,16 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
         <v>14</v>
@@ -2381,19 +2381,19 @@
         <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>840.5064285714258</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G46" t="n">
-        <v>100170</v>
+        <v>28350</v>
       </c>
       <c r="H46" t="n">
-        <v>174727</v>
+        <v>49723</v>
       </c>
       <c r="I46" t="n">
-        <v>239.0865</v>
+        <v>1.0807</v>
       </c>
       <c r="J46" t="n">
-        <v>315.8266220092773</v>
+        <v>16.81134915351868</v>
       </c>
       <c r="K46" t="n">
         <v>20</v>
@@ -2405,40 +2405,40 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>34.7</v>
+        <v>12.7</v>
       </c>
       <c r="G47" t="n">
-        <v>50085</v>
+        <v>11865</v>
       </c>
       <c r="H47" t="n">
-        <v>86863</v>
+        <v>20427</v>
       </c>
       <c r="I47" t="n">
-        <v>0.107</v>
+        <v>0.0203</v>
       </c>
       <c r="J47" t="n">
-        <v>7.774892807006836</v>
+        <v>1.177000284194946</v>
       </c>
       <c r="K47" t="n">
         <v>20</v>
@@ -2450,283 +2450,283 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>7.999999999999999</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>18711</v>
+        <v>41923</v>
       </c>
       <c r="H48" t="n">
-        <v>55167</v>
+        <v>71749</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0.0829</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6.332224130630493</v>
+      </c>
       <c r="K48" t="n">
         <v>20</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B49" t="n">
+        <v>53</v>
+      </c>
+      <c r="C49" t="n">
+        <v>14</v>
+      </c>
+      <c r="D49" t="n">
         <v>11</v>
       </c>
-      <c r="C49" t="n">
-        <v>7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>25</v>
-      </c>
       <c r="E49" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>32.66666666666667</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G49" t="n">
-        <v>50281</v>
+        <v>100170</v>
       </c>
       <c r="H49" t="n">
-        <v>155342</v>
+        <v>174727</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>239.0865</v>
+      </c>
+      <c r="J49" t="n">
+        <v>315.8266220092773</v>
+      </c>
       <c r="K49" t="n">
         <v>20</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
-        <v>3.999999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="G50" t="n">
-        <v>32382</v>
+        <v>50085</v>
       </c>
       <c r="H50" t="n">
-        <v>153575</v>
+        <v>86863</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K50" t="n">
         <v>20</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B51" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C51" t="n">
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>35.70000000000003</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>242263</v>
+        <v>18711</v>
       </c>
       <c r="H51" t="n">
-        <v>462297</v>
+        <v>55167</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5239</v>
-      </c>
-      <c r="J51" t="n">
-        <v>64.54806518554688</v>
-      </c>
+        <v>0.0654</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B52" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F52" t="n">
-        <v>812.130000000004</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G52" t="n">
-        <v>180306</v>
+        <v>50281</v>
       </c>
       <c r="H52" t="n">
-        <v>323519</v>
+        <v>155342</v>
       </c>
       <c r="I52" t="n">
-        <v>12.3114</v>
-      </c>
-      <c r="J52" t="n">
-        <v>78.16917204856873</v>
-      </c>
+        <v>0.1682</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F53" t="n">
-        <v>40.70000000000001</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>90153</v>
+        <v>32382</v>
       </c>
       <c r="H53" t="n">
-        <v>161308</v>
+        <v>153575</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4574</v>
-      </c>
-      <c r="J53" t="n">
-        <v>33.15888476371765</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
         <v>25</v>
@@ -2735,127 +2735,133 @@
         <v>25</v>
       </c>
       <c r="F54" t="n">
-        <v>240.6554934823091</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G54" t="n">
-        <v>101164</v>
+        <v>242263</v>
       </c>
       <c r="H54" t="n">
-        <v>317602</v>
+        <v>462297</v>
       </c>
       <c r="I54" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0.5239</v>
+      </c>
+      <c r="J54" t="n">
+        <v>64.54806518554688</v>
+      </c>
       <c r="K54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G55" t="n">
-        <v>64764</v>
+        <v>180306</v>
       </c>
       <c r="H55" t="n">
-        <v>314970</v>
+        <v>323519</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J55" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K55" t="n">
         <v>18</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B56" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>2419.333333333333</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>173964</v>
+        <v>90153</v>
       </c>
       <c r="H56" t="n">
-        <v>322866</v>
+        <v>161308</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J56" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K56" t="n">
         <v>18</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
         <v>25</v>
@@ -2864,16 +2870,16 @@
         <v>25</v>
       </c>
       <c r="F57" t="n">
-        <v>602</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G57" t="n">
-        <v>86982</v>
+        <v>101164</v>
       </c>
       <c r="H57" t="n">
-        <v>171967</v>
+        <v>317602</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2673</v>
+        <v>0.487</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -2886,19 +2892,19 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
         <v>25</v>
@@ -2907,16 +2913,16 @@
         <v>25</v>
       </c>
       <c r="F58" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G58" t="n">
-        <v>73332</v>
+        <v>64764</v>
       </c>
       <c r="H58" t="n">
-        <v>167389</v>
+        <v>314970</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1522</v>
+        <v>0.2711</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -2929,19 +2935,19 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
         <v>25</v>
@@ -2950,16 +2956,16 @@
         <v>25</v>
       </c>
       <c r="F59" t="n">
-        <v>13395</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G59" t="n">
-        <v>293328</v>
+        <v>173964</v>
       </c>
       <c r="H59" t="n">
-        <v>684598</v>
+        <v>322866</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7488</v>
+        <v>0.4497</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -2972,19 +2978,19 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
+        <v>19</v>
+      </c>
+      <c r="C60" t="n">
         <v>7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>25</v>
@@ -2993,16 +2999,16 @@
         <v>25</v>
       </c>
       <c r="F60" t="n">
-        <v>45.00000000000001</v>
+        <v>602</v>
       </c>
       <c r="G60" t="n">
-        <v>129528</v>
+        <v>86982</v>
       </c>
       <c r="H60" t="n">
-        <v>640400</v>
+        <v>171967</v>
       </c>
       <c r="I60" t="n">
-        <v>1.3063</v>
+        <v>0.2673</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -3015,41 +3021,41 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
         <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F61" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G61" t="n">
-        <v>12292</v>
+        <v>73332</v>
       </c>
       <c r="H61" t="n">
-        <v>54509</v>
+        <v>167389</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0383</v>
+        <v>0.1522</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3058,41 +3064,41 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>28</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F62" t="n">
-        <v>1804.999934139618</v>
+        <v>13395</v>
       </c>
       <c r="G62" t="n">
-        <v>76048</v>
+        <v>293328</v>
       </c>
       <c r="H62" t="n">
-        <v>229623</v>
+        <v>684598</v>
       </c>
       <c r="I62" t="n">
-        <v>44.1138</v>
+        <v>2.7488</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3101,41 +3107,41 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F63" t="n">
-        <v>36</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>19012</v>
+        <v>129528</v>
       </c>
       <c r="H63" t="n">
-        <v>55785</v>
+        <v>640400</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0372</v>
+        <v>1.3063</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3144,19 +3150,19 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>15</v>
@@ -3165,20 +3171,20 @@
         <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>190.0000000000001</v>
+        <v>33</v>
       </c>
       <c r="G64" t="n">
-        <v>36610</v>
+        <v>12292</v>
       </c>
       <c r="H64" t="n">
-        <v>110682</v>
+        <v>54509</v>
       </c>
       <c r="I64" t="n">
-        <v>1.3782</v>
+        <v>0.0383</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3187,16 +3193,16 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
         <v>28</v>
@@ -3208,20 +3214,20 @@
         <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>1659.5</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G65" t="n">
-        <v>73220</v>
+        <v>76048</v>
       </c>
       <c r="H65" t="n">
-        <v>224873</v>
+        <v>229623</v>
       </c>
       <c r="I65" t="n">
-        <v>11.8307</v>
+        <v>44.1138</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3230,19 +3236,19 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B66" t="n">
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>15</v>
@@ -3251,20 +3257,20 @@
         <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="G66" t="n">
-        <v>45696</v>
+        <v>19012</v>
       </c>
       <c r="H66" t="n">
-        <v>109671</v>
+        <v>55785</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5595</v>
+        <v>0.0372</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3273,170 +3279,170 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B67" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
         <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>83.3</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>83846</v>
+        <v>36610</v>
       </c>
       <c r="H67" t="n">
-        <v>142303</v>
+        <v>110682</v>
       </c>
       <c r="I67" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J67" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>1.3782</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B68" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>351.5332879941108</v>
+        <v>1659.5</v>
       </c>
       <c r="G68" t="n">
-        <v>209615</v>
+        <v>73220</v>
       </c>
       <c r="H68" t="n">
-        <v>357364</v>
+        <v>224873</v>
       </c>
       <c r="I68" t="n">
-        <v>136.8438</v>
+        <v>11.8307</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B69" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G69" t="n">
-        <v>784665</v>
+        <v>45696</v>
       </c>
       <c r="H69" t="n">
-        <v>1447964</v>
+        <v>109671</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8677</v>
+        <v>0.5595</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70" t="n">
         <v>53</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="G70" t="n">
-        <v>156933</v>
+        <v>83846</v>
       </c>
       <c r="H70" t="n">
-        <v>285656</v>
+        <v>142303</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5835</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J70" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K70" t="n">
         <v>12</v>
       </c>
@@ -3447,37 +3453,37 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n">
         <v>53</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>312.2499501315505</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G71" t="n">
-        <v>470799</v>
+        <v>209615</v>
       </c>
       <c r="H71" t="n">
-        <v>870078</v>
+        <v>357364</v>
       </c>
       <c r="I71" t="n">
-        <v>10.5612</v>
+        <v>136.8438</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
@@ -3490,19 +3496,19 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" t="n">
         <v>53</v>
       </c>
       <c r="C72" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
         <v>20</v>
@@ -3511,16 +3517,16 @@
         <v>20</v>
       </c>
       <c r="F72" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1098531</v>
+        <v>784665</v>
       </c>
       <c r="H72" t="n">
-        <v>2032386</v>
+        <v>1447964</v>
       </c>
       <c r="I72" t="n">
-        <v>5.7722</v>
+        <v>5.8677</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
@@ -3533,19 +3539,19 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" t="n">
         <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>20</v>
@@ -3554,16 +3560,16 @@
         <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>154.4249671516788</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>313866</v>
+        <v>156933</v>
       </c>
       <c r="H73" t="n">
-        <v>579501</v>
+        <v>285656</v>
       </c>
       <c r="I73" t="n">
-        <v>1.1351</v>
+        <v>0.5835</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
@@ -3576,19 +3582,19 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
         <v>20</v>
@@ -3597,20 +3603,20 @@
         <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>34.79999440044767</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G74" t="n">
-        <v>148050</v>
+        <v>470799</v>
       </c>
       <c r="H74" t="n">
-        <v>283143</v>
+        <v>870078</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8347</v>
+        <v>10.5612</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3619,19 +3625,19 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B75" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D75" t="n">
         <v>20</v>
@@ -3640,20 +3646,20 @@
         <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>1775.199999963032</v>
+        <v>11.6</v>
       </c>
       <c r="G75" t="n">
-        <v>153972</v>
+        <v>1098531</v>
       </c>
       <c r="H75" t="n">
-        <v>293934</v>
+        <v>2032386</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6929</v>
+        <v>5.7722</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3662,16 +3668,16 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B76" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C76" t="n">
         <v>14</v>
@@ -3683,20 +3689,20 @@
         <v>20</v>
       </c>
       <c r="F76" t="n">
-        <v>1676.933333333334</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G76" t="n">
-        <v>177660</v>
+        <v>313866</v>
       </c>
       <c r="H76" t="n">
-        <v>337098</v>
+        <v>579501</v>
       </c>
       <c r="I76" t="n">
-        <v>0.753</v>
+        <v>1.1351</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3705,16 +3711,16 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C77" t="n">
         <v>14</v>
@@ -3726,16 +3732,16 @@
         <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>26.99999602929075</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G77" t="n">
-        <v>94752</v>
+        <v>148050</v>
       </c>
       <c r="H77" t="n">
-        <v>278913</v>
+        <v>283143</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2439</v>
+        <v>0.8347</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
@@ -3748,16 +3754,16 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C78" t="n">
         <v>14</v>
@@ -3769,16 +3775,16 @@
         <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>19.99999388246115</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G78" t="n">
-        <v>47376</v>
+        <v>153972</v>
       </c>
       <c r="H78" t="n">
-        <v>191065</v>
+        <v>293934</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1299</v>
+        <v>0.6929</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
@@ -3791,16 +3797,16 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B79" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>14</v>
@@ -3812,16 +3818,16 @@
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>795.6</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G79" t="n">
-        <v>82908</v>
+        <v>177660</v>
       </c>
       <c r="H79" t="n">
-        <v>193885</v>
+        <v>337098</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4943</v>
+        <v>0.753</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -3834,37 +3840,37 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>18:18:14</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B80" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
         <v>14</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>514.8000000000001</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G80" t="n">
-        <v>22148</v>
+        <v>94752</v>
       </c>
       <c r="H80" t="n">
-        <v>46375</v>
+        <v>278913</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3576</v>
+        <v>0.2439</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
@@ -3877,37 +3883,37 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="n">
         <v>14</v>
       </c>
-      <c r="C81" t="n">
-        <v>7</v>
-      </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>204</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G81" t="n">
-        <v>11074</v>
+        <v>47376</v>
       </c>
       <c r="H81" t="n">
-        <v>22904</v>
+        <v>191065</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0224</v>
+        <v>0.1299</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
@@ -3920,37 +3926,37 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>394</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>38178</v>
+        <v>22148</v>
       </c>
       <c r="H82" t="n">
-        <v>58116</v>
+        <v>46375</v>
       </c>
       <c r="I82" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.3576</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
@@ -3958,67 +3964,67 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>1578</v>
+        <v>204</v>
       </c>
       <c r="G83" t="n">
-        <v>52500</v>
+        <v>11074</v>
       </c>
       <c r="H83" t="n">
-        <v>92122</v>
+        <v>22904</v>
       </c>
       <c r="I83" t="n">
-        <v>6.5428</v>
+        <v>0.0224</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" t="n">
         <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
         <v>15</v>
@@ -4027,20 +4033,20 @@
         <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>1577.999992666665</v>
+        <v>394</v>
       </c>
       <c r="G84" t="n">
-        <v>57540</v>
+        <v>38178</v>
       </c>
       <c r="H84" t="n">
-        <v>100522</v>
+        <v>58116</v>
       </c>
       <c r="I84" t="n">
-        <v>2.1297</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4049,37 +4055,37 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
         <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>3202</v>
+        <v>1578</v>
       </c>
       <c r="G85" t="n">
-        <v>351288</v>
+        <v>52500</v>
       </c>
       <c r="H85" t="n">
-        <v>466643</v>
+        <v>92122</v>
       </c>
       <c r="I85" t="n">
-        <v>1.9582</v>
+        <v>6.5428</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
@@ -4092,37 +4098,37 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>51</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G86" t="n">
-        <v>29274</v>
+        <v>57540</v>
       </c>
       <c r="H86" t="n">
-        <v>37158</v>
+        <v>100522</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0469</v>
+        <v>2.1297</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
@@ -4135,19 +4141,19 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B87" t="n">
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
         <v>15</v>
@@ -4156,16 +4162,16 @@
         <v>50</v>
       </c>
       <c r="F87" t="n">
-        <v>192</v>
+        <v>3202</v>
       </c>
       <c r="G87" t="n">
-        <v>117096</v>
+        <v>351288</v>
       </c>
       <c r="H87" t="n">
-        <v>154821</v>
+        <v>466643</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2622</v>
+        <v>1.9582</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
@@ -4178,142 +4184,142 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:08:32</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B88" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>80.39999999999995</v>
+        <v>51</v>
       </c>
       <c r="G88" t="n">
-        <v>128790</v>
+        <v>29274</v>
       </c>
       <c r="H88" t="n">
-        <v>230986</v>
+        <v>37158</v>
       </c>
       <c r="I88" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J88" t="n">
-        <v>13</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B89" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F89" t="n">
-        <v>798.3000000000002</v>
+        <v>192</v>
       </c>
       <c r="G89" t="n">
-        <v>150255</v>
+        <v>117096</v>
       </c>
       <c r="H89" t="n">
-        <v>260064</v>
+        <v>154821</v>
       </c>
       <c r="I89" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J89" t="n">
-        <v>16</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B90" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>441.6662039194914</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G90" t="n">
-        <v>123396</v>
+        <v>128790</v>
       </c>
       <c r="H90" t="n">
-        <v>210562</v>
+        <v>230986</v>
       </c>
       <c r="I90" t="n">
-        <v>1.1831</v>
+        <v>1.0875</v>
       </c>
       <c r="J90" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K90" t="n">
         <v>5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>15:48:52</t>
+          <t>20:52:46</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>17.6006920337677</v>
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" t="n">
         <v>53</v>
@@ -4322,22 +4328,22 @@
         <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
-        <v>991.6000000000008</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G91" t="n">
-        <v>176967</v>
+        <v>150255</v>
       </c>
       <c r="H91" t="n">
-        <v>310009</v>
+        <v>260064</v>
       </c>
       <c r="I91" t="n">
-        <v>18.2853</v>
+        <v>404.4721</v>
       </c>
       <c r="J91" t="n">
         <v>16</v>
@@ -4347,151 +4353,151 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>15:25:32</t>
+          <t>17:55:00</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>70.88821601867676</v>
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C92" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>180.7885532385637</v>
+        <v>441.6662039194914</v>
       </c>
       <c r="G92" t="n">
-        <v>74844</v>
+        <v>123396</v>
       </c>
       <c r="H92" t="n">
-        <v>137374</v>
+        <v>210562</v>
       </c>
       <c r="I92" t="n">
-        <v>85.0227</v>
+        <v>1.1831</v>
       </c>
       <c r="J92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K92" t="n">
         <v>5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>11:57:49</t>
+          <t>15:48:52</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>93.46404194831848</v>
+        <v>17.6006920337677</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B93" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>192.1242857142866</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G93" t="n">
-        <v>47460</v>
+        <v>176967</v>
       </c>
       <c r="H93" t="n">
-        <v>83742</v>
+        <v>310009</v>
       </c>
       <c r="I93" t="n">
-        <v>9.1431</v>
+        <v>18.2853</v>
       </c>
       <c r="J93" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K93" t="n">
         <v>5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>11:47:33</t>
+          <t>15:25:32</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>14.38211512565613</v>
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B94" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E94" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F94" t="n">
-        <v>581.1349844453474</v>
+        <v>197.1899981715618</v>
       </c>
       <c r="G94" t="n">
-        <v>726789</v>
+        <v>142128</v>
       </c>
       <c r="H94" t="n">
-        <v>1394725</v>
+        <v>265236</v>
       </c>
       <c r="I94" t="n">
-        <v>390.7028</v>
+        <v>101.113</v>
       </c>
       <c r="J94" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K94" t="n">
         <v>5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>09:22:03</t>
+          <t>13:09:53</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>562.8080189228058</v>
+        <v>115.0638959407806</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B95" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D95" t="n">
         <v>15</v>
@@ -4500,120 +4506,124 @@
         <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>370</v>
+        <v>180.7885532385637</v>
       </c>
       <c r="G95" t="n">
-        <v>34524</v>
+        <v>74844</v>
       </c>
       <c r="H95" t="n">
-        <v>60034</v>
+        <v>137374</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>85.0227</v>
+      </c>
+      <c r="J95" t="n">
+        <v>26</v>
+      </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>11:57:49</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>93.46404194831848</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>60</v>
+        <v>192.1242857142866</v>
       </c>
       <c r="G96" t="n">
-        <v>30429</v>
+        <v>47460</v>
       </c>
       <c r="H96" t="n">
-        <v>28721</v>
+        <v>83742</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>9.1431</v>
+      </c>
+      <c r="J96" t="n">
+        <v>26</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>11:47:33</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>14.38211512565613</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G97" t="n">
-        <v>10143</v>
+        <v>726789</v>
       </c>
       <c r="H97" t="n">
-        <v>9575</v>
+        <v>1394725</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J97" t="n">
+        <v>19</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>10:31:13</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B98" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C98" t="n">
         <v>14</v>
@@ -4625,39 +4635,41 @@
         <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="G98" t="n">
-        <v>81144</v>
+        <v>34524</v>
       </c>
       <c r="H98" t="n">
-        <v>77690</v>
+        <v>60034</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3027</v>
+        <v>0.1695</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B99" t="n">
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
         <v>15</v>
@@ -4666,16 +4678,16 @@
         <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G99" t="n">
-        <v>60858</v>
+        <v>30429</v>
       </c>
       <c r="H99" t="n">
-        <v>58151</v>
+        <v>28721</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2167</v>
+        <v>0.1367</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4686,20 +4698,20 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
         <v>7</v>
       </c>
-      <c r="C100" t="n">
-        <v>14</v>
-      </c>
       <c r="D100" t="n">
         <v>15</v>
       </c>
@@ -4707,16 +4719,16 @@
         <v>15</v>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>46914</v>
+        <v>10143</v>
       </c>
       <c r="H100" t="n">
-        <v>45229</v>
+        <v>9575</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1723</v>
+        <v>0.0359</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4727,19 +4739,19 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
         <v>15</v>
@@ -4748,16 +4760,16 @@
         <v>15</v>
       </c>
       <c r="F101" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G101" t="n">
-        <v>70371</v>
+        <v>81144</v>
       </c>
       <c r="H101" t="n">
-        <v>68161</v>
+        <v>77690</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2664</v>
+        <v>0.3027</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4768,16 +4780,16 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
         <v>14</v>
@@ -4789,16 +4801,16 @@
         <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G102" t="n">
-        <v>20286</v>
+        <v>60858</v>
       </c>
       <c r="H102" t="n">
-        <v>19385</v>
+        <v>58151</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0702</v>
+        <v>0.2167</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4809,16 +4821,16 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
         <v>14</v>
@@ -4830,39 +4842,39 @@
         <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>1194</v>
+        <v>80</v>
       </c>
       <c r="G103" t="n">
-        <v>101430</v>
+        <v>46914</v>
       </c>
       <c r="H103" t="n">
-        <v>97112</v>
+        <v>45229</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5688</v>
+        <v>0.1723</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B104" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D104" t="n">
         <v>15</v>
@@ -4871,39 +4883,39 @@
         <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G104" t="n">
-        <v>50715</v>
+        <v>70371</v>
       </c>
       <c r="H104" t="n">
-        <v>47867</v>
+        <v>68161</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2266</v>
+        <v>0.2664</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B105" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D105" t="n">
         <v>15</v>
@@ -4912,57 +4924,57 @@
         <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>7950</v>
+        <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>202860</v>
+        <v>20286</v>
       </c>
       <c r="H105" t="n">
-        <v>195602</v>
+        <v>19385</v>
       </c>
       <c r="I105" t="n">
-        <v>1.3571</v>
+        <v>0.0702</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B106" t="n">
         <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D106" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E106" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>41720</v>
+        <v>1194</v>
       </c>
       <c r="G106" t="n">
-        <v>1173690</v>
+        <v>101430</v>
       </c>
       <c r="H106" t="n">
-        <v>1149317</v>
+        <v>97112</v>
       </c>
       <c r="I106" t="n">
-        <v>19.0623</v>
+        <v>0.5688</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4973,37 +4985,37 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C107" t="n">
         <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G107" t="n">
-        <v>14049</v>
+        <v>50715</v>
       </c>
       <c r="H107" t="n">
-        <v>13151</v>
+        <v>47867</v>
       </c>
       <c r="I107" t="n">
-        <v>0.06</v>
+        <v>0.2266</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -5014,37 +5026,37 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>7950</v>
       </c>
       <c r="G108" t="n">
-        <v>10787</v>
+        <v>202860</v>
       </c>
       <c r="H108" t="n">
-        <v>10229</v>
+        <v>195602</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0394</v>
+        <v>1.3571</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -5055,37 +5067,37 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="G109" t="n">
-        <v>4683</v>
+        <v>1173690</v>
       </c>
       <c r="H109" t="n">
-        <v>4385</v>
+        <v>1149317</v>
       </c>
       <c r="I109" t="n">
-        <v>0.013</v>
+        <v>19.0623</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -5096,19 +5108,19 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
@@ -5123,10 +5135,10 @@
         <v>14049</v>
       </c>
       <c r="H110" t="n">
-        <v>13373</v>
+        <v>13151</v>
       </c>
       <c r="I110" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5137,19 +5149,19 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B111" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -5158,16 +5170,16 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>42147</v>
+        <v>10787</v>
       </c>
       <c r="H111" t="n">
-        <v>40115</v>
+        <v>10229</v>
       </c>
       <c r="I111" t="n">
-        <v>0.253</v>
+        <v>0.0394</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5178,142 +5190,142 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
         <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G112" t="n">
-        <v>988547</v>
+        <v>4683</v>
       </c>
       <c r="H112" t="n">
-        <v>951134</v>
+        <v>4385</v>
       </c>
       <c r="I112" t="n">
-        <v>4.1745</v>
+        <v>0.013</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="G113" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="H113" t="n">
-        <v>6861710</v>
+        <v>13373</v>
       </c>
       <c r="I113" t="n">
-        <v>183.2784</v>
+        <v>0.058</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="G114" t="n">
-        <v>424263</v>
+        <v>42147</v>
       </c>
       <c r="H114" t="n">
-        <v>407630</v>
+        <v>40115</v>
       </c>
       <c r="I114" t="n">
-        <v>1.5868</v>
+        <v>0.253</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C115" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D115" t="n">
         <v>100</v>
@@ -5322,16 +5334,16 @@
         <v>100</v>
       </c>
       <c r="F115" t="n">
-        <v>205171</v>
+        <v>41</v>
       </c>
       <c r="G115" t="n">
-        <v>2596356</v>
+        <v>988547</v>
       </c>
       <c r="H115" t="n">
-        <v>5051654</v>
+        <v>951134</v>
       </c>
       <c r="I115" t="n">
-        <v>12.0275</v>
+        <v>4.1745</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5342,19 +5354,19 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D116" t="n">
         <v>100</v>
@@ -5363,16 +5375,16 @@
         <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>12200</v>
+        <v>54920</v>
       </c>
       <c r="G116" t="n">
-        <v>865452</v>
+        <v>6919829</v>
       </c>
       <c r="H116" t="n">
-        <v>1674182</v>
+        <v>6861710</v>
       </c>
       <c r="I116" t="n">
-        <v>2.4971</v>
+        <v>183.2784</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5383,37 +5395,37 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B117" t="n">
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D117" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>2519</v>
+        <v>1053</v>
       </c>
       <c r="G117" t="n">
-        <v>11172</v>
+        <v>424263</v>
       </c>
       <c r="H117" t="n">
-        <v>17867</v>
+        <v>407630</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0343</v>
+        <v>1.5868</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5424,37 +5436,37 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B118" t="n">
         <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D118" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>2788</v>
+        <v>205171</v>
       </c>
       <c r="G118" t="n">
-        <v>13167</v>
+        <v>2596356</v>
       </c>
       <c r="H118" t="n">
-        <v>21077</v>
+        <v>5051654</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0473</v>
+        <v>12.0275</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5465,37 +5477,37 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B119" t="n">
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F119" t="n">
-        <v>2272</v>
+        <v>12200</v>
       </c>
       <c r="G119" t="n">
-        <v>9177</v>
+        <v>865452</v>
       </c>
       <c r="H119" t="n">
-        <v>14657</v>
+        <v>1674182</v>
       </c>
       <c r="I119" t="n">
-        <v>0.027</v>
+        <v>2.4971</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5506,19 +5518,19 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B120" t="n">
         <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D120" t="n">
         <v>10</v>
@@ -5527,16 +5539,16 @@
         <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>2191</v>
+        <v>2519</v>
       </c>
       <c r="G120" t="n">
-        <v>5187</v>
+        <v>11172</v>
       </c>
       <c r="H120" t="n">
-        <v>8237</v>
+        <v>17867</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0143</v>
+        <v>0.0343</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5547,19 +5559,19 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B121" t="n">
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -5568,16 +5580,16 @@
         <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>171</v>
+        <v>2788</v>
       </c>
       <c r="G121" t="n">
-        <v>1197</v>
+        <v>13167</v>
       </c>
       <c r="H121" t="n">
-        <v>1817</v>
+        <v>21077</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0024</v>
+        <v>0.0473</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5588,19 +5600,19 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D122" t="n">
         <v>10</v>
@@ -5609,78 +5621,80 @@
         <v>10</v>
       </c>
       <c r="F122" t="n">
-        <v>21</v>
+        <v>2272</v>
       </c>
       <c r="G122" t="n">
-        <v>858</v>
+        <v>9177</v>
       </c>
       <c r="H122" t="n">
-        <v>1212</v>
+        <v>14657</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0022</v>
+        <v>0.027</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
-      </c>
-      <c r="F123" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2191</v>
+      </c>
       <c r="G123" t="n">
-        <v>348</v>
+        <v>5187</v>
       </c>
       <c r="H123" t="n">
-        <v>282</v>
+        <v>8237</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D124" t="n">
         <v>10</v>
@@ -5688,38 +5702,40 @@
       <c r="E124" t="n">
         <v>10</v>
       </c>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>171</v>
+      </c>
       <c r="G124" t="n">
-        <v>8008</v>
+        <v>1197</v>
       </c>
       <c r="H124" t="n">
-        <v>11912</v>
+        <v>1817</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0174</v>
+        <v>0.0024</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B125" t="n">
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
         <v>10</v>
@@ -5727,51 +5743,53 @@
       <c r="E125" t="n">
         <v>10</v>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>21</v>
+      </c>
       <c r="G125" t="n">
-        <v>572</v>
+        <v>858</v>
       </c>
       <c r="H125" t="n">
-        <v>784</v>
+        <v>1212</v>
       </c>
       <c r="I125" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B126" t="n">
         <v>2</v>
       </c>
       <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
         <v>1</v>
       </c>
-      <c r="D126" t="n">
-        <v>10</v>
-      </c>
       <c r="E126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H126" t="n">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="I126" t="n">
         <v>0.0001</v>
@@ -5780,24 +5798,24 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B127" t="n">
         <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D127" t="n">
         <v>10</v>
@@ -5807,13 +5825,13 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>1430</v>
+        <v>8008</v>
       </c>
       <c r="H127" t="n">
-        <v>2068</v>
+        <v>11912</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0029</v>
+        <v>0.0174</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5824,19 +5842,19 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B128" t="n">
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
@@ -5846,13 +5864,13 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>1144</v>
+        <v>572</v>
       </c>
       <c r="H128" t="n">
-        <v>1640</v>
+        <v>784</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0028</v>
+        <v>0.001</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5863,19 +5881,19 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
         <v>10</v>
@@ -5885,13 +5903,13 @@
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>3990</v>
+        <v>286</v>
       </c>
       <c r="H129" t="n">
-        <v>6200</v>
+        <v>356</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5902,19 +5920,19 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" t="n">
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
         <v>10</v>
@@ -5924,13 +5942,13 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="H130" t="n">
-        <v>4120</v>
+        <v>2068</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0119</v>
+        <v>0.0029</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5941,19 +5959,19 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" t="n">
         <v>4</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>10</v>
       </c>
       <c r="D131" t="n">
         <v>10</v>
@@ -5963,13 +5981,13 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>6250</v>
+        <v>1144</v>
       </c>
       <c r="H131" t="n">
-        <v>10697</v>
+        <v>1640</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0162</v>
+        <v>0.0028</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5980,19 +5998,19 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B132" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
         <v>10</v>
@@ -6002,13 +6020,13 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>14230</v>
+        <v>3990</v>
       </c>
       <c r="H132" t="n">
-        <v>23531</v>
+        <v>6200</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0366</v>
+        <v>0.0072</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6019,19 +6037,19 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B133" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -6041,13 +6059,13 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>7115</v>
+        <v>2860</v>
       </c>
       <c r="H133" t="n">
-        <v>11761</v>
+        <v>4120</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0116</v>
+        <v>0.0119</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -6058,19 +6076,19 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B134" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D134" t="n">
         <v>10</v>
@@ -6080,13 +6098,13 @@
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H134" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0098</v>
+        <v>0.0162</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -6097,57 +6115,55 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D135" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E135" t="n">
-        <v>15</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>46032</v>
+        <v>14230</v>
       </c>
       <c r="H135" t="n">
-        <v>80278</v>
+        <v>23531</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2189</v>
+        <v>0.0366</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B136" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C136" t="n">
         <v>5</v>
@@ -6160,29 +6176,33 @@
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H136" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I136" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C137" t="n">
         <v>5</v>
@@ -6195,60 +6215,74 @@
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H137" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0064</v>
+        <v>0.0098</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D138" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>10</v>
-      </c>
-      <c r="F138" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3338</v>
+      </c>
       <c r="G138" t="n">
-        <v>11370</v>
+        <v>46032</v>
       </c>
       <c r="H138" t="n">
-        <v>19253</v>
+        <v>80278</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0334</v>
+        <v>0.2189</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C139" t="n">
         <v>5</v>
@@ -6261,18 +6295,119 @@
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H139" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0071</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H141" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10</v>
+      </c>
+      <c r="E142" t="n">
+        <v>10</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H142" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -445,7 +445,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>815.1200000000002</v>
+        <v>745.1200000000003</v>
       </c>
       <c r="G2" t="n">
         <v>173852</v>
@@ -454,10 +454,10 @@
         <v>202946</v>
       </c>
       <c r="I2" t="n">
-        <v>2.171</v>
+        <v>1.6148</v>
       </c>
       <c r="J2" t="n">
-        <v>231.4038231372833</v>
+        <v>278.536080121994</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13:36:22</t>
+          <t>13:52:19</t>
         </is>
       </c>
     </row>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B2" t="n">
         <v>14</v>
@@ -439,25 +439,25 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>745.1200000000003</v>
+        <v>455.1200000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>173852</v>
+        <v>307916</v>
       </c>
       <c r="H2" t="n">
-        <v>202946</v>
+        <v>495546</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6148</v>
+        <v>3.7722</v>
       </c>
       <c r="J2" t="n">
-        <v>278.536080121994</v>
+        <v>233.760195016861</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13:52:19</t>
+          <t>17:01:27</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B11" t="n">
         <v>14</v>
@@ -830,25 +830,25 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>624.1200000000005</v>
+        <v>630.1200000000003</v>
       </c>
       <c r="G11" t="n">
-        <v>182868</v>
+        <v>268716</v>
       </c>
       <c r="H11" t="n">
-        <v>347214</v>
+        <v>423930</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2122</v>
+        <v>1.3703</v>
       </c>
       <c r="J11" t="n">
-        <v>225.9616279602051</v>
+        <v>108.6488468647003</v>
       </c>
       <c r="K11" t="n">
         <v>26</v>
@@ -860,13 +860,13 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13:30:32</t>
+          <t>14:26:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B12" t="n">
         <v>14</v>
@@ -875,25 +875,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>105.1200000000001</v>
+        <v>516.1200000000003</v>
       </c>
       <c r="G12" t="n">
-        <v>82908</v>
+        <v>204428</v>
       </c>
       <c r="H12" t="n">
-        <v>154114</v>
+        <v>283514</v>
       </c>
       <c r="I12" t="n">
-        <v>1.216</v>
+        <v>2.2356</v>
       </c>
       <c r="J12" t="n">
-        <v>43.45148491859436</v>
+        <v>82.97707390785217</v>
       </c>
       <c r="K12" t="n">
         <v>26</v>
@@ -905,40 +905,40 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13:20:39</t>
+          <t>14:24:08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>192.169958727693</v>
+        <v>360.1199988853497</v>
       </c>
       <c r="G13" t="n">
-        <v>130284</v>
+        <v>173852</v>
       </c>
       <c r="H13" t="n">
-        <v>243314</v>
+        <v>230792</v>
       </c>
       <c r="I13" t="n">
-        <v>102.9669</v>
+        <v>1.8273</v>
       </c>
       <c r="J13" t="n">
-        <v>116.1777791976929</v>
+        <v>67.39539313316345</v>
       </c>
       <c r="K13" t="n">
         <v>26</v>
@@ -950,40 +950,40 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13:07:02</t>
+          <t>14:20:41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>193.9599974842045</v>
+        <v>624.1200000000005</v>
       </c>
       <c r="G14" t="n">
-        <v>201124</v>
+        <v>182868</v>
       </c>
       <c r="H14" t="n">
-        <v>379954</v>
+        <v>347214</v>
       </c>
       <c r="I14" t="n">
-        <v>241.8352</v>
+        <v>2.2122</v>
       </c>
       <c r="J14" t="n">
-        <v>262.9411120414734</v>
+        <v>225.9616279602051</v>
       </c>
       <c r="K14" t="n">
         <v>26</v>
@@ -995,40 +995,40 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12:55:28</t>
+          <t>13:30:32</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>222.4827865570479</v>
+        <v>105.1200000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>102060</v>
+        <v>82908</v>
       </c>
       <c r="H15" t="n">
-        <v>186422</v>
+        <v>154114</v>
       </c>
       <c r="I15" t="n">
-        <v>39.1324</v>
+        <v>1.216</v>
       </c>
       <c r="J15" t="n">
-        <v>49.38049507141113</v>
+        <v>43.45148491859436</v>
       </c>
       <c r="K15" t="n">
         <v>26</v>
@@ -1040,40 +1040,40 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11:48:39</t>
+          <t>13:20:39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>141.7085714285718</v>
+        <v>192.169958727693</v>
       </c>
       <c r="G16" t="n">
-        <v>35595</v>
+        <v>130284</v>
       </c>
       <c r="H16" t="n">
-        <v>62763</v>
+        <v>243314</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9841</v>
+        <v>102.9669</v>
       </c>
       <c r="J16" t="n">
-        <v>8.940745115280151</v>
+        <v>116.1777791976929</v>
       </c>
       <c r="K16" t="n">
         <v>26</v>
@@ -1085,40 +1085,40 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>11:46:45</t>
+          <t>13:07:02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>81.34857142857149</v>
+        <v>193.9599974842045</v>
       </c>
       <c r="G17" t="n">
-        <v>23730</v>
+        <v>201124</v>
       </c>
       <c r="H17" t="n">
-        <v>41784</v>
+        <v>379954</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9609</v>
+        <v>241.8352</v>
       </c>
       <c r="J17" t="n">
-        <v>3.573290348052979</v>
+        <v>262.9411120414734</v>
       </c>
       <c r="K17" t="n">
         <v>26</v>
@@ -1130,40 +1130,40 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>11:42:53</t>
+          <t>12:55:28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n">
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>134.9200000000001</v>
+        <v>222.4827865570479</v>
       </c>
       <c r="G18" t="n">
-        <v>88830</v>
+        <v>102060</v>
       </c>
       <c r="H18" t="n">
-        <v>165069</v>
+        <v>186422</v>
       </c>
       <c r="I18" t="n">
-        <v>2.392</v>
+        <v>39.1324</v>
       </c>
       <c r="J18" t="n">
-        <v>37.7786431312561</v>
+        <v>49.38049507141113</v>
       </c>
       <c r="K18" t="n">
         <v>26</v>
@@ -1175,40 +1175,40 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11:32:42</t>
+          <t>11:48:39</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B19" t="n">
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>110.9600000000001</v>
+        <v>141.7085714285718</v>
       </c>
       <c r="G19" t="n">
-        <v>171150</v>
+        <v>35595</v>
       </c>
       <c r="H19" t="n">
-        <v>353349</v>
+        <v>62763</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3947</v>
+        <v>4.9841</v>
       </c>
       <c r="J19" t="n">
-        <v>53.02288413047791</v>
+        <v>8.940745115280151</v>
       </c>
       <c r="K19" t="n">
         <v>26</v>
@@ -1220,43 +1220,43 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>08:25:22</t>
+          <t>11:46:45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
         <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>452.4166163610693</v>
+        <v>81.34857142857149</v>
       </c>
       <c r="G20" t="n">
-        <v>307944</v>
+        <v>23730</v>
       </c>
       <c r="H20" t="n">
-        <v>578609</v>
+        <v>41784</v>
       </c>
       <c r="I20" t="n">
-        <v>276.8241</v>
+        <v>0.9609</v>
       </c>
       <c r="J20" t="n">
-        <v>515.666118144989</v>
+        <v>3.573290348052979</v>
       </c>
       <c r="K20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1265,43 +1265,43 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20:58:57</t>
+          <t>11:42:53</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B21" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>86.37333333333341</v>
+        <v>134.9200000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>296660</v>
+        <v>88830</v>
       </c>
       <c r="H21" t="n">
-        <v>572139</v>
+        <v>165069</v>
       </c>
       <c r="I21" t="n">
-        <v>1.3724</v>
+        <v>2.392</v>
       </c>
       <c r="J21" t="n">
-        <v>40.32892489433289</v>
+        <v>37.7786431312561</v>
       </c>
       <c r="K21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1310,43 +1310,43 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20:47:34</t>
+          <t>11:32:42</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B22" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8516666666674</v>
+        <v>110.9600000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>82264</v>
+        <v>171150</v>
       </c>
       <c r="H22" t="n">
-        <v>141444</v>
+        <v>353349</v>
       </c>
       <c r="I22" t="n">
-        <v>242.5427</v>
+        <v>1.3947</v>
       </c>
       <c r="J22" t="n">
-        <v>253.2486069202423</v>
+        <v>53.02288413047791</v>
       </c>
       <c r="K22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1355,40 +1355,40 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16:13:40</t>
+          <t>08:25:22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
         <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3541666666666663</v>
+        <v>452.4166163610693</v>
       </c>
       <c r="G23" t="n">
-        <v>41132</v>
+        <v>307944</v>
       </c>
       <c r="H23" t="n">
-        <v>69806</v>
+        <v>578609</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1328</v>
+        <v>276.8241</v>
       </c>
       <c r="J23" t="n">
-        <v>5.808650016784668</v>
+        <v>515.666118144989</v>
       </c>
       <c r="K23" t="n">
         <v>25</v>
@@ -1400,40 +1400,40 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15:42:52</t>
+          <t>20:58:57</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3541666666666663</v>
+        <v>86.37333333333341</v>
       </c>
       <c r="G24" t="n">
-        <v>45087</v>
+        <v>296660</v>
       </c>
       <c r="H24" t="n">
-        <v>76551</v>
+        <v>572139</v>
       </c>
       <c r="I24" t="n">
-        <v>0.153</v>
+        <v>1.3724</v>
       </c>
       <c r="J24" t="n">
-        <v>6.129974126815796</v>
+        <v>40.32892489433289</v>
       </c>
       <c r="K24" t="n">
         <v>25</v>
@@ -1445,19 +1445,19 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>14:48:06</t>
+          <t>20:47:34</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
@@ -1466,19 +1466,19 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>12.7</v>
+        <v>367.8516666666674</v>
       </c>
       <c r="G25" t="n">
-        <v>15820</v>
+        <v>82264</v>
       </c>
       <c r="H25" t="n">
-        <v>26962</v>
+        <v>141444</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0307</v>
+        <v>242.5427</v>
       </c>
       <c r="J25" t="n">
-        <v>2.667943239212036</v>
+        <v>253.2486069202423</v>
       </c>
       <c r="K25" t="n">
         <v>25</v>
@@ -1490,148 +1490,154 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12:13:53</t>
+          <t>16:13:40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G26" t="n">
-        <v>168549</v>
+        <v>41132</v>
       </c>
       <c r="H26" t="n">
-        <v>310007</v>
+        <v>69806</v>
       </c>
       <c r="I26" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0.1328</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.808650016784668</v>
+      </c>
       <c r="K26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>15:42:52</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G27" t="n">
-        <v>56031</v>
+        <v>45087</v>
       </c>
       <c r="H27" t="n">
-        <v>101589</v>
+        <v>76551</v>
       </c>
       <c r="I27" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0.153</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.129974126815796</v>
+      </c>
       <c r="K27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>14:48:06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G28" t="n">
-        <v>562362</v>
+        <v>15820</v>
       </c>
       <c r="H28" t="n">
-        <v>1039470</v>
+        <v>26962</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6686</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0.0307</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.667943239212036</v>
+      </c>
       <c r="K28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>12:13:53</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B29" t="n">
         <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D29" t="n">
         <v>20</v>
@@ -1643,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>112518</v>
+        <v>168549</v>
       </c>
       <c r="H29" t="n">
-        <v>205817</v>
+        <v>310007</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2438</v>
+        <v>0.594</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -1662,19 +1668,19 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
@@ -1686,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118440</v>
+        <v>56031</v>
       </c>
       <c r="H30" t="n">
-        <v>216717</v>
+        <v>101589</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2484</v>
+        <v>0.093</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -1705,19 +1711,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -1726,16 +1732,16 @@
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>47376</v>
+        <v>562362</v>
       </c>
       <c r="H31" t="n">
-        <v>211077</v>
+        <v>1039470</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1306</v>
+        <v>2.6686</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -1748,19 +1754,19 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
@@ -1769,16 +1775,16 @@
         <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>23688</v>
+        <v>112518</v>
       </c>
       <c r="H32" t="n">
-        <v>103067</v>
+        <v>205817</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0512</v>
+        <v>0.2438</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -1791,19 +1797,19 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
         <v>20</v>
@@ -1812,16 +1818,16 @@
         <v>20</v>
       </c>
       <c r="F33" t="n">
-        <v>65.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>20727</v>
+        <v>118440</v>
       </c>
       <c r="H33" t="n">
-        <v>97591</v>
+        <v>216717</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0536</v>
+        <v>0.2484</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
@@ -1834,19 +1840,19 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
         <v>20</v>
@@ -1855,16 +1861,16 @@
         <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>85.99999999999999</v>
+        <v>304</v>
       </c>
       <c r="G34" t="n">
-        <v>32571</v>
+        <v>47376</v>
       </c>
       <c r="H34" t="n">
-        <v>98911</v>
+        <v>211077</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1316</v>
+        <v>0.1306</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1877,41 +1883,41 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F35" t="n">
-        <v>100.0061393594561</v>
+        <v>84</v>
       </c>
       <c r="G35" t="n">
-        <v>5537</v>
+        <v>23688</v>
       </c>
       <c r="H35" t="n">
-        <v>23707</v>
+        <v>103067</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0179</v>
+        <v>0.0512</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1920,41 +1926,41 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F36" t="n">
-        <v>295101.3333333332</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G36" t="n">
-        <v>496356</v>
+        <v>20727</v>
       </c>
       <c r="H36" t="n">
-        <v>937352</v>
+        <v>97591</v>
       </c>
       <c r="I36" t="n">
-        <v>1.8175</v>
+        <v>0.0536</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1963,41 +1969,41 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>60116</v>
+        <v>32571</v>
       </c>
       <c r="H37" t="n">
-        <v>102342</v>
+        <v>98911</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2605</v>
+        <v>0.1316</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2006,19 +2012,19 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
@@ -2027,16 +2033,16 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G38" t="n">
-        <v>34804</v>
+        <v>5537</v>
       </c>
       <c r="H38" t="n">
-        <v>99742</v>
+        <v>23707</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1609</v>
+        <v>0.0179</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
@@ -2049,37 +2055,37 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n">
-        <v>178.7777777777777</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G39" t="n">
-        <v>8701</v>
+        <v>496356</v>
       </c>
       <c r="H39" t="n">
-        <v>24205</v>
+        <v>937352</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0183</v>
+        <v>1.8175</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
@@ -2092,37 +2098,37 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>177.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>11907</v>
+        <v>60116</v>
       </c>
       <c r="H40" t="n">
-        <v>54384</v>
+        <v>102342</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0538</v>
+        <v>0.2605</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
@@ -2135,148 +2141,142 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>1481.05</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>137130</v>
+        <v>34804</v>
       </c>
       <c r="H41" t="n">
-        <v>256923</v>
+        <v>99742</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="J41" t="n">
-        <v>91.78385400772095</v>
-      </c>
+        <v>0.1609</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B42" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>2998.900000000002</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G42" t="n">
-        <v>484526</v>
+        <v>8701</v>
       </c>
       <c r="H42" t="n">
-        <v>907193</v>
+        <v>24205</v>
       </c>
       <c r="I42" t="n">
-        <v>9.097899999999999</v>
-      </c>
-      <c r="J42" t="n">
-        <v>334.5952842235565</v>
-      </c>
+        <v>0.0183</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18:26:57</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>265.4000000000001</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G43" t="n">
-        <v>72450</v>
+        <v>11907</v>
       </c>
       <c r="H43" t="n">
-        <v>135305</v>
+        <v>54384</v>
       </c>
       <c r="I43" t="n">
-        <v>1.6791</v>
-      </c>
-      <c r="J43" t="n">
-        <v>51.79183006286621</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B44" t="n">
         <v>15</v>
@@ -2285,28 +2285,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>302.6600000000017</v>
+        <v>1481.05</v>
       </c>
       <c r="G44" t="n">
-        <v>64890</v>
+        <v>137130</v>
       </c>
       <c r="H44" t="n">
-        <v>120487</v>
+        <v>256923</v>
       </c>
       <c r="I44" t="n">
-        <v>1.6408</v>
+        <v>0.9375</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27230906486511</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2315,40 +2315,40 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>230.5100000000003</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G45" t="n">
-        <v>33390</v>
+        <v>484526</v>
       </c>
       <c r="H45" t="n">
-        <v>59357</v>
+        <v>907193</v>
       </c>
       <c r="I45" t="n">
-        <v>1.1474</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>18.94928789138794</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K45" t="n">
         <v>20</v>
@@ -2360,13 +2360,13 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B46" t="n">
         <v>15</v>
@@ -2375,25 +2375,25 @@
         <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F46" t="n">
-        <v>203.5600000000005</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>28350</v>
+        <v>72450</v>
       </c>
       <c r="H46" t="n">
-        <v>49723</v>
+        <v>135305</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0807</v>
+        <v>1.6791</v>
       </c>
       <c r="J46" t="n">
-        <v>16.81134915351868</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K46" t="n">
         <v>20</v>
@@ -2405,40 +2405,40 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B47" t="n">
         <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>12.7</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G47" t="n">
-        <v>11865</v>
+        <v>64890</v>
       </c>
       <c r="H47" t="n">
-        <v>20427</v>
+        <v>120487</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0203</v>
+        <v>1.6408</v>
       </c>
       <c r="J47" t="n">
-        <v>1.177000284194946</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K47" t="n">
         <v>20</v>
@@ -2450,40 +2450,40 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B48" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>35.70000000000001</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G48" t="n">
-        <v>41923</v>
+        <v>33390</v>
       </c>
       <c r="H48" t="n">
-        <v>71749</v>
+        <v>59357</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0829</v>
+        <v>1.1474</v>
       </c>
       <c r="J48" t="n">
-        <v>6.332224130630493</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K48" t="n">
         <v>20</v>
@@ -2495,16 +2495,16 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B49" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
         <v>14</v>
@@ -2516,19 +2516,19 @@
         <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>840.5064285714258</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G49" t="n">
-        <v>100170</v>
+        <v>28350</v>
       </c>
       <c r="H49" t="n">
-        <v>174727</v>
+        <v>49723</v>
       </c>
       <c r="I49" t="n">
-        <v>239.0865</v>
+        <v>1.0807</v>
       </c>
       <c r="J49" t="n">
-        <v>315.8266220092773</v>
+        <v>16.81134915351868</v>
       </c>
       <c r="K49" t="n">
         <v>20</v>
@@ -2540,40 +2540,40 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="B50" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>34.7</v>
+        <v>12.7</v>
       </c>
       <c r="G50" t="n">
-        <v>50085</v>
+        <v>11865</v>
       </c>
       <c r="H50" t="n">
-        <v>86863</v>
+        <v>20427</v>
       </c>
       <c r="I50" t="n">
-        <v>0.107</v>
+        <v>0.0203</v>
       </c>
       <c r="J50" t="n">
-        <v>7.774892807006836</v>
+        <v>1.177000284194946</v>
       </c>
       <c r="K50" t="n">
         <v>20</v>
@@ -2585,283 +2585,283 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B51" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>7.999999999999999</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>18711</v>
+        <v>41923</v>
       </c>
       <c r="H51" t="n">
-        <v>55167</v>
+        <v>71749</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0.0829</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6.332224130630493</v>
+      </c>
       <c r="K51" t="n">
         <v>20</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B52" t="n">
+        <v>53</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14</v>
+      </c>
+      <c r="D52" t="n">
         <v>11</v>
       </c>
-      <c r="C52" t="n">
-        <v>7</v>
-      </c>
-      <c r="D52" t="n">
-        <v>25</v>
-      </c>
       <c r="E52" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>32.66666666666667</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G52" t="n">
-        <v>50281</v>
+        <v>100170</v>
       </c>
       <c r="H52" t="n">
-        <v>155342</v>
+        <v>174727</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1682</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>239.0865</v>
+      </c>
+      <c r="J52" t="n">
+        <v>315.8266220092773</v>
+      </c>
       <c r="K52" t="n">
         <v>20</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>3.999999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="G53" t="n">
-        <v>32382</v>
+        <v>50085</v>
       </c>
       <c r="H53" t="n">
-        <v>153575</v>
+        <v>86863</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1282</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K53" t="n">
         <v>20</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B54" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>35.70000000000003</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>242263</v>
+        <v>18711</v>
       </c>
       <c r="H54" t="n">
-        <v>462297</v>
+        <v>55167</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5239</v>
-      </c>
-      <c r="J54" t="n">
-        <v>64.54806518554688</v>
-      </c>
+        <v>0.0654</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F55" t="n">
-        <v>812.130000000004</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G55" t="n">
-        <v>180306</v>
+        <v>50281</v>
       </c>
       <c r="H55" t="n">
-        <v>323519</v>
+        <v>155342</v>
       </c>
       <c r="I55" t="n">
-        <v>12.3114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>78.16917204856873</v>
-      </c>
+        <v>0.1682</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>40.70000000000001</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>90153</v>
+        <v>32382</v>
       </c>
       <c r="H56" t="n">
-        <v>161308</v>
+        <v>153575</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4574</v>
-      </c>
-      <c r="J56" t="n">
-        <v>33.15888476371765</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
         <v>25</v>
@@ -2870,127 +2870,133 @@
         <v>25</v>
       </c>
       <c r="F57" t="n">
-        <v>240.6554934823091</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G57" t="n">
-        <v>101164</v>
+        <v>242263</v>
       </c>
       <c r="H57" t="n">
-        <v>317602</v>
+        <v>462297</v>
       </c>
       <c r="I57" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0.5239</v>
+      </c>
+      <c r="J57" t="n">
+        <v>64.54806518554688</v>
+      </c>
       <c r="K57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G58" t="n">
-        <v>64764</v>
+        <v>180306</v>
       </c>
       <c r="H58" t="n">
-        <v>314970</v>
+        <v>323519</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2711</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>12.3114</v>
+      </c>
+      <c r="J58" t="n">
+        <v>78.16917204856873</v>
+      </c>
       <c r="K58" t="n">
         <v>18</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>13:05:55</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B59" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>2419.333333333333</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>173964</v>
+        <v>90153</v>
       </c>
       <c r="H59" t="n">
-        <v>322866</v>
+        <v>161308</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4497</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J59" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K59" t="n">
         <v>18</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>13:00:40</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
         <v>25</v>
@@ -2999,16 +3005,16 @@
         <v>25</v>
       </c>
       <c r="F60" t="n">
-        <v>602</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G60" t="n">
-        <v>86982</v>
+        <v>101164</v>
       </c>
       <c r="H60" t="n">
-        <v>171967</v>
+        <v>317602</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2673</v>
+        <v>0.487</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -3021,19 +3027,19 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>12:41:09</t>
+          <t>13:06:33</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
         <v>25</v>
@@ -3042,16 +3048,16 @@
         <v>25</v>
       </c>
       <c r="F61" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>73332</v>
+        <v>64764</v>
       </c>
       <c r="H61" t="n">
-        <v>167389</v>
+        <v>314970</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1522</v>
+        <v>0.2711</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
@@ -3064,19 +3070,19 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>12:14:42</t>
+          <t>13:05:55</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C62" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
         <v>25</v>
@@ -3085,16 +3091,16 @@
         <v>25</v>
       </c>
       <c r="F62" t="n">
-        <v>13395</v>
+        <v>2419.333333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>293328</v>
+        <v>173964</v>
       </c>
       <c r="H62" t="n">
-        <v>684598</v>
+        <v>322866</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7488</v>
+        <v>0.4497</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
@@ -3107,19 +3113,19 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>12:10:49</t>
+          <t>13:00:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
+        <v>19</v>
+      </c>
+      <c r="C63" t="n">
         <v>7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>28</v>
       </c>
       <c r="D63" t="n">
         <v>25</v>
@@ -3128,16 +3134,16 @@
         <v>25</v>
       </c>
       <c r="F63" t="n">
-        <v>45.00000000000001</v>
+        <v>602</v>
       </c>
       <c r="G63" t="n">
-        <v>129528</v>
+        <v>86982</v>
       </c>
       <c r="H63" t="n">
-        <v>640400</v>
+        <v>171967</v>
       </c>
       <c r="I63" t="n">
-        <v>1.3063</v>
+        <v>0.2673</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -3150,41 +3156,41 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12:04:36</t>
+          <t>12:41:09</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
         <v>7</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F64" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G64" t="n">
-        <v>12292</v>
+        <v>73332</v>
       </c>
       <c r="H64" t="n">
-        <v>54509</v>
+        <v>167389</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0383</v>
+        <v>0.1522</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3193,41 +3199,41 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17:36:28</t>
+          <t>12:14:42</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
         <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F65" t="n">
-        <v>1804.999934139618</v>
+        <v>13395</v>
       </c>
       <c r="G65" t="n">
-        <v>76048</v>
+        <v>293328</v>
       </c>
       <c r="H65" t="n">
-        <v>229623</v>
+        <v>684598</v>
       </c>
       <c r="I65" t="n">
-        <v>44.1138</v>
+        <v>2.7488</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3236,41 +3242,41 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17:15:46</t>
+          <t>12:10:49</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B66" t="n">
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F66" t="n">
-        <v>36</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>19012</v>
+        <v>129528</v>
       </c>
       <c r="H66" t="n">
-        <v>55785</v>
+        <v>640400</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0372</v>
+        <v>1.3063</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3279,19 +3285,19 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17:14:09</t>
+          <t>12:04:36</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B67" t="n">
         <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
         <v>15</v>
@@ -3300,20 +3306,20 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>190.0000000000001</v>
+        <v>33</v>
       </c>
       <c r="G67" t="n">
-        <v>36610</v>
+        <v>12292</v>
       </c>
       <c r="H67" t="n">
-        <v>110682</v>
+        <v>54509</v>
       </c>
       <c r="I67" t="n">
-        <v>1.3782</v>
+        <v>0.0383</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3322,16 +3328,16 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16:59:12</t>
+          <t>17:36:28</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
         <v>28</v>
@@ -3343,20 +3349,20 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>1659.5</v>
+        <v>1804.999934139618</v>
       </c>
       <c r="G68" t="n">
-        <v>73220</v>
+        <v>76048</v>
       </c>
       <c r="H68" t="n">
-        <v>224873</v>
+        <v>229623</v>
       </c>
       <c r="I68" t="n">
-        <v>11.8307</v>
+        <v>44.1138</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3365,19 +3371,19 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>15:54:14</t>
+          <t>17:15:46</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B69" t="n">
         <v>7</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
         <v>15</v>
@@ -3386,20 +3392,20 @@
         <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="G69" t="n">
-        <v>45696</v>
+        <v>19012</v>
       </c>
       <c r="H69" t="n">
-        <v>109671</v>
+        <v>55785</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5595</v>
+        <v>0.0372</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3408,170 +3414,170 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>13:31:27</t>
+          <t>17:14:09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B70" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
         <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>83.3</v>
+        <v>190.0000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>83846</v>
+        <v>36610</v>
       </c>
       <c r="H70" t="n">
-        <v>142303</v>
+        <v>110682</v>
       </c>
       <c r="I70" t="n">
-        <v>1.8509</v>
-      </c>
-      <c r="J70" t="n">
-        <v>23.30194091796875</v>
-      </c>
+        <v>1.3782</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>17:16:39</t>
+          <t>16:59:12</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>351.5332879941108</v>
+        <v>1659.5</v>
       </c>
       <c r="G71" t="n">
-        <v>209615</v>
+        <v>73220</v>
       </c>
       <c r="H71" t="n">
-        <v>357364</v>
+        <v>224873</v>
       </c>
       <c r="I71" t="n">
-        <v>136.8438</v>
+        <v>11.8307</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16:56:27</t>
+          <t>15:54:14</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B72" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G72" t="n">
-        <v>784665</v>
+        <v>45696</v>
       </c>
       <c r="H72" t="n">
-        <v>1447964</v>
+        <v>109671</v>
       </c>
       <c r="I72" t="n">
-        <v>5.8677</v>
+        <v>0.5595</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>16:44:43</t>
+          <t>13:31:27</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n">
         <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="G73" t="n">
-        <v>156933</v>
+        <v>83846</v>
       </c>
       <c r="H73" t="n">
-        <v>285656</v>
+        <v>142303</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5835</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>1.8509</v>
+      </c>
+      <c r="J73" t="n">
+        <v>23.30194091796875</v>
+      </c>
       <c r="K73" t="n">
         <v>12</v>
       </c>
@@ -3582,37 +3588,37 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>16:40:53</t>
+          <t>17:16:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B74" t="n">
         <v>53</v>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>312.2499501315505</v>
+        <v>351.5332879941108</v>
       </c>
       <c r="G74" t="n">
-        <v>470799</v>
+        <v>209615</v>
       </c>
       <c r="H74" t="n">
-        <v>870078</v>
+        <v>357364</v>
       </c>
       <c r="I74" t="n">
-        <v>10.5612</v>
+        <v>136.8438</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
@@ -3625,19 +3631,19 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>10:48:29</t>
+          <t>16:56:27</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" t="n">
         <v>53</v>
       </c>
       <c r="C75" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>20</v>
@@ -3646,16 +3652,16 @@
         <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1098531</v>
+        <v>784665</v>
       </c>
       <c r="H75" t="n">
-        <v>2032386</v>
+        <v>1447964</v>
       </c>
       <c r="I75" t="n">
-        <v>5.7722</v>
+        <v>5.8677</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
@@ -3668,19 +3674,19 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>10:26:05</t>
+          <t>16:44:43</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B76" t="n">
         <v>53</v>
       </c>
       <c r="C76" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
         <v>20</v>
@@ -3689,16 +3695,16 @@
         <v>20</v>
       </c>
       <c r="F76" t="n">
-        <v>154.4249671516788</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>313866</v>
+        <v>156933</v>
       </c>
       <c r="H76" t="n">
-        <v>579501</v>
+        <v>285656</v>
       </c>
       <c r="I76" t="n">
-        <v>1.1351</v>
+        <v>0.5835</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
@@ -3711,19 +3717,19 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>09:43:26</t>
+          <t>16:40:53</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
         <v>20</v>
@@ -3732,20 +3738,20 @@
         <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>34.79999440044767</v>
+        <v>312.2499501315505</v>
       </c>
       <c r="G77" t="n">
-        <v>148050</v>
+        <v>470799</v>
       </c>
       <c r="H77" t="n">
-        <v>283143</v>
+        <v>870078</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8347</v>
+        <v>10.5612</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3754,19 +3760,19 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19:35:10</t>
+          <t>10:48:29</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C78" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D78" t="n">
         <v>20</v>
@@ -3775,20 +3781,20 @@
         <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>1775.199999963032</v>
+        <v>11.6</v>
       </c>
       <c r="G78" t="n">
-        <v>153972</v>
+        <v>1098531</v>
       </c>
       <c r="H78" t="n">
-        <v>293934</v>
+        <v>2032386</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6929</v>
+        <v>5.7722</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3797,16 +3803,16 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19:32:25</t>
+          <t>10:26:05</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C79" t="n">
         <v>14</v>
@@ -3818,20 +3824,20 @@
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>1676.933333333334</v>
+        <v>154.4249671516788</v>
       </c>
       <c r="G79" t="n">
-        <v>177660</v>
+        <v>313866</v>
       </c>
       <c r="H79" t="n">
-        <v>337098</v>
+        <v>579501</v>
       </c>
       <c r="I79" t="n">
-        <v>0.753</v>
+        <v>1.1351</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3840,16 +3846,16 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19:31:10</t>
+          <t>09:43:26</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C80" t="n">
         <v>14</v>
@@ -3861,16 +3867,16 @@
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>26.99999602929075</v>
+        <v>34.79999440044767</v>
       </c>
       <c r="G80" t="n">
-        <v>94752</v>
+        <v>148050</v>
       </c>
       <c r="H80" t="n">
-        <v>278913</v>
+        <v>283143</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2439</v>
+        <v>0.8347</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
@@ -3883,16 +3889,16 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>19:26:29</t>
+          <t>19:35:10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C81" t="n">
         <v>14</v>
@@ -3904,16 +3910,16 @@
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>19.99999388246115</v>
+        <v>1775.199999963032</v>
       </c>
       <c r="G81" t="n">
-        <v>47376</v>
+        <v>153972</v>
       </c>
       <c r="H81" t="n">
-        <v>191065</v>
+        <v>293934</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1299</v>
+        <v>0.6929</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
@@ -3926,37 +3932,37 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>18:18:46</t>
+          <t>19:32:25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B82" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C82" t="n">
         <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F82" t="n">
-        <v>514.8000000000001</v>
+        <v>1676.933333333334</v>
       </c>
       <c r="G82" t="n">
-        <v>22148</v>
+        <v>177660</v>
       </c>
       <c r="H82" t="n">
-        <v>46375</v>
+        <v>337098</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3576</v>
+        <v>0.753</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
@@ -3969,37 +3975,37 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>17:58:17</t>
+          <t>19:31:10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B83" t="n">
+        <v>16</v>
+      </c>
+      <c r="C83" t="n">
         <v>14</v>
       </c>
-      <c r="C83" t="n">
-        <v>7</v>
-      </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F83" t="n">
-        <v>204</v>
+        <v>26.99999602929075</v>
       </c>
       <c r="G83" t="n">
-        <v>11074</v>
+        <v>94752</v>
       </c>
       <c r="H83" t="n">
-        <v>22904</v>
+        <v>278913</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0224</v>
+        <v>0.2439</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -4012,37 +4018,37 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>17:57:16</t>
+          <t>19:26:29</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F84" t="n">
-        <v>394</v>
+        <v>19.99999388246115</v>
       </c>
       <c r="G84" t="n">
-        <v>38178</v>
+        <v>47376</v>
       </c>
       <c r="H84" t="n">
-        <v>58116</v>
+        <v>191065</v>
       </c>
       <c r="I84" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.1299</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -4050,132 +4056,132 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>16:59:47</t>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
         <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>1578</v>
+        <v>514.8000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>52500</v>
+        <v>22148</v>
       </c>
       <c r="H85" t="n">
-        <v>92122</v>
+        <v>46375</v>
       </c>
       <c r="I85" t="n">
-        <v>6.5428</v>
+        <v>0.3576</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>15:40:32</t>
+          <t>17:58:17</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>1577.999992666665</v>
+        <v>204</v>
       </c>
       <c r="G86" t="n">
-        <v>57540</v>
+        <v>11074</v>
       </c>
       <c r="H86" t="n">
-        <v>100522</v>
+        <v>22904</v>
       </c>
       <c r="I86" t="n">
-        <v>2.1297</v>
+        <v>0.0224</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>13:15:26</t>
+          <t>17:57:16</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
         <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>3202</v>
+        <v>394</v>
       </c>
       <c r="G87" t="n">
-        <v>351288</v>
+        <v>38178</v>
       </c>
       <c r="H87" t="n">
-        <v>466643</v>
+        <v>58116</v>
       </c>
       <c r="I87" t="n">
-        <v>1.9582</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4184,37 +4190,37 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>16:59:47</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>51</v>
+        <v>1578</v>
       </c>
       <c r="G88" t="n">
-        <v>29274</v>
+        <v>52500</v>
       </c>
       <c r="H88" t="n">
-        <v>37158</v>
+        <v>92122</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0469</v>
+        <v>6.5428</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
@@ -4227,37 +4233,37 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>13:06:01</t>
+          <t>15:40:32</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
         <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>192</v>
+        <v>1577.999992666665</v>
       </c>
       <c r="G89" t="n">
-        <v>117096</v>
+        <v>57540</v>
       </c>
       <c r="H89" t="n">
-        <v>154821</v>
+        <v>100522</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2622</v>
+        <v>2.1297</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
@@ -4270,363 +4276,363 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>12:33:52</t>
+          <t>13:15:26</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B90" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
         <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F90" t="n">
-        <v>80.39999999999995</v>
+        <v>3202</v>
       </c>
       <c r="G90" t="n">
-        <v>128790</v>
+        <v>351288</v>
       </c>
       <c r="H90" t="n">
-        <v>230986</v>
+        <v>466643</v>
       </c>
       <c r="I90" t="n">
-        <v>1.0875</v>
-      </c>
-      <c r="J90" t="n">
-        <v>13</v>
-      </c>
+        <v>1.9582</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>20:52:46</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>40.33630633354187</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>13:08:32</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B91" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F91" t="n">
-        <v>798.3000000000002</v>
+        <v>51</v>
       </c>
       <c r="G91" t="n">
-        <v>150255</v>
+        <v>29274</v>
       </c>
       <c r="H91" t="n">
-        <v>260064</v>
+        <v>37158</v>
       </c>
       <c r="I91" t="n">
-        <v>404.4721</v>
-      </c>
-      <c r="J91" t="n">
-        <v>16</v>
-      </c>
+        <v>0.0469</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>17:55:00</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>446.8833899497986</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>13:06:01</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B92" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F92" t="n">
-        <v>441.6662039194914</v>
+        <v>192</v>
       </c>
       <c r="G92" t="n">
-        <v>123396</v>
+        <v>117096</v>
       </c>
       <c r="H92" t="n">
-        <v>210562</v>
+        <v>154821</v>
       </c>
       <c r="I92" t="n">
-        <v>1.1831</v>
-      </c>
-      <c r="J92" t="n">
-        <v>25</v>
-      </c>
+        <v>0.2622</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>15:48:52</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>17.6006920337677</v>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>12:33:52</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" t="n">
         <v>53</v>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>991.6000000000008</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="G93" t="n">
-        <v>176967</v>
+        <v>128790</v>
       </c>
       <c r="H93" t="n">
-        <v>310009</v>
+        <v>230986</v>
       </c>
       <c r="I93" t="n">
-        <v>18.2853</v>
+        <v>1.0875</v>
       </c>
       <c r="J93" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K93" t="n">
         <v>5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>15:25:32</t>
+          <t>20:52:46</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>70.88821601867676</v>
+        <v>40.33630633354187</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B94" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C94" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F94" t="n">
-        <v>197.1899981715618</v>
+        <v>798.3000000000002</v>
       </c>
       <c r="G94" t="n">
-        <v>142128</v>
+        <v>150255</v>
       </c>
       <c r="H94" t="n">
-        <v>265236</v>
+        <v>260064</v>
       </c>
       <c r="I94" t="n">
-        <v>101.113</v>
+        <v>404.4721</v>
       </c>
       <c r="J94" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K94" t="n">
         <v>5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>13:09:53</t>
+          <t>17:55:00</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>115.0638959407806</v>
+        <v>446.8833899497986</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B95" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C95" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>180.7885532385637</v>
+        <v>441.6662039194914</v>
       </c>
       <c r="G95" t="n">
-        <v>74844</v>
+        <v>123396</v>
       </c>
       <c r="H95" t="n">
-        <v>137374</v>
+        <v>210562</v>
       </c>
       <c r="I95" t="n">
-        <v>85.0227</v>
+        <v>1.1831</v>
       </c>
       <c r="J95" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K95" t="n">
         <v>5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>11:57:49</t>
+          <t>15:48:52</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>93.46404194831848</v>
+        <v>17.6006920337677</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C96" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>192.1242857142866</v>
+        <v>991.6000000000008</v>
       </c>
       <c r="G96" t="n">
-        <v>47460</v>
+        <v>176967</v>
       </c>
       <c r="H96" t="n">
-        <v>83742</v>
+        <v>310009</v>
       </c>
       <c r="I96" t="n">
-        <v>9.1431</v>
+        <v>18.2853</v>
       </c>
       <c r="J96" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K96" t="n">
         <v>5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>11:47:33</t>
+          <t>15:25:32</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>14.38211512565613</v>
+        <v>70.88821601867676</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E97" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F97" t="n">
-        <v>581.1349844453474</v>
+        <v>197.1899981715618</v>
       </c>
       <c r="G97" t="n">
-        <v>726789</v>
+        <v>142128</v>
       </c>
       <c r="H97" t="n">
-        <v>1394725</v>
+        <v>265236</v>
       </c>
       <c r="I97" t="n">
-        <v>390.7028</v>
+        <v>101.113</v>
       </c>
       <c r="J97" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K97" t="n">
         <v>5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>09:22:03</t>
+          <t>13:09:53</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>562.8080189228058</v>
+        <v>115.0638959407806</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
         <v>15</v>
@@ -4635,120 +4641,124 @@
         <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>370</v>
+        <v>180.7885532385637</v>
       </c>
       <c r="G98" t="n">
-        <v>34524</v>
+        <v>74844</v>
       </c>
       <c r="H98" t="n">
-        <v>60034</v>
+        <v>137374</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>85.0227</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>10:59:59</t>
-        </is>
+          <t>11:57:49</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>93.46404194831848</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>60</v>
+        <v>192.1242857142866</v>
       </c>
       <c r="G99" t="n">
-        <v>30429</v>
+        <v>47460</v>
       </c>
       <c r="H99" t="n">
-        <v>28721</v>
+        <v>83742</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>9.1431</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>11:07:50</t>
-        </is>
+          <t>11:47:33</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>14.38211512565613</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D100" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E100" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>581.1349844453474</v>
       </c>
       <c r="G100" t="n">
-        <v>10143</v>
+        <v>726789</v>
       </c>
       <c r="H100" t="n">
-        <v>9575</v>
+        <v>1394725</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>390.7028</v>
+      </c>
+      <c r="J100" t="n">
+        <v>19</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>30/03</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>10:31:13</t>
-        </is>
+          <t>09:22:03</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>562.8080189228058</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
         <v>14</v>
@@ -4760,39 +4770,41 @@
         <v>15</v>
       </c>
       <c r="F101" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="G101" t="n">
-        <v>81144</v>
+        <v>34524</v>
       </c>
       <c r="H101" t="n">
-        <v>77690</v>
+        <v>60034</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3027</v>
+        <v>0.1695</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>10:11:51</t>
+          <t>10:59:59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B102" t="n">
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D102" t="n">
         <v>15</v>
@@ -4801,16 +4813,16 @@
         <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G102" t="n">
-        <v>60858</v>
+        <v>30429</v>
       </c>
       <c r="H102" t="n">
-        <v>58151</v>
+        <v>28721</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2167</v>
+        <v>0.1367</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4821,20 +4833,20 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>10:08:08</t>
+          <t>11:07:50</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="n">
         <v>7</v>
       </c>
-      <c r="C103" t="n">
-        <v>14</v>
-      </c>
       <c r="D103" t="n">
         <v>15</v>
       </c>
@@ -4842,16 +4854,16 @@
         <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G103" t="n">
-        <v>46914</v>
+        <v>10143</v>
       </c>
       <c r="H103" t="n">
-        <v>45229</v>
+        <v>9575</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1723</v>
+        <v>0.0359</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4862,19 +4874,19 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10:07:24</t>
+          <t>10:31:13</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D104" t="n">
         <v>15</v>
@@ -4883,16 +4895,16 @@
         <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G104" t="n">
-        <v>70371</v>
+        <v>81144</v>
       </c>
       <c r="H104" t="n">
-        <v>68161</v>
+        <v>77690</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2664</v>
+        <v>0.3027</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4903,16 +4915,16 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>10:07:13</t>
+          <t>10:11:51</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
         <v>14</v>
@@ -4924,16 +4936,16 @@
         <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G105" t="n">
-        <v>20286</v>
+        <v>60858</v>
       </c>
       <c r="H105" t="n">
-        <v>19385</v>
+        <v>58151</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0702</v>
+        <v>0.2167</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4944,16 +4956,16 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10:06:35</t>
+          <t>10:08:08</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B106" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
         <v>14</v>
@@ -4965,39 +4977,39 @@
         <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>1194</v>
+        <v>80</v>
       </c>
       <c r="G106" t="n">
-        <v>101430</v>
+        <v>46914</v>
       </c>
       <c r="H106" t="n">
-        <v>97112</v>
+        <v>45229</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5688</v>
+        <v>0.1723</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>17:33:32</t>
+          <t>10:07:24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B107" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D107" t="n">
         <v>15</v>
@@ -5006,39 +5018,39 @@
         <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G107" t="n">
-        <v>50715</v>
+        <v>70371</v>
       </c>
       <c r="H107" t="n">
-        <v>47867</v>
+        <v>68161</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2266</v>
+        <v>0.2664</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>17:32:30</t>
+          <t>10:07:13</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B108" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -5047,57 +5059,57 @@
         <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>7950</v>
+        <v>40</v>
       </c>
       <c r="G108" t="n">
-        <v>202860</v>
+        <v>20286</v>
       </c>
       <c r="H108" t="n">
-        <v>195602</v>
+        <v>19385</v>
       </c>
       <c r="I108" t="n">
-        <v>1.3571</v>
+        <v>0.0702</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>29/03</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>17:30:40</t>
+          <t>10:06:35</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B109" t="n">
         <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>41720</v>
+        <v>1194</v>
       </c>
       <c r="G109" t="n">
-        <v>1173690</v>
+        <v>101430</v>
       </c>
       <c r="H109" t="n">
-        <v>1149317</v>
+        <v>97112</v>
       </c>
       <c r="I109" t="n">
-        <v>19.0623</v>
+        <v>0.5688</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -5108,37 +5120,37 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>17:24:49</t>
+          <t>17:33:32</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B110" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G110" t="n">
-        <v>14049</v>
+        <v>50715</v>
       </c>
       <c r="H110" t="n">
-        <v>13151</v>
+        <v>47867</v>
       </c>
       <c r="I110" t="n">
-        <v>0.06</v>
+        <v>0.2266</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -5149,37 +5161,37 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>17:18:54</t>
+          <t>17:32:30</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>7950</v>
       </c>
       <c r="G111" t="n">
-        <v>10787</v>
+        <v>202860</v>
       </c>
       <c r="H111" t="n">
-        <v>10229</v>
+        <v>195602</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0394</v>
+        <v>1.3571</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5190,37 +5202,37 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>17:11:33</t>
+          <t>17:30:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E112" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>41720</v>
       </c>
       <c r="G112" t="n">
-        <v>4683</v>
+        <v>1173690</v>
       </c>
       <c r="H112" t="n">
-        <v>4385</v>
+        <v>1149317</v>
       </c>
       <c r="I112" t="n">
-        <v>0.013</v>
+        <v>19.0623</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5231,19 +5243,19 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>17:06:49</t>
+          <t>17:24:49</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D113" t="n">
         <v>10</v>
@@ -5258,10 +5270,10 @@
         <v>14049</v>
       </c>
       <c r="H113" t="n">
-        <v>13373</v>
+        <v>13151</v>
       </c>
       <c r="I113" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -5272,19 +5284,19 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>17:06:35</t>
+          <t>17:18:54</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -5293,16 +5305,16 @@
         <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>932</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>42147</v>
+        <v>10787</v>
       </c>
       <c r="H114" t="n">
-        <v>40115</v>
+        <v>10229</v>
       </c>
       <c r="I114" t="n">
-        <v>0.253</v>
+        <v>0.0394</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5313,142 +5325,142 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>17:01:54</t>
+          <t>17:11:33</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
         <v>7</v>
       </c>
       <c r="D115" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G115" t="n">
-        <v>988547</v>
+        <v>4683</v>
       </c>
       <c r="H115" t="n">
-        <v>951134</v>
+        <v>4385</v>
       </c>
       <c r="I115" t="n">
-        <v>4.1745</v>
+        <v>0.013</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>18:07:24</t>
+          <t>17:06:49</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F116" t="n">
-        <v>54920</v>
+        <v>60</v>
       </c>
       <c r="G116" t="n">
-        <v>6919829</v>
+        <v>14049</v>
       </c>
       <c r="H116" t="n">
-        <v>6861710</v>
+        <v>13373</v>
       </c>
       <c r="I116" t="n">
-        <v>183.2784</v>
+        <v>0.058</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12:20:56</t>
+          <t>17:06:35</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D117" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E117" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F117" t="n">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="G117" t="n">
-        <v>424263</v>
+        <v>42147</v>
       </c>
       <c r="H117" t="n">
-        <v>407630</v>
+        <v>40115</v>
       </c>
       <c r="I117" t="n">
-        <v>1.5868</v>
+        <v>0.253</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>26/03</t>
+          <t>29/03</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>12:10:52</t>
+          <t>17:01:54</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
         <v>100</v>
@@ -5457,16 +5469,16 @@
         <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>205171</v>
+        <v>41</v>
       </c>
       <c r="G118" t="n">
-        <v>2596356</v>
+        <v>988547</v>
       </c>
       <c r="H118" t="n">
-        <v>5051654</v>
+        <v>951134</v>
       </c>
       <c r="I118" t="n">
-        <v>12.0275</v>
+        <v>4.1745</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5477,19 +5489,19 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>18:07:24</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D119" t="n">
         <v>100</v>
@@ -5498,16 +5510,16 @@
         <v>100</v>
       </c>
       <c r="F119" t="n">
-        <v>12200</v>
+        <v>54920</v>
       </c>
       <c r="G119" t="n">
-        <v>865452</v>
+        <v>6919829</v>
       </c>
       <c r="H119" t="n">
-        <v>1674182</v>
+        <v>6861710</v>
       </c>
       <c r="I119" t="n">
-        <v>2.4971</v>
+        <v>183.2784</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5518,37 +5530,37 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11:47:50</t>
+          <t>12:20:56</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B120" t="n">
         <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E120" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F120" t="n">
-        <v>2519</v>
+        <v>1053</v>
       </c>
       <c r="G120" t="n">
-        <v>11172</v>
+        <v>424263</v>
       </c>
       <c r="H120" t="n">
-        <v>17867</v>
+        <v>407630</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0343</v>
+        <v>1.5868</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5559,37 +5571,37 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11:46:11</t>
+          <t>12:10:52</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B121" t="n">
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D121" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F121" t="n">
-        <v>2788</v>
+        <v>205171</v>
       </c>
       <c r="G121" t="n">
-        <v>13167</v>
+        <v>2596356</v>
       </c>
       <c r="H121" t="n">
-        <v>21077</v>
+        <v>5051654</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0473</v>
+        <v>12.0275</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5600,37 +5612,37 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11:42:46</t>
+          <t>12:02:08</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B122" t="n">
         <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F122" t="n">
-        <v>2272</v>
+        <v>12200</v>
       </c>
       <c r="G122" t="n">
-        <v>9177</v>
+        <v>865452</v>
       </c>
       <c r="H122" t="n">
-        <v>14657</v>
+        <v>1674182</v>
       </c>
       <c r="I122" t="n">
-        <v>0.027</v>
+        <v>2.4971</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5641,19 +5653,19 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11:42:38</t>
+          <t>11:47:50</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B123" t="n">
         <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
@@ -5662,16 +5674,16 @@
         <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>2191</v>
+        <v>2519</v>
       </c>
       <c r="G123" t="n">
-        <v>5187</v>
+        <v>11172</v>
       </c>
       <c r="H123" t="n">
-        <v>8237</v>
+        <v>17867</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0143</v>
+        <v>0.0343</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5682,19 +5694,19 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>11:42:28</t>
+          <t>11:46:11</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B124" t="n">
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D124" t="n">
         <v>10</v>
@@ -5703,16 +5715,16 @@
         <v>10</v>
       </c>
       <c r="F124" t="n">
-        <v>171</v>
+        <v>2788</v>
       </c>
       <c r="G124" t="n">
-        <v>1197</v>
+        <v>13167</v>
       </c>
       <c r="H124" t="n">
-        <v>1817</v>
+        <v>21077</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0024</v>
+        <v>0.0473</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5723,19 +5735,19 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>11:42:15</t>
+          <t>11:42:46</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D125" t="n">
         <v>10</v>
@@ -5744,78 +5756,80 @@
         <v>10</v>
       </c>
       <c r="F125" t="n">
-        <v>21</v>
+        <v>2272</v>
       </c>
       <c r="G125" t="n">
-        <v>858</v>
+        <v>9177</v>
       </c>
       <c r="H125" t="n">
-        <v>1212</v>
+        <v>14657</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0022</v>
+        <v>0.027</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>11:42:38</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
-      </c>
-      <c r="F126" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2191</v>
+      </c>
       <c r="G126" t="n">
-        <v>348</v>
+        <v>5187</v>
       </c>
       <c r="H126" t="n">
-        <v>282</v>
+        <v>8237</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0001</v>
+        <v>0.0143</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>25/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>10:26:16</t>
+          <t>11:42:28</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D127" t="n">
         <v>10</v>
@@ -5823,38 +5837,40 @@
       <c r="E127" t="n">
         <v>10</v>
       </c>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>171</v>
+      </c>
       <c r="G127" t="n">
-        <v>8008</v>
+        <v>1197</v>
       </c>
       <c r="H127" t="n">
-        <v>11912</v>
+        <v>1817</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0174</v>
+        <v>0.0024</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>26/03</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>18:05:32</t>
+          <t>11:42:15</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B128" t="n">
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="n">
         <v>10</v>
@@ -5862,51 +5878,53 @@
       <c r="E128" t="n">
         <v>10</v>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>21</v>
+      </c>
       <c r="G128" t="n">
-        <v>572</v>
+        <v>858</v>
       </c>
       <c r="H128" t="n">
-        <v>784</v>
+        <v>1212</v>
       </c>
       <c r="I128" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>17:42:33</t>
+          <t>10:48:42</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B129" t="n">
         <v>2</v>
       </c>
       <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
         <v>1</v>
       </c>
-      <c r="D129" t="n">
-        <v>10</v>
-      </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H129" t="n">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="I129" t="n">
         <v>0.0001</v>
@@ -5915,24 +5933,24 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>24/03</t>
+          <t>25/03</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>17:34:10</t>
+          <t>10:26:16</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B130" t="n">
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D130" t="n">
         <v>10</v>
@@ -5942,13 +5960,13 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>1430</v>
+        <v>8008</v>
       </c>
       <c r="H130" t="n">
-        <v>2068</v>
+        <v>11912</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0029</v>
+        <v>0.0174</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5959,19 +5977,19 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>17:33:55</t>
+          <t>18:05:32</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B131" t="n">
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
         <v>10</v>
@@ -5981,13 +5999,13 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>1144</v>
+        <v>572</v>
       </c>
       <c r="H131" t="n">
-        <v>1640</v>
+        <v>784</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0028</v>
+        <v>0.001</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5998,19 +6016,19 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>17:33:30</t>
+          <t>17:42:33</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B132" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>10</v>
@@ -6020,13 +6038,13 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>3990</v>
+        <v>286</v>
       </c>
       <c r="H132" t="n">
-        <v>6200</v>
+        <v>356</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0072</v>
+        <v>0.0001</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6037,19 +6055,19 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>16:51:20</t>
+          <t>17:34:10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" t="n">
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
@@ -6059,13 +6077,13 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="n">
-        <v>2860</v>
+        <v>1430</v>
       </c>
       <c r="H133" t="n">
-        <v>4120</v>
+        <v>2068</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0119</v>
+        <v>0.0029</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -6076,19 +6094,19 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>16:16:14</t>
+          <t>17:33:55</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="n">
         <v>4</v>
-      </c>
-      <c r="B134" t="n">
-        <v>5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>10</v>
       </c>
       <c r="D134" t="n">
         <v>10</v>
@@ -6098,13 +6116,13 @@
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>6250</v>
+        <v>1144</v>
       </c>
       <c r="H134" t="n">
-        <v>10697</v>
+        <v>1640</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0162</v>
+        <v>0.0028</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -6115,19 +6133,19 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13:51:32</t>
+          <t>17:33:30</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B135" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
         <v>10</v>
@@ -6137,13 +6155,13 @@
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>14230</v>
+        <v>3990</v>
       </c>
       <c r="H135" t="n">
-        <v>23531</v>
+        <v>6200</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0366</v>
+        <v>0.0072</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -6154,19 +6172,19 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>13:30:17</t>
+          <t>16:51:20</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D136" t="n">
         <v>10</v>
@@ -6176,13 +6194,13 @@
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>7115</v>
+        <v>2860</v>
       </c>
       <c r="H136" t="n">
-        <v>11761</v>
+        <v>4120</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0116</v>
+        <v>0.0119</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -6193,19 +6211,19 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13:29:37</t>
+          <t>16:16:14</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D137" t="n">
         <v>10</v>
@@ -6215,13 +6233,13 @@
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>5685</v>
+        <v>6250</v>
       </c>
       <c r="H137" t="n">
-        <v>9623</v>
+        <v>10697</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0098</v>
+        <v>0.0162</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -6232,57 +6250,55 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13:25:58</t>
+          <t>13:51:32</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D138" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E138" t="n">
-        <v>15</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3338</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>46032</v>
+        <v>14230</v>
       </c>
       <c r="H138" t="n">
-        <v>80278</v>
+        <v>23531</v>
       </c>
       <c r="I138" t="n">
-        <v>0.2189</v>
+        <v>0.0366</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>01/04</t>
+          <t>24/03</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>11:34:58</t>
+          <t>13:30:17</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B139" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C139" t="n">
         <v>5</v>
@@ -6295,29 +6311,33 @@
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>5685</v>
+        <v>7115</v>
       </c>
       <c r="H139" t="n">
-        <v>9623</v>
+        <v>11761</v>
       </c>
       <c r="I139" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>13:26:30</t>
+          <t>13:29:37</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C140" t="n">
         <v>5</v>
@@ -6330,60 +6350,74 @@
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H140" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0064</v>
+        <v>0.0098</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>24/03</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>13:23:05</t>
+          <t>13:25:58</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C141" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E141" t="n">
-        <v>10</v>
-      </c>
-      <c r="F141" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3338</v>
+      </c>
       <c r="G141" t="n">
-        <v>11370</v>
+        <v>46032</v>
       </c>
       <c r="H141" t="n">
-        <v>19253</v>
+        <v>80278</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0334</v>
+        <v>0.2189</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>11:34:58</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C142" t="n">
         <v>5</v>
@@ -6396,18 +6430,119 @@
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>3125</v>
+        <v>5685</v>
       </c>
       <c r="H142" t="n">
-        <v>5347</v>
+        <v>9623</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0071</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>13:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>13:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10</v>
+      </c>
+      <c r="D144" t="n">
+        <v>10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>11370</v>
+      </c>
+      <c r="H144" t="n">
+        <v>19253</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>10</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>3125</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5347</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/logging/run_data.xlsx
+++ b/src/logging/run_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,49 +430,49 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>455.1200000000001</v>
+        <v>301.7866666666673</v>
       </c>
       <c r="G2" t="n">
-        <v>307916</v>
+        <v>236880</v>
       </c>
       <c r="H2" t="n">
-        <v>495546</v>
+        <v>437405</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7722</v>
-      </c>
-      <c r="J2" t="n">
-        <v>233.760195016861</v>
+        <v>252.4543</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>05</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>17:01:27</t>
-        </is>
+          <t>08:39:04</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>284.6197209358215</v>
       </c>
     </row>
     <row r="3">
@@ -821,7 +821,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="B11" t="n">
         <v>14</v>
@@ -830,25 +830,25 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>630.1200000000003</v>
+        <v>84.60000000000007</v>
       </c>
       <c r="G11" t="n">
-        <v>268716</v>
+        <v>82908</v>
       </c>
       <c r="H11" t="n">
-        <v>423930</v>
+        <v>154114</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3703</v>
+        <v>0.9308</v>
       </c>
       <c r="J11" t="n">
-        <v>108.6488468647003</v>
+        <v>8.832979202270508</v>
       </c>
       <c r="K11" t="n">
         <v>26</v>
@@ -860,13 +860,13 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14:26:28</t>
+          <t>18:53:41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" t="n">
         <v>14</v>
@@ -875,25 +875,25 @@
         <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>516.1200000000003</v>
+        <v>455.1200000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>204428</v>
+        <v>307916</v>
       </c>
       <c r="H12" t="n">
-        <v>283514</v>
+        <v>495546</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2356</v>
+        <v>3.7722</v>
       </c>
       <c r="J12" t="n">
-        <v>82.97707390785217</v>
+        <v>233.760195016861</v>
       </c>
       <c r="K12" t="n">
         <v>26</v>
@@ -905,13 +905,13 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14:24:08</t>
+          <t>17:01:27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" t="n">
         <v>14</v>
@@ -920,25 +920,25 @@
         <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>360.1199988853497</v>
+        <v>630.1200000000003</v>
       </c>
       <c r="G13" t="n">
-        <v>173852</v>
+        <v>268716</v>
       </c>
       <c r="H13" t="n">
-        <v>230792</v>
+        <v>423930</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8273</v>
+        <v>1.3703</v>
       </c>
       <c r="J13" t="n">
-        <v>67.39539313316345</v>
+        <v>108.6488468647003</v>
       </c>
       <c r="K13" t="n">
         <v>26</v>
@@ -950,13 +950,13 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14:20:41</t>
+          <t>14:26:28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" t="n">
         <v>14</v>
@@ -965,25 +965,25 @@
         <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>624.1200000000005</v>
+        <v>516.1200000000003</v>
       </c>
       <c r="G14" t="n">
-        <v>182868</v>
+        <v>204428</v>
       </c>
       <c r="H14" t="n">
-        <v>347214</v>
+        <v>283514</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2122</v>
+        <v>2.2356</v>
       </c>
       <c r="J14" t="n">
-        <v>225.9616279602051</v>
+        <v>82.97707390785217</v>
       </c>
       <c r="K14" t="n">
         <v>26</v>
@@ -995,13 +995,13 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13:30:32</t>
+          <t>14:24:08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
@@ -1010,25 +1010,25 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>105.1200000000001</v>
+        <v>360.1199988853497</v>
       </c>
       <c r="G15" t="n">
-        <v>82908</v>
+        <v>173852</v>
       </c>
       <c r="H15" t="n">
-        <v>154114</v>
+        <v>230792</v>
       </c>
       <c r="I15" t="n">
-        <v>1.216</v>
+        <v>1.8273</v>
       </c>
       <c r="J15" t="n">
-        <v>43.45148491859436</v>
+        <v>67.39539313316345</v>
       </c>
       <c r="K15" t="n">
         <v>26</v>
@@ -1040,40 +1040,40 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13:20:39</t>
+          <t>14:20:41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>192.169958727693</v>
+        <v>624.1200000000005</v>
       </c>
       <c r="G16" t="n">
-        <v>130284</v>
+        <v>182868</v>
       </c>
       <c r="H16" t="n">
-        <v>243314</v>
+        <v>347214</v>
       </c>
       <c r="I16" t="n">
-        <v>102.9669</v>
+        <v>2.2122</v>
       </c>
       <c r="J16" t="n">
-        <v>116.1777791976929</v>
+        <v>225.9616279602051</v>
       </c>
       <c r="K16" t="n">
         <v>26</v>
@@ -1085,13 +1085,13 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13:07:02</t>
+          <t>13:30:32</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" t="n">
         <v>11</v>
@@ -1100,25 +1100,25 @@
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>193.9599974842045</v>
+        <v>192.169958727693</v>
       </c>
       <c r="G17" t="n">
-        <v>201124</v>
+        <v>130284</v>
       </c>
       <c r="H17" t="n">
-        <v>379954</v>
+        <v>243314</v>
       </c>
       <c r="I17" t="n">
-        <v>241.8352</v>
+        <v>102.9669</v>
       </c>
       <c r="J17" t="n">
-        <v>262.9411120414734</v>
+        <v>116.1777791976929</v>
       </c>
       <c r="K17" t="n">
         <v>26</v>
@@ -1130,40 +1130,40 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12:55:28</t>
+          <t>13:07:02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>222.4827865570479</v>
+        <v>193.9599974842045</v>
       </c>
       <c r="G18" t="n">
-        <v>102060</v>
+        <v>201124</v>
       </c>
       <c r="H18" t="n">
-        <v>186422</v>
+        <v>379954</v>
       </c>
       <c r="I18" t="n">
-        <v>39.1324</v>
+        <v>241.8352</v>
       </c>
       <c r="J18" t="n">
-        <v>49.38049507141113</v>
+        <v>262.9411120414734</v>
       </c>
       <c r="K18" t="n">
         <v>26</v>
@@ -1175,40 +1175,40 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11:48:39</t>
+          <t>12:55:28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B19" t="n">
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>141.7085714285718</v>
+        <v>222.4827865570479</v>
       </c>
       <c r="G19" t="n">
-        <v>35595</v>
+        <v>102060</v>
       </c>
       <c r="H19" t="n">
-        <v>62763</v>
+        <v>186422</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9841</v>
+        <v>39.1324</v>
       </c>
       <c r="J19" t="n">
-        <v>8.940745115280151</v>
+        <v>49.38049507141113</v>
       </c>
       <c r="K19" t="n">
         <v>26</v>
@@ -1220,19 +1220,19 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11:46:45</t>
+          <t>11:48:39</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20" t="n">
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
@@ -1241,19 +1241,19 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>81.34857142857149</v>
+        <v>141.7085714285718</v>
       </c>
       <c r="G20" t="n">
-        <v>23730</v>
+        <v>35595</v>
       </c>
       <c r="H20" t="n">
-        <v>41784</v>
+        <v>62763</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9609</v>
+        <v>4.9841</v>
       </c>
       <c r="J20" t="n">
-        <v>3.573290348052979</v>
+        <v>8.940745115280151</v>
       </c>
       <c r="K20" t="n">
         <v>26</v>
@@ -1265,13 +1265,13 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11:42:53</t>
+          <t>11:46:45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="n">
         <v>15</v>
@@ -1280,25 +1280,25 @@
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>134.9200000000001</v>
+        <v>81.34857142857149</v>
       </c>
       <c r="G21" t="n">
-        <v>88830</v>
+        <v>23730</v>
       </c>
       <c r="H21" t="n">
-        <v>165069</v>
+        <v>41784</v>
       </c>
       <c r="I21" t="n">
-        <v>2.392</v>
+        <v>0.9609</v>
       </c>
       <c r="J21" t="n">
-        <v>37.7786431312561</v>
+        <v>3.573290348052979</v>
       </c>
       <c r="K21" t="n">
         <v>26</v>
@@ -1310,13 +1310,13 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11:32:42</t>
+          <t>11:42:53</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B22" t="n">
         <v>15</v>
@@ -1325,25 +1325,25 @@
         <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>110.9600000000001</v>
+        <v>134.9200000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>171150</v>
+        <v>88830</v>
       </c>
       <c r="H22" t="n">
-        <v>353349</v>
+        <v>165069</v>
       </c>
       <c r="I22" t="n">
-        <v>1.3947</v>
+        <v>2.392</v>
       </c>
       <c r="J22" t="n">
-        <v>53.02288413047791</v>
+        <v>37.7786431312561</v>
       </c>
       <c r="K22" t="n">
         <v>26</v>
@@ -1355,43 +1355,43 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>08:25:22</t>
+          <t>11:32:42</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B23" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
         <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>452.4166163610693</v>
+        <v>110.9600000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>307944</v>
+        <v>171150</v>
       </c>
       <c r="H23" t="n">
-        <v>578609</v>
+        <v>353349</v>
       </c>
       <c r="I23" t="n">
-        <v>276.8241</v>
+        <v>1.3947</v>
       </c>
       <c r="J23" t="n">
-        <v>515.666118144989</v>
+        <v>53.02288413047791</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1400,40 +1400,40 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20:58:57</t>
+          <t>08:25:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" t="n">
         <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>86.37333333333341</v>
+        <v>452.4166163610693</v>
       </c>
       <c r="G24" t="n">
-        <v>296660</v>
+        <v>307944</v>
       </c>
       <c r="H24" t="n">
-        <v>572139</v>
+        <v>578609</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3724</v>
+        <v>276.8241</v>
       </c>
       <c r="J24" t="n">
-        <v>40.32892489433289</v>
+        <v>515.666118144989</v>
       </c>
       <c r="K24" t="n">
         <v>25</v>
@@ -1445,40 +1445,40 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20:47:34</t>
+          <t>20:58:57</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" t="n">
         <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>367.8516666666674</v>
+        <v>86.37333333333341</v>
       </c>
       <c r="G25" t="n">
-        <v>82264</v>
+        <v>296660</v>
       </c>
       <c r="H25" t="n">
-        <v>141444</v>
+        <v>572139</v>
       </c>
       <c r="I25" t="n">
-        <v>242.5427</v>
+        <v>1.3724</v>
       </c>
       <c r="J25" t="n">
-        <v>253.2486069202423</v>
+        <v>40.32892489433289</v>
       </c>
       <c r="K25" t="n">
         <v>25</v>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16:13:40</t>
+          <t>20:47:34</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="n">
         <v>52</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
@@ -1511,19 +1511,19 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3541666666666663</v>
+        <v>367.8516666666674</v>
       </c>
       <c r="G26" t="n">
-        <v>41132</v>
+        <v>82264</v>
       </c>
       <c r="H26" t="n">
-        <v>69806</v>
+        <v>141444</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1328</v>
+        <v>242.5427</v>
       </c>
       <c r="J26" t="n">
-        <v>5.808650016784668</v>
+        <v>253.2486069202423</v>
       </c>
       <c r="K26" t="n">
         <v>25</v>
@@ -1535,16 +1535,16 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15:42:52</t>
+          <t>16:13:40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -1559,16 +1559,16 @@
         <v>0.3541666666666663</v>
       </c>
       <c r="G27" t="n">
-        <v>45087</v>
+        <v>41132</v>
       </c>
       <c r="H27" t="n">
-        <v>76551</v>
+        <v>69806</v>
       </c>
       <c r="I27" t="n">
-        <v>0.153</v>
+        <v>0.1328</v>
       </c>
       <c r="J27" t="n">
-        <v>6.129974126815796</v>
+        <v>5.808650016784668</v>
       </c>
       <c r="K27" t="n">
         <v>25</v>
@@ -1580,16 +1580,16 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14:48:06</t>
+          <t>15:42:52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C28" t="n">
         <v>7</v>
@@ -1601,19 +1601,19 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>12.7</v>
+        <v>0.3541666666666663</v>
       </c>
       <c r="G28" t="n">
-        <v>15820</v>
+        <v>45087</v>
       </c>
       <c r="H28" t="n">
-        <v>26962</v>
+        <v>76551</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0307</v>
+        <v>0.153</v>
       </c>
       <c r="J28" t="n">
-        <v>2.667943239212036</v>
+        <v>6.129974126815796</v>
       </c>
       <c r="K28" t="n">
         <v>25</v>
@@ -1625,62 +1625,64 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12:13:53</t>
+          <t>14:48:06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G29" t="n">
-        <v>168549</v>
+        <v>15820</v>
       </c>
       <c r="H29" t="n">
-        <v>310007</v>
+        <v>26962</v>
       </c>
       <c r="I29" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0.0307</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.667943239212036</v>
+      </c>
       <c r="K29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16:20:49</t>
+          <t>12:13:53</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" t="n">
         <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
@@ -1692,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>56031</v>
+        <v>168549</v>
       </c>
       <c r="H30" t="n">
-        <v>101589</v>
+        <v>310007</v>
       </c>
       <c r="I30" t="n">
-        <v>0.093</v>
+        <v>0.594</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -1711,19 +1713,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16:08:30</t>
+          <t>16:20:49</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="n">
         <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
@@ -1735,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>562362</v>
+        <v>56031</v>
       </c>
       <c r="H31" t="n">
-        <v>1039470</v>
+        <v>101589</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6686</v>
+        <v>0.093</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -1754,19 +1756,19 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16:03:09</t>
+          <t>16:08:30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" t="n">
         <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
@@ -1778,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>112518</v>
+        <v>562362</v>
       </c>
       <c r="H32" t="n">
-        <v>205817</v>
+        <v>1039470</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2438</v>
+        <v>2.6686</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -1797,16 +1799,16 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>12:29:36</t>
+          <t>16:03:09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
         <v>14</v>
@@ -1821,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118440</v>
+        <v>112518</v>
       </c>
       <c r="H33" t="n">
-        <v>216717</v>
+        <v>205817</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2484</v>
+        <v>0.2438</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
@@ -1840,16 +1842,16 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>11:01:43</t>
+          <t>12:29:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
         <v>14</v>
@@ -1861,16 +1863,16 @@
         <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>47376</v>
+        <v>118440</v>
       </c>
       <c r="H34" t="n">
-        <v>211077</v>
+        <v>216717</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1306</v>
+        <v>0.2484</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1883,19 +1885,19 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10:57:09</t>
+          <t>11:01:43</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="n">
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
         <v>20</v>
@@ -1904,16 +1906,16 @@
         <v>20</v>
       </c>
       <c r="F35" t="n">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="G35" t="n">
-        <v>23688</v>
+        <v>47376</v>
       </c>
       <c r="H35" t="n">
-        <v>103067</v>
+        <v>211077</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0512</v>
+        <v>0.1306</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
@@ -1926,16 +1928,16 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10:56:41</t>
+          <t>10:57:09</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
@@ -1947,16 +1949,16 @@
         <v>20</v>
       </c>
       <c r="F36" t="n">
-        <v>65.0000000000002</v>
+        <v>84</v>
       </c>
       <c r="G36" t="n">
-        <v>20727</v>
+        <v>23688</v>
       </c>
       <c r="H36" t="n">
-        <v>97591</v>
+        <v>103067</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0536</v>
+        <v>0.0512</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -1969,16 +1971,16 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10:53:58</t>
+          <t>10:56:41</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
@@ -1990,16 +1992,16 @@
         <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>85.99999999999999</v>
+        <v>65.0000000000002</v>
       </c>
       <c r="G37" t="n">
-        <v>32571</v>
+        <v>20727</v>
       </c>
       <c r="H37" t="n">
-        <v>98911</v>
+        <v>97591</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1316</v>
+        <v>0.0536</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
@@ -2012,41 +2014,41 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>10:53:58</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F38" t="n">
-        <v>100.0061393594561</v>
+        <v>85.99999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>5537</v>
+        <v>32571</v>
       </c>
       <c r="H38" t="n">
-        <v>23707</v>
+        <v>98911</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0179</v>
+        <v>0.1316</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2055,37 +2057,37 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14:22:38</t>
+          <t>09:32:06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B39" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>295101.3333333332</v>
+        <v>100.0061393594561</v>
       </c>
       <c r="G39" t="n">
-        <v>496356</v>
+        <v>5537</v>
       </c>
       <c r="H39" t="n">
-        <v>937352</v>
+        <v>23707</v>
       </c>
       <c r="I39" t="n">
-        <v>1.8175</v>
+        <v>0.0179</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
@@ -2098,13 +2100,13 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>14:12:33</t>
+          <t>14:22:38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n">
         <v>19</v>
@@ -2113,22 +2115,22 @@
         <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>295101.3333333332</v>
       </c>
       <c r="G40" t="n">
-        <v>60116</v>
+        <v>496356</v>
       </c>
       <c r="H40" t="n">
-        <v>102342</v>
+        <v>937352</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2605</v>
+        <v>1.8175</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
@@ -2141,16 +2143,16 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>14:06:43</t>
+          <t>14:12:33</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
         <v>28</v>
@@ -2165,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34804</v>
+        <v>60116</v>
       </c>
       <c r="H41" t="n">
-        <v>99742</v>
+        <v>102342</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1609</v>
+        <v>0.2605</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
@@ -2184,19 +2186,19 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14:05:47</t>
+          <t>14:06:43</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" t="n">
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
@@ -2205,16 +2207,16 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>178.7777777777777</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>8701</v>
+        <v>34804</v>
       </c>
       <c r="H42" t="n">
-        <v>24205</v>
+        <v>99742</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0183</v>
+        <v>0.1609</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
@@ -2227,37 +2229,37 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>14:05:47</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>177.1111111111111</v>
+        <v>178.7777777777777</v>
       </c>
       <c r="G43" t="n">
-        <v>11907</v>
+        <v>8701</v>
       </c>
       <c r="H43" t="n">
-        <v>54384</v>
+        <v>24205</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0538</v>
+        <v>0.0183</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -2270,61 +2272,59 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13:04:30</t>
+          <t>13:57:36</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>1481.05</v>
+        <v>177.1111111111111</v>
       </c>
       <c r="G44" t="n">
-        <v>137130</v>
+        <v>11907</v>
       </c>
       <c r="H44" t="n">
-        <v>256923</v>
+        <v>54384</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="J44" t="n">
-        <v>91.78385400772095</v>
-      </c>
+        <v>0.0538</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>13:04:30</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
         <v>14</v>
@@ -2336,22 +2336,22 @@
         <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>2998.900000000002</v>
+        <v>1481.05</v>
       </c>
       <c r="G45" t="n">
-        <v>484526</v>
+        <v>137130</v>
       </c>
       <c r="H45" t="n">
-        <v>907193</v>
+        <v>256923</v>
       </c>
       <c r="I45" t="n">
-        <v>9.097899999999999</v>
+        <v>0.9375</v>
       </c>
       <c r="J45" t="n">
-        <v>334.5952842235565</v>
+        <v>91.78385400772095</v>
       </c>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2360,40 +2360,40 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>18:26:57</t>
+          <t>10:03:48</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B46" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C46" t="n">
         <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E46" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F46" t="n">
-        <v>265.4000000000001</v>
+        <v>2998.900000000002</v>
       </c>
       <c r="G46" t="n">
-        <v>72450</v>
+        <v>484526</v>
       </c>
       <c r="H46" t="n">
-        <v>135305</v>
+        <v>907193</v>
       </c>
       <c r="I46" t="n">
-        <v>1.6791</v>
+        <v>9.097899999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>51.79183006286621</v>
+        <v>334.5952842235565</v>
       </c>
       <c r="K46" t="n">
         <v>20</v>
@@ -2405,13 +2405,13 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>13:05:36</t>
+          <t>18:26:57</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B47" t="n">
         <v>15</v>
@@ -2420,25 +2420,25 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" t="n">
-        <v>302.6600000000017</v>
+        <v>265.4000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>64890</v>
+        <v>72450</v>
       </c>
       <c r="H47" t="n">
-        <v>120487</v>
+        <v>135305</v>
       </c>
       <c r="I47" t="n">
-        <v>1.6408</v>
+        <v>1.6791</v>
       </c>
       <c r="J47" t="n">
-        <v>36.27230906486511</v>
+        <v>51.79183006286621</v>
       </c>
       <c r="K47" t="n">
         <v>20</v>
@@ -2450,13 +2450,13 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13:04:25</t>
+          <t>13:05:36</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B48" t="n">
         <v>15</v>
@@ -2465,25 +2465,25 @@
         <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>230.5100000000003</v>
+        <v>302.6600000000017</v>
       </c>
       <c r="G48" t="n">
-        <v>33390</v>
+        <v>64890</v>
       </c>
       <c r="H48" t="n">
-        <v>59357</v>
+        <v>120487</v>
       </c>
       <c r="I48" t="n">
-        <v>1.1474</v>
+        <v>1.6408</v>
       </c>
       <c r="J48" t="n">
-        <v>18.94928789138794</v>
+        <v>36.27230906486511</v>
       </c>
       <c r="K48" t="n">
         <v>20</v>
@@ -2495,13 +2495,13 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13:03:25</t>
+          <t>13:04:25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B49" t="n">
         <v>15</v>
@@ -2510,25 +2510,25 @@
         <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>203.5600000000005</v>
+        <v>230.5100000000003</v>
       </c>
       <c r="G49" t="n">
-        <v>28350</v>
+        <v>33390</v>
       </c>
       <c r="H49" t="n">
-        <v>49723</v>
+        <v>59357</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0807</v>
+        <v>1.1474</v>
       </c>
       <c r="J49" t="n">
-        <v>16.81134915351868</v>
+        <v>18.94928789138794</v>
       </c>
       <c r="K49" t="n">
         <v>20</v>
@@ -2540,40 +2540,40 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13:02:28</t>
+          <t>13:03:25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B50" t="n">
         <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
-        <v>12.7</v>
+        <v>203.5600000000005</v>
       </c>
       <c r="G50" t="n">
-        <v>11865</v>
+        <v>28350</v>
       </c>
       <c r="H50" t="n">
-        <v>20427</v>
+        <v>49723</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0203</v>
+        <v>1.0807</v>
       </c>
       <c r="J50" t="n">
-        <v>1.177000284194946</v>
+        <v>16.81134915351868</v>
       </c>
       <c r="K50" t="n">
         <v>20</v>
@@ -2585,16 +2585,16 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11:45:10</t>
+          <t>13:02:28</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B51" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>7</v>
@@ -2606,19 +2606,19 @@
         <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>35.70000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="G51" t="n">
-        <v>41923</v>
+        <v>11865</v>
       </c>
       <c r="H51" t="n">
-        <v>71749</v>
+        <v>20427</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0829</v>
+        <v>0.0203</v>
       </c>
       <c r="J51" t="n">
-        <v>6.332224130630493</v>
+        <v>1.177000284194946</v>
       </c>
       <c r="K51" t="n">
         <v>20</v>
@@ -2630,40 +2630,40 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>11:39:14</t>
+          <t>11:45:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B52" t="n">
         <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>840.5064285714258</v>
+        <v>35.70000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>100170</v>
+        <v>41923</v>
       </c>
       <c r="H52" t="n">
-        <v>174727</v>
+        <v>71749</v>
       </c>
       <c r="I52" t="n">
-        <v>239.0865</v>
+        <v>0.0829</v>
       </c>
       <c r="J52" t="n">
-        <v>315.8266220092773</v>
+        <v>6.332224130630493</v>
       </c>
       <c r="K52" t="n">
         <v>20</v>
@@ -2675,19 +2675,19 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10:15:16</t>
+          <t>11:39:14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B53" t="n">
         <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
         <v>11</v>
@@ -2696,19 +2696,19 @@
         <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>34.7</v>
+        <v>840.5064285714258</v>
       </c>
       <c r="G53" t="n">
-        <v>50085</v>
+        <v>100170</v>
       </c>
       <c r="H53" t="n">
-        <v>86863</v>
+        <v>174727</v>
       </c>
       <c r="I53" t="n">
-        <v>0.107</v>
+        <v>239.0865</v>
       </c>
       <c r="J53" t="n">
-        <v>7.774892807006836</v>
+        <v>315.8266220092773</v>
       </c>
       <c r="K53" t="n">
         <v>20</v>
@@ -2720,56 +2720,58 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09:45:36</t>
+          <t>10:15:16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>7.999999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="G54" t="n">
-        <v>18711</v>
+        <v>50085</v>
       </c>
       <c r="H54" t="n">
-        <v>55167</v>
+        <v>86863</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0654</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0.107</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7.774892807006836</v>
+      </c>
       <c r="K54" t="n">
         <v>20</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>21:10:29</t>
+          <t>09:45:36</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
         <v>11</v>
@@ -2778,22 +2780,22 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>32.66666666666667</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>50281</v>
+        <v>18711</v>
       </c>
       <c r="H55" t="n">
-        <v>155342</v>
+        <v>55167</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1682</v>
+        <v>0.0654</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -2806,16 +2808,16 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>20:49:42</t>
+          <t>21:10:29</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
         <v>7</v>
@@ -2827,16 +2829,16 @@
         <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>3.999999999999999</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="G56" t="n">
-        <v>32382</v>
+        <v>50281</v>
       </c>
       <c r="H56" t="n">
-        <v>153575</v>
+        <v>155342</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1282</v>
+        <v>0.1682</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -2849,16 +2851,16 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>18:43:32</t>
+          <t>20:49:42</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>7</v>
@@ -2870,67 +2872,65 @@
         <v>25</v>
       </c>
       <c r="F57" t="n">
-        <v>35.70000000000003</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>242263</v>
+        <v>32382</v>
       </c>
       <c r="H57" t="n">
-        <v>462297</v>
+        <v>153575</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5239</v>
-      </c>
-      <c r="J57" t="n">
-        <v>64.54806518554688</v>
-      </c>
+        <v>0.1282</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>08:19:36</t>
+          <t>18:43:32</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B58" t="n">
         <v>53</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F58" t="n">
-        <v>812.130000000004</v>
+        <v>35.70000000000003</v>
       </c>
       <c r="G58" t="n">
-        <v>180306</v>
+        <v>242263</v>
       </c>
       <c r="H58" t="n">
-        <v>323519</v>
+        <v>462297</v>
       </c>
       <c r="I58" t="n">
-        <v>12.3114</v>
+        <v>0.5239</v>
       </c>
       <c r="J58" t="n">
-        <v>78.16917204856873</v>
+        <v>64.54806518554688</v>
       </c>
       <c r="K58" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2939,19 +2939,19 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>11:02:04</t>
+          <t>08:19:36</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" t="n">
         <v>53</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
         <v>15</v>
@@ -2960,19 +2960,19 @@
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>40.70000000000001</v>
+        <v>812.130000000004</v>
       </c>
       <c r="G59" t="n">
-        <v>90153</v>
+        <v>180306</v>
       </c>
       <c r="H59" t="n">
-        <v>161308</v>
+        <v>323519</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4574</v>
+        <v>12.3114</v>
       </c>
       <c r="J59" t="n">
-        <v>33.15888476371765</v>
+        <v>78.16917204856873</v>
       </c>
       <c r="K59" t="n">
         <v>18</v>
@@ -2984,59 +2984,61 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10:49:02</t>
+          <t>11:02:04</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>240.6554934823091</v>
+        <v>40.70000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>101164</v>
+        <v>90153</v>
       </c>
       <c r="H60" t="n">
-        <v>317602</v>
+        <v>161308</v>
       </c>
       <c r="I60" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0.4574</v>
+      </c>
+      <c r="J60" t="n">
+        <v>33.15888476371765</v>
+      </c>
       <c r="K60" t="n">
         <v>18</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>13:06:33</t>
+          <t>10:49:02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
         <v>14</v>
@@ -3048,16 +3050,16 @@
         <v>25</v>
       </c>
       <c r="F61" t="n">
-        <v>16</v>
+        <v>240.6554934823091</v>
       </c>
       <c r="G61" t="n">
-        <v>64764</v>
+        <v>101164</v>
       </c>
       <c r="H61" t="n">
-        <v>314970</v>
+        <v>317602</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2711</v>
+        <v